--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -8021,13 +8021,13 @@
         <v>0</v>
       </c>
       <c r="H238" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J238" t="str">
-        <v/>
+        <v>2025-08-05T03:57:13.973Z</v>
       </c>
     </row>
     <row r="239">
@@ -8053,13 +8053,13 @@
         <v>0</v>
       </c>
       <c r="H239" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="str">
-        <v/>
+        <v>2025-08-05T03:57:17.662Z</v>
       </c>
     </row>
     <row r="240">
@@ -8085,13 +8085,13 @@
         <v>0</v>
       </c>
       <c r="H240" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="str">
-        <v/>
+        <v>2025-08-05T03:57:19.939Z</v>
       </c>
     </row>
     <row r="241">
@@ -8117,13 +8117,13 @@
         <v>0</v>
       </c>
       <c r="H241" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="str">
-        <v/>
+        <v>2025-08-05T03:57:21.333Z</v>
       </c>
     </row>
     <row r="242">
@@ -8149,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="H242" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="str">
-        <v/>
+        <v>2025-08-05T03:57:22.634Z</v>
       </c>
     </row>
     <row r="243">
@@ -8181,13 +8181,13 @@
         <v>0</v>
       </c>
       <c r="H243" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="str">
-        <v/>
+        <v>2025-08-05T03:57:23.997Z</v>
       </c>
     </row>
     <row r="244">
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="H244" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="str">
-        <v/>
+        <v>2025-08-05T03:57:25.143Z</v>
       </c>
     </row>
     <row r="245">
@@ -8245,13 +8245,13 @@
         <v>0</v>
       </c>
       <c r="H245" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="str">
-        <v/>
+        <v>2025-08-05T03:57:26.157Z</v>
       </c>
     </row>
     <row r="246">
@@ -8277,13 +8277,13 @@
         <v>0</v>
       </c>
       <c r="H246" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="str">
-        <v/>
+        <v>2025-08-05T03:57:27.221Z</v>
       </c>
     </row>
     <row r="247">
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="H247" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="str">
-        <v/>
+        <v>2025-08-05T03:57:28.660Z</v>
       </c>
     </row>
     <row r="248">
@@ -8341,13 +8341,13 @@
         <v>0</v>
       </c>
       <c r="H248" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="str">
-        <v/>
+        <v>2025-08-05T03:57:29.880Z</v>
       </c>
     </row>
     <row r="249">
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="H249" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="str">
-        <v/>
+        <v>2025-08-05T03:57:30.863Z</v>
       </c>
     </row>
     <row r="250">
@@ -8408,10 +8408,10 @@
         <v>unknown</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="str">
-        <v/>
+        <v>2025-08-05T03:57:32.955Z</v>
       </c>
     </row>
     <row r="251">
@@ -8437,13 +8437,13 @@
         <v>0</v>
       </c>
       <c r="H251" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="str">
-        <v/>
+        <v>2025-08-05T03:57:37.395Z</v>
       </c>
     </row>
     <row r="252">
@@ -8469,13 +8469,13 @@
         <v>0</v>
       </c>
       <c r="H252" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="str">
-        <v/>
+        <v>2025-08-05T03:57:39.096Z</v>
       </c>
     </row>
     <row r="253">
@@ -8501,13 +8501,13 @@
         <v>0</v>
       </c>
       <c r="H253" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="str">
-        <v/>
+        <v>2025-08-05T03:57:40.755Z</v>
       </c>
     </row>
     <row r="254">
@@ -8533,13 +8533,13 @@
         <v>0</v>
       </c>
       <c r="H254" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="str">
-        <v/>
+        <v>2025-08-05T03:57:42.910Z</v>
       </c>
     </row>
     <row r="255">
@@ -8565,13 +8565,13 @@
         <v>0</v>
       </c>
       <c r="H255" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="str">
-        <v/>
+        <v>2025-08-05T03:57:44.212Z</v>
       </c>
     </row>
     <row r="256">
@@ -8597,13 +8597,13 @@
         <v>0</v>
       </c>
       <c r="H256" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="str">
-        <v/>
+        <v>2025-08-05T03:57:45.725Z</v>
       </c>
     </row>
     <row r="257">
@@ -8629,13 +8629,13 @@
         <v>0</v>
       </c>
       <c r="H257" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="str">
-        <v/>
+        <v>2025-08-05T03:57:47.590Z</v>
       </c>
     </row>
     <row r="258">
@@ -8661,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="H258" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="str">
-        <v/>
+        <v>2025-08-05T03:57:48.894Z</v>
       </c>
     </row>
     <row r="259">
@@ -8693,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="H259" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="str">
-        <v/>
+        <v>2025-08-05T03:57:50.664Z</v>
       </c>
     </row>
     <row r="260">
@@ -8725,13 +8725,13 @@
         <v>0</v>
       </c>
       <c r="H260" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="str">
-        <v/>
+        <v>2025-08-05T03:57:53.746Z</v>
       </c>
     </row>
     <row r="261">
@@ -8757,13 +8757,13 @@
         <v>0</v>
       </c>
       <c r="H261" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="str">
-        <v/>
+        <v>2025-08-05T03:57:55.187Z</v>
       </c>
     </row>
     <row r="262">
@@ -8789,13 +8789,13 @@
         <v>0</v>
       </c>
       <c r="H262" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262" t="str">
-        <v/>
+        <v>2025-08-05T03:57:56.849Z</v>
       </c>
     </row>
     <row r="263">
@@ -8821,13 +8821,13 @@
         <v>0</v>
       </c>
       <c r="H263" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="str">
-        <v/>
+        <v>2025-08-05T03:57:59.725Z</v>
       </c>
     </row>
     <row r="264">
@@ -8853,13 +8853,13 @@
         <v>0</v>
       </c>
       <c r="H264" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="str">
-        <v/>
+        <v>2025-08-05T03:58:03.096Z</v>
       </c>
     </row>
     <row r="265">
@@ -8885,13 +8885,13 @@
         <v>0</v>
       </c>
       <c r="H265" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="str">
-        <v/>
+        <v>2025-08-05T03:58:04.566Z</v>
       </c>
     </row>
     <row r="266">
@@ -8917,13 +8917,13 @@
         <v>0</v>
       </c>
       <c r="H266" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="str">
-        <v/>
+        <v>2025-08-05T03:58:05.784Z</v>
       </c>
     </row>
     <row r="267">
@@ -8949,13 +8949,13 @@
         <v>0</v>
       </c>
       <c r="H267" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="str">
-        <v/>
+        <v>2025-08-05T03:58:07.980Z</v>
       </c>
     </row>
     <row r="268">
@@ -8981,13 +8981,13 @@
         <v>0</v>
       </c>
       <c r="H268" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268" t="str">
-        <v/>
+        <v>2025-08-05T03:58:14.434Z</v>
       </c>
     </row>
     <row r="269">
@@ -9016,10 +9016,10 @@
         <v>unknown</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="str">
-        <v/>
+        <v>2025-08-05T03:58:17.660Z</v>
       </c>
     </row>
     <row r="270">
@@ -9045,13 +9045,13 @@
         <v>0</v>
       </c>
       <c r="H270" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270" t="str">
-        <v/>
+        <v>2025-08-05T03:58:25.163Z</v>
       </c>
     </row>
     <row r="271">
@@ -9080,10 +9080,10 @@
         <v>unknown</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271" t="str">
-        <v/>
+        <v>2025-08-05T03:58:31.733Z</v>
       </c>
     </row>
     <row r="272">
@@ -9109,13 +9109,13 @@
         <v>0</v>
       </c>
       <c r="H272" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="str">
-        <v/>
+        <v>2025-08-05T03:58:35.397Z</v>
       </c>
     </row>
     <row r="273">
@@ -9141,13 +9141,13 @@
         <v>0</v>
       </c>
       <c r="H273" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="str">
-        <v/>
+        <v>2025-08-05T03:58:37.560Z</v>
       </c>
     </row>
     <row r="274">
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="H274" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="str">
-        <v/>
+        <v>2025-08-05T03:58:40.598Z</v>
       </c>
     </row>
     <row r="275">
@@ -9208,10 +9208,10 @@
         <v>unknown</v>
       </c>
       <c r="I275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" t="str">
-        <v/>
+        <v>2025-08-05T03:59:08.633Z</v>
       </c>
     </row>
     <row r="276">
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="H276" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="str">
-        <v/>
+        <v>2025-08-05T03:59:11.957Z</v>
       </c>
     </row>
     <row r="277">
@@ -9269,13 +9269,13 @@
         <v>0</v>
       </c>
       <c r="H277" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="str">
-        <v/>
+        <v>2025-08-05T03:59:13.672Z</v>
       </c>
     </row>
     <row r="278">
@@ -9301,13 +9301,13 @@
         <v>0</v>
       </c>
       <c r="H278" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="str">
-        <v/>
+        <v>2025-08-05T03:59:17.777Z</v>
       </c>
     </row>
     <row r="279">
@@ -9333,13 +9333,13 @@
         <v>0</v>
       </c>
       <c r="H279" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="str">
-        <v/>
+        <v>2025-08-05T03:59:20.715Z</v>
       </c>
     </row>
     <row r="280">
@@ -9365,13 +9365,13 @@
         <v>0</v>
       </c>
       <c r="H280" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="str">
-        <v/>
+        <v>2025-08-05T03:59:22.204Z</v>
       </c>
     </row>
     <row r="281">
@@ -9397,13 +9397,13 @@
         <v>0</v>
       </c>
       <c r="H281" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="str">
-        <v/>
+        <v>2025-08-05T03:59:24.575Z</v>
       </c>
     </row>
     <row r="282">
@@ -9429,13 +9429,13 @@
         <v>0</v>
       </c>
       <c r="H282" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="str">
-        <v/>
+        <v>2025-08-05T03:59:26.240Z</v>
       </c>
     </row>
     <row r="283">
@@ -9461,13 +9461,13 @@
         <v>0</v>
       </c>
       <c r="H283" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="str">
-        <v/>
+        <v>2025-08-05T03:59:27.840Z</v>
       </c>
     </row>
     <row r="284">
@@ -9493,13 +9493,13 @@
         <v>0</v>
       </c>
       <c r="H284" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="str">
-        <v/>
+        <v>2025-08-05T03:59:36.352Z</v>
       </c>
     </row>
     <row r="285">
@@ -9525,13 +9525,13 @@
         <v>0</v>
       </c>
       <c r="H285" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="str">
-        <v/>
+        <v>2025-08-05T03:59:39.126Z</v>
       </c>
     </row>
     <row r="286">
@@ -9557,13 +9557,13 @@
         <v>0</v>
       </c>
       <c r="H286" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="str">
-        <v/>
+        <v>2025-08-05T03:59:40.487Z</v>
       </c>
     </row>
     <row r="287">
@@ -9589,13 +9589,13 @@
         <v>0</v>
       </c>
       <c r="H287" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="str">
-        <v/>
+        <v>2025-08-05T03:59:41.436Z</v>
       </c>
     </row>
     <row r="288">
@@ -9621,13 +9621,13 @@
         <v>0</v>
       </c>
       <c r="H288" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="str">
-        <v/>
+        <v>2025-08-05T03:59:42.874Z</v>
       </c>
     </row>
     <row r="289">
@@ -9653,13 +9653,13 @@
         <v>1</v>
       </c>
       <c r="H289" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="str">
-        <v/>
+        <v>2025-08-05T03:59:50.076Z</v>
       </c>
     </row>
     <row r="290">
@@ -9685,13 +9685,13 @@
         <v>0</v>
       </c>
       <c r="H290" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="str">
-        <v/>
+        <v>2025-08-05T03:59:54.252Z</v>
       </c>
     </row>
     <row r="291">
@@ -9720,10 +9720,10 @@
         <v>unknown</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" t="str">
-        <v/>
+        <v>2025-08-05T03:59:56.256Z</v>
       </c>
     </row>
     <row r="292">
@@ -9749,13 +9749,13 @@
         <v>1</v>
       </c>
       <c r="H292" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" t="str">
-        <v/>
+        <v>2025-08-05T04:00:01.707Z</v>
       </c>
     </row>
     <row r="293">
@@ -9781,13 +9781,13 @@
         <v>1</v>
       </c>
       <c r="H293" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="str">
-        <v/>
+        <v>2025-08-05T04:00:04.556Z</v>
       </c>
     </row>
     <row r="294">
@@ -9813,13 +9813,13 @@
         <v>1</v>
       </c>
       <c r="H294" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="str">
-        <v/>
+        <v>2025-08-05T04:00:10.616Z</v>
       </c>
     </row>
     <row r="295">
@@ -9845,13 +9845,13 @@
         <v>1</v>
       </c>
       <c r="H295" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="str">
-        <v/>
+        <v>2025-08-05T04:00:15.811Z</v>
       </c>
     </row>
     <row r="296">
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="H296" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="str">
-        <v/>
+        <v>2025-08-05T04:00:18.033Z</v>
       </c>
     </row>
     <row r="297">
@@ -9909,13 +9909,13 @@
         <v>0</v>
       </c>
       <c r="H297" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="str">
-        <v/>
+        <v>2025-08-05T04:00:20.165Z</v>
       </c>
     </row>
     <row r="298">
@@ -9941,13 +9941,13 @@
         <v>0</v>
       </c>
       <c r="H298" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="str">
-        <v/>
+        <v>2025-08-05T04:00:21.461Z</v>
       </c>
     </row>
     <row r="299">
@@ -9976,10 +9976,10 @@
         <v>unknown</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="str">
-        <v/>
+        <v>2025-08-05T04:00:23.370Z</v>
       </c>
     </row>
     <row r="300">
@@ -10008,10 +10008,10 @@
         <v>unknown</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="str">
-        <v/>
+        <v>2025-08-05T04:00:26.324Z</v>
       </c>
     </row>
     <row r="301">
@@ -10040,10 +10040,10 @@
         <v>unknown</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" t="str">
-        <v/>
+        <v>2025-08-05T04:00:28.594Z</v>
       </c>
     </row>
     <row r="302">
@@ -10069,13 +10069,13 @@
         <v>1</v>
       </c>
       <c r="H302" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="str">
-        <v/>
+        <v>2025-08-05T04:00:31.695Z</v>
       </c>
     </row>
     <row r="303">
@@ -10101,13 +10101,13 @@
         <v>0</v>
       </c>
       <c r="H303" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="str">
-        <v/>
+        <v>2025-08-05T04:00:34.012Z</v>
       </c>
     </row>
     <row r="304">
@@ -10133,13 +10133,13 @@
         <v>0</v>
       </c>
       <c r="H304" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="str">
-        <v/>
+        <v>2025-08-05T04:00:36.578Z</v>
       </c>
     </row>
     <row r="305">
@@ -10168,10 +10168,10 @@
         <v>unknown</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="str">
-        <v/>
+        <v>2025-08-05T04:00:38.534Z</v>
       </c>
     </row>
     <row r="306">
@@ -10200,10 +10200,10 @@
         <v>unknown</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="str">
-        <v/>
+        <v>2025-08-05T04:00:41.377Z</v>
       </c>
     </row>
     <row r="307">
@@ -10232,10 +10232,10 @@
         <v>unknown</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="str">
-        <v/>
+        <v>2025-08-05T04:00:43.967Z</v>
       </c>
     </row>
     <row r="308">
@@ -10261,13 +10261,13 @@
         <v>1</v>
       </c>
       <c r="H308" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="str">
-        <v/>
+        <v>2025-08-05T04:00:47.987Z</v>
       </c>
     </row>
     <row r="309">
@@ -10296,10 +10296,10 @@
         <v>unknown</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="str">
-        <v/>
+        <v>2025-08-05T04:00:51.545Z</v>
       </c>
     </row>
     <row r="310">
@@ -10328,10 +10328,10 @@
         <v>unknown</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="str">
-        <v/>
+        <v>2025-08-05T04:00:53.532Z</v>
       </c>
     </row>
     <row r="311">
@@ -10360,10 +10360,10 @@
         <v>unknown</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="str">
-        <v/>
+        <v>2025-08-05T04:00:56.437Z</v>
       </c>
     </row>
     <row r="312">
@@ -10392,10 +10392,10 @@
         <v>unknown</v>
       </c>
       <c r="I312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312" t="str">
-        <v/>
+        <v>2025-08-05T04:00:58.760Z</v>
       </c>
     </row>
     <row r="313">
@@ -10424,10 +10424,10 @@
         <v>unknown</v>
       </c>
       <c r="I313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J313" t="str">
-        <v/>
+        <v>2025-08-05T04:01:00.863Z</v>
       </c>
     </row>
     <row r="314">
@@ -10456,10 +10456,10 @@
         <v>unknown</v>
       </c>
       <c r="I314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" t="str">
-        <v/>
+        <v>2025-08-05T04:01:03.097Z</v>
       </c>
     </row>
     <row r="315">
@@ -10485,13 +10485,13 @@
         <v>1</v>
       </c>
       <c r="H315" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" t="str">
-        <v/>
+        <v>2025-08-05T04:01:06.037Z</v>
       </c>
     </row>
     <row r="316">
@@ -10520,10 +10520,10 @@
         <v>unknown</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" t="str">
-        <v/>
+        <v>2025-08-05T04:01:09.839Z</v>
       </c>
     </row>
     <row r="317">
@@ -10552,10 +10552,10 @@
         <v>unknown</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J317" t="str">
-        <v/>
+        <v>2025-08-05T04:01:12.603Z</v>
       </c>
     </row>
     <row r="318">
@@ -10581,13 +10581,13 @@
         <v>0</v>
       </c>
       <c r="H318" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" t="str">
-        <v/>
+        <v>2025-08-05T04:01:27.595Z</v>
       </c>
     </row>
     <row r="319">
@@ -10613,13 +10613,13 @@
         <v>0</v>
       </c>
       <c r="H319" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" t="str">
-        <v/>
+        <v>2025-08-05T04:01:30.701Z</v>
       </c>
     </row>
     <row r="320">
@@ -10645,13 +10645,13 @@
         <v>0</v>
       </c>
       <c r="H320" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="str">
-        <v/>
+        <v>2025-08-05T04:01:32.648Z</v>
       </c>
     </row>
     <row r="321">
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="H321" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" t="str">
-        <v/>
+        <v>2025-08-05T04:01:34.437Z</v>
       </c>
     </row>
     <row r="322">
@@ -10709,13 +10709,13 @@
         <v>0</v>
       </c>
       <c r="H322" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="str">
-        <v/>
+        <v>2025-08-05T04:01:35.890Z</v>
       </c>
     </row>
     <row r="323">
@@ -10741,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="H323" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="str">
-        <v/>
+        <v>2025-08-05T04:01:37.187Z</v>
       </c>
     </row>
     <row r="324">
@@ -10773,13 +10773,13 @@
         <v>0</v>
       </c>
       <c r="H324" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="str">
-        <v/>
+        <v>2025-08-05T04:01:38.571Z</v>
       </c>
     </row>
     <row r="325">
@@ -10805,13 +10805,13 @@
         <v>0</v>
       </c>
       <c r="H325" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="str">
-        <v/>
+        <v>2025-08-05T04:01:39.742Z</v>
       </c>
     </row>
     <row r="326">
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="H326" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J326" t="str">
-        <v/>
+        <v>2025-08-05T04:01:40.797Z</v>
       </c>
     </row>
     <row r="327">
@@ -10869,13 +10869,13 @@
         <v>0</v>
       </c>
       <c r="H327" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="str">
-        <v/>
+        <v>2025-08-05T04:01:42.244Z</v>
       </c>
     </row>
     <row r="328">
@@ -10904,10 +10904,10 @@
         <v>unknown</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="str">
-        <v/>
+        <v>2025-08-05T04:01:44.329Z</v>
       </c>
     </row>
     <row r="329">
@@ -10933,13 +10933,13 @@
         <v>0</v>
       </c>
       <c r="H329" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="str">
-        <v/>
+        <v>2025-08-05T04:01:46.693Z</v>
       </c>
     </row>
     <row r="330">
@@ -10965,13 +10965,13 @@
         <v>1</v>
       </c>
       <c r="H330" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" t="str">
-        <v/>
+        <v>2025-08-05T04:01:48.500Z</v>
       </c>
     </row>
     <row r="331">
@@ -10997,13 +10997,13 @@
         <v>0</v>
       </c>
       <c r="H331" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="str">
-        <v/>
+        <v>2025-08-05T04:01:50.905Z</v>
       </c>
     </row>
     <row r="332">
@@ -11032,10 +11032,10 @@
         <v>unknown</v>
       </c>
       <c r="I332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="str">
-        <v/>
+        <v>2025-08-05T04:01:53.396Z</v>
       </c>
     </row>
     <row r="333">
@@ -11061,13 +11061,13 @@
         <v>0</v>
       </c>
       <c r="H333" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="str">
-        <v/>
+        <v>2025-08-05T04:01:55.753Z</v>
       </c>
     </row>
     <row r="334">
@@ -11093,13 +11093,13 @@
         <v>0</v>
       </c>
       <c r="H334" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="str">
-        <v/>
+        <v>2025-08-05T04:01:57.139Z</v>
       </c>
     </row>
     <row r="335">
@@ -11128,10 +11128,10 @@
         <v>unknown</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="str">
-        <v/>
+        <v>2025-08-05T04:01:58.811Z</v>
       </c>
     </row>
     <row r="336">
@@ -11160,10 +11160,10 @@
         <v>unknown</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="str">
-        <v/>
+        <v>2025-08-05T04:02:00.905Z</v>
       </c>
     </row>
     <row r="337">
@@ -11192,10 +11192,10 @@
         <v>unknown</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" t="str">
-        <v/>
+        <v>2025-08-05T04:02:02.794Z</v>
       </c>
     </row>
     <row r="338">
@@ -11221,13 +11221,13 @@
         <v>0</v>
       </c>
       <c r="H338" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" t="str">
-        <v/>
+        <v>2025-08-05T04:02:05.051Z</v>
       </c>
     </row>
     <row r="339">
@@ -11256,10 +11256,10 @@
         <v>unknown</v>
       </c>
       <c r="I339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J339" t="str">
-        <v/>
+        <v>2025-08-05T04:02:07.164Z</v>
       </c>
     </row>
     <row r="340">
@@ -11288,10 +11288,10 @@
         <v>unknown</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" t="str">
-        <v/>
+        <v>2025-08-05T04:02:09.465Z</v>
       </c>
     </row>
     <row r="341">
@@ -11320,10 +11320,10 @@
         <v>unknown</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341" t="str">
-        <v/>
+        <v>2025-08-05T04:02:13.961Z</v>
       </c>
     </row>
     <row r="342">
@@ -11349,13 +11349,13 @@
         <v>0</v>
       </c>
       <c r="H342" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J342" t="str">
-        <v/>
+        <v>2025-08-05T04:02:16.482Z</v>
       </c>
     </row>
     <row r="343">
@@ -11381,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="H343" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="str">
-        <v/>
+        <v>2025-08-05T04:02:17.814Z</v>
       </c>
     </row>
     <row r="344">
@@ -11416,10 +11416,10 @@
         <v>unknown</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="str">
-        <v/>
+        <v>2025-08-05T04:02:19.273Z</v>
       </c>
     </row>
     <row r="345">
@@ -11448,10 +11448,10 @@
         <v>unknown</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="str">
-        <v/>
+        <v>2025-08-05T04:02:21.446Z</v>
       </c>
     </row>
     <row r="346">
@@ -11480,10 +11480,10 @@
         <v>unknown</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="str">
-        <v/>
+        <v>2025-08-05T04:02:23.695Z</v>
       </c>
     </row>
     <row r="347">
@@ -11512,10 +11512,10 @@
         <v>unknown</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J347" t="str">
-        <v/>
+        <v>2025-08-05T04:02:29.919Z</v>
       </c>
     </row>
     <row r="348">
@@ -11544,10 +11544,10 @@
         <v>unknown</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" t="str">
-        <v/>
+        <v>2025-08-05T04:02:32.625Z</v>
       </c>
     </row>
     <row r="349">
@@ -11573,13 +11573,13 @@
         <v>1</v>
       </c>
       <c r="H349" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I349">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" t="str">
-        <v/>
+        <v>2025-08-05T04:02:34.583Z</v>
       </c>
     </row>
     <row r="350">
@@ -11605,13 +11605,13 @@
         <v>1</v>
       </c>
       <c r="H350" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" t="str">
-        <v/>
+        <v>2025-08-05T04:02:42.161Z</v>
       </c>
     </row>
     <row r="351">
@@ -11637,13 +11637,13 @@
         <v>1</v>
       </c>
       <c r="H351" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J351" t="str">
-        <v/>
+        <v>2025-08-05T04:02:45.253Z</v>
       </c>
     </row>
     <row r="352">
@@ -11672,10 +11672,10 @@
         <v>unknown</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J352" t="str">
-        <v/>
+        <v>2025-08-05T04:02:50.385Z</v>
       </c>
     </row>
     <row r="353">
@@ -11701,13 +11701,13 @@
         <v>1</v>
       </c>
       <c r="H353" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="str">
-        <v/>
+        <v>2025-08-05T04:02:52.100Z</v>
       </c>
     </row>
     <row r="354">
@@ -11733,13 +11733,13 @@
         <v>0</v>
       </c>
       <c r="H354" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" t="str">
-        <v/>
+        <v>2025-08-05T04:02:55.447Z</v>
       </c>
     </row>
     <row r="355">
@@ -11768,10 +11768,10 @@
         <v>unknown</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="str">
-        <v/>
+        <v>2025-08-05T04:02:59.247Z</v>
       </c>
     </row>
     <row r="356">
@@ -11800,10 +11800,10 @@
         <v>unknown</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="str">
-        <v/>
+        <v>2025-08-05T04:03:01.426Z</v>
       </c>
     </row>
     <row r="357">
@@ -11829,13 +11829,13 @@
         <v>1</v>
       </c>
       <c r="H357" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" t="str">
-        <v/>
+        <v>2025-08-05T04:03:06.129Z</v>
       </c>
     </row>
     <row r="358">
@@ -11861,13 +11861,13 @@
         <v>0</v>
       </c>
       <c r="H358" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J358" t="str">
-        <v/>
+        <v>2025-08-05T04:05:05.012Z</v>
       </c>
     </row>
     <row r="359">
@@ -11893,13 +11893,13 @@
         <v>0</v>
       </c>
       <c r="H359" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J359" t="str">
-        <v/>
+        <v>2025-08-05T04:05:07.324Z</v>
       </c>
     </row>
     <row r="360">
@@ -11925,13 +11925,13 @@
         <v>0</v>
       </c>
       <c r="H360" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J360" t="str">
-        <v/>
+        <v>2025-08-05T04:05:08.704Z</v>
       </c>
     </row>
     <row r="361">
@@ -11957,13 +11957,13 @@
         <v>0</v>
       </c>
       <c r="H361" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J361" t="str">
-        <v/>
+        <v>2025-08-05T04:05:10.343Z</v>
       </c>
     </row>
     <row r="362">
@@ -11989,13 +11989,13 @@
         <v>0</v>
       </c>
       <c r="H362" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362" t="str">
-        <v/>
+        <v>2025-08-05T04:05:11.813Z</v>
       </c>
     </row>
     <row r="363">
@@ -12021,13 +12021,13 @@
         <v>0</v>
       </c>
       <c r="H363" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363" t="str">
-        <v/>
+        <v>2025-08-05T04:05:15.094Z</v>
       </c>
     </row>
     <row r="364">
@@ -12053,13 +12053,13 @@
         <v>0</v>
       </c>
       <c r="H364" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="str">
-        <v/>
+        <v>2025-08-05T04:05:16.319Z</v>
       </c>
     </row>
     <row r="365">
@@ -12085,13 +12085,13 @@
         <v>0</v>
       </c>
       <c r="H365" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J365" t="str">
-        <v/>
+        <v>2025-08-05T04:05:17.388Z</v>
       </c>
     </row>
     <row r="366">
@@ -12117,13 +12117,13 @@
         <v>0</v>
       </c>
       <c r="H366" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" t="str">
-        <v/>
+        <v>2025-08-05T04:05:18.839Z</v>
       </c>
     </row>
     <row r="367">
@@ -12149,13 +12149,13 @@
         <v>0</v>
       </c>
       <c r="H367" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="str">
-        <v/>
+        <v>2025-08-05T04:05:20.200Z</v>
       </c>
     </row>
     <row r="368">
@@ -12181,13 +12181,13 @@
         <v>0</v>
       </c>
       <c r="H368" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368" t="str">
-        <v/>
+        <v>2025-08-05T04:05:21.532Z</v>
       </c>
     </row>
     <row r="369">
@@ -12213,13 +12213,13 @@
         <v>0</v>
       </c>
       <c r="H369" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J369" t="str">
-        <v/>
+        <v>2025-08-05T04:05:22.555Z</v>
       </c>
     </row>
     <row r="370">
@@ -12248,10 +12248,10 @@
         <v>unknown</v>
       </c>
       <c r="I370">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="str">
-        <v/>
+        <v>2025-08-05T04:05:24.596Z</v>
       </c>
     </row>
     <row r="371">
@@ -12277,13 +12277,13 @@
         <v>0</v>
       </c>
       <c r="H371" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J371" t="str">
-        <v/>
+        <v>2025-08-05T04:05:27.199Z</v>
       </c>
     </row>
     <row r="372">
@@ -12309,13 +12309,13 @@
         <v>0</v>
       </c>
       <c r="H372" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" t="str">
-        <v/>
+        <v>2025-08-05T04:05:31.133Z</v>
       </c>
     </row>
     <row r="373">
@@ -12341,13 +12341,13 @@
         <v>0</v>
       </c>
       <c r="H373" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J373" t="str">
-        <v/>
+        <v>2025-08-05T04:05:33.067Z</v>
       </c>
     </row>
     <row r="374">
@@ -12373,13 +12373,13 @@
         <v>0</v>
       </c>
       <c r="H374" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J374" t="str">
-        <v/>
+        <v>2025-08-05T04:05:34.183Z</v>
       </c>
     </row>
     <row r="375">
@@ -12405,13 +12405,13 @@
         <v>0</v>
       </c>
       <c r="H375" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375" t="str">
-        <v/>
+        <v>2025-08-05T04:05:36.628Z</v>
       </c>
     </row>
     <row r="376">
@@ -12437,13 +12437,13 @@
         <v>0</v>
       </c>
       <c r="H376" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="str">
-        <v/>
+        <v>2025-08-05T04:05:37.881Z</v>
       </c>
     </row>
     <row r="377">
@@ -12469,13 +12469,13 @@
         <v>0</v>
       </c>
       <c r="H377" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="str">
-        <v/>
+        <v>2025-08-05T04:05:39.308Z</v>
       </c>
     </row>
     <row r="378">
@@ -12501,13 +12501,13 @@
         <v>0</v>
       </c>
       <c r="H378" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J378" t="str">
-        <v/>
+        <v>2025-08-05T04:05:40.413Z</v>
       </c>
     </row>
     <row r="379">
@@ -12533,13 +12533,13 @@
         <v>1</v>
       </c>
       <c r="H379" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J379" t="str">
-        <v/>
+        <v>2025-08-05T04:05:42.357Z</v>
       </c>
     </row>
     <row r="380">
@@ -12565,13 +12565,13 @@
         <v>0</v>
       </c>
       <c r="H380" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380" t="str">
-        <v/>
+        <v>2025-08-05T04:05:43.677Z</v>
       </c>
     </row>
     <row r="381">
@@ -12600,10 +12600,10 @@
         <v>unknown</v>
       </c>
       <c r="I381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="str">
-        <v/>
+        <v>2025-08-05T04:05:46.058Z</v>
       </c>
     </row>
     <row r="382">
@@ -12629,13 +12629,13 @@
         <v>1</v>
       </c>
       <c r="H382" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J382" t="str">
-        <v/>
+        <v>2025-08-05T04:06:03.069Z</v>
       </c>
     </row>
     <row r="383">
@@ -12661,13 +12661,13 @@
         <v>1</v>
       </c>
       <c r="H383" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383" t="str">
-        <v/>
+        <v>2025-08-05T04:06:06.436Z</v>
       </c>
     </row>
     <row r="384">
@@ -12693,13 +12693,13 @@
         <v>1</v>
       </c>
       <c r="H384" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I384">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J384" t="str">
-        <v/>
+        <v>2025-08-05T04:06:07.643Z</v>
       </c>
     </row>
     <row r="385">
@@ -12725,13 +12725,13 @@
         <v>0</v>
       </c>
       <c r="H385" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385" t="str">
-        <v/>
+        <v>2025-08-05T04:06:08.846Z</v>
       </c>
     </row>
     <row r="386">
@@ -12757,13 +12757,13 @@
         <v>1</v>
       </c>
       <c r="H386" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386" t="str">
-        <v/>
+        <v>2025-08-05T04:06:09.906Z</v>
       </c>
     </row>
     <row r="387">
@@ -12792,10 +12792,10 @@
         <v>unknown</v>
       </c>
       <c r="I387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="str">
-        <v/>
+        <v>2025-08-05T04:06:14.493Z</v>
       </c>
     </row>
     <row r="388">
@@ -12824,10 +12824,10 @@
         <v>unknown</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" t="str">
-        <v/>
+        <v>2025-08-05T04:06:17.453Z</v>
       </c>
     </row>
     <row r="389">
@@ -12856,10 +12856,10 @@
         <v>unknown</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" t="str">
-        <v/>
+        <v>2025-08-05T04:06:20.451Z</v>
       </c>
     </row>
     <row r="390">
@@ -12888,10 +12888,10 @@
         <v>unknown</v>
       </c>
       <c r="I390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" t="str">
-        <v/>
+        <v>2025-08-05T04:06:24.100Z</v>
       </c>
     </row>
     <row r="391">
@@ -12917,13 +12917,13 @@
         <v>0</v>
       </c>
       <c r="H391" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" t="str">
-        <v/>
+        <v>2025-08-05T04:06:27.833Z</v>
       </c>
     </row>
     <row r="392">
@@ -12949,13 +12949,13 @@
         <v>1</v>
       </c>
       <c r="H392" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J392" t="str">
-        <v/>
+        <v>2025-08-05T04:06:30.229Z</v>
       </c>
     </row>
     <row r="393">
@@ -12981,13 +12981,13 @@
         <v>1</v>
       </c>
       <c r="H393" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" t="str">
-        <v/>
+        <v>2025-08-05T04:06:32.766Z</v>
       </c>
     </row>
     <row r="394">
@@ -13016,10 +13016,10 @@
         <v>unknown</v>
       </c>
       <c r="I394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" t="str">
-        <v/>
+        <v>2025-08-05T04:06:35.388Z</v>
       </c>
     </row>
     <row r="395">
@@ -13048,10 +13048,10 @@
         <v>unknown</v>
       </c>
       <c r="I395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" t="str">
-        <v/>
+        <v>2025-08-05T04:06:37.541Z</v>
       </c>
     </row>
     <row r="396">
@@ -13077,13 +13077,13 @@
         <v>0</v>
       </c>
       <c r="H396" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J396" t="str">
-        <v/>
+        <v>2025-08-05T04:06:40.958Z</v>
       </c>
     </row>
     <row r="397">
@@ -13112,10 +13112,10 @@
         <v>unknown</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="str">
-        <v/>
+        <v>2025-08-05T04:06:42.914Z</v>
       </c>
     </row>
     <row r="398">
@@ -13141,13 +13141,13 @@
         <v>0</v>
       </c>
       <c r="H398" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="str">
-        <v/>
+        <v>2025-08-05T04:08:57.931Z</v>
       </c>
     </row>
     <row r="399">
@@ -13173,13 +13173,13 @@
         <v>0</v>
       </c>
       <c r="H399" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J399" t="str">
-        <v/>
+        <v>2025-08-05T04:09:00.567Z</v>
       </c>
     </row>
     <row r="400">
@@ -13208,10 +13208,10 @@
         <v>unknown</v>
       </c>
       <c r="I400">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J400" t="str">
-        <v/>
+        <v>2025-08-05T04:09:01.978Z</v>
       </c>
     </row>
     <row r="401">
@@ -13237,13 +13237,13 @@
         <v>0</v>
       </c>
       <c r="H401" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J401" t="str">
-        <v/>
+        <v>2025-08-05T04:09:06.417Z</v>
       </c>
     </row>
     <row r="402">
@@ -13272,10 +13272,10 @@
         <v>unknown</v>
       </c>
       <c r="I402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J402" t="str">
-        <v/>
+        <v>2025-08-05T04:09:07.929Z</v>
       </c>
     </row>
     <row r="403">
@@ -13301,13 +13301,13 @@
         <v>0</v>
       </c>
       <c r="H403" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J403" t="str">
-        <v/>
+        <v>2025-08-05T04:09:19.231Z</v>
       </c>
     </row>
     <row r="404">
@@ -13333,13 +13333,13 @@
         <v>0</v>
       </c>
       <c r="H404" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J404" t="str">
-        <v/>
+        <v>2025-08-05T04:09:21.632Z</v>
       </c>
     </row>
     <row r="405">
@@ -13365,13 +13365,13 @@
         <v>0</v>
       </c>
       <c r="H405" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J405" t="str">
-        <v/>
+        <v>2025-08-05T04:09:24.325Z</v>
       </c>
     </row>
     <row r="406">
@@ -13397,13 +13397,13 @@
         <v>0</v>
       </c>
       <c r="H406" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406" t="str">
-        <v/>
+        <v>2025-08-05T04:09:26.088Z</v>
       </c>
     </row>
     <row r="407">
@@ -13429,13 +13429,13 @@
         <v>0</v>
       </c>
       <c r="H407" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" t="str">
-        <v/>
+        <v>2025-08-05T04:09:27.422Z</v>
       </c>
     </row>
     <row r="408">
@@ -13461,13 +13461,13 @@
         <v>0</v>
       </c>
       <c r="H408" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J408" t="str">
-        <v/>
+        <v>2025-08-05T04:09:28.742Z</v>
       </c>
     </row>
     <row r="409">
@@ -13493,13 +13493,13 @@
         <v>0</v>
       </c>
       <c r="H409" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J409" t="str">
-        <v/>
+        <v>2025-08-05T04:09:30.511Z</v>
       </c>
     </row>
     <row r="410">
@@ -13525,13 +13525,13 @@
         <v>0</v>
       </c>
       <c r="H410" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J410" t="str">
-        <v/>
+        <v>2025-08-05T04:09:31.467Z</v>
       </c>
     </row>
     <row r="411">
@@ -13557,13 +13557,13 @@
         <v>0</v>
       </c>
       <c r="H411" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J411" t="str">
-        <v/>
+        <v>2025-08-05T04:09:33.316Z</v>
       </c>
     </row>
     <row r="412">
@@ -13589,13 +13589,13 @@
         <v>0</v>
       </c>
       <c r="H412" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412" t="str">
-        <v/>
+        <v>2025-08-05T04:09:35.636Z</v>
       </c>
     </row>
     <row r="413">
@@ -13621,13 +13621,13 @@
         <v>0</v>
       </c>
       <c r="H413" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="str">
-        <v/>
+        <v>2025-08-05T04:09:37.439Z</v>
       </c>
     </row>
     <row r="414">
@@ -13653,13 +13653,13 @@
         <v>1</v>
       </c>
       <c r="H414" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414" t="str">
-        <v/>
+        <v>2025-08-05T04:09:39.703Z</v>
       </c>
     </row>
     <row r="415">
@@ -13685,13 +13685,13 @@
         <v>1</v>
       </c>
       <c r="H415" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J415" t="str">
-        <v/>
+        <v>2025-08-05T04:09:41.538Z</v>
       </c>
     </row>
     <row r="416">
@@ -13720,10 +13720,10 @@
         <v>unknown</v>
       </c>
       <c r="I416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J416" t="str">
-        <v/>
+        <v>2025-08-05T04:09:43.535Z</v>
       </c>
     </row>
     <row r="417">
@@ -13752,10 +13752,10 @@
         <v>unknown</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J417" t="str">
-        <v/>
+        <v>2025-08-05T04:09:48.115Z</v>
       </c>
     </row>
     <row r="418">
@@ -13784,10 +13784,10 @@
         <v>unknown</v>
       </c>
       <c r="I418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J418" t="str">
-        <v/>
+        <v>2025-08-05T04:09:52.373Z</v>
       </c>
     </row>
     <row r="419">
@@ -13813,13 +13813,13 @@
         <v>1</v>
       </c>
       <c r="H419" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J419" t="str">
-        <v/>
+        <v>2025-08-05T04:09:59.612Z</v>
       </c>
     </row>
     <row r="420">
@@ -13845,13 +13845,13 @@
         <v>1</v>
       </c>
       <c r="H420" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" t="str">
-        <v/>
+        <v>2025-08-05T04:10:06.080Z</v>
       </c>
     </row>
     <row r="421">
@@ -13880,10 +13880,10 @@
         <v>unknown</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J421" t="str">
-        <v/>
+        <v>2025-08-05T04:10:08.497Z</v>
       </c>
     </row>
     <row r="422">
@@ -13909,13 +13909,13 @@
         <v>1</v>
       </c>
       <c r="H422" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J422" t="str">
-        <v/>
+        <v>2025-08-05T04:10:11.265Z</v>
       </c>
     </row>
     <row r="423">
@@ -13941,13 +13941,13 @@
         <v>1</v>
       </c>
       <c r="H423" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J423" t="str">
-        <v/>
+        <v>2025-08-05T04:10:13.895Z</v>
       </c>
     </row>
     <row r="424">
@@ -13976,10 +13976,10 @@
         <v>unknown</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J424" t="str">
-        <v/>
+        <v>2025-08-05T04:10:17.045Z</v>
       </c>
     </row>
     <row r="425">
@@ -14005,13 +14005,13 @@
         <v>1</v>
       </c>
       <c r="H425" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425" t="str">
-        <v/>
+        <v>2025-08-05T04:10:20.671Z</v>
       </c>
     </row>
     <row r="426">
@@ -14037,13 +14037,13 @@
         <v>1</v>
       </c>
       <c r="H426" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426" t="str">
-        <v/>
+        <v>2025-08-05T04:10:27.964Z</v>
       </c>
     </row>
     <row r="427">
@@ -14069,13 +14069,13 @@
         <v>1</v>
       </c>
       <c r="H427" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I427">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J427" t="str">
-        <v/>
+        <v>2025-08-05T04:10:32.408Z</v>
       </c>
     </row>
     <row r="428">
@@ -14104,10 +14104,10 @@
         <v>unknown</v>
       </c>
       <c r="I428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J428" t="str">
-        <v/>
+        <v>2025-08-05T04:10:33.978Z</v>
       </c>
     </row>
     <row r="429">
@@ -14133,13 +14133,13 @@
         <v>1</v>
       </c>
       <c r="H429" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I429">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J429" t="str">
-        <v/>
+        <v>2025-08-05T04:10:40.228Z</v>
       </c>
     </row>
     <row r="430">
@@ -14168,10 +14168,10 @@
         <v>unknown</v>
       </c>
       <c r="I430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J430" t="str">
-        <v/>
+        <v>2025-08-05T04:10:42.826Z</v>
       </c>
     </row>
     <row r="431">
@@ -14200,10 +14200,10 @@
         <v>unknown</v>
       </c>
       <c r="I431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J431" t="str">
-        <v/>
+        <v>2025-08-05T04:10:45.056Z</v>
       </c>
     </row>
     <row r="432">
@@ -14232,10 +14232,10 @@
         <v>unknown</v>
       </c>
       <c r="I432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J432" t="str">
-        <v/>
+        <v>2025-08-05T04:10:47.796Z</v>
       </c>
     </row>
     <row r="433">
@@ -14264,10 +14264,10 @@
         <v>unknown</v>
       </c>
       <c r="I433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J433" t="str">
-        <v/>
+        <v>2025-08-05T04:10:50.870Z</v>
       </c>
     </row>
     <row r="434">
@@ -14296,10 +14296,10 @@
         <v>unknown</v>
       </c>
       <c r="I434">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J434" t="str">
-        <v/>
+        <v>2025-08-05T04:10:54.099Z</v>
       </c>
     </row>
     <row r="435">
@@ -14328,10 +14328,10 @@
         <v>unknown</v>
       </c>
       <c r="I435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J435" t="str">
-        <v/>
+        <v>2025-08-05T04:10:56.624Z</v>
       </c>
     </row>
     <row r="436">
@@ -14357,13 +14357,13 @@
         <v>1</v>
       </c>
       <c r="H436" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J436" t="str">
-        <v/>
+        <v>2025-08-05T04:10:59.492Z</v>
       </c>
     </row>
     <row r="437">
@@ -14389,13 +14389,13 @@
         <v>1</v>
       </c>
       <c r="H437" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J437" t="str">
-        <v/>
+        <v>2025-08-05T04:11:04.775Z</v>
       </c>
     </row>
   </sheetData>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -4184,10 +4184,10 @@
         <v>known</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="str">
-        <v>2025-08-04T09:51:17.397Z</v>
+        <v>2025-08-06T03:35:16.266Z</v>
       </c>
     </row>
     <row r="119">
@@ -5048,10 +5048,10 @@
         <v>unknown</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="str">
-        <v>2025-08-04T09:53:21.442Z</v>
+        <v>2025-08-06T03:05:30.710Z</v>
       </c>
     </row>
     <row r="146">
@@ -5144,10 +5144,10 @@
         <v>unknown</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="str">
-        <v>2025-08-04T09:53:36.250Z</v>
+        <v>2025-08-06T03:34:20.053Z</v>
       </c>
     </row>
     <row r="149">
@@ -5176,10 +5176,10 @@
         <v>unknown</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="str">
-        <v>2025-08-04T09:53:45.422Z</v>
+        <v>2025-08-06T03:34:39.221Z</v>
       </c>
     </row>
     <row r="150">
@@ -5208,10 +5208,10 @@
         <v>unknown</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="str">
-        <v>2025-08-04T09:53:59.557Z</v>
+        <v>2025-08-06T03:34:44.046Z</v>
       </c>
     </row>
     <row r="151">
@@ -5240,10 +5240,10 @@
         <v>unknown</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J151" t="str">
-        <v>2025-08-04T09:54:04.994Z</v>
+        <v>2025-08-06T03:34:46.663Z</v>
       </c>
     </row>
     <row r="152">
@@ -5272,10 +5272,10 @@
         <v>known</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="str">
-        <v>2025-08-04T09:54:13.416Z</v>
+        <v>2025-08-06T03:34:50.247Z</v>
       </c>
     </row>
     <row r="153">
@@ -5304,10 +5304,10 @@
         <v>known</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="str">
-        <v>2025-08-04T09:54:18.636Z</v>
+        <v>2025-08-06T03:34:52.593Z</v>
       </c>
     </row>
     <row r="154">
@@ -5336,10 +5336,10 @@
         <v>known</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="str">
-        <v>2025-08-04T09:54:22.585Z</v>
+        <v>2025-08-06T03:35:02.405Z</v>
       </c>
     </row>
     <row r="155">
@@ -5365,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="H155" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J155" t="str">
-        <v>2025-08-04T11:01:52.897Z</v>
+        <v>2025-08-06T03:35:05.097Z</v>
       </c>
     </row>
     <row r="156">
@@ -5400,10 +5400,10 @@
         <v>known</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="str">
-        <v>2025-08-04T09:54:34.480Z</v>
+        <v>2025-08-06T03:35:12.511Z</v>
       </c>
     </row>
     <row r="157">
@@ -5429,13 +5429,13 @@
         <v>1</v>
       </c>
       <c r="H157" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J157" t="str">
-        <v>2025-08-04T10:59:25.602Z</v>
+        <v>2025-08-06T03:35:14.091Z</v>
       </c>
     </row>
     <row r="158">
@@ -5880,10 +5880,10 @@
         <v>unknown</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="str">
-        <v>2025-08-04T09:55:39.115Z</v>
+        <v>2025-08-06T03:36:58.254Z</v>
       </c>
     </row>
     <row r="172">
@@ -6133,13 +6133,13 @@
         <v>0</v>
       </c>
       <c r="H179" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="str">
-        <v>2025-08-04T09:56:05.641Z</v>
+        <v>2025-08-06T03:37:10.047Z</v>
       </c>
     </row>
     <row r="180">
@@ -6200,10 +6200,10 @@
         <v>unknown</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="str">
-        <v>2025-08-04T09:56:17.683Z</v>
+        <v>2025-08-06T03:37:15.925Z</v>
       </c>
     </row>
     <row r="182">
@@ -6232,10 +6232,10 @@
         <v>unknown</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J182" t="str">
-        <v>2025-08-04T09:56:22.532Z</v>
+        <v>2025-08-06T03:37:18.753Z</v>
       </c>
     </row>
     <row r="183">
@@ -6264,10 +6264,10 @@
         <v>unknown</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J183" t="str">
-        <v>2025-08-04T09:56:26.431Z</v>
+        <v>2025-08-06T03:37:22.195Z</v>
       </c>
     </row>
     <row r="184">
@@ -6296,10 +6296,10 @@
         <v>unknown</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="str">
-        <v>2025-08-04T09:56:30.153Z</v>
+        <v>2025-08-06T03:37:25.285Z</v>
       </c>
     </row>
     <row r="185">
@@ -6328,10 +6328,10 @@
         <v>known</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J185" t="str">
-        <v>2025-08-04T09:56:35.914Z</v>
+        <v>2025-08-06T03:37:30.067Z</v>
       </c>
     </row>
     <row r="186">
@@ -6360,10 +6360,10 @@
         <v>unknown</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="str">
-        <v>2025-08-04T09:56:43.422Z</v>
+        <v>2025-08-06T03:37:34.577Z</v>
       </c>
     </row>
     <row r="187">
@@ -6421,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="H188" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="str">
-        <v>2025-08-04T09:56:50.197Z</v>
+        <v>2025-08-06T03:37:42.985Z</v>
       </c>
     </row>
     <row r="189">
@@ -6456,10 +6456,10 @@
         <v>known</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="str">
-        <v>2025-08-04T09:56:53.973Z</v>
+        <v>2025-08-06T03:37:46.877Z</v>
       </c>
     </row>
     <row r="190">
@@ -6488,10 +6488,10 @@
         <v>unknown</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" t="str">
-        <v>2025-08-04T09:56:57.829Z</v>
+        <v>2025-08-06T03:37:50.391Z</v>
       </c>
     </row>
     <row r="191">
@@ -6520,10 +6520,10 @@
         <v>unknown</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191" t="str">
-        <v>2025-08-04T09:57:01.213Z</v>
+        <v>2025-08-06T03:37:53.569Z</v>
       </c>
     </row>
     <row r="192">
@@ -6552,10 +6552,10 @@
         <v>unknown</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="str">
-        <v>2025-08-04T09:57:06.396Z</v>
+        <v>2025-08-06T03:37:56.347Z</v>
       </c>
     </row>
     <row r="193">
@@ -6584,10 +6584,10 @@
         <v>unknown</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="str">
-        <v>2025-08-04T09:57:09.879Z</v>
+        <v>2025-08-06T03:37:58.848Z</v>
       </c>
     </row>
     <row r="194">
@@ -6616,10 +6616,10 @@
         <v>unknown</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="str">
-        <v>2025-08-04T09:57:14.100Z</v>
+        <v>2025-08-06T03:38:01.339Z</v>
       </c>
     </row>
     <row r="195">
@@ -6648,10 +6648,10 @@
         <v>unknown</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195" t="str">
-        <v>2025-08-04T09:57:18.503Z</v>
+        <v>2025-08-06T03:38:03.834Z</v>
       </c>
     </row>
     <row r="196">
@@ -6677,13 +6677,13 @@
         <v>0</v>
       </c>
       <c r="H196" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J196" t="str">
-        <v>2025-08-04T09:57:22.213Z</v>
+        <v>2025-08-06T03:38:07.382Z</v>
       </c>
     </row>
     <row r="197">
@@ -6712,10 +6712,10 @@
         <v>unknown</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="str">
-        <v>2025-08-04T09:57:26.608Z</v>
+        <v>2025-08-06T03:38:11.363Z</v>
       </c>
     </row>
     <row r="198">
@@ -6933,13 +6933,13 @@
         <v>1</v>
       </c>
       <c r="H204" t="str">
-        <v>known</v>
+        <v>unknown</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="str">
-        <v>2025-08-04T09:57:45.018Z</v>
+        <v>2025-08-06T03:39:26.595Z</v>
       </c>
     </row>
     <row r="205">
@@ -7285,13 +7285,13 @@
         <v>1</v>
       </c>
       <c r="H215" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="str">
-        <v>2025-08-04T09:58:13.852Z</v>
+        <v>2025-08-06T03:39:40.605Z</v>
       </c>
     </row>
     <row r="216">
@@ -7352,10 +7352,10 @@
         <v>vague</v>
       </c>
       <c r="I217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J217" t="str">
-        <v>2025-08-04T10:59:53.662Z</v>
+        <v>2025-08-06T03:39:47.774Z</v>
       </c>
     </row>
     <row r="218">
@@ -7445,13 +7445,13 @@
         <v>1</v>
       </c>
       <c r="H220" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J220" t="str">
-        <v>2025-08-04T09:58:37.943Z</v>
+        <v>2025-08-06T03:39:56.454Z</v>
       </c>
     </row>
     <row r="221">
@@ -7480,10 +7480,10 @@
         <v>unknown</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" t="str">
-        <v>2025-08-04T09:58:43.654Z</v>
+        <v>2025-08-06T03:40:00.614Z</v>
       </c>
     </row>
     <row r="222">
@@ -7512,10 +7512,10 @@
         <v>known</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="str">
-        <v>2025-08-04T09:58:47.288Z</v>
+        <v>2025-08-06T03:40:04.534Z</v>
       </c>
     </row>
     <row r="223">
@@ -7541,13 +7541,13 @@
         <v>1</v>
       </c>
       <c r="H223" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J223" t="str">
-        <v>2025-08-04T11:00:00.678Z</v>
+        <v>2025-08-06T03:40:11.033Z</v>
       </c>
     </row>
     <row r="224">
@@ -7576,10 +7576,10 @@
         <v>known</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="str">
-        <v>2025-08-04T09:58:55.428Z</v>
+        <v>2025-08-06T03:40:14.192Z</v>
       </c>
     </row>
     <row r="225">
@@ -7605,13 +7605,13 @@
         <v>1</v>
       </c>
       <c r="H225" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J225" t="str">
-        <v>2025-08-04T11:00:07.683Z</v>
+        <v>2025-08-06T03:40:17.696Z</v>
       </c>
     </row>
     <row r="226">
@@ -7640,10 +7640,10 @@
         <v>known</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226" t="str">
-        <v>2025-08-04T09:59:18.596Z</v>
+        <v>2025-08-06T03:40:19.860Z</v>
       </c>
     </row>
     <row r="227">
@@ -7672,10 +7672,10 @@
         <v>unknown</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="str">
-        <v>2025-08-04T09:59:21.301Z</v>
+        <v>2025-08-06T03:40:23.798Z</v>
       </c>
     </row>
     <row r="228">
@@ -7704,10 +7704,10 @@
         <v>unknown</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" t="str">
-        <v>2025-08-04T09:59:28.051Z</v>
+        <v>2025-08-06T03:40:26.663Z</v>
       </c>
     </row>
     <row r="229">
@@ -7736,10 +7736,10 @@
         <v>known</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J229" t="str">
-        <v>2025-08-04T09:59:32.360Z</v>
+        <v>2025-08-06T03:40:30.403Z</v>
       </c>
     </row>
     <row r="230">
@@ -7765,13 +7765,13 @@
         <v>1</v>
       </c>
       <c r="H230" t="str">
-        <v>known</v>
+        <v>unknown</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="str">
-        <v>2025-08-04T09:59:36.569Z</v>
+        <v>2025-08-06T03:40:33.246Z</v>
       </c>
     </row>
     <row r="231">
@@ -7800,10 +7800,10 @@
         <v>known</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J231" t="str">
-        <v>2025-08-04T09:59:39.882Z</v>
+        <v>2025-08-06T03:40:37.051Z</v>
       </c>
     </row>
     <row r="232">
@@ -7829,13 +7829,13 @@
         <v>1</v>
       </c>
       <c r="H232" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J232" t="str">
-        <v>2025-08-04T11:00:14.691Z</v>
+        <v>2025-08-06T03:40:38.904Z</v>
       </c>
     </row>
     <row r="233">
@@ -7861,13 +7861,13 @@
         <v>1</v>
       </c>
       <c r="H233" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J233" t="str">
-        <v>2025-08-04T11:00:21.694Z</v>
+        <v>2025-08-06T03:40:40.794Z</v>
       </c>
     </row>
     <row r="234">
@@ -7893,13 +7893,13 @@
         <v>1</v>
       </c>
       <c r="H234" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J234" t="str">
-        <v>2025-08-04T11:00:28.711Z</v>
+        <v>2025-08-06T03:40:42.286Z</v>
       </c>
     </row>
     <row r="235">
@@ -7928,10 +7928,10 @@
         <v>vague</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J235" t="str">
-        <v>2025-08-04T11:00:35.725Z</v>
+        <v>2025-08-06T03:40:46.810Z</v>
       </c>
     </row>
     <row r="236">
@@ -7960,10 +7960,10 @@
         <v>known</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="str">
-        <v>2025-08-04T10:00:06.403Z</v>
+        <v>2025-08-06T03:40:49.532Z</v>
       </c>
     </row>
     <row r="237">
@@ -7992,10 +7992,10 @@
         <v>unknown</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="str">
-        <v>2025-08-04T10:00:10.174Z</v>
+        <v>2025-08-06T03:40:53.426Z</v>
       </c>
     </row>
     <row r="238">
@@ -8405,13 +8405,13 @@
         <v>0</v>
       </c>
       <c r="H250" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J250" t="str">
-        <v>2025-08-05T03:57:32.955Z</v>
+        <v>2025-08-06T03:41:15.602Z</v>
       </c>
     </row>
     <row r="251">
@@ -8693,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="H259" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259" t="str">
-        <v>2025-08-05T03:57:50.664Z</v>
+        <v>2025-08-06T03:41:27.910Z</v>
       </c>
     </row>
     <row r="260">
@@ -8728,10 +8728,10 @@
         <v>known</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J260" t="str">
-        <v>2025-08-05T03:57:53.746Z</v>
+        <v>2025-08-06T03:41:32.032Z</v>
       </c>
     </row>
     <row r="261">
@@ -8981,13 +8981,13 @@
         <v>0</v>
       </c>
       <c r="H268" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J268" t="str">
-        <v>2025-08-05T03:58:14.434Z</v>
+        <v>2025-08-06T03:41:41.130Z</v>
       </c>
     </row>
     <row r="269">
@@ -9013,13 +9013,13 @@
         <v>0</v>
       </c>
       <c r="H269" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J269" t="str">
-        <v>2025-08-05T03:58:17.660Z</v>
+        <v>2025-08-06T03:41:44.158Z</v>
       </c>
     </row>
     <row r="270">
@@ -9045,13 +9045,13 @@
         <v>0</v>
       </c>
       <c r="H270" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J270" t="str">
-        <v>2025-08-05T03:58:25.163Z</v>
+        <v>2025-08-06T03:41:47.324Z</v>
       </c>
     </row>
     <row r="271">
@@ -9077,13 +9077,13 @@
         <v>0</v>
       </c>
       <c r="H271" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J271" t="str">
-        <v>2025-08-05T03:58:31.733Z</v>
+        <v>2025-08-06T03:41:52.660Z</v>
       </c>
     </row>
     <row r="272">
@@ -9112,10 +9112,10 @@
         <v>known</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J272" t="str">
-        <v>2025-08-05T03:58:35.397Z</v>
+        <v>2025-08-06T03:42:01.174Z</v>
       </c>
     </row>
     <row r="273">
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="H274" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J274" t="str">
-        <v>2025-08-05T03:58:40.598Z</v>
+        <v>2025-08-06T03:42:05.971Z</v>
       </c>
     </row>
     <row r="275">
@@ -9208,10 +9208,10 @@
         <v>unknown</v>
       </c>
       <c r="I275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J275" t="str">
-        <v>2025-08-05T03:59:08.633Z</v>
+        <v>2025-08-06T03:42:10.326Z</v>
       </c>
     </row>
     <row r="276">
@@ -9624,10 +9624,10 @@
         <v>vague</v>
       </c>
       <c r="I288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J288" t="str">
-        <v>2025-08-05T03:59:42.874Z</v>
+        <v>2025-08-06T03:42:26.626Z</v>
       </c>
     </row>
     <row r="289">
@@ -9656,10 +9656,10 @@
         <v>vague</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J289" t="str">
-        <v>2025-08-05T03:59:50.076Z</v>
+        <v>2025-08-06T03:42:31.219Z</v>
       </c>
     </row>
     <row r="290">
@@ -9717,13 +9717,13 @@
         <v>1</v>
       </c>
       <c r="H291" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J291" t="str">
-        <v>2025-08-05T03:59:56.256Z</v>
+        <v>2025-08-06T03:42:34.798Z</v>
       </c>
     </row>
     <row r="292">
@@ -9752,10 +9752,10 @@
         <v>vague</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J292" t="str">
-        <v>2025-08-05T04:00:01.707Z</v>
+        <v>2025-08-06T03:42:38.894Z</v>
       </c>
     </row>
     <row r="293">
@@ -9816,10 +9816,10 @@
         <v>vague</v>
       </c>
       <c r="I294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J294" t="str">
-        <v>2025-08-05T04:00:10.616Z</v>
+        <v>2025-08-06T03:42:43.780Z</v>
       </c>
     </row>
     <row r="295">
@@ -9848,10 +9848,10 @@
         <v>known</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J295" t="str">
-        <v>2025-08-05T04:00:15.811Z</v>
+        <v>2025-08-06T03:42:48.190Z</v>
       </c>
     </row>
     <row r="296">
@@ -9880,10 +9880,10 @@
         <v>known</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J296" t="str">
-        <v>2025-08-05T04:00:18.033Z</v>
+        <v>2025-08-06T03:42:49.879Z</v>
       </c>
     </row>
     <row r="297">
@@ -9912,10 +9912,10 @@
         <v>known</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J297" t="str">
-        <v>2025-08-05T04:00:20.165Z</v>
+        <v>2025-08-06T03:42:51.264Z</v>
       </c>
     </row>
     <row r="298">
@@ -9944,10 +9944,10 @@
         <v>known</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J298" t="str">
-        <v>2025-08-05T04:00:21.461Z</v>
+        <v>2025-08-06T03:42:53.057Z</v>
       </c>
     </row>
     <row r="299">
@@ -9973,13 +9973,13 @@
         <v>1</v>
       </c>
       <c r="H299" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J299" t="str">
-        <v>2025-08-05T04:00:23.370Z</v>
+        <v>2025-08-06T03:43:00.016Z</v>
       </c>
     </row>
     <row r="300">
@@ -10008,10 +10008,10 @@
         <v>unknown</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J300" t="str">
-        <v>2025-08-05T04:00:26.324Z</v>
+        <v>2025-08-06T03:43:09.549Z</v>
       </c>
     </row>
     <row r="301">
@@ -10040,10 +10040,10 @@
         <v>unknown</v>
       </c>
       <c r="I301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J301" t="str">
-        <v>2025-08-05T04:00:28.594Z</v>
+        <v>2025-08-06T03:43:13.002Z</v>
       </c>
     </row>
     <row r="302">
@@ -10069,13 +10069,13 @@
         <v>1</v>
       </c>
       <c r="H302" t="str">
-        <v>vague</v>
+        <v>unknown</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302" t="str">
-        <v>2025-08-05T04:00:31.695Z</v>
+        <v>2025-08-06T03:43:17.378Z</v>
       </c>
     </row>
     <row r="303">
@@ -10104,10 +10104,10 @@
         <v>known</v>
       </c>
       <c r="I303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J303" t="str">
-        <v>2025-08-05T04:00:34.012Z</v>
+        <v>2025-08-06T03:54:11.103Z</v>
       </c>
     </row>
     <row r="304">
@@ -10136,10 +10136,10 @@
         <v>known</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J304" t="str">
-        <v>2025-08-05T04:00:36.578Z</v>
+        <v>2025-08-06T03:54:14.840Z</v>
       </c>
     </row>
     <row r="305">
@@ -10165,13 +10165,13 @@
         <v>1</v>
       </c>
       <c r="H305" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J305" t="str">
-        <v>2025-08-05T04:00:38.534Z</v>
+        <v>2025-08-06T03:54:20.812Z</v>
       </c>
     </row>
     <row r="306">
@@ -10200,10 +10200,10 @@
         <v>unknown</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J306" t="str">
-        <v>2025-08-05T04:00:41.377Z</v>
+        <v>2025-08-06T03:54:25.171Z</v>
       </c>
     </row>
     <row r="307">
@@ -10232,10 +10232,10 @@
         <v>unknown</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J307" t="str">
-        <v>2025-08-05T04:00:43.967Z</v>
+        <v>2025-08-06T03:54:30.160Z</v>
       </c>
     </row>
     <row r="308">
@@ -10264,10 +10264,10 @@
         <v>known</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J308" t="str">
-        <v>2025-08-05T04:00:47.987Z</v>
+        <v>2025-08-06T03:54:32.882Z</v>
       </c>
     </row>
     <row r="309">
@@ -10293,13 +10293,13 @@
         <v>1</v>
       </c>
       <c r="H309" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J309" t="str">
-        <v>2025-08-05T04:00:51.545Z</v>
+        <v>2025-08-06T03:54:36.418Z</v>
       </c>
     </row>
     <row r="310">
@@ -10328,10 +10328,10 @@
         <v>unknown</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J310" t="str">
-        <v>2025-08-05T04:00:53.532Z</v>
+        <v>2025-08-06T03:54:39.636Z</v>
       </c>
     </row>
     <row r="311">
@@ -10360,10 +10360,10 @@
         <v>unknown</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J311" t="str">
-        <v>2025-08-05T04:00:56.437Z</v>
+        <v>2025-08-06T03:54:42.466Z</v>
       </c>
     </row>
     <row r="312">
@@ -10392,10 +10392,10 @@
         <v>unknown</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J312" t="str">
-        <v>2025-08-05T04:00:58.760Z</v>
+        <v>2025-08-06T03:54:45.292Z</v>
       </c>
     </row>
     <row r="313">
@@ -10424,10 +10424,10 @@
         <v>unknown</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J313" t="str">
-        <v>2025-08-05T04:01:00.863Z</v>
+        <v>2025-08-06T03:54:49.190Z</v>
       </c>
     </row>
     <row r="314">
@@ -10453,13 +10453,13 @@
         <v>1</v>
       </c>
       <c r="H314" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J314" t="str">
-        <v>2025-08-05T04:01:03.097Z</v>
+        <v>2025-08-06T03:54:52.124Z</v>
       </c>
     </row>
     <row r="315">
@@ -10488,10 +10488,10 @@
         <v>vague</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315" t="str">
-        <v>2025-08-05T04:01:06.037Z</v>
+        <v>2025-08-06T03:54:56.296Z</v>
       </c>
     </row>
     <row r="316">
@@ -10520,10 +10520,10 @@
         <v>unknown</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J316" t="str">
-        <v>2025-08-05T04:01:09.839Z</v>
+        <v>2025-08-06T03:55:00.486Z</v>
       </c>
     </row>
     <row r="317">
@@ -10552,10 +10552,10 @@
         <v>unknown</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J317" t="str">
-        <v>2025-08-05T04:01:12.603Z</v>
+        <v>2025-08-06T03:55:03.180Z</v>
       </c>
     </row>
     <row r="318">
@@ -10584,10 +10584,10 @@
         <v>known</v>
       </c>
       <c r="I318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J318" t="str">
-        <v>2025-08-05T04:01:27.595Z</v>
+        <v>2025-08-06T03:55:40.467Z</v>
       </c>
     </row>
     <row r="319">
@@ -10901,13 +10901,13 @@
         <v>1</v>
       </c>
       <c r="H328" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J328" t="str">
-        <v>2025-08-05T04:01:44.329Z</v>
+        <v>2025-08-06T03:55:56.534Z</v>
       </c>
     </row>
     <row r="329">
@@ -10936,10 +10936,10 @@
         <v>known</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J329" t="str">
-        <v>2025-08-05T04:01:46.693Z</v>
+        <v>2025-08-06T03:55:59.186Z</v>
       </c>
     </row>
     <row r="330">
@@ -10968,10 +10968,10 @@
         <v>known</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J330" t="str">
-        <v>2025-08-05T04:01:48.500Z</v>
+        <v>2025-08-06T03:56:01.670Z</v>
       </c>
     </row>
     <row r="331">
@@ -11000,10 +11000,10 @@
         <v>known</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J331" t="str">
-        <v>2025-08-05T04:01:50.905Z</v>
+        <v>2025-08-06T03:56:02.866Z</v>
       </c>
     </row>
     <row r="332">
@@ -11029,13 +11029,13 @@
         <v>1</v>
       </c>
       <c r="H332" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J332" t="str">
-        <v>2025-08-05T04:01:53.396Z</v>
+        <v>2025-08-06T03:56:04.866Z</v>
       </c>
     </row>
     <row r="333">
@@ -11064,10 +11064,10 @@
         <v>known</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J333" t="str">
-        <v>2025-08-05T04:01:55.753Z</v>
+        <v>2025-08-06T03:56:06.638Z</v>
       </c>
     </row>
     <row r="334">
@@ -11096,10 +11096,10 @@
         <v>known</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J334" t="str">
-        <v>2025-08-05T04:01:57.139Z</v>
+        <v>2025-08-06T03:56:09.078Z</v>
       </c>
     </row>
     <row r="335">
@@ -11128,10 +11128,10 @@
         <v>unknown</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J335" t="str">
-        <v>2025-08-05T04:01:58.811Z</v>
+        <v>2025-08-06T03:56:11.057Z</v>
       </c>
     </row>
     <row r="336">
@@ -11160,10 +11160,10 @@
         <v>unknown</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J336" t="str">
-        <v>2025-08-05T04:02:00.905Z</v>
+        <v>2025-08-06T03:56:13.021Z</v>
       </c>
     </row>
     <row r="337">
@@ -11189,13 +11189,13 @@
         <v>1</v>
       </c>
       <c r="H337" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J337" t="str">
-        <v>2025-08-05T04:02:02.794Z</v>
+        <v>2025-08-06T03:56:18.446Z</v>
       </c>
     </row>
     <row r="338">
@@ -11224,10 +11224,10 @@
         <v>known</v>
       </c>
       <c r="I338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J338" t="str">
-        <v>2025-08-05T04:02:05.051Z</v>
+        <v>2025-08-06T03:56:19.932Z</v>
       </c>
     </row>
     <row r="339">
@@ -11256,10 +11256,10 @@
         <v>unknown</v>
       </c>
       <c r="I339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J339" t="str">
-        <v>2025-08-05T04:02:07.164Z</v>
+        <v>2025-08-06T03:56:25.984Z</v>
       </c>
     </row>
     <row r="340">
@@ -11288,10 +11288,10 @@
         <v>unknown</v>
       </c>
       <c r="I340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J340" t="str">
-        <v>2025-08-05T04:02:09.465Z</v>
+        <v>2025-08-06T03:56:44.012Z</v>
       </c>
     </row>
     <row r="341">
@@ -11317,13 +11317,13 @@
         <v>1</v>
       </c>
       <c r="H341" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J341" t="str">
-        <v>2025-08-05T04:02:13.961Z</v>
+        <v>2025-08-06T03:56:47.176Z</v>
       </c>
     </row>
     <row r="342">
@@ -11352,10 +11352,10 @@
         <v>known</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J342" t="str">
-        <v>2025-08-05T04:02:16.482Z</v>
+        <v>2025-08-06T03:56:49.272Z</v>
       </c>
     </row>
     <row r="343">
@@ -11384,10 +11384,10 @@
         <v>known</v>
       </c>
       <c r="I343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J343" t="str">
-        <v>2025-08-05T04:02:17.814Z</v>
+        <v>2025-08-06T03:56:50.868Z</v>
       </c>
     </row>
     <row r="344">
@@ -11416,10 +11416,10 @@
         <v>unknown</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J344" t="str">
-        <v>2025-08-05T04:02:19.273Z</v>
+        <v>2025-08-06T03:56:52.208Z</v>
       </c>
     </row>
     <row r="345">
@@ -11448,10 +11448,10 @@
         <v>unknown</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J345" t="str">
-        <v>2025-08-05T04:02:21.446Z</v>
+        <v>2025-08-06T03:56:53.877Z</v>
       </c>
     </row>
     <row r="346">
@@ -11480,10 +11480,10 @@
         <v>unknown</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J346" t="str">
-        <v>2025-08-05T04:02:23.695Z</v>
+        <v>2025-08-06T03:56:56.159Z</v>
       </c>
     </row>
     <row r="347">
@@ -11512,10 +11512,10 @@
         <v>unknown</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J347" t="str">
-        <v>2025-08-05T04:02:29.919Z</v>
+        <v>2025-08-06T03:57:02.320Z</v>
       </c>
     </row>
     <row r="348">
@@ -11544,10 +11544,10 @@
         <v>unknown</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J348" t="str">
-        <v>2025-08-05T04:02:32.625Z</v>
+        <v>2025-08-06T03:57:04.426Z</v>
       </c>
     </row>
     <row r="349">
@@ -11573,13 +11573,13 @@
         <v>1</v>
       </c>
       <c r="H349" t="str">
-        <v>vague</v>
+        <v>unknown</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J349" t="str">
-        <v>2025-08-05T04:02:34.583Z</v>
+        <v>2025-08-06T03:57:06.218Z</v>
       </c>
     </row>
     <row r="350">
@@ -11608,10 +11608,10 @@
         <v>known</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J350" t="str">
-        <v>2025-08-05T04:02:42.161Z</v>
+        <v>2025-08-06T03:57:13.539Z</v>
       </c>
     </row>
     <row r="351">
@@ -11637,13 +11637,13 @@
         <v>1</v>
       </c>
       <c r="H351" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J351" t="str">
-        <v>2025-08-05T04:02:45.253Z</v>
+        <v>2025-08-06T03:57:17.170Z</v>
       </c>
     </row>
     <row r="352">
@@ -11672,10 +11672,10 @@
         <v>unknown</v>
       </c>
       <c r="I352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J352" t="str">
-        <v>2025-08-05T04:02:50.385Z</v>
+        <v>2025-08-06T03:57:20.180Z</v>
       </c>
     </row>
     <row r="353">
@@ -11701,13 +11701,13 @@
         <v>1</v>
       </c>
       <c r="H353" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J353" t="str">
-        <v>2025-08-05T04:02:52.100Z</v>
+        <v>2025-08-06T03:57:22.337Z</v>
       </c>
     </row>
     <row r="354">
@@ -11733,13 +11733,13 @@
         <v>0</v>
       </c>
       <c r="H354" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J354" t="str">
-        <v>2025-08-05T04:02:55.447Z</v>
+        <v>2025-08-06T03:57:25.864Z</v>
       </c>
     </row>
     <row r="355">
@@ -11768,10 +11768,10 @@
         <v>unknown</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J355" t="str">
-        <v>2025-08-05T04:02:59.247Z</v>
+        <v>2025-08-06T03:57:27.658Z</v>
       </c>
     </row>
     <row r="356">
@@ -11800,10 +11800,10 @@
         <v>unknown</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J356" t="str">
-        <v>2025-08-05T04:03:01.426Z</v>
+        <v>2025-08-06T03:57:30.181Z</v>
       </c>
     </row>
     <row r="357">
@@ -11832,10 +11832,10 @@
         <v>known</v>
       </c>
       <c r="I357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J357" t="str">
-        <v>2025-08-05T04:03:06.129Z</v>
+        <v>2025-08-06T03:57:32.998Z</v>
       </c>
     </row>
     <row r="358">
@@ -12245,13 +12245,13 @@
         <v>0</v>
       </c>
       <c r="H370" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I370">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J370" t="str">
-        <v>2025-08-05T04:05:24.596Z</v>
+        <v>2025-08-06T03:59:07.657Z</v>
       </c>
     </row>
     <row r="371">
@@ -12408,10 +12408,10 @@
         <v>known</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J375" t="str">
-        <v>2025-08-05T04:05:36.628Z</v>
+        <v>2025-08-06T03:59:02.055Z</v>
       </c>
     </row>
     <row r="376">
@@ -12504,10 +12504,10 @@
         <v>known</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J378" t="str">
-        <v>2025-08-05T04:05:40.413Z</v>
+        <v>2025-08-06T03:59:16.424Z</v>
       </c>
     </row>
     <row r="379">
@@ -12536,10 +12536,10 @@
         <v>known</v>
       </c>
       <c r="I379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J379" t="str">
-        <v>2025-08-05T04:05:42.357Z</v>
+        <v>2025-08-06T03:59:18.169Z</v>
       </c>
     </row>
     <row r="380">
@@ -12568,10 +12568,10 @@
         <v>known</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J380" t="str">
-        <v>2025-08-05T04:05:43.677Z</v>
+        <v>2025-08-06T03:59:19.839Z</v>
       </c>
     </row>
     <row r="381">
@@ -12597,13 +12597,13 @@
         <v>1</v>
       </c>
       <c r="H381" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J381" t="str">
-        <v>2025-08-05T04:05:46.058Z</v>
+        <v>2025-08-06T03:59:22.326Z</v>
       </c>
     </row>
     <row r="382">
@@ -12632,10 +12632,10 @@
         <v>known</v>
       </c>
       <c r="I382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J382" t="str">
-        <v>2025-08-05T04:06:03.069Z</v>
+        <v>2025-08-06T03:59:24.065Z</v>
       </c>
     </row>
     <row r="383">
@@ -12664,10 +12664,10 @@
         <v>known</v>
       </c>
       <c r="I383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J383" t="str">
-        <v>2025-08-05T04:06:06.436Z</v>
+        <v>2025-08-06T03:59:25.172Z</v>
       </c>
     </row>
     <row r="384">
@@ -12696,10 +12696,10 @@
         <v>known</v>
       </c>
       <c r="I384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J384" t="str">
-        <v>2025-08-05T04:06:07.643Z</v>
+        <v>2025-08-06T03:59:27.443Z</v>
       </c>
     </row>
     <row r="385">
@@ -12728,10 +12728,10 @@
         <v>known</v>
       </c>
       <c r="I385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J385" t="str">
-        <v>2025-08-05T04:06:08.846Z</v>
+        <v>2025-08-06T03:59:28.632Z</v>
       </c>
     </row>
     <row r="386">
@@ -12757,13 +12757,13 @@
         <v>1</v>
       </c>
       <c r="H386" t="str">
-        <v>vague</v>
+        <v>known</v>
       </c>
       <c r="I386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J386" t="str">
-        <v>2025-08-05T04:06:09.906Z</v>
+        <v>2025-08-06T03:59:32.702Z</v>
       </c>
     </row>
     <row r="387">
@@ -12792,10 +12792,10 @@
         <v>unknown</v>
       </c>
       <c r="I387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J387" t="str">
-        <v>2025-08-05T04:06:14.493Z</v>
+        <v>2025-08-06T03:59:35.524Z</v>
       </c>
     </row>
     <row r="388">
@@ -12824,10 +12824,10 @@
         <v>unknown</v>
       </c>
       <c r="I388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J388" t="str">
-        <v>2025-08-05T04:06:17.453Z</v>
+        <v>2025-08-06T03:59:38.005Z</v>
       </c>
     </row>
     <row r="389">
@@ -12856,10 +12856,10 @@
         <v>unknown</v>
       </c>
       <c r="I389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J389" t="str">
-        <v>2025-08-05T04:06:20.451Z</v>
+        <v>2025-08-06T03:59:41.505Z</v>
       </c>
     </row>
     <row r="390">
@@ -12885,13 +12885,13 @@
         <v>1</v>
       </c>
       <c r="H390" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J390" t="str">
-        <v>2025-08-05T04:06:24.100Z</v>
+        <v>2025-08-06T03:59:44.233Z</v>
       </c>
     </row>
     <row r="391">
@@ -12920,10 +12920,10 @@
         <v>known</v>
       </c>
       <c r="I391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J391" t="str">
-        <v>2025-08-05T04:06:27.833Z</v>
+        <v>2025-08-06T03:59:46.920Z</v>
       </c>
     </row>
     <row r="392">
@@ -12952,10 +12952,10 @@
         <v>known</v>
       </c>
       <c r="I392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J392" t="str">
-        <v>2025-08-05T04:06:30.229Z</v>
+        <v>2025-08-06T03:59:49.856Z</v>
       </c>
     </row>
     <row r="393">
@@ -12984,10 +12984,10 @@
         <v>known</v>
       </c>
       <c r="I393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J393" t="str">
-        <v>2025-08-05T04:06:32.766Z</v>
+        <v>2025-08-06T03:59:51.905Z</v>
       </c>
     </row>
     <row r="394">
@@ -13013,13 +13013,13 @@
         <v>1</v>
       </c>
       <c r="H394" t="str">
-        <v>unknown</v>
+        <v>vague</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J394" t="str">
-        <v>2025-08-05T04:06:35.388Z</v>
+        <v>2025-08-06T03:59:54.103Z</v>
       </c>
     </row>
     <row r="395">
@@ -13048,10 +13048,10 @@
         <v>unknown</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J395" t="str">
-        <v>2025-08-05T04:06:37.541Z</v>
+        <v>2025-08-06T03:59:58.954Z</v>
       </c>
     </row>
     <row r="396">
@@ -13080,10 +13080,10 @@
         <v>known</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J396" t="str">
-        <v>2025-08-05T04:06:40.958Z</v>
+        <v>2025-08-06T04:00:02.178Z</v>
       </c>
     </row>
     <row r="397">
@@ -13112,10 +13112,10 @@
         <v>unknown</v>
       </c>
       <c r="I397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J397" t="str">
-        <v>2025-08-05T04:06:42.914Z</v>
+        <v>2025-08-06T04:00:06.131Z</v>
       </c>
     </row>
     <row r="398">
@@ -13144,10 +13144,10 @@
         <v>known</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J398" t="str">
-        <v>2025-08-05T04:08:57.931Z</v>
+        <v>2025-08-06T04:09:18.169Z</v>
       </c>
     </row>
     <row r="399">
@@ -13400,10 +13400,10 @@
         <v>known</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J406" t="str">
-        <v>2025-08-05T04:09:26.088Z</v>
+        <v>2025-08-06T04:06:15.234Z</v>
       </c>
     </row>
     <row r="407">
@@ -13464,10 +13464,10 @@
         <v>known</v>
       </c>
       <c r="I408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J408" t="str">
-        <v>2025-08-05T04:09:28.742Z</v>
+        <v>2025-08-06T04:06:19.507Z</v>
       </c>
     </row>
     <row r="409">
@@ -13496,10 +13496,10 @@
         <v>known</v>
       </c>
       <c r="I409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J409" t="str">
-        <v>2025-08-05T04:09:30.511Z</v>
+        <v>2025-08-06T04:06:21.352Z</v>
       </c>
     </row>
     <row r="410">
@@ -13528,10 +13528,10 @@
         <v>known</v>
       </c>
       <c r="I410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J410" t="str">
-        <v>2025-08-05T04:09:31.467Z</v>
+        <v>2025-08-06T04:06:22.256Z</v>
       </c>
     </row>
     <row r="411">
@@ -13560,10 +13560,10 @@
         <v>known</v>
       </c>
       <c r="I411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J411" t="str">
-        <v>2025-08-05T04:09:33.316Z</v>
+        <v>2025-08-06T04:06:25.927Z</v>
       </c>
     </row>
     <row r="412">
@@ -13592,10 +13592,10 @@
         <v>known</v>
       </c>
       <c r="I412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J412" t="str">
-        <v>2025-08-05T04:09:35.636Z</v>
+        <v>2025-08-06T04:06:27.060Z</v>
       </c>
     </row>
     <row r="413">
@@ -13624,10 +13624,10 @@
         <v>known</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J413" t="str">
-        <v>2025-08-05T04:09:37.439Z</v>
+        <v>2025-08-06T04:06:28.981Z</v>
       </c>
     </row>
     <row r="414">
@@ -13656,10 +13656,10 @@
         <v>known</v>
       </c>
       <c r="I414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J414" t="str">
-        <v>2025-08-05T04:09:39.703Z</v>
+        <v>2025-08-06T04:06:30.152Z</v>
       </c>
     </row>
     <row r="415">
@@ -13688,10 +13688,10 @@
         <v>known</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J415" t="str">
-        <v>2025-08-05T04:09:41.538Z</v>
+        <v>2025-08-06T04:06:32.136Z</v>
       </c>
     </row>
     <row r="416">
@@ -13717,13 +13717,13 @@
         <v>1</v>
       </c>
       <c r="H416" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J416" t="str">
-        <v>2025-08-05T04:09:43.535Z</v>
+        <v>2025-08-06T04:06:33.899Z</v>
       </c>
     </row>
     <row r="417">
@@ -13749,13 +13749,13 @@
         <v>1</v>
       </c>
       <c r="H417" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J417" t="str">
-        <v>2025-08-05T04:09:48.115Z</v>
+        <v>2025-08-06T04:08:19.138Z</v>
       </c>
     </row>
     <row r="418">
@@ -13781,13 +13781,13 @@
         <v>1</v>
       </c>
       <c r="H418" t="str">
-        <v>unknown</v>
+        <v>known</v>
       </c>
       <c r="I418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J418" t="str">
-        <v>2025-08-05T04:09:52.373Z</v>
+        <v>2025-08-06T04:08:21.795Z</v>
       </c>
     </row>
     <row r="419">
@@ -13816,10 +13816,10 @@
         <v>known</v>
       </c>
       <c r="I419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J419" t="str">
-        <v>2025-08-05T04:09:59.612Z</v>
+        <v>2025-08-06T04:08:30.528Z</v>
       </c>
     </row>
     <row r="420">
@@ -13848,10 +13848,10 @@
         <v>known</v>
       </c>
       <c r="I420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J420" t="str">
-        <v>2025-08-05T04:10:06.080Z</v>
+        <v>2025-08-06T04:08:32.669Z</v>
       </c>
     </row>
     <row r="421">
@@ -13880,10 +13880,10 @@
         <v>unknown</v>
       </c>
       <c r="I421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J421" t="str">
-        <v>2025-08-05T04:10:08.497Z</v>
+        <v>2025-08-06T04:08:37.667Z</v>
       </c>
     </row>
     <row r="422">
@@ -13912,10 +13912,10 @@
         <v>known</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J422" t="str">
-        <v>2025-08-05T04:10:11.265Z</v>
+        <v>2025-08-06T04:08:39.725Z</v>
       </c>
     </row>
     <row r="423">
@@ -13941,13 +13941,13 @@
         <v>1</v>
       </c>
       <c r="H423" t="str">
-        <v>known</v>
+        <v>unknown</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J423" t="str">
-        <v>2025-08-05T04:10:13.895Z</v>
+        <v>2025-08-06T04:08:41.850Z</v>
       </c>
     </row>
     <row r="424">
@@ -13976,10 +13976,10 @@
         <v>unknown</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J424" t="str">
-        <v>2025-08-05T04:10:17.045Z</v>
+        <v>2025-08-06T04:08:44.574Z</v>
       </c>
     </row>
     <row r="425">
@@ -14008,10 +14008,10 @@
         <v>known</v>
       </c>
       <c r="I425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J425" t="str">
-        <v>2025-08-05T04:10:20.671Z</v>
+        <v>2025-08-06T04:08:47.073Z</v>
       </c>
     </row>
     <row r="426">
@@ -14040,10 +14040,10 @@
         <v>known</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J426" t="str">
-        <v>2025-08-05T04:10:27.964Z</v>
+        <v>2025-08-06T04:08:51.184Z</v>
       </c>
     </row>
     <row r="427">
@@ -14072,10 +14072,10 @@
         <v>known</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J427" t="str">
-        <v>2025-08-05T04:10:32.408Z</v>
+        <v>2025-08-06T04:08:53.715Z</v>
       </c>
     </row>
     <row r="428">
@@ -14104,10 +14104,10 @@
         <v>unknown</v>
       </c>
       <c r="I428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J428" t="str">
-        <v>2025-08-05T04:10:33.978Z</v>
+        <v>2025-08-06T04:08:55.328Z</v>
       </c>
     </row>
     <row r="429">
@@ -14136,10 +14136,10 @@
         <v>known</v>
       </c>
       <c r="I429">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J429" t="str">
-        <v>2025-08-05T04:10:40.228Z</v>
+        <v>2025-08-06T04:08:57.379Z</v>
       </c>
     </row>
     <row r="430">
@@ -14168,10 +14168,10 @@
         <v>unknown</v>
       </c>
       <c r="I430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J430" t="str">
-        <v>2025-08-05T04:10:42.826Z</v>
+        <v>2025-08-06T04:08:59.676Z</v>
       </c>
     </row>
     <row r="431">
@@ -14200,10 +14200,10 @@
         <v>unknown</v>
       </c>
       <c r="I431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J431" t="str">
-        <v>2025-08-05T04:10:45.056Z</v>
+        <v>2025-08-06T04:09:02.504Z</v>
       </c>
     </row>
     <row r="432">
@@ -14232,10 +14232,10 @@
         <v>unknown</v>
       </c>
       <c r="I432">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J432" t="str">
-        <v>2025-08-05T04:10:47.796Z</v>
+        <v>2025-08-06T04:09:05.475Z</v>
       </c>
     </row>
     <row r="433">
@@ -14264,10 +14264,10 @@
         <v>unknown</v>
       </c>
       <c r="I433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J433" t="str">
-        <v>2025-08-05T04:10:50.870Z</v>
+        <v>2025-08-06T04:09:07.585Z</v>
       </c>
     </row>
     <row r="434">
@@ -14296,10 +14296,10 @@
         <v>unknown</v>
       </c>
       <c r="I434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J434" t="str">
-        <v>2025-08-05T04:10:54.099Z</v>
+        <v>2025-08-06T04:09:09.226Z</v>
       </c>
     </row>
     <row r="435">
@@ -14328,10 +14328,10 @@
         <v>unknown</v>
       </c>
       <c r="I435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J435" t="str">
-        <v>2025-08-05T04:10:56.624Z</v>
+        <v>2025-08-06T04:09:10.577Z</v>
       </c>
     </row>
     <row r="436">
@@ -14360,10 +14360,10 @@
         <v>known</v>
       </c>
       <c r="I436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J436" t="str">
-        <v>2025-08-05T04:10:59.492Z</v>
+        <v>2025-08-06T04:09:13.179Z</v>
       </c>
     </row>
     <row r="437">
@@ -14392,10 +14392,10 @@
         <v>known</v>
       </c>
       <c r="I437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J437" t="str">
-        <v>2025-08-05T04:11:04.775Z</v>
+        <v>2025-08-06T04:09:16.466Z</v>
       </c>
     </row>
   </sheetData>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\Downloads\vob_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724666E3-30AB-4EF9-B54B-9529029B8629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0B46D-0DA3-4E74-B659-5D021041E91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8331,11 +8331,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E399" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="B564" sqref="B564"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
@@ -8348,7 +8348,7 @@
     <col min="10" max="10" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>327</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>327</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>327</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>327</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>327</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>327</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>327</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>327</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>327</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>327</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>327</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>327</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>327</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>327</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>327</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>327</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>327</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>327</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>327</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>327</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>327</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>327</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>327</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>327</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>327</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>327</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>327</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>327</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>327</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>327</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>327</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>327</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>327</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>327</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>327</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>327</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>327</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>327</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>327</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>327</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>520</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>520</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>520</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>520</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>520</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>520</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>520</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>520</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>520</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>520</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>520</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>520</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>520</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>520</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>520</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>520</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>520</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>520</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>520</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>520</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>520</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>520</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>520</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>520</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>520</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>520</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>520</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>520</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>520</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>520</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>520</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>520</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>520</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>520</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>520</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>520</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>520</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>520</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>520</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>520</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>721</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>721</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>721</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>721</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>721</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>721</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>721</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>721</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>721</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>721</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>721</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>721</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>721</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>721</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>721</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>721</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>721</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>721</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>721</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>721</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>721</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>721</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>721</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>721</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>721</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>721</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>721</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>721</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>721</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>721</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>721</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>721</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>721</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>721</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>721</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>721</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>721</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>721</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>721</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>721</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>921</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>921</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>921</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>921</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>921</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>921</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>921</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>921</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>921</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>921</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>921</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>921</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>921</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>921</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>921</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>921</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>921</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>921</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>921</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>921</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>921</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>921</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>921</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>921</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>921</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>921</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>921</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>921</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>921</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>921</v>
       </c>
@@ -15612,7 +15612,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>921</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>921</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>921</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>921</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>921</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>921</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>921</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>921</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>921</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>921</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1121</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1121</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1121</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1121</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1121</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1121</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1121</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1121</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1121</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1121</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1121</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1121</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1121</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1121</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1121</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1121</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1121</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1121</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1121</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1121</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1121</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1121</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1121</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1121</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1121</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1121</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1121</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1121</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1121</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1121</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1121</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1121</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1121</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1121</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1121</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1121</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1121</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1121</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1121</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1121</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1319</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1319</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1319</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1319</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1319</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1319</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1319</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1319</v>
       </c>
@@ -17468,7 +17468,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1319</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1319</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1319</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1319</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1319</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1319</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1319</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1319</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1319</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1319</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1319</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1319</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1319</v>
       </c>
@@ -17884,7 +17884,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1319</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1319</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1319</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1319</v>
       </c>
@@ -18012,7 +18012,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1319</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1319</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1319</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1319</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1319</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1319</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1319</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1319</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1319</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1319</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1319</v>
       </c>
@@ -18364,7 +18364,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1319</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1319</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1319</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1319</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1518</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1518</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1518</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1518</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1518</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1518</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1518</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1518</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1518</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1518</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1518</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1518</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1518</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1518</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1518</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1518</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1518</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1518</v>
       </c>
@@ -19068,7 +19068,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1518</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1518</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1518</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1518</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1518</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1518</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1518</v>
       </c>
@@ -19292,7 +19292,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1518</v>
       </c>
@@ -19324,7 +19324,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1518</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1518</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1518</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1518</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1518</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1518</v>
       </c>
@@ -19516,7 +19516,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1518</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1518</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1518</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1518</v>
       </c>
@@ -19644,7 +19644,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1518</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1518</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1518</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1518</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1718</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1718</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1718</v>
       </c>
@@ -19868,7 +19868,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1718</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1718</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1718</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1718</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1718</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1718</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1718</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1718</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1718</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1718</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1718</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1718</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1718</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1718</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1718</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1718</v>
       </c>
@@ -20380,7 +20380,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1718</v>
       </c>
@@ -20412,7 +20412,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1718</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1718</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1718</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1718</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1718</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1718</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1718</v>
       </c>
@@ -20636,7 +20636,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1718</v>
       </c>
@@ -20668,7 +20668,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1718</v>
       </c>
@@ -20700,7 +20700,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1718</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1718</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1718</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1718</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1718</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1718</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1718</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1718</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1718</v>
       </c>
@@ -20988,7 +20988,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1718</v>
       </c>
@@ -21020,7 +21020,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1718</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1913</v>
       </c>
@@ -21084,7 +21084,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1913</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1913</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1913</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1913</v>
       </c>
@@ -21212,7 +21212,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1913</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1913</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1913</v>
       </c>
@@ -21308,7 +21308,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1913</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1913</v>
       </c>
@@ -21372,7 +21372,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1913</v>
       </c>
@@ -21404,7 +21404,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1913</v>
       </c>
@@ -21436,7 +21436,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1913</v>
       </c>
@@ -21468,7 +21468,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1913</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1913</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1913</v>
       </c>
@@ -21564,7 +21564,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1913</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1913</v>
       </c>
@@ -21628,7 +21628,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1913</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1913</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1913</v>
       </c>
@@ -21724,7 +21724,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1913</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1913</v>
       </c>
@@ -21788,7 +21788,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1913</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1913</v>
       </c>
@@ -21852,7 +21852,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1913</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1913</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1913</v>
       </c>
@@ -21948,7 +21948,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1913</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1913</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1913</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1913</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1913</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1913</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1913</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1913</v>
       </c>
@@ -22204,7 +22204,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1913</v>
       </c>
@@ -22236,7 +22236,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1913</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1913</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1913</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>2114</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>2114</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>2114</v>
       </c>
@@ -22419,7 +22419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>2114</v>
       </c>
@@ -22448,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>2114</v>
       </c>
@@ -22477,7 +22477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>2114</v>
       </c>
@@ -22506,7 +22506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>2114</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>2114</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>2114</v>
       </c>
@@ -22593,7 +22593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>2114</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>2114</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>2114</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>2114</v>
       </c>
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>2114</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>2114</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>2114</v>
       </c>
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>2114</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2114</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>2114</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>2114</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>2114</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>2114</v>
       </c>
@@ -22970,7 +22970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>2114</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>2114</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>2114</v>
       </c>
@@ -23057,7 +23057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>2114</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>2114</v>
       </c>
@@ -23115,7 +23115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>2114</v>
       </c>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>2114</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>2114</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>2114</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>2114</v>
       </c>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>2114</v>
       </c>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>2114</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>2114</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>2114</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>2114</v>
       </c>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>2114</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>2114</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>2114</v>
       </c>
@@ -23492,7 +23492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>2114</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>2114</v>
       </c>
@@ -23550,7 +23550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>2114</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>2114</v>
       </c>
@@ -23608,7 +23608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>2114</v>
       </c>
@@ -23637,7 +23637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>2114</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>2114</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>2114</v>
       </c>
@@ -23724,7 +23724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>2114</v>
       </c>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>2114</v>
       </c>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>2308</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>2308</v>
       </c>
@@ -23840,7 +23840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>2308</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>2308</v>
       </c>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>2308</v>
       </c>
@@ -23927,7 +23927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>2308</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>2308</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>2308</v>
       </c>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>2308</v>
       </c>
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>2308</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>2308</v>
       </c>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>2308</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>2308</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>2308</v>
       </c>
@@ -24188,7 +24188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>2308</v>
       </c>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>2308</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>2308</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>2308</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>2308</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2308</v>
       </c>
@@ -24362,7 +24362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>2308</v>
       </c>
@@ -24391,7 +24391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>2308</v>
       </c>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2308</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>2308</v>
       </c>
@@ -24478,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>2308</v>
       </c>
@@ -24507,7 +24507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>2308</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2308</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2308</v>
       </c>
@@ -24594,7 +24594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2308</v>
       </c>
@@ -24623,7 +24623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>2308</v>
       </c>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>2308</v>
       </c>
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>2308</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>2308</v>
       </c>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>2308</v>
       </c>
@@ -24768,7 +24768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2308</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>2308</v>
       </c>
@@ -24826,7 +24826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>2443</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>2443</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>2443</v>
       </c>
@@ -24913,7 +24913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>2443</v>
       </c>
@@ -24942,7 +24942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>2443</v>
       </c>
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>2443</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2443</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>2443</v>
       </c>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>2443</v>
       </c>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2443</v>
       </c>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2443</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2443</v>
       </c>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2443</v>
       </c>
@@ -25203,7 +25203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>2443</v>
       </c>
@@ -25232,7 +25232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>2443</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>2443</v>
       </c>
@@ -25290,7 +25290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>2443</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>2443</v>
       </c>
@@ -25348,7 +25348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>2443</v>
       </c>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2443</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>2443</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>2443</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>2443</v>
       </c>
@@ -25493,7 +25493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2443</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>2443</v>
       </c>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>2443</v>
       </c>
@@ -25580,7 +25580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2443</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>2443</v>
       </c>
@@ -25638,7 +25638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>2443</v>
       </c>
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>2443</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>2443</v>
       </c>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>2443</v>
       </c>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>2443</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>2443</v>
       </c>
@@ -25812,7 +25812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>2443</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>2443</v>
       </c>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>2443</v>
       </c>
@@ -25899,7 +25899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>2443</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>2443</v>
       </c>
@@ -25957,7 +25957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2443</v>
       </c>
@@ -25986,7 +25986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>2443</v>
       </c>
@@ -26015,7 +26015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>2443</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>2443</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>2443</v>
       </c>
@@ -26102,7 +26102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>2443</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>2443</v>
       </c>
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>2443</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>2443</v>
       </c>
@@ -26218,7 +26218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>2443</v>
       </c>
@@ -26247,7 +26247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>2443</v>
       </c>
@@ -26276,7 +26276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>2443</v>
       </c>
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>2443</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>2443</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>2443</v>
       </c>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\OneDrive\Desktop\Commons\vocabylary-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA576E2-261E-41C9-B281-CF93F8639186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F32A98-FDBB-4016-B98E-60F36E2BA59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5199" uniqueCount="2642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5200" uniqueCount="2643">
   <si>
     <t>topic</t>
   </si>
@@ -7959,16 +7959,27 @@
   </si>
   <si>
     <t>The research seems to validate the theory.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/98/TreesInTheFog.jpg/1200px-TreesInTheFog.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7991,13 +8002,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8337,11 +8351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E436" workbookViewId="0">
-      <selection activeCell="G493" sqref="G493"/>
+    <sheetView tabSelected="1" topLeftCell="E195" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
@@ -8358,7 +8372,7 @@
     <col min="14" max="15" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8405,7 +8419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8444,7 +8458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8483,7 +8497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8522,7 +8536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -8561,7 +8575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -8600,7 +8614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8639,7 +8653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -8678,7 +8692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -8717,7 +8731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -8756,7 +8770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8795,7 +8809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -8834,7 +8848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -8873,7 +8887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -8912,7 +8926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -8951,7 +8965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8990,7 +9004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -9029,7 +9043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -9068,7 +9082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -9107,7 +9121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -9146,7 +9160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -9185,7 +9199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -9224,7 +9238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -9263,7 +9277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -9302,7 +9316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -9341,7 +9355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -9380,7 +9394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -9419,7 +9433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -9458,7 +9472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -9497,7 +9511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -9536,7 +9550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -9575,7 +9589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -9614,7 +9628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -9653,7 +9667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -9692,7 +9706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -9731,7 +9745,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -9770,7 +9784,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -9809,7 +9823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -9848,7 +9862,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -9887,7 +9901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -9926,7 +9940,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -9965,7 +9979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -10004,7 +10018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -10043,7 +10057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -10082,7 +10096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -10121,7 +10135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -10160,7 +10174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -10199,7 +10213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -10238,7 +10252,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -10277,7 +10291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -10316,7 +10330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -10355,7 +10369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -10394,7 +10408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -10433,7 +10447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -10472,7 +10486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -10511,7 +10525,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -10550,7 +10564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -10589,7 +10603,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -10628,7 +10642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -10667,7 +10681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -10706,7 +10720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -10745,7 +10759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -10784,7 +10798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -10823,7 +10837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -10862,7 +10876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -10901,7 +10915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -10940,7 +10954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -10979,7 +10993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -11018,7 +11032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -11057,7 +11071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -11096,7 +11110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -11135,7 +11149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -11174,7 +11188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -11213,7 +11227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -11252,7 +11266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -11291,7 +11305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -11330,7 +11344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -11369,7 +11383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -11408,7 +11422,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>332</v>
       </c>
@@ -11447,7 +11461,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>332</v>
       </c>
@@ -11486,7 +11500,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>332</v>
       </c>
@@ -11525,7 +11539,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>332</v>
       </c>
@@ -11564,7 +11578,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>332</v>
       </c>
@@ -11603,7 +11617,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>332</v>
       </c>
@@ -11642,7 +11656,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>332</v>
       </c>
@@ -11681,7 +11695,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>332</v>
       </c>
@@ -11720,7 +11734,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>332</v>
       </c>
@@ -11759,7 +11773,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>332</v>
       </c>
@@ -11798,7 +11812,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>332</v>
       </c>
@@ -11837,7 +11851,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>332</v>
       </c>
@@ -11876,7 +11890,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>332</v>
       </c>
@@ -11915,7 +11929,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>332</v>
       </c>
@@ -11954,7 +11968,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>332</v>
       </c>
@@ -11993,7 +12007,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>332</v>
       </c>
@@ -12032,7 +12046,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>332</v>
       </c>
@@ -12071,7 +12085,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>332</v>
       </c>
@@ -12110,7 +12124,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>332</v>
       </c>
@@ -12149,7 +12163,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>332</v>
       </c>
@@ -12188,7 +12202,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>332</v>
       </c>
@@ -12227,7 +12241,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>332</v>
       </c>
@@ -12266,7 +12280,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>332</v>
       </c>
@@ -12305,7 +12319,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -12344,7 +12358,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -12383,7 +12397,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -12422,7 +12436,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -12461,7 +12475,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>332</v>
       </c>
@@ -12500,7 +12514,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -12539,7 +12553,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>332</v>
       </c>
@@ -12578,7 +12592,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>332</v>
       </c>
@@ -12617,7 +12631,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -12656,7 +12670,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -12695,7 +12709,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -12734,7 +12748,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -12773,7 +12787,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -12812,7 +12826,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -12851,7 +12865,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>332</v>
       </c>
@@ -12890,7 +12904,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>332</v>
       </c>
@@ -12929,7 +12943,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>525</v>
       </c>
@@ -12968,7 +12982,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>525</v>
       </c>
@@ -13007,7 +13021,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>525</v>
       </c>
@@ -13046,7 +13060,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>525</v>
       </c>
@@ -13085,7 +13099,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>525</v>
       </c>
@@ -13124,7 +13138,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>525</v>
       </c>
@@ -13163,7 +13177,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>525</v>
       </c>
@@ -13202,7 +13216,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>525</v>
       </c>
@@ -13241,7 +13255,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>525</v>
       </c>
@@ -13280,7 +13294,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>525</v>
       </c>
@@ -13319,7 +13333,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>525</v>
       </c>
@@ -13358,7 +13372,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>525</v>
       </c>
@@ -13397,7 +13411,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>525</v>
       </c>
@@ -13436,7 +13450,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>525</v>
       </c>
@@ -13475,7 +13489,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -13514,7 +13528,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>525</v>
       </c>
@@ -13553,7 +13567,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>525</v>
       </c>
@@ -13592,7 +13606,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>525</v>
       </c>
@@ -13631,7 +13645,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>525</v>
       </c>
@@ -13670,7 +13684,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>525</v>
       </c>
@@ -13709,7 +13723,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>525</v>
       </c>
@@ -13748,7 +13762,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>525</v>
       </c>
@@ -13787,7 +13801,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>525</v>
       </c>
@@ -13826,7 +13840,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>525</v>
       </c>
@@ -13865,7 +13879,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>525</v>
       </c>
@@ -13904,7 +13918,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>525</v>
       </c>
@@ -13943,7 +13957,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>525</v>
       </c>
@@ -13982,7 +13996,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>525</v>
       </c>
@@ -14021,7 +14035,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>525</v>
       </c>
@@ -14060,7 +14074,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>525</v>
       </c>
@@ -14099,7 +14113,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>525</v>
       </c>
@@ -14138,7 +14152,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>525</v>
       </c>
@@ -14177,7 +14191,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>525</v>
       </c>
@@ -14216,7 +14230,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>525</v>
       </c>
@@ -14255,7 +14269,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>525</v>
       </c>
@@ -14294,7 +14308,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>525</v>
       </c>
@@ -14333,7 +14347,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>525</v>
       </c>
@@ -14372,7 +14386,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>525</v>
       </c>
@@ -14411,7 +14425,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>525</v>
       </c>
@@ -14450,7 +14464,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>525</v>
       </c>
@@ -14489,7 +14503,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>726</v>
       </c>
@@ -14528,7 +14542,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>726</v>
       </c>
@@ -14567,7 +14581,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>726</v>
       </c>
@@ -14606,7 +14620,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>726</v>
       </c>
@@ -14645,7 +14659,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>726</v>
       </c>
@@ -14684,7 +14698,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>726</v>
       </c>
@@ -14723,7 +14737,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>726</v>
       </c>
@@ -14762,7 +14776,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>726</v>
       </c>
@@ -14801,7 +14815,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>726</v>
       </c>
@@ -14840,7 +14854,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>726</v>
       </c>
@@ -14879,7 +14893,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>726</v>
       </c>
@@ -14918,7 +14932,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>726</v>
       </c>
@@ -14957,7 +14971,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>726</v>
       </c>
@@ -14996,7 +15010,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>726</v>
       </c>
@@ -15035,7 +15049,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>726</v>
       </c>
@@ -15074,7 +15088,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>726</v>
       </c>
@@ -15113,7 +15127,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>726</v>
       </c>
@@ -15152,7 +15166,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>726</v>
       </c>
@@ -15191,7 +15205,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>726</v>
       </c>
@@ -15230,7 +15244,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>726</v>
       </c>
@@ -15269,7 +15283,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>726</v>
       </c>
@@ -15308,7 +15322,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>726</v>
       </c>
@@ -15347,7 +15361,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>726</v>
       </c>
@@ -15386,7 +15400,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>726</v>
       </c>
@@ -15425,7 +15439,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>726</v>
       </c>
@@ -15464,7 +15478,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>726</v>
       </c>
@@ -15503,7 +15517,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>726</v>
       </c>
@@ -15542,7 +15556,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>726</v>
       </c>
@@ -15581,7 +15595,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>726</v>
       </c>
@@ -15620,7 +15634,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>726</v>
       </c>
@@ -15659,7 +15673,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>726</v>
       </c>
@@ -15698,7 +15712,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>726</v>
       </c>
@@ -15737,7 +15751,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>726</v>
       </c>
@@ -15776,7 +15790,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>726</v>
       </c>
@@ -15815,7 +15829,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>726</v>
       </c>
@@ -15854,7 +15868,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>726</v>
       </c>
@@ -15893,7 +15907,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>726</v>
       </c>
@@ -15932,7 +15946,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>726</v>
       </c>
@@ -15971,7 +15985,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>726</v>
       </c>
@@ -16010,7 +16024,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>726</v>
       </c>
@@ -16049,7 +16063,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>926</v>
       </c>
@@ -16088,7 +16102,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>926</v>
       </c>
@@ -16127,7 +16141,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>926</v>
       </c>
@@ -16166,7 +16180,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>926</v>
       </c>
@@ -16205,7 +16219,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>926</v>
       </c>
@@ -16244,7 +16258,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>926</v>
       </c>
@@ -16283,7 +16297,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>926</v>
       </c>
@@ -16302,9 +16316,8 @@
       <c r="F204" t="s">
         <v>20</v>
       </c>
-      <c r="G204" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/fog.png</v>
+      <c r="G204" s="1" t="s">
+        <v>2642</v>
       </c>
       <c r="H204" t="s">
         <v>21</v>
@@ -16322,7 +16335,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>926</v>
       </c>
@@ -16361,7 +16374,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>926</v>
       </c>
@@ -16400,7 +16413,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>926</v>
       </c>
@@ -16439,7 +16452,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>926</v>
       </c>
@@ -16478,7 +16491,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>926</v>
       </c>
@@ -16517,7 +16530,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>926</v>
       </c>
@@ -16556,7 +16569,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>926</v>
       </c>
@@ -16595,7 +16608,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>926</v>
       </c>
@@ -16634,7 +16647,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>926</v>
       </c>
@@ -16673,7 +16686,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>926</v>
       </c>
@@ -16712,7 +16725,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>926</v>
       </c>
@@ -16751,7 +16764,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>926</v>
       </c>
@@ -16790,7 +16803,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>926</v>
       </c>
@@ -16829,7 +16842,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>926</v>
       </c>
@@ -16868,7 +16881,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>926</v>
       </c>
@@ -16907,7 +16920,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>926</v>
       </c>
@@ -16946,7 +16959,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>926</v>
       </c>
@@ -16985,7 +16998,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>926</v>
       </c>
@@ -17024,7 +17037,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>926</v>
       </c>
@@ -17063,7 +17076,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>926</v>
       </c>
@@ -17102,7 +17115,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>926</v>
       </c>
@@ -17141,7 +17154,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>926</v>
       </c>
@@ -17180,7 +17193,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>926</v>
       </c>
@@ -17219,7 +17232,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>926</v>
       </c>
@@ -17258,7 +17271,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>926</v>
       </c>
@@ -17297,7 +17310,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>926</v>
       </c>
@@ -17336,7 +17349,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>926</v>
       </c>
@@ -17375,7 +17388,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>926</v>
       </c>
@@ -17414,7 +17427,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>926</v>
       </c>
@@ -17453,7 +17466,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>926</v>
       </c>
@@ -17492,7 +17505,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>926</v>
       </c>
@@ -17531,7 +17544,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>926</v>
       </c>
@@ -17570,7 +17583,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>926</v>
       </c>
@@ -17609,7 +17622,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1126</v>
       </c>
@@ -17648,7 +17661,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1126</v>
       </c>
@@ -17687,7 +17700,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1126</v>
       </c>
@@ -17726,7 +17739,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1126</v>
       </c>
@@ -17765,7 +17778,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1126</v>
       </c>
@@ -17804,7 +17817,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1126</v>
       </c>
@@ -17843,7 +17856,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1126</v>
       </c>
@@ -17882,7 +17895,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1126</v>
       </c>
@@ -17921,7 +17934,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1126</v>
       </c>
@@ -17960,7 +17973,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1126</v>
       </c>
@@ -17999,7 +18012,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1126</v>
       </c>
@@ -18038,7 +18051,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1126</v>
       </c>
@@ -18077,7 +18090,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1126</v>
       </c>
@@ -18116,7 +18129,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1126</v>
       </c>
@@ -18155,7 +18168,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1126</v>
       </c>
@@ -18194,7 +18207,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1126</v>
       </c>
@@ -18233,7 +18246,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1126</v>
       </c>
@@ -18272,7 +18285,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1126</v>
       </c>
@@ -18311,7 +18324,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1126</v>
       </c>
@@ -18350,7 +18363,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1126</v>
       </c>
@@ -18389,7 +18402,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1126</v>
       </c>
@@ -18428,7 +18441,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1126</v>
       </c>
@@ -18467,7 +18480,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1126</v>
       </c>
@@ -18506,7 +18519,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1126</v>
       </c>
@@ -18545,7 +18558,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1126</v>
       </c>
@@ -18584,7 +18597,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1126</v>
       </c>
@@ -18623,7 +18636,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1126</v>
       </c>
@@ -18662,7 +18675,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1126</v>
       </c>
@@ -18701,7 +18714,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1126</v>
       </c>
@@ -18740,7 +18753,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1126</v>
       </c>
@@ -18779,7 +18792,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1126</v>
       </c>
@@ -18818,7 +18831,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1126</v>
       </c>
@@ -18857,7 +18870,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1126</v>
       </c>
@@ -18896,7 +18909,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1126</v>
       </c>
@@ -18935,7 +18948,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1126</v>
       </c>
@@ -18974,7 +18987,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1126</v>
       </c>
@@ -19013,7 +19026,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1126</v>
       </c>
@@ -19052,7 +19065,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1126</v>
       </c>
@@ -19091,7 +19104,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1126</v>
       </c>
@@ -19130,7 +19143,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1126</v>
       </c>
@@ -19169,7 +19182,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1324</v>
       </c>
@@ -19208,7 +19221,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1324</v>
       </c>
@@ -19247,7 +19260,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1324</v>
       </c>
@@ -19286,7 +19299,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1324</v>
       </c>
@@ -19325,7 +19338,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1324</v>
       </c>
@@ -19364,7 +19377,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1324</v>
       </c>
@@ -19403,7 +19416,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1324</v>
       </c>
@@ -19442,7 +19455,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1324</v>
       </c>
@@ -19481,7 +19494,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1324</v>
       </c>
@@ -19520,7 +19533,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1324</v>
       </c>
@@ -19559,7 +19572,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1324</v>
       </c>
@@ -19598,7 +19611,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1324</v>
       </c>
@@ -19637,7 +19650,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1324</v>
       </c>
@@ -19676,7 +19689,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1324</v>
       </c>
@@ -19715,7 +19728,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1324</v>
       </c>
@@ -19754,7 +19767,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1324</v>
       </c>
@@ -19793,7 +19806,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1324</v>
       </c>
@@ -19832,7 +19845,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1324</v>
       </c>
@@ -19871,7 +19884,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1324</v>
       </c>
@@ -19910,7 +19923,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1324</v>
       </c>
@@ -19949,7 +19962,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1324</v>
       </c>
@@ -19988,7 +20001,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1324</v>
       </c>
@@ -20027,7 +20040,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1324</v>
       </c>
@@ -20066,7 +20079,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1324</v>
       </c>
@@ -20105,7 +20118,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1324</v>
       </c>
@@ -20144,7 +20157,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1324</v>
       </c>
@@ -20183,7 +20196,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1324</v>
       </c>
@@ -20222,7 +20235,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1324</v>
       </c>
@@ -20261,7 +20274,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1324</v>
       </c>
@@ -20300,7 +20313,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1324</v>
       </c>
@@ -20339,7 +20352,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1324</v>
       </c>
@@ -20378,7 +20391,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1324</v>
       </c>
@@ -20417,7 +20430,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1324</v>
       </c>
@@ -20456,7 +20469,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1324</v>
       </c>
@@ -20495,7 +20508,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1324</v>
       </c>
@@ -20534,7 +20547,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1324</v>
       </c>
@@ -20573,7 +20586,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1324</v>
       </c>
@@ -20612,7 +20625,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1324</v>
       </c>
@@ -20651,7 +20664,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1324</v>
       </c>
@@ -20690,7 +20703,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1324</v>
       </c>
@@ -20729,7 +20742,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1523</v>
       </c>
@@ -20768,7 +20781,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1523</v>
       </c>
@@ -20807,7 +20820,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1523</v>
       </c>
@@ -20846,7 +20859,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1523</v>
       </c>
@@ -20885,7 +20898,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1523</v>
       </c>
@@ -20924,7 +20937,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1523</v>
       </c>
@@ -20963,7 +20976,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1523</v>
       </c>
@@ -21002,7 +21015,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1523</v>
       </c>
@@ -21041,7 +21054,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1523</v>
       </c>
@@ -21080,7 +21093,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1523</v>
       </c>
@@ -21119,7 +21132,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1523</v>
       </c>
@@ -21158,7 +21171,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1523</v>
       </c>
@@ -21197,7 +21210,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1523</v>
       </c>
@@ -21236,7 +21249,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1523</v>
       </c>
@@ -21275,7 +21288,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1523</v>
       </c>
@@ -21314,7 +21327,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1523</v>
       </c>
@@ -21353,7 +21366,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1523</v>
       </c>
@@ -21392,7 +21405,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1523</v>
       </c>
@@ -21431,7 +21444,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1523</v>
       </c>
@@ -21470,7 +21483,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1523</v>
       </c>
@@ -21509,7 +21522,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1523</v>
       </c>
@@ -21548,7 +21561,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1523</v>
       </c>
@@ -21587,7 +21600,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1523</v>
       </c>
@@ -21626,7 +21639,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1523</v>
       </c>
@@ -21665,7 +21678,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1523</v>
       </c>
@@ -21704,7 +21717,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1523</v>
       </c>
@@ -21743,7 +21756,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1523</v>
       </c>
@@ -21782,7 +21795,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1523</v>
       </c>
@@ -21821,7 +21834,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1523</v>
       </c>
@@ -21860,7 +21873,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1523</v>
       </c>
@@ -21899,7 +21912,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1523</v>
       </c>
@@ -21938,7 +21951,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1523</v>
       </c>
@@ -21977,7 +21990,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1523</v>
       </c>
@@ -22016,7 +22029,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1523</v>
       </c>
@@ -22055,7 +22068,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1523</v>
       </c>
@@ -22094,7 +22107,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1523</v>
       </c>
@@ -22133,7 +22146,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1523</v>
       </c>
@@ -22172,7 +22185,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1523</v>
       </c>
@@ -22211,7 +22224,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1523</v>
       </c>
@@ -22250,7 +22263,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1523</v>
       </c>
@@ -22289,7 +22302,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1723</v>
       </c>
@@ -22328,7 +22341,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1723</v>
       </c>
@@ -22367,7 +22380,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1723</v>
       </c>
@@ -22406,7 +22419,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1723</v>
       </c>
@@ -22445,7 +22458,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1723</v>
       </c>
@@ -22484,7 +22497,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1723</v>
       </c>
@@ -22523,7 +22536,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1723</v>
       </c>
@@ -22562,7 +22575,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1723</v>
       </c>
@@ -22601,7 +22614,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1723</v>
       </c>
@@ -22640,7 +22653,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1723</v>
       </c>
@@ -22679,7 +22692,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1723</v>
       </c>
@@ -22718,7 +22731,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1723</v>
       </c>
@@ -22757,7 +22770,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1723</v>
       </c>
@@ -22796,7 +22809,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1723</v>
       </c>
@@ -22835,7 +22848,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1723</v>
       </c>
@@ -22874,7 +22887,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1723</v>
       </c>
@@ -22913,7 +22926,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1723</v>
       </c>
@@ -22952,7 +22965,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1723</v>
       </c>
@@ -22991,7 +23004,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1723</v>
       </c>
@@ -23030,7 +23043,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1723</v>
       </c>
@@ -23069,7 +23082,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1723</v>
       </c>
@@ -23108,7 +23121,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1723</v>
       </c>
@@ -23147,7 +23160,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1723</v>
       </c>
@@ -23186,7 +23199,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1723</v>
       </c>
@@ -23225,7 +23238,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1723</v>
       </c>
@@ -23264,7 +23277,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1723</v>
       </c>
@@ -23303,7 +23316,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1723</v>
       </c>
@@ -23342,7 +23355,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1723</v>
       </c>
@@ -23381,7 +23394,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1723</v>
       </c>
@@ -23420,7 +23433,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1723</v>
       </c>
@@ -23459,7 +23472,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1723</v>
       </c>
@@ -23498,7 +23511,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1723</v>
       </c>
@@ -23537,7 +23550,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1723</v>
       </c>
@@ -23576,7 +23589,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1723</v>
       </c>
@@ -23615,7 +23628,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1723</v>
       </c>
@@ -23654,7 +23667,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1723</v>
       </c>
@@ -23693,7 +23706,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1723</v>
       </c>
@@ -23732,7 +23745,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="395" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1723</v>
       </c>
@@ -23771,7 +23784,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="396" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1723</v>
       </c>
@@ -23810,7 +23823,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="397" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1723</v>
       </c>
@@ -23849,7 +23862,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="398" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1918</v>
       </c>
@@ -23888,7 +23901,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="399" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1918</v>
       </c>
@@ -23927,7 +23940,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="400" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1918</v>
       </c>
@@ -23966,7 +23979,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="401" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1918</v>
       </c>
@@ -24005,7 +24018,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="402" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1918</v>
       </c>
@@ -24044,7 +24057,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="403" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1918</v>
       </c>
@@ -24083,7 +24096,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="404" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1918</v>
       </c>
@@ -24122,7 +24135,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="405" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1918</v>
       </c>
@@ -24161,7 +24174,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="406" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1918</v>
       </c>
@@ -24200,7 +24213,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="407" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1918</v>
       </c>
@@ -24239,7 +24252,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="408" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1918</v>
       </c>
@@ -24278,7 +24291,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="409" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1918</v>
       </c>
@@ -24317,7 +24330,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="410" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1918</v>
       </c>
@@ -24356,7 +24369,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="411" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1918</v>
       </c>
@@ -24395,7 +24408,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="412" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1918</v>
       </c>
@@ -24434,7 +24447,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="413" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1918</v>
       </c>
@@ -24473,7 +24486,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="414" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1918</v>
       </c>
@@ -24512,7 +24525,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="415" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1918</v>
       </c>
@@ -24551,7 +24564,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="416" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1918</v>
       </c>
@@ -24590,7 +24603,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="417" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1918</v>
       </c>
@@ -24629,7 +24642,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="418" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1918</v>
       </c>
@@ -24668,7 +24681,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="419" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1918</v>
       </c>
@@ -24707,7 +24720,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="420" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1918</v>
       </c>
@@ -24746,7 +24759,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="421" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1918</v>
       </c>
@@ -24785,7 +24798,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="422" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1918</v>
       </c>
@@ -24824,7 +24837,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="423" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1918</v>
       </c>
@@ -24863,7 +24876,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="424" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1918</v>
       </c>
@@ -24902,7 +24915,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="425" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1918</v>
       </c>
@@ -24941,7 +24954,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="426" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1918</v>
       </c>
@@ -24980,7 +24993,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="427" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1918</v>
       </c>
@@ -25019,7 +25032,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="428" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1918</v>
       </c>
@@ -25058,7 +25071,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="429" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1918</v>
       </c>
@@ -25097,7 +25110,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="430" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1918</v>
       </c>
@@ -25136,7 +25149,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="431" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1918</v>
       </c>
@@ -25175,7 +25188,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="432" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1918</v>
       </c>
@@ -25214,7 +25227,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="433" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1918</v>
       </c>
@@ -25253,7 +25266,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="434" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1918</v>
       </c>
@@ -25292,7 +25305,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="435" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1918</v>
       </c>
@@ -25331,7 +25344,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="436" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1918</v>
       </c>
@@ -25370,7 +25383,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="437" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1918</v>
       </c>
@@ -25409,7 +25422,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="438" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>2119</v>
       </c>
@@ -25448,7 +25461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>2119</v>
       </c>
@@ -25487,7 +25500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>2119</v>
       </c>
@@ -25526,7 +25539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>2119</v>
       </c>
@@ -25565,7 +25578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>2119</v>
       </c>
@@ -25604,7 +25617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>2119</v>
       </c>
@@ -25643,7 +25656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>2119</v>
       </c>
@@ -25682,7 +25695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>2119</v>
       </c>
@@ -25721,7 +25734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>2119</v>
       </c>
@@ -25760,7 +25773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>2119</v>
       </c>
@@ -25799,7 +25812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>2119</v>
       </c>
@@ -25838,7 +25851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>2119</v>
       </c>
@@ -25877,7 +25890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>2119</v>
       </c>
@@ -25916,7 +25929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>2119</v>
       </c>
@@ -25955,7 +25968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>2119</v>
       </c>
@@ -25994,7 +26007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>2119</v>
       </c>
@@ -26033,7 +26046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>2119</v>
       </c>
@@ -26072,7 +26085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2119</v>
       </c>
@@ -26111,7 +26124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>2119</v>
       </c>
@@ -26150,7 +26163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>2119</v>
       </c>
@@ -26189,7 +26202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>2119</v>
       </c>
@@ -26228,7 +26241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>2119</v>
       </c>
@@ -26267,7 +26280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>2119</v>
       </c>
@@ -26306,7 +26319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>2119</v>
       </c>
@@ -26345,7 +26358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>2119</v>
       </c>
@@ -26384,7 +26397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>2119</v>
       </c>
@@ -26423,7 +26436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>2119</v>
       </c>
@@ -26462,7 +26475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>2119</v>
       </c>
@@ -26501,7 +26514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>2119</v>
       </c>
@@ -26540,7 +26553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>2119</v>
       </c>
@@ -26579,7 +26592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>2119</v>
       </c>
@@ -26618,7 +26631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>2119</v>
       </c>
@@ -26657,7 +26670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>2119</v>
       </c>
@@ -26696,7 +26709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>2119</v>
       </c>
@@ -26735,7 +26748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>2119</v>
       </c>
@@ -26774,7 +26787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>2119</v>
       </c>
@@ -26813,7 +26826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>2119</v>
       </c>
@@ -26852,7 +26865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>2119</v>
       </c>
@@ -26891,7 +26904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>2119</v>
       </c>
@@ -26930,7 +26943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>2119</v>
       </c>
@@ -26969,7 +26982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>2119</v>
       </c>
@@ -27008,7 +27021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>2119</v>
       </c>
@@ -27047,7 +27060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>2119</v>
       </c>
@@ -27086,7 +27099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>2119</v>
       </c>
@@ -27125,7 +27138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>2119</v>
       </c>
@@ -27164,7 +27177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>2119</v>
       </c>
@@ -27203,7 +27216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>2119</v>
       </c>
@@ -27242,7 +27255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>2119</v>
       </c>
@@ -27281,7 +27294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>2119</v>
       </c>
@@ -27320,7 +27333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>2119</v>
       </c>
@@ -27359,7 +27372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>2312</v>
       </c>
@@ -27398,7 +27411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>2312</v>
       </c>
@@ -27437,7 +27450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>2312</v>
       </c>
@@ -27476,7 +27489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>2312</v>
       </c>
@@ -27515,7 +27528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>2312</v>
       </c>
@@ -27554,7 +27567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>2312</v>
       </c>
@@ -27593,7 +27606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>2312</v>
       </c>
@@ -27632,7 +27645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>2312</v>
       </c>
@@ -27671,7 +27684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>2312</v>
       </c>
@@ -27710,7 +27723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>2312</v>
       </c>
@@ -27749,7 +27762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>2312</v>
       </c>
@@ -27788,7 +27801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>2312</v>
       </c>
@@ -27827,7 +27840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>2312</v>
       </c>
@@ -27866,7 +27879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>2312</v>
       </c>
@@ -27905,7 +27918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>2312</v>
       </c>
@@ -27944,7 +27957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>2312</v>
       </c>
@@ -27983,7 +27996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>2312</v>
       </c>
@@ -28022,7 +28035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>2312</v>
       </c>
@@ -28061,7 +28074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>2312</v>
       </c>
@@ -28100,7 +28113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2312</v>
       </c>
@@ -28139,7 +28152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>2312</v>
       </c>
@@ -28178,7 +28191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>2312</v>
       </c>
@@ -28217,7 +28230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2312</v>
       </c>
@@ -28256,7 +28269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>2312</v>
       </c>
@@ -28295,7 +28308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>2312</v>
       </c>
@@ -28334,7 +28347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>2312</v>
       </c>
@@ -28373,7 +28386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2312</v>
       </c>
@@ -28412,7 +28425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2312</v>
       </c>
@@ -28451,7 +28464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="516" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2312</v>
       </c>
@@ -28490,7 +28503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>2312</v>
       </c>
@@ -28529,7 +28542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>2312</v>
       </c>
@@ -28568,7 +28581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="519" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>2312</v>
       </c>
@@ -28607,7 +28620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="520" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>2312</v>
       </c>
@@ -28646,7 +28659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="521" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>2312</v>
       </c>
@@ -28685,7 +28698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2312</v>
       </c>
@@ -28724,7 +28737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="523" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>2312</v>
       </c>
@@ -28763,7 +28776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>2447</v>
       </c>
@@ -28802,7 +28815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>2447</v>
       </c>
@@ -28841,7 +28854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="526" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>2447</v>
       </c>
@@ -28880,7 +28893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="527" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>2447</v>
       </c>
@@ -28919,7 +28932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="528" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>2447</v>
       </c>
@@ -28958,7 +28971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>2447</v>
       </c>
@@ -28997,7 +29010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="530" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2447</v>
       </c>
@@ -29036,7 +29049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="531" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>2447</v>
       </c>
@@ -29075,7 +29088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="532" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>2447</v>
       </c>
@@ -29114,7 +29127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2447</v>
       </c>
@@ -29153,7 +29166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="534" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2447</v>
       </c>
@@ -29192,7 +29205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2447</v>
       </c>
@@ -29231,7 +29244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2447</v>
       </c>
@@ -29270,7 +29283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>2447</v>
       </c>
@@ -29309,7 +29322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>2447</v>
       </c>
@@ -29348,7 +29361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="539" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>2447</v>
       </c>
@@ -29387,7 +29400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="540" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>2447</v>
       </c>
@@ -29426,7 +29439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="541" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>2447</v>
       </c>
@@ -29465,7 +29478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>2447</v>
       </c>
@@ -29504,7 +29517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="543" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2447</v>
       </c>
@@ -29543,7 +29556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>2447</v>
       </c>
@@ -29582,7 +29595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>2447</v>
       </c>
@@ -29621,7 +29634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="546" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>2447</v>
       </c>
@@ -29660,7 +29673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2447</v>
       </c>
@@ -29699,7 +29712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>2447</v>
       </c>
@@ -29738,7 +29751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>2447</v>
       </c>
@@ -29777,7 +29790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2447</v>
       </c>
@@ -29816,7 +29829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="551" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>2447</v>
       </c>
@@ -29855,7 +29868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="552" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>2447</v>
       </c>
@@ -29894,7 +29907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="553" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>2447</v>
       </c>
@@ -29933,7 +29946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="554" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>2447</v>
       </c>
@@ -29972,7 +29985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>2447</v>
       </c>
@@ -30011,7 +30024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="556" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>2447</v>
       </c>
@@ -30050,7 +30063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>2447</v>
       </c>
@@ -30089,7 +30102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="558" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>2447</v>
       </c>
@@ -30128,7 +30141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>2447</v>
       </c>
@@ -30167,7 +30180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="560" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>2447</v>
       </c>
@@ -30206,7 +30219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>2447</v>
       </c>
@@ -30245,7 +30258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>2447</v>
       </c>
@@ -30284,7 +30297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="563" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2447</v>
       </c>
@@ -30323,7 +30336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="564" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>2447</v>
       </c>
@@ -30362,7 +30375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="565" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>2447</v>
       </c>
@@ -30401,7 +30414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="566" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>2447</v>
       </c>
@@ -30440,7 +30453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>2447</v>
       </c>
@@ -30479,7 +30492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="568" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>2447</v>
       </c>
@@ -30518,7 +30531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="569" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>2447</v>
       </c>
@@ -30557,7 +30570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="570" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>2447</v>
       </c>
@@ -30596,7 +30609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="571" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>2447</v>
       </c>
@@ -30635,7 +30648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>2447</v>
       </c>
@@ -30674,7 +30687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>2447</v>
       </c>
@@ -30713,7 +30726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="574" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>2447</v>
       </c>
@@ -30752,7 +30765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>2447</v>
       </c>
@@ -30791,7 +30804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>2447</v>
       </c>
@@ -30830,7 +30843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="577" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>2447</v>
       </c>
@@ -30870,6 +30883,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G204" r:id="rId1" xr:uid="{62B97EC4-F721-4A30-BFFF-B23B16970745}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A3:F577 A1:F1 H1:O1 A2:F2 H2:O2 H3:O577" numberStoredAsText="1"/>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\OneDrive\Desktop\Commons\vocabylary-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F32A98-FDBB-4016-B98E-60F36E2BA59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D35C959-591F-41DF-AB56-27BA46DD1FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5200" uniqueCount="2643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5682" uniqueCount="3119">
   <si>
     <t>topic</t>
   </si>
@@ -7961,25 +7961,1445 @@
     <t>The research seems to validate the theory.</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/98/TreesInTheFog.jpg/1200px-TreesInTheFog.jpg</t>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ0xGL39ovfvmkL7xgGt4o9yb_Tgwb8V2gy-Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQsMTa97Y3txNBIvGG490qkVYbc6CtGxerQZg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS3fOv318dN9ZdemvsSILPl1nh98zuxajVhCw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR15m-K1HncwgzXJEt2ikpoyj3u4dUFW_qsEw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTcBZGzdOM71KgzHcq3TNtyavUXEhUbvA16_A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQDGvjdlFv0yha0VI_PUgPrtnlfZETuKRA5ZQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQpari5xwyKiXbwUiETblprIG2N_0ayJDJBaQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSPsgXEq7lirubqX8XZ-8MONNNcv5vK_Dvuyg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRO8N5CmiY_qUV7sxsgQqAOJVwl6orG8-bLmw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQLHqAFCcN9NU-KKlA3h_42_rPL8PfOkrCn9A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ0GT08nLtoxWw4bqUimTMvDyOXWFLhb2FPZw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTSEk_VKo3K4SNrLkZZazCmgUeH5ni2im4WA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQnPdud_AmDXuM63D4VZCsi7EjN3lujKro8mQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQbRpKVcENNkGuL4gLTB9CUvyiJlfyDnVS0gw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQTIsBG7Zx0fFefam0085AB0pL6wMMbTks9Jw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSdHU-RPuRqV7uDW6ae0Gdo-bGnV2j5cnyUdA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR3Q0QN_u_sn61gzv9Z3KEaZIEYPmZJq2gMuA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTHccS6Vs0Y_-i6V6ivhUCy8ei4PYgxPz-2Ww&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQc1Okdk5Lwe0SQnIaz9WWOsbVdMn6TREKiXA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRxGMmzfYHaRxtUVB22AYn5eGN9wr-ZHiOEsQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRNFdJHy_UUlGX2SMi7HIn9-a-LV_M3_1Ja5A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSIyltbvCEaBCkbn263eD3RA9jDtvczuvt76g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS6FvY2s2y3G3any9LEeK7oxJsrjpDpfnyv5A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ2xLCJKsiklwEM4WRd4PvKtt0KfzKYJKDMsQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQHINj4nA9CwNFi9QUBA84nv-XUld8e5kcb-A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRBdW9P4aLFhEXJoZJ_LiXEqKIj7UREw4bIGQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQQe8egV5_3VH_Fs0uHpMA6C1fc5pbGhJntIQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTpSKOo0VslHBPClKlY7ZsNZbOR443CR0vng&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSsk9_uoaQb1eWvcWx9JiFz6hA3Br_00mfyHg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTqFfcA80Mc77YHQcawPU_V_k_cC8hTjUoqQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSod9zhJMYOmoIVPVl3JZo-5qRCBbM97ZxRbQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSmtmalbupOTdh6pqR2Deob353qVjRKxzOAgA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT3ektnswWzrz0-OOqA_C-peeDe9tzdjS2MnQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT05jFHkhhNAY9kRaAVQ8DgZ_MHl00LLhRpVA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTlyzd6XRcDgJ0wWR_PN_DHlYcaoB0_fZkUQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRtkNG_gNWb7pJviv4iS3QP5FGiL6GR9HQFUg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS1nPsNYTQ527FNElQEa3IRIK5A-Nclxg0MlQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS_Mp10e4XKjuGAeF9tDMKEW3VYZr5kYPs3Cg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQrmLu8XVO5LhFECVD5-y5CKOcxKr9z1Eafrg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQDuX6HYx7AJYCP-cAROuTbavUFRG2Rjnds2w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSZKcei9XF3jmCfyWjdw7UNLdd484cplWuGLg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ-HjUKNhdHRkIHHLohufKnVbihCgGpQyQVbA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTLrtXsIfXk2umrriV4GVOVYo_cnpMGwy0YEA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSs3etKvuTf1FeGlNU57gYougjiFGeongL6SA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQHkzcshTYAlDvn3fmpzQvKiNa1FF4yZSh0-A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQtIuyns_hv1gG4cZ2HjAwaYyChcGan6q4xsA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ60FT67-t-kQ2AyAxnFDX8IxMMx8HJGxKCXA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTJtU_U7xvIfmNe3ofKWfmFkQEtk6tgG_Y0fQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQcs--Xs-6NsNvDCKy2rHIIsxi-vJ-pzGDOCg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQDrBDkHF7PJvKUph1oXH_X7-G8Yqa4bB2R0Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTzjACGh8Rg7SCNJRgWASFxy8Sqv_fE6jUbCA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQQK-SN7Ns1VbhNBPyfl6yJ-KldexMQW6_IoQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS3pphSmgnLJHG52TY_0yU4r_CB7gKzsujOIA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ84dS2e_ZzNhZXpQcdNh88KyE9AvXiY4OM7A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSp4lVZWCxs5anU7qJ4Rys6IU8DG3d7Zl4ARg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRxKGWLr3KfXOU44KwpLcc7QB4rvj1d0eH0xA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRJsgj-E4dguazXmG6HypkP1IL3NXdnmWaqZg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSHyftkA6qgKX8Ri-G4v_AuFRyW4OeMPtmAFQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSqvW00xrX2SOnJEg_gpHuuoGmrWj0vbGYpqg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcReUIraDINUUW5Xu5mK5p2jSgWBBmd_dhW3pw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS40xQKvdyd5t6-UHrbZ5XkUCmKHBp4SGY_pg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSblQOYe10nbb8kuOLUULv31lZabfBccFcnEg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS7NBJ5UCyAdUIWzNZl-oj6f-7HkT3F3vjR_Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRszXaHUJzKWHJVCeM0Kb7oxuhtPdGUpgCKqw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRofJ5Re56kW5tGm0XT0gSICIn7-zDFzqptqQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS4LEAQ9cGDnqQxw7HXAro88uiCv9mOKfsR0w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSS5KPLxJMrVBLvrtToouRLP9d5TUYrcrJjgw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTKbSfNrQPZ_X9QIOxeXlSPOHDFqiEKHm9GOw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT99Qr3Islyl0B6syowTosAVWXYrMJ7oKdBDQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQbqnszH0hwU6jVk8IZbEhkmuuPx2BkiWk7Ig&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQH9p027WjBbR68mxjw8CjqdrYxeBq4KMVNEA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRrDgyfHz33e5h7CGNDoDf2KH006TpMOObamA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQf687QhQorMikyARkuwgXX5Dg2d7HQ0h_H8Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTPzh-rqfb9Y-0jT7mR876FLruIjb1-auiHYw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQiGZX50l99pavyhzz5nvTcXzvXWHrJmn-avA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQhXfDriD_jDRewTJdqGQf6S9d4NamdW8bQCw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSe8LTTqQRYOvkzzSWj16o6cythSH1nT4u8oQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTikl0TFyoYX2I1mIre_3agfFgjSPlU8k2icQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ8Fz1SKnmEIfXHF5__lwn3UB5ksQcV5geaOQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT9l3p_NeUaopqocekBJJWadVN5mW01FQF1_A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQkNb9WXg9MFmzPJhU2j6O73iSk-iUHzJ2sSw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS2b55yNq8-ZoipQB7-unvTwWmcvLdrREu75Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcStLQM5IuHYFLqV0P7tpgcRtEPLesf487H2mQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSqYkgtp9-ONDMaomYdAAy1NaWEcFHPbTC32Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTi9YiFPX3i99WKTgPXJrbCyo48jiepqA7FMA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ7VB6ozL4wIp1aKT0p8U0OELwQzSx-wJHahQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTeHyTdihYXvAPI8DYGplhaC1HTMSufSH9tlw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRpGi5EdqHhAX9UyJ9gE_lf5bqhHiIop3qsWA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRy3wv4zTTadyhQe1a48np8Q-ji94P_m1BisQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR6nhRsWU6PtYvjz3r4aXeL8WhgcXgdLEFerA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSoBTMDYcwKstsADKlB9MCf2y--e5iWhGDWKQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSmICssidAEyhtK8flaMUVq5_R9C2Adg5UkKQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQZKXcOEFTamXnTnVR-2WXlC3a4iqPAgGo-BA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRxaLAPs_2EFo9V-rXcvIs4J-yK-p465K_8iQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTZwymAVS57rVe34TLfkfY2UZ1NDSHcaKozUw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQNcvgMPdn-VXsrJs-7L8A8nGGYTrwHjjnYdQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTxk3R2IOzOEae_DHqOcCtBLftaph986r-_w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTa6_CZonDegCrDUth3foqV98ovJSd8-4hlrQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTwUcemyzXtlT5_zVfw_5nuSTRCdm6oDrYxeA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcShKr2NdbNl1UOOg_E5V-gne5GLkZSnTwQhKQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRZiaE1NVxJx_LvyMNQ9bDUajCeLl5MDWkALw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTusuhWzXex8drY-ASJPCBqhlB9fFOxeLDWRg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRFk-dIkPJHzIDZWfetqnfL-46dwhyqlHKLgw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSDXe7lwsmsP_J9nnm2cjEgllnKAT8cOXdNlg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS2wQ-MJcTZHOIqOZsb13qgQKfDpaCKMY83LA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSmaC4ABRZh3z2sU4tvYq8TTcVv-l0-xAGtXQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGwrVUXZqIORIKnxqti6EaOd10eMDHTTg1lA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQwpCqFvfH2BtAwgcXAa-rqtebAODhrTO97sg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRyHwmwLffoWrmWdgZf_bDkd0e-oz-4snY9HQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRnyQT0Ihmm8UvzMl7LmZ5gtHf3AxjsqV1bGw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSFhLsYSbWIwQ4uPZVA3n-Xy7209vM_6FetvA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSVa0fPeNsgj-D9M46dWt9ku5aDTFOpVuSWpg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRJRvpHlmGWPj5hxggmCdptR-khHw2Fz800xQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSD5wO2XovxnBOxryNyMauEMVNdFy-e1GZ9iA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ50sMvIWtWP8AxXj08yfDopiuMGmUuimpPHA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSjYVomrA-Gm_D-r_qlblKTHi1cmv4esvSFQA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcStsxOYfJj_SH8GBJlV3UibLOMCDvUG2wWqxw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT5jYcoCLpLhUBCCSXLQsCs0ojArFV-Vqvefg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYLienF4eNzjeTSEP6UDmCjZ8bltgQQBX7Pw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQbFm6VSgmVn7TD_923-flEZlnOqTuF5zujCQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTnVEdI1dsTgKvPZNvkfKu2sZVuE_p-GZ8aAg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS5wwR_QVX1Jc6wVjNo_Ngwr4ZFj3iQzDOnQQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTFvl2i1_fD0X7Ktlw6mYOMY0lBUQpvhevmzQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0V1mbv9FOHcH8a2bZJ6HyPWw6rJi5T7AgtQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQUe8NlsWJb7xkMAgsE0MhuEbIWJNGW3TQ7Lg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQrvN2eR-WpdPtZlcyrRU6RhYA21kb4RhtnHg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTB_jWj4ng--eyMCVIFTPSIU8ic0FAYYPqH2Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRTXGzDrB360PqnzU1sNuR53lI4F6bmle99Yw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0JMY81m9jLc3I19EgMwyYbycQBSLixMw4iA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQAQZEIVlfXmX_h8asQ9pf31knmhMN6hQxytw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGx0MTc2WquhMySaWv4PxFFhLy5vqTlI68Hw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ-danGc8mltCDhLS3AAvc9PoUo9ozhWoR-Yw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQPkqVSHw0cJ1r-EJw62DdgOm2tpj2x2NAdYg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSjfYeXUDaG923W16eBkhwrbTyhNrmV38jgOw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLu1IdNORYB5bpxt-BQ35mFckePHsh13UWPg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS_nimw-eWAxo6jjkn7hwPq6smxXCxmkX8D-A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSO04nNVrSDLtJR-ziFd70mvjOCuJVvvsWRSQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTNURtKjiNo-gzDz3QpD7RGf0XEPsb_MAek0w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQpE7_wtnRgu74sCnOJWy4v8Y1QdeA9zKHmtQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSllxethu-y4RTGtPqRlOzKThtEfNuRpkANUg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRt3NbNl42CrY0Ynj2d-QWJ5d6DOke1Vf_xOg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTSdhp6h4hTDoXyzozPqtFHRyo81YwsbDLXTA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTXLAk6OYoQuFYvwKsJcSfXaFH-09mvkxKOyQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTOK75Jeh0_64Nttl4Ci4r6FWZlbjClt_Ac4A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRoZshZPdYE7rn4Dw2bD4fr-QWPFUV1GdDXtQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSlUxxdTrY81sXeA0e2HdFnED28tFPXOMZ_HA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTPxFPuuwPBvtNfQkHKkLEhwOS1Wu_nL-_3Ug&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSaQKlD4q7k3r10uER-c0mJnfvgaEihl_F1jA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSlp3HGF89jd8lrkDGAnZV3XsjCBV2pU376nQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSKvLpgtEz-lI25zdZd3XpBMHv77YFj63Gl-w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSv51hP8B1pszWIyYBA77AYfvCXrtvsYyAtMw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTOhAbid2DeCpsilt47Peh-fFFoZmAGdwDIqA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRR-d1Il-jL1V1o9fmgpIm3klcdC9nT3PBrdg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR0WRMrdLiUj8hHCvkvHc5Yl0CkgTHufmlw7g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTZ0rQIc9OUCa683wFkiZMfRobALDA9Q7rMlw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRF7kYjyI6Mahl4QY3JfujFyPF16g3H1N1t7g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT1RKb4NU87xArh7WDK0wuGPWTjsM9lHNEFaA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSonSwWn9l450FhCUSq11hdPnRL8nG8UEFYxQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRyNSShKsYxjtpNUzSqCA8r73B5ayxtgHQpOg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTa3BAIuvK6fWXifmuPIzSjAQB0z1f6HtsLqw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ5-GxNHAl8d--wEmogvSXaOz3IQLjhZuPunQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSN7rqKabxApLeWeXt_Wl42Mj8r58biBkpnpA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSjioEr6l1TJkWRLClZ3UX1NTewia5ccJ6BfQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSSabrBZxuW139T0wCclOEZlj8-uf_pZX2gjw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTzJhq81_5GrCMkMo6H4wLsNuiu6aoHByOyLw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRTZQhfnpoSkm9_fSIdvG22XL4s1wC_wIc8AQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTUDrHi-Ef5PwqvUzu8UY-sd_IEmDai2Bxi3A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSDM1QfOeQVMd8tFVVL6xKaDxyB-scFukmVXQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRrgyG8dUOZlgvRFDSycHUHPTjS4XfwH6mC7Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQZfaJ0tJWe-U_JOxXwMl-82tTtO0BdD26Qpw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRlq82-HlCQ53I21CtzTuUwKbjCd0Dy2MLp4w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSHiGihj5Nx3Iu1IJWIDfBB9IkASVhrDM15eg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcShw7XCcmZ4iaaPoD_-ZRCvX3Ud8cGL_vBpdA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRUzfl_F43f7gqeCcAgGsVAqE22LTUz6gfzBg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTlsJSJX2KmEMs7EQ1zCkLaCkvWC2pQtpJkkQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSk0fvKWVxvARTh_lpIMAE02CjR-OcPA4yeuQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTcVHd_2jdGcO1vny7GQ1wswyTeQeCpb7mftw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQiv08ZMgYLMNJN5pyygjYl3hdCXsjapttGSg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkCV1p-SMtxTAA4tBkKvMt2_i-EtD-z1SgRw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRO_hW_x15oFM3wE1Epv9Glq0EXNeuozCZvBA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ4Mmi_o_HPD0PgWx09Kk9-MdavpOfeVL3nZg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSaQR81RVzhuxVgbMJE-Iho5FFC-kfknUy1FA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSZOwWHejAAgzHKzkFDbg__O590STMlArXYNw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQa72dWMV7-Ok0yQe9yHrOTNe-hs824hWRNbw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR4RbvIrPR38qH1qeekoR5qv39Qnmlo7aMoqA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR9JzQYHqADXIvwT6jWPaSGG0Aa57VLzdbKew&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS6JFk5qgDP-al0oJ82AkWafzCff4Hfg61BNg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTxzVpuCzwRqweYfb76wq3trKS_3Co330G2wA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS8Rp1vdy541agH8e6QGsvtCvIGSa0TYgqAcg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRhIrSQGtE2nWM9gSXKY17jHOVqIC3oaXUaOw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSs7QpTIqf968YZ2O7VC3lwymM7c0AKMeCIYw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRCj0yUdAaOiLIvcgxp93WyH4GWnMWSIRxAxA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSaJ9jNgXVLBoSkfKOt7mFZxXAm7cWhOUvr-g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS-q1mMLjgijhxITUKVdkkr5OEjs5U5JcOY9Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS5Xdb_EUC4gbSN-8RIwGWwX_hrISSFLyiboA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTdAllQD91NhHRcXWAlheKELanwC65EEdsVCg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRBNGtZjs1E7nTSeWPotY3_IDhmRY5NE_NtVQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTOHhFmraEtq6dkU0K6o6MaW9Ipgw9pKCLl1Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRgLmcZrx-ft7foRloCL5xYRjjsoXjLmf-qbw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS9ul5S5pgONzEg5wbJq5YbZboEwA1rOcCrvg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQICQFK3ZZ-yj7r2CMzOSToxHFhURYSIJAJPA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSx_FoIFPM2sdpItUaSR5djoYtARP_H2Jiu9A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSwczqIL88ZcHpZevHb7lOLB8zu11bNTaVXzg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ0dZt6QAmrvIO1F1f0Yur_OwerjRuSweD8fQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSXJxyekZvQTfZrM2iWvdj8CMZkA0-gjApDMA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTES0uZU99hWl-HgVJBKnSF5nglf1pNA0l8Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSnySTKcftEsNYK9ClJgLCb7Gfh99biXKqfPg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTqiquxGsJQ-CEwH5LL_NHAEskzS5p_O4KpDw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0oUNL6468es1P6PZ_vY0J_MNkGVUgKglmqg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSG365llbzU2AJT-DwN3EWkSe8QO1_osbbcUg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRRsAc8EJH34OK_i1s64rQBlBebreVUDel42Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTbFKkyhzBltRTm3oCTfniLWi870d4z89FDXQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTLIFryZcwYY3LKpJtrouMK7uIGODcVLHc2yQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT9L74xygk__Pc1tuVltYjc1FyaOslra6ht2A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTBdDgQa_ZSymo2m3UyXu4SCsfkZ0LN6x_pVQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSieSMPZxMOJr7noyCQkMuhYkhMM3tDe_V3_g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT4Bp6rrqtyhiV4IwMfzpQWIQOGW6SXLdEWjQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcScM5hf7ZeLSPcqTQRFYBGLKDCru_NlGK2dLQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQYbKKt2KZANoBiqcNgDCjxq5oKISy-kg8Cew&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSAyRmN29DufrK51hHhZQMsj6obxgATaGH8CA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTlrqTWOljaWfE3XowvGVv3Hv1AqAqQ49ZFJw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQsvKeX-ws8GycCj9_qAfRwAoegeonWDa8FGg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRfalCu_dPqnAQeP8M_i1X_QtoOFV7dYkWu0A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTIaT8WwhQtJWVk5cVSRe4ix0aoCjYdBuyzzg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcShA08qc9-fx_7lsqkJFDgbivyRlGTRLFF9ew&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRmeZBbnVdaBaiQ7aL-sg9rODGeXBgrb25mSg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRWdoGXwCRnJf_R57SiIsneXCchstG0sCYcNw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0oLbo4hBOgl_eNB8FFNaDmAXWujfmymT3MQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS6KSYwUFTnCtAhbsU_53LiIYEI4BDYiK0wcA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS3RfX8jQdXTVAWjjPYiKh9hfpH6vSkJYcbUg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQV2WHbCWweCRU38QV_UCgiQHXo33h5qHkJ_Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTnKhoUQZ_EoTT3Ok8R8O-sLI9w0OBEo7aJpA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSGghhAWGzkRDdT3A7pqH_WWcgPTc3TIL4Deg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSxTX6XtKHPU80aIPmn9ivrb1mU3CQGadjUhw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSHaw6vsrRIwvtWvbmtSHV3c-hCD0K2b9hhSw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQHvH-OVYFd1TANrl2lcrlUKXXCrAKDPtEzqA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQM_CC-fvyaZHdAipNysAtI_xRMnMAJqN_Z_g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQIovAnLcRGY2XgDu_2ioInUuRwJhEIYHQg1w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQc-9_eXfFkaINLpfWKvXgCo8f_2hzhRvtZ4Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ0aurWc4_2j-A94tfz_bcxsdu1Wbg6rRn12A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSBiA9mJzpy0O0YSFlqcF2dNIfK2bhTWIVHAg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQmhH7SICIGyPaiESfu9V8-DYdB4NI69C-O-g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTf9DvxNbKrrWS-TI_WP_1xvqGrrN8LVWrMhA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ4y3r6XNX0-n4dOJBqxuyCJzai76lD-w5fPQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRlBL3-H9UyVmcjWW094GjPxMJg8zNCvE8zKg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ4E9RV0RHm--05l6k45mG4MaUFUhOYdgrtRg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQZ5YeCHqAR0TM-eSlJg6QZE0PgJuEsSY3uBg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSg_ri9E8XxXRafeIMA4QGosabTMk_wP7pTDQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQNpJ7EvPNAP7VLjcs3CMpBdilz7byUmUNSaA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTIw82p9ghY0vGFGlX-cd36Mi8GFtDQ2-JSfA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRgZbk4vn7C0BLqgT4a-FOdEYYoSZflGS_ClA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSdPcS2uBMbhagrfdPkJDc0Xw7JZ8BPk2TpXA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQn0GdVBe-chz62FScVOyvx7wdoRAODa8q3Bg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQiIP9iti3gc67FdcQgO6I1lRgqR9afRiA4PQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQEysO5CaN4Jbgy9r--if2Whh32rFsiEkowTA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSCxSSuvCmY5e7pi0qI_G4mEs3x0AVL6Ok7KQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTt1cRspHo0mQpFEavzHcqGwwDEOxGQLTeYHA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS4GQuewxLfMh2olMxwVIVsJmu1qFf5Q4dwZw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRbk0PNkiqamruTyzQRiwI3Eetx8t0kvxeJUw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRWmiJZoIcNvvJ0hQYI8oU2F4WgR10oXaYH_Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRYTvtjB3knhO24W4OjpvekbNaMhTgzoWoFnw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSIyVpNB17iZBdQWzV8h4p9kkzJvstgTRffJg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSIap1WtRQos0LX8XM0Oq2FAGsbe3ZxscS6gg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTYikgYJWF-Xh0sU8ECDwcC6qqqFvrX_sQaTw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTE4OzAWEUBsji4-Apxx4G_W5-Thznr2WxyBA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQRPKbfL9pzwWKuh4xM6_Qn2578UHZIbR_j3g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRgT7gREQdrXDr5vnviQGk1xEQo9CU9D-2jJw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS6gr4vpGjTXPuTNG7WmXK90r9ssQKZHmOV8Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0mty_pn6ZZcCZaAfo4H8umH_x356hkgbfYw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSzIzgRu_-yDSdyWoBN-7eWqqbXg9zRW3zq-g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ4CMp71m9MP7go1i9Zav5peW-5yXpDdHMizw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSaKIehfI5o0DtrJVmMzvbgivGnjGkBL3KAgA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSVXRMrZHp2Vv7XePQtwJZrf0FmbXoUWw53iQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT6RY9NDnqU6IplrdMIwj_P8dHaX5z9tRmvIA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTiJTLg-w7RZCKJbZMypPNnr7JAIyE7MBQWtg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSmVqSpQA0wB-u8vfFV1XOrfhBDdmZTY7kxng&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS0P2vKATn56_qesIH2ej2R6l3lYCTciPTK5w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRksQ4WffKl23a2oGj5CtBkV6rMBn9E0Pfp8w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT-tCCuWsEVp26-D-Mg2kInfUW7KFvFN5-EkA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTJyNc4QlFvGMLgUGelg0ARj-fjASvKkJKA4Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTrm45IT7TPDizgfnHZXQPDqLqTyIxJBt0D4Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTx-w3yijb4JkCumnbtkQEI43DFQjfLy6yeAw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcToKsB_rdwvnaAdsiLMFSqZYvSpdXjYdD9S-A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTbegZ2QaEfXjCL6Kh6bglYLCBXFc1-190UoA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTX6cEafejaIgvilfC0rpvZADy8lfYumU4Lrg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRtWAc_aNdsarcvjOAW6JKL58YnZgaq1pHw2A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQuWG0C5esaSktR32uy47MmSoHxm_W3fYDBfg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTndd-f_2OxSByG6nIxTX9umyXzQ1hMFqhlHQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSqOX_RnZSxzO_7h7iJkQ4c_bU5f-G-_e5z7g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSUSfUFRMHl1Zg89tXgF7NBneRJgFgI6aFJmQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSHcP9CHvsWfNOjhqcSO4qbFJ87O-jRNvbZ8w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSPM9GorMamIQ0y4NnS4Rg5mlLIE_G2oP-ASw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ-P-OoCmauK187UwKXj3T5vv-gc1fBJl9rMg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTuXR-Eb0CowcXWpVpji-Q0nfxPTCnyHbhURA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRQqViFNB0P8WbpstglI_c-aH67ZVZfdNXrHg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTxvdkSVgjpoFqrknZnv27l1xRRAebwT2yPcQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiJvm4RTeU0PMYlgZkdfEYv3MKuvlDDd_ppQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR953Bz7e4630IBL_-QXFlfBTarX6T8lhAPoA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTqwN8i9BSRuw2tWY8oldPqyhgtMawTUlze-Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR91ue7fFtBt5cksadT_YQps3rP_9ApVLdV6w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRh_2d1xtEQ4uAmxlR758iQ4D4cRxn3TizKZg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQPB5_5sYyQkvFNyTnbEeiC_bAth7BF9zLSSw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSlqcz3HPBbuf6B4a7g_hC5QMQ9KizwfO8KMw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTCIOHQnQUAMolEBSj9FYgspmC6qNcvLuLGA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTDExslODtmMe0VSBJ7C74XiMOC1VX2ZuvZ4Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTMOs1CoUEUCSz2I5I7mCBxpIKFiGCIp--WGA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRZUWLi4X9W4t5JbA2y_IMplrFLp7XaSSxDRw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSBC9OGAs8GH_JZBFUh1fEaghqSWG9JKjFMhw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ9TKDbLcaQxQW496hXGt0ewvO-Y0-DEOjKag&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSiupmBy9RXSgX2h8iRLvSdwyUwTYGC3dcb5Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS33e-7lTjm5ZiTHe7EKiyqJtXaHIUVCOshgg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSFwcCb6_MIzOIzdOPyx0XF6f4jy4BGEa25XQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT827qkcMJOR5-3R7GBv9pouNxyRKTE3Ej8mg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSNvMFGyKarhCChrc_AP4mXM1RkIALuNjPhGA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRuynOkzl2ZtNqwo6rO-nEDpOt7-fxrcsdPBw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcReZ1ReRQExbetoosyR_66wkdd2T0KFOM92sQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR6cGkOkB93JHZef7ibEyoQ8GiLsvFopd6BJw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQfYOanp7elcrB9isaRcRAdm6mjRIMAjy3ckA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQOuUWwbE-VMZCc13vLq8AqB6cKxa22THBZSQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRh2gr9M5aYSR3Hx77lWLFHPRrUL5MyRStY8g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQOrvjy1FrQBxuItOjKhDv2QKgcQopHxeKehQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQC73YY3bQbihMvD2t9RHeuyAqdhYSWyA-6og&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQwMLuaTTB9eIiO8v44EIo3CNycGhFU8Yd6yg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS_HOHkEFbtriAfsRbYJUMTSH3IjWFBWGmvEw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRAaDORmq2fJ8c_FRnVtYnx1qsDl2CCMvPqpw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRzwuPeEoFl1NcD-xySO7i3hEh0u3mCDviEiA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS8xNwGY7-fVs5UwRWUbFQJfWgt3LaEYoBahw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ31MhTErHB3pBn_S2QbNmOGEDs9N8TN-YADg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ8DxBSoo5t8PZwaTmOyei8CR6N6IjnVGwo8Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSJ7bovDXlTlZ3o-0wygdnO6JyyfyFSuKInyg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT_wj4XblCJ7wccT0w-ndZTspDKXDNRwukd7g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSHrVZA8ZVn3uhEEF0AkImH1bfpkch6OiH2IQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTfIHC3g8feRl7wcz9Guz7Juu2p57iiE4NdXg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTbbNjOTKX4GuTpByBzn0dD5Gm24ulB8kxYOQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSmJgmX-0q8yFHqpYiijIuy5EELCPxqq6f_Hg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRnmF3TflB9KU_sHvQ9denwUDcsYqkBgLP8dA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTMAwy4JkLG_G08FEhXBgzaq4NmiPsTVtdLCw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSqWjL-UoMo50xpm2sXiNVqOVb2WJlbjV_IUg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRDnZjGml_Q2TFJZ62NT14WFNuQ1ZiOJcGs3A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ_5XRQ02OAaIXZReS15gwKnF98cLivVHEqwg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRzkyJ8OCHRN6LSD5Xi4M-kunJYN5mwPq05-A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcThj-U-nZA2o4b-8pFvsFdYfsd6wy8jQXuURQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ5xWMn4Jd3R_Qn5r8WKByaH_ENBaHCzD_0Lg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR-U3NtUx6Ce-U8RkuOo3Q3v6g8uYxRt23b_A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQfupMjXCOqdr2zMZ0Fc9MN_lgtlQMyMb9-Nw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTxxHk_-v_SaVaWcXZWeBGBaccpqASnJgYrTw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTu5mGLeXIyjAzOs2FpQV9JmL0Oii-k4RdiQA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSdMOWyLvqUmTN8aBgq4ZUHnOXDnkYPLErWxA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTquLifdMT0Pymk0ZRpSAakysRsKZJRAzMoLQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSEicvkkif1U7GjwFdIC7yOLg-fJbu9g_70cg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ_z0QxU8_qQF7jWoyH7t4om7GlKp4Dgl_O8A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRe16zPuf02Hb0Bbh1pUn76tG_rOz6gpdzMDQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS223mz1Lthk2crsiy5xCffGpmS_Qm7TVj78A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTd6G4xNvzH6Cp6effT0DZ665oG_oP2cwkhbw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQMuRviGmuOIjiaBd9elsOJ9lthIA9hKV6JGQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQORvDRxMkhMwF3ylVDzLga0bDK02qEFdiJ5A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQnVZ9wVa_1ifXgdLXP9uE2yrv1uLF3ICi8RA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ3qVO8OwvTocPsBFHD_bByVIOz9sd5bnujsA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTERXPMy6ZSGV9vAltpgeov3e41icmuTf9wag&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ_fxsyBOEvSR1dbkuJaEs3-uOvPiHnX20yZA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYtwbeaGkFvYtOZirCBrR1TkNzM3fP7WvAZw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTiVCko9mPgtlCNB9V4aq6O1fV3lPV0TFLhOw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTMNsWvIZYbKl8vvsF6yCyA25Olu9qH5KXfUA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRbYAlJr7nx5lD2RcWAEQofb2TYt16aXwgGBw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTindnWZ7fGXlibW3oFzwQE_NhkVWAc_6rUiA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSMhn0ZJwVmhO9eqW-Hx15GDBIZRRs3zUO1gw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRDQhfDovWi99Zjp_asyj2Zv8arvEZUtzzptQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTyeVfLMzcEE3y_8M5K-QKDT-6H7uLqrMtOyA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR_CIT5dyM2Pqq4yD2zVrIRDVim-WoGa_fn9A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR0b27K_nNShGyZSSORoypye4KdMii4tlkY6A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTPfyALdGqWpjRLJ3OIrOuDMpsj_E2ugEuubg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSTk9N9D-BuEklRalc8hRuJudtFvLi5hPupJg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR6UCMwDxugKNFbBReiziqlsZ8LPpxD3U0mNg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQu2OCItCicR7kBF7U_apCAaPPGqECmV_CiDw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQep1i2Lv5S8RLXErh78ScpAMUmUTvNokumOg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRbAS9ngNZKqh9y8-zCBWRO8hDsDick6KdnWA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTsLQQKc2vkQiW36n9SkIVtiYBLPhXDwBKInw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQcRwozWEfo8KeWl0KflqBImjbbHcPfSJruHA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTDQLDcgD4sU1h-qUH3p_wvE4GDwumxHhrSqA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTWRmwCeGD5Iewh07b4FKZhgImpECSOmxbQSg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTha_LvHJR-kJdFqsKir4K8rZiMJzwwvPucA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGsapVPsege-fd9sda9pfkBNd5vmFwuV5CNQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQAVc4TBlPdVyyhcHXvbgW8FUBPB-ZryMw_pQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQH5j1rg24qDE89nA0ZouzuLF33bcoWKHLiFg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSSBvby5SXjOUPrZDgELlmlM9yax3srHAzQkw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRdPyrP3Bcvh8gVVVDzU_bxoX2ENatgFTW3lw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQzcL31brZ9eiBd9qC37ATw1tJgkARsGLpbQA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGcwpvdqiijkpQmzYr7577W7sZ47JTNg11BQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSn4PHw_ClkcWjx_iE85ZgJrKyGSBin2XXfnQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR2WVOXEZWUon57d5-HOToH-64Kc_j28cDB8w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTbsnkalcGaW_yCEpJNDoahkkWVwkAno6hFVA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSZIzrlWRVkKroHuPkE4kXXYp7UsWdZbQs_uw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT0GwdklPaH9LS6-pgFe_6TkogGLdWrMfHnFw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT-w6VQofcXFDEH5vAKzDITqWwW4F3pIs2O-g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ3gsRv_mDGKT47t2jD6e0MPq2al4cj8ZY-Sw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSySi-1NQkHr53qDk1M-wj-B6OHG0mOFG_lMA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSsNg27Qi6mLiMTi7H6dt7SaRJ-JGyP-di-oQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT60M-MrakMc_RpHO7GjHz5PmWnqvk6PBbXUA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRPH0Ot4nFgG_sBEBq3HJRB0_wmWeVqATYpng&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT-tn2CM0XQbUp5FEYd_lsZSUdIKnSmtW_mEQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRk0Z5zEsFiiat-8DnodMN3VbW0cCDe_wUmjA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTy_kDc4sIcxfKS6ArFoJc50XoDNpOmYtiH7Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSMyQaXd_slk03gvBp0Ftlro5cAX_Fs4aqeCA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSLGOJvBlaTvihxwQ3Z1Y0ZlGwXgYlLgvfFSw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQBN2u1q5b3Xc1WvplsyX18TQoA6cCyZHX60w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ3f6xKCIXVAbHFjYkovuJCU-CPFfSDb7zmmA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTjfm43hEehNVFe1-TXlUPgfJi5gaGT3TXtcA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQuylnyWoQdj9wsswVopOlEHRbQxC7wds4ZAQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSPFjgfdvCTKRG13q9VL7-qwNzYF304M8X82A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSpQeQDsNkoCdhhaAUJ4qXLiygT3dwaY2ZZYQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSA4BYZE8vWgjPmZs31hgAMjs5S6wFlXWGmGw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRGoOLfuBF5eJm5kUvSnDtJLC2GrkGoROuiYg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQZ7AKQPJ8cBZLLCKMyk7sCc70_wWzyp19oow&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTuFavgHXbDRl92z1thyjwLSiTi6NfLwG5-RQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSXKbPnUJ1FpLn9dIh6Alqlq-1bZmZNUA3AKg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTNCD6O9AYLHXen2luKXbSVDyG3Ilj45GPPAw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSjdEKiibPqbJPVsN-XZw98mLMaYdz03TXFdg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSvIksqCyHeHkqNzKcumO62CKxC4ghoGMXudQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTtteV0j7WDy6VA2xwcpZD5S81GzOHcqA1LsQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS07HJbZxjzY7ZmcHgmcAi_naxiHczd-LeKUg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTz6HfuUs1pIC96_l7J0nAM1TfcdKpRoih3mw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQeJF-jL3gQu5XC5zQY4Up6Rc1YOPZv4IWRcw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRFSVvgsGuFLwbt292b6LErE0F-pR9iq3QmOw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQD4x7yPY5w-YPbI9vp1ufYnukF7ltXUqWOmw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSVc0UAiyVtlotQR5eazVyO5NcuFiUPPqIjTg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQCuEE68waTzAwh0nR8IbWq33v20F46UCm0Ug&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSB4dJ0ZbZr7hSXRXM5UtQLBojmh0P3Sfxbpw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT7-l5x_lf_Fq_CjlHmi_2iPjZzz3fT-1bLkQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGt7Vjuuk_EHe30fu9vd31eF2ptZknpDtZZQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQIiaqbAQ5bCJZBkR-oz191Qi1TGeS-rIutnQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTLXyNTREPsay_mQm0KSEMbHaNFGICPNOU5oA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRwESfaiiHSUalQU7CElGUCYui_qVfwppxedA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQNaCwmLvV46Ghh_T2LgzF17tbGm538ePF99g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT-i-M4zzU58C9Eb_2iqIIqaX3esG4kXtTPoA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR7HpMRh_fFT570DHigJh9p5WacYQUnt1DurQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSBBCJzkBesS5iOEic7kc52XXRYQDxu0NrbfQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ8RCXh0znvZwgdDoNFWmLa5_BXeYvXbUcrjw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTcfwYUsZELeIbod4-sPh9Q8GqLiFd-OixZWw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSkJIQvYtMqK-j8EhUikD7LSsgsgsL485_W9Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiKp707rrURUm21BWbcbzDAeMFp0HQo2_nTA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS_JlzP-PvQywhMzANdsGul8q3D23BF9Es7_g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRzmGwTpNufyZ7TjOv3ZAOTBNdEsL6ktNrkzw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQMKxbHJ8P3QnM46HSuA9Pmdtjoim7gHsJ_5A&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTp7Oo1iT2lmP33VPyJ_hoIA1FZut_OudfMRg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS4OK60eAmuiglSSRIw7V6dRUUCnYqALmrcoQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQS_r5zhbsQEBffUTicM0XwycLOQCoeEWtuXA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSS4fY10VLiUDkqvBqVdOaZt7BHAxDgZeiAFw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRPdByqAjMUcYuB__u8F3gtTXV86h1iPtxyKQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR8-YglGkC2ioICQtUoHXUZJAzgfO9rjbYgfg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQtTejPBQf9ZGqunx4pIVFfSGjqRldbVTB5HA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRdx9MSK05VNEMFQ4dgJPAxujltjMod-Belxw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQBkDvYxgyrzKTjhFSkaBhoHxAmM936gq7S5g&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR5CqeuVrPfLMPZKNZcmVwLkvx5vOPy3FEXaw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRX6_RGfK7nkbms1tK-jgn5qEudH0EQ6P77jw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQWNJGZ-W7zW665Ppf8PANBshPuG6uKOP3CGQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSwiiMvh4JmOt7f2ZPL7xWh8vz28OTKFreoZw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTriNJtvyFWrm_rRpUg5YTno22FIv7Yvtw-Ow&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTAJfwbfXyqu9HodI--UekqimFhmCgSaR9g3Q&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTJ9olSOe0msxglq7oxzOCN39ZB2MvzmYnMVw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRshZf71QQ5euH4ScX1Phe5L4Vix6Aw2zAbWw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRQk3tMA_pFagu1IjkJk-Bpg6SrWezCmXHtjQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSVw0vnekKUhqLBkJTVVx2835Sh1eealL1sTg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQQYCp02H4ZfY07L74k8gYeMVQ3j1ijJlxeBw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSNHNZtRqI-EShmtj0mM8_nFNVgWU66K2Pmnw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSONwhFyAqR5FHaIuaFwDT2f8yjh3A8nFeFvQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRhL-HUl7pyFNQd9QqkUrZOBvWU9j7Y30d2nA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS8q0C1JodKvtCmjq1ZSQFyiYUAc_DfpKPPDg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTovUn34zbBx8oJGgaAvbRq6mrpZKeutFR7Jw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRNzLH0n-D0nbRalk2w1R5RN8221AxUNvIGAw&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQjRQ348n-YsFsNi_pr9Aav9PEdenRr8N80MA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRlW-Gm56D9V3DoTqzC-DPrete4zZWDkM9bjA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSX5in32rDW8JLkmYoQjYWGa0G3jUF5FlvYeA&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQMnrRdw6gPADZFoCtfJ5QFTCadNf9FoGfALg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRoQkP1IyFQbirfXTfUypKpUJCDgyeqozhGow&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQZaGCt577FniQpuGydwt_pwNhsIWOGaIfGlg&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQwv5eIyCCyvxiO4KGyQWWQ1GyqcaFgUs6v1w&amp;s</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSMGfa1E98N3raS8KIiSQWsdCz6PX7COSMjJg&amp;s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -8002,16 +9422,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8351,8 +9768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E195" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8438,9 +9855,8 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B2)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/classroom.png</v>
+      <c r="G2" t="s">
+        <v>2642</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -8477,9 +9893,8 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="0">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B3)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/teacher.png</v>
+      <c r="G3" t="s">
+        <v>2643</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -8516,9 +9931,8 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/homework.png</v>
+      <c r="G4" t="s">
+        <v>2644</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -8555,9 +9969,8 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/student.png</v>
+      <c r="G5" t="s">
+        <v>2645</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -8594,9 +10007,8 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/exam.png</v>
+      <c r="G6" t="s">
+        <v>2646</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -8633,9 +10045,8 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/book.png</v>
+      <c r="G7" t="s">
+        <v>2647</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -8672,9 +10083,8 @@
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/desk.png</v>
+      <c r="G8" t="s">
+        <v>2648</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
@@ -8711,9 +10121,8 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pencil.png</v>
+      <c r="G9" t="s">
+        <v>2649</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -8750,9 +10159,8 @@
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/school.png</v>
+      <c r="G10" t="s">
+        <v>2650</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
@@ -8789,9 +10197,8 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/lesson.png</v>
+      <c r="G11" t="s">
+        <v>2651</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
@@ -8828,9 +10235,8 @@
       <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/assignment.png</v>
+      <c r="G12" t="s">
+        <v>2652</v>
       </c>
       <c r="H12" t="s">
         <v>63</v>
@@ -8867,9 +10273,8 @@
       <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/lecture.png</v>
+      <c r="G13" t="s">
+        <v>2653</v>
       </c>
       <c r="H13" t="s">
         <v>63</v>
@@ -8906,9 +10311,8 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/tutor.png</v>
+      <c r="G14" t="s">
+        <v>2654</v>
       </c>
       <c r="H14" t="s">
         <v>63</v>
@@ -8945,9 +10349,8 @@
       <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/curriculum.png</v>
+      <c r="G15" t="s">
+        <v>2655</v>
       </c>
       <c r="H15" t="s">
         <v>63</v>
@@ -8984,9 +10387,8 @@
       <c r="F16" t="s">
         <v>20</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/grade.png</v>
+      <c r="G16" t="s">
+        <v>2656</v>
       </c>
       <c r="H16" t="s">
         <v>63</v>
@@ -9023,9 +10425,8 @@
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/project.png</v>
+      <c r="G17" t="s">
+        <v>2657</v>
       </c>
       <c r="H17" t="s">
         <v>63</v>
@@ -9062,9 +10463,8 @@
       <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/notebook.png</v>
+      <c r="G18" t="s">
+        <v>2658</v>
       </c>
       <c r="H18" t="s">
         <v>63</v>
@@ -9101,9 +10501,8 @@
       <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/presentation.png</v>
+      <c r="G19" t="s">
+        <v>2659</v>
       </c>
       <c r="H19" t="s">
         <v>63</v>
@@ -9140,9 +10539,8 @@
       <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/questionnaire.png</v>
+      <c r="G20" t="s">
+        <v>2660</v>
       </c>
       <c r="H20" t="s">
         <v>63</v>
@@ -9179,9 +10577,8 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/revision.png</v>
+      <c r="G21" t="s">
+        <v>2661</v>
       </c>
       <c r="H21" t="s">
         <v>63</v>
@@ -9218,9 +10615,8 @@
       <c r="F22" t="s">
         <v>20</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/scholarship.png</v>
+      <c r="G22" t="s">
+        <v>2662</v>
       </c>
       <c r="H22" t="s">
         <v>104</v>
@@ -9257,9 +10653,8 @@
       <c r="F23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/university.png</v>
+      <c r="G23" t="s">
+        <v>2663</v>
       </c>
       <c r="H23" t="s">
         <v>104</v>
@@ -9296,9 +10691,8 @@
       <c r="F24" t="s">
         <v>20</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/discipline.png</v>
+      <c r="G24" t="s">
+        <v>2664</v>
       </c>
       <c r="H24" t="s">
         <v>104</v>
@@ -9335,9 +10729,8 @@
       <c r="F25" t="s">
         <v>20</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/research.png</v>
+      <c r="G25" t="s">
+        <v>2665</v>
       </c>
       <c r="H25" t="s">
         <v>104</v>
@@ -9374,9 +10767,8 @@
       <c r="F26" t="s">
         <v>20</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/thesis.png</v>
+      <c r="G26" t="s">
+        <v>2666</v>
       </c>
       <c r="H26" t="s">
         <v>104</v>
@@ -9413,9 +10805,8 @@
       <c r="F27" t="s">
         <v>20</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/internship.png</v>
+      <c r="G27" t="s">
+        <v>2667</v>
       </c>
       <c r="H27" t="s">
         <v>104</v>
@@ -9452,9 +10843,8 @@
       <c r="F28" t="s">
         <v>20</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/seminar.png</v>
+      <c r="G28" t="s">
+        <v>2668</v>
       </c>
       <c r="H28" t="s">
         <v>104</v>
@@ -9491,9 +10881,8 @@
       <c r="F29" t="s">
         <v>20</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/statistics.png</v>
+      <c r="G29" t="s">
+        <v>2669</v>
       </c>
       <c r="H29" t="s">
         <v>104</v>
@@ -9530,9 +10919,8 @@
       <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/analysis.png</v>
+      <c r="G30" t="s">
+        <v>2670</v>
       </c>
       <c r="H30" t="s">
         <v>104</v>
@@ -9569,9 +10957,8 @@
       <c r="F31" t="s">
         <v>20</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reference.png</v>
+      <c r="G31" t="s">
+        <v>2671</v>
       </c>
       <c r="H31" t="s">
         <v>104</v>
@@ -9608,9 +10995,8 @@
       <c r="F32" t="s">
         <v>20</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pedagogy.png</v>
+      <c r="G32" t="s">
+        <v>2672</v>
       </c>
       <c r="H32" t="s">
         <v>145</v>
@@ -9647,9 +11033,8 @@
       <c r="F33" t="s">
         <v>20</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/academic.png</v>
+      <c r="G33" t="s">
+        <v>2673</v>
       </c>
       <c r="H33" t="s">
         <v>145</v>
@@ -9686,9 +11071,8 @@
       <c r="F34" t="s">
         <v>20</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/plagiarism.png</v>
+      <c r="G34" t="s">
+        <v>2674</v>
       </c>
       <c r="H34" t="s">
         <v>145</v>
@@ -9725,9 +11109,8 @@
       <c r="F35" t="s">
         <v>20</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/dissertation.png</v>
+      <c r="G35" t="s">
+        <v>2675</v>
       </c>
       <c r="H35" t="s">
         <v>145</v>
@@ -9764,9 +11147,8 @@
       <c r="F36" t="s">
         <v>20</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/syllabus.png</v>
+      <c r="G36" t="s">
+        <v>2676</v>
       </c>
       <c r="H36" t="s">
         <v>145</v>
@@ -9803,9 +11185,8 @@
       <c r="F37" t="s">
         <v>20</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/multilingual.png</v>
+      <c r="G37" t="s">
+        <v>2677</v>
       </c>
       <c r="H37" t="s">
         <v>145</v>
@@ -9842,9 +11223,8 @@
       <c r="F38" t="s">
         <v>20</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conceptualize.png</v>
+      <c r="G38" t="s">
+        <v>2678</v>
       </c>
       <c r="H38" t="s">
         <v>145</v>
@@ -9881,9 +11261,8 @@
       <c r="F39" t="s">
         <v>20</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/methodology.png</v>
+      <c r="G39" t="s">
+        <v>2679</v>
       </c>
       <c r="H39" t="s">
         <v>145</v>
@@ -9920,9 +11299,8 @@
       <c r="F40" t="s">
         <v>20</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bibliography.png</v>
+      <c r="G40" t="s">
+        <v>2680</v>
       </c>
       <c r="H40" t="s">
         <v>145</v>
@@ -9959,9 +11337,8 @@
       <c r="F41" t="s">
         <v>20</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/evaluation.png</v>
+      <c r="G41" t="s">
+        <v>2681</v>
       </c>
       <c r="H41" t="s">
         <v>145</v>
@@ -9998,9 +11375,8 @@
       <c r="F42" t="s">
         <v>20</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/assessment.png</v>
+      <c r="G42" t="s">
+        <v>2682</v>
       </c>
       <c r="H42" t="s">
         <v>104</v>
@@ -10037,9 +11413,8 @@
       <c r="F43" t="s">
         <v>20</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/certificate.png</v>
+      <c r="G43" t="s">
+        <v>2683</v>
       </c>
       <c r="H43" t="s">
         <v>104</v>
@@ -10076,9 +11451,8 @@
       <c r="F44" t="s">
         <v>20</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/diploma.png</v>
+      <c r="G44" t="s">
+        <v>2684</v>
       </c>
       <c r="H44" t="s">
         <v>104</v>
@@ -10115,9 +11489,8 @@
       <c r="F45" t="s">
         <v>20</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/examination.png</v>
+      <c r="G45" t="s">
+        <v>2685</v>
       </c>
       <c r="H45" t="s">
         <v>104</v>
@@ -10154,9 +11527,8 @@
       <c r="F46" t="s">
         <v>20</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/exchange.png</v>
+      <c r="G46" t="s">
+        <v>2686</v>
       </c>
       <c r="H46" t="s">
         <v>104</v>
@@ -10193,9 +11565,8 @@
       <c r="F47" t="s">
         <v>20</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/graduation.png</v>
+      <c r="G47" t="s">
+        <v>2687</v>
       </c>
       <c r="H47" t="s">
         <v>104</v>
@@ -10232,9 +11603,8 @@
       <c r="F48" t="s">
         <v>20</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/lecturer.png</v>
+      <c r="G48" t="s">
+        <v>2688</v>
       </c>
       <c r="H48" t="s">
         <v>104</v>
@@ -10271,9 +11641,8 @@
       <c r="F49" t="s">
         <v>20</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/semester.png</v>
+      <c r="G49" t="s">
+        <v>2689</v>
       </c>
       <c r="H49" t="s">
         <v>104</v>
@@ -10310,9 +11679,8 @@
       <c r="F50" t="s">
         <v>20</v>
       </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/calculate.png</v>
+      <c r="G50" t="s">
+        <v>2690</v>
       </c>
       <c r="H50" t="s">
         <v>104</v>
@@ -10349,9 +11717,8 @@
       <c r="F51" t="s">
         <v>20</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/educate.png</v>
+      <c r="G51" t="s">
+        <v>2691</v>
       </c>
       <c r="H51" t="s">
         <v>104</v>
@@ -10388,9 +11755,8 @@
       <c r="F52" t="s">
         <v>20</v>
       </c>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/mark.png</v>
+      <c r="G52" t="s">
+        <v>2692</v>
       </c>
       <c r="H52" t="s">
         <v>104</v>
@@ -10427,9 +11793,8 @@
       <c r="F53" t="s">
         <v>20</v>
       </c>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/memorise.png</v>
+      <c r="G53" t="s">
+        <v>2693</v>
       </c>
       <c r="H53" t="s">
         <v>104</v>
@@ -10466,9 +11831,8 @@
       <c r="F54" t="s">
         <v>20</v>
       </c>
-      <c r="G54" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/present.png</v>
+      <c r="G54" t="s">
+        <v>2694</v>
       </c>
       <c r="H54" t="s">
         <v>104</v>
@@ -10505,9 +11869,8 @@
       <c r="F55" t="s">
         <v>20</v>
       </c>
-      <c r="G55" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/qualify.png</v>
+      <c r="G55" t="s">
+        <v>2695</v>
       </c>
       <c r="H55" t="s">
         <v>104</v>
@@ -10544,9 +11907,8 @@
       <c r="F56" t="s">
         <v>20</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/revise.png</v>
+      <c r="G56" t="s">
+        <v>2696</v>
       </c>
       <c r="H56" t="s">
         <v>104</v>
@@ -10583,9 +11945,8 @@
       <c r="F57" t="s">
         <v>20</v>
       </c>
-      <c r="G57" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/score.png</v>
+      <c r="G57" t="s">
+        <v>2697</v>
       </c>
       <c r="H57" t="s">
         <v>104</v>
@@ -10622,9 +11983,8 @@
       <c r="F58" t="s">
         <v>20</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sponsor.png</v>
+      <c r="G58" t="s">
+        <v>2698</v>
       </c>
       <c r="H58" t="s">
         <v>104</v>
@@ -10661,9 +12021,8 @@
       <c r="F59" t="s">
         <v>20</v>
       </c>
-      <c r="G59" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/compulsory.png</v>
+      <c r="G59" t="s">
+        <v>2699</v>
       </c>
       <c r="H59" t="s">
         <v>104</v>
@@ -10700,9 +12059,8 @@
       <c r="F60" t="s">
         <v>20</v>
       </c>
-      <c r="G60" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/complicated.png</v>
+      <c r="G60" t="s">
+        <v>2700</v>
       </c>
       <c r="H60" t="s">
         <v>104</v>
@@ -10739,9 +12097,8 @@
       <c r="F61" t="s">
         <v>20</v>
       </c>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/educational.png</v>
+      <c r="G61" t="s">
+        <v>2701</v>
       </c>
       <c r="H61" t="s">
         <v>104</v>
@@ -10778,9 +12135,8 @@
       <c r="F62" t="s">
         <v>20</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/logical.png</v>
+      <c r="G62" t="s">
+        <v>2702</v>
       </c>
       <c r="H62" t="s">
         <v>104</v>
@@ -10817,9 +12173,8 @@
       <c r="F63" t="s">
         <v>20</v>
       </c>
-      <c r="G63" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/multiple-choice.png</v>
+      <c r="G63" t="s">
+        <v>2703</v>
       </c>
       <c r="H63" t="s">
         <v>104</v>
@@ -10856,9 +12211,8 @@
       <c r="F64" t="s">
         <v>20</v>
       </c>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/primary.png</v>
+      <c r="G64" t="s">
+        <v>2704</v>
       </c>
       <c r="H64" t="s">
         <v>104</v>
@@ -10895,9 +12249,8 @@
       <c r="F65" t="s">
         <v>20</v>
       </c>
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/comprehensible.png</v>
+      <c r="G65" t="s">
+        <v>2705</v>
       </c>
       <c r="H65" t="s">
         <v>104</v>
@@ -10934,9 +12287,8 @@
       <c r="F66" t="s">
         <v>20</v>
       </c>
-      <c r="G66" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/practical.png</v>
+      <c r="G66" t="s">
+        <v>2706</v>
       </c>
       <c r="H66" t="s">
         <v>104</v>
@@ -10973,9 +12325,8 @@
       <c r="F67" t="s">
         <v>20</v>
       </c>
-      <c r="G67" t="str">
-        <f t="shared" ref="G67:G130" si="1">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B67)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reliable.png</v>
+      <c r="G67" t="s">
+        <v>2707</v>
       </c>
       <c r="H67" t="s">
         <v>104</v>
@@ -11012,9 +12363,8 @@
       <c r="F68" t="s">
         <v>20</v>
       </c>
-      <c r="G68" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/higher education.png</v>
+      <c r="G68" t="s">
+        <v>2708</v>
       </c>
       <c r="H68" t="s">
         <v>104</v>
@@ -11051,9 +12401,8 @@
       <c r="F69" t="s">
         <v>20</v>
       </c>
-      <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/general knowledge.png</v>
+      <c r="G69" t="s">
+        <v>2709</v>
       </c>
       <c r="H69" t="s">
         <v>104</v>
@@ -11090,9 +12439,8 @@
       <c r="F70" t="s">
         <v>20</v>
       </c>
-      <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/learning difficulties.png</v>
+      <c r="G70" t="s">
+        <v>2710</v>
       </c>
       <c r="H70" t="s">
         <v>104</v>
@@ -11129,9 +12477,8 @@
       <c r="F71" t="s">
         <v>20</v>
       </c>
-      <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/virtual learning.png</v>
+      <c r="G71" t="s">
+        <v>2711</v>
       </c>
       <c r="H71" t="s">
         <v>104</v>
@@ -11168,9 +12515,8 @@
       <c r="F72" t="s">
         <v>20</v>
       </c>
-      <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/learning platform.png</v>
+      <c r="G72" t="s">
+        <v>2712</v>
       </c>
       <c r="H72" t="s">
         <v>104</v>
@@ -11207,9 +12553,8 @@
       <c r="F73" t="s">
         <v>20</v>
       </c>
-      <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/learning materials.png</v>
+      <c r="G73" t="s">
+        <v>2713</v>
       </c>
       <c r="H73" t="s">
         <v>104</v>
@@ -11246,9 +12591,8 @@
       <c r="F74" t="s">
         <v>20</v>
       </c>
-      <c r="G74" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/vocational school.png</v>
+      <c r="G74" t="s">
+        <v>2714</v>
       </c>
       <c r="H74" t="s">
         <v>104</v>
@@ -11285,9 +12629,8 @@
       <c r="F75" t="s">
         <v>20</v>
       </c>
-      <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/tuition fees.png</v>
+      <c r="G75" t="s">
+        <v>2715</v>
       </c>
       <c r="H75" t="s">
         <v>104</v>
@@ -11324,9 +12667,8 @@
       <c r="F76" t="s">
         <v>20</v>
       </c>
-      <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/physical education.png</v>
+      <c r="G76" t="s">
+        <v>2716</v>
       </c>
       <c r="H76" t="s">
         <v>104</v>
@@ -11363,9 +12705,8 @@
       <c r="F77" t="s">
         <v>20</v>
       </c>
-      <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/soft skills.png</v>
+      <c r="G77" t="s">
+        <v>2717</v>
       </c>
       <c r="H77" t="s">
         <v>104</v>
@@ -11402,9 +12743,8 @@
       <c r="F78" t="s">
         <v>20</v>
       </c>
-      <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/job.png</v>
+      <c r="G78" t="s">
+        <v>2718</v>
       </c>
       <c r="H78" t="s">
         <v>21</v>
@@ -11441,9 +12781,8 @@
       <c r="F79" t="s">
         <v>20</v>
       </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/office.png</v>
+      <c r="G79" t="s">
+        <v>2719</v>
       </c>
       <c r="H79" t="s">
         <v>21</v>
@@ -11480,9 +12819,8 @@
       <c r="F80" t="s">
         <v>20</v>
       </c>
-      <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/manager.png</v>
+      <c r="G80" t="s">
+        <v>2720</v>
       </c>
       <c r="H80" t="s">
         <v>21</v>
@@ -11519,9 +12857,8 @@
       <c r="F81" t="s">
         <v>20</v>
       </c>
-      <c r="G81" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/employee.png</v>
+      <c r="G81" t="s">
+        <v>2721</v>
       </c>
       <c r="H81" t="s">
         <v>21</v>
@@ -11558,9 +12895,8 @@
       <c r="F82" t="s">
         <v>20</v>
       </c>
-      <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/task.png</v>
+      <c r="G82" t="s">
+        <v>2722</v>
       </c>
       <c r="H82" t="s">
         <v>21</v>
@@ -11597,9 +12933,8 @@
       <c r="F83" t="s">
         <v>20</v>
       </c>
-      <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/boss.png</v>
+      <c r="G83" t="s">
+        <v>2723</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
@@ -11636,9 +12971,8 @@
       <c r="F84" t="s">
         <v>20</v>
       </c>
-      <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/salary.png</v>
+      <c r="G84" t="s">
+        <v>2724</v>
       </c>
       <c r="H84" t="s">
         <v>21</v>
@@ -11675,9 +13009,8 @@
       <c r="F85" t="s">
         <v>20</v>
       </c>
-      <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/team.png</v>
+      <c r="G85" t="s">
+        <v>2725</v>
       </c>
       <c r="H85" t="s">
         <v>21</v>
@@ -11714,9 +13047,8 @@
       <c r="F86" t="s">
         <v>20</v>
       </c>
-      <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/work.png</v>
+      <c r="G86" t="s">
+        <v>2726</v>
       </c>
       <c r="H86" t="s">
         <v>21</v>
@@ -11753,9 +13085,8 @@
       <c r="F87" t="s">
         <v>20</v>
       </c>
-      <c r="G87" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/break.png</v>
+      <c r="G87" t="s">
+        <v>2727</v>
       </c>
       <c r="H87" t="s">
         <v>21</v>
@@ -11792,9 +13123,8 @@
       <c r="F88" t="s">
         <v>20</v>
       </c>
-      <c r="G88" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/colleague.png</v>
+      <c r="G88" t="s">
+        <v>2728</v>
       </c>
       <c r="H88" t="s">
         <v>63</v>
@@ -11831,9 +13161,8 @@
       <c r="F89" t="s">
         <v>20</v>
       </c>
-      <c r="G89" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/deadline.png</v>
+      <c r="G89" t="s">
+        <v>2729</v>
       </c>
       <c r="H89" t="s">
         <v>63</v>
@@ -11870,9 +13199,8 @@
       <c r="F90" t="s">
         <v>20</v>
       </c>
-      <c r="G90" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/meeting.png</v>
+      <c r="G90" t="s">
+        <v>2730</v>
       </c>
       <c r="H90" t="s">
         <v>63</v>
@@ -11909,9 +13237,8 @@
       <c r="F91" t="s">
         <v>20</v>
       </c>
-      <c r="G91" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/presentation.png</v>
+      <c r="G91" t="s">
+        <v>2659</v>
       </c>
       <c r="H91" t="s">
         <v>63</v>
@@ -11948,9 +13275,8 @@
       <c r="F92" t="s">
         <v>20</v>
       </c>
-      <c r="G92" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/promotion.png</v>
+      <c r="G92" t="s">
+        <v>2731</v>
       </c>
       <c r="H92" t="s">
         <v>63</v>
@@ -11987,9 +13313,8 @@
       <c r="F93" t="s">
         <v>20</v>
       </c>
-      <c r="G93" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/schedule.png</v>
+      <c r="G93" t="s">
+        <v>2732</v>
       </c>
       <c r="H93" t="s">
         <v>63</v>
@@ -12026,9 +13351,8 @@
       <c r="F94" t="s">
         <v>20</v>
       </c>
-      <c r="G94" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/project.png</v>
+      <c r="G94" t="s">
+        <v>2657</v>
       </c>
       <c r="H94" t="s">
         <v>63</v>
@@ -12065,9 +13389,8 @@
       <c r="F95" t="s">
         <v>20</v>
       </c>
-      <c r="G95" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/taskforce.png</v>
+      <c r="G95" t="s">
+        <v>2733</v>
       </c>
       <c r="H95" t="s">
         <v>63</v>
@@ -12104,9 +13427,8 @@
       <c r="F96" t="s">
         <v>20</v>
       </c>
-      <c r="G96" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/training.png</v>
+      <c r="G96" t="s">
+        <v>2734</v>
       </c>
       <c r="H96" t="s">
         <v>63</v>
@@ -12143,9 +13465,8 @@
       <c r="F97" t="s">
         <v>20</v>
       </c>
-      <c r="G97" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/report.png</v>
+      <c r="G97" t="s">
+        <v>2735</v>
       </c>
       <c r="H97" t="s">
         <v>63</v>
@@ -12182,9 +13503,8 @@
       <c r="F98" t="s">
         <v>20</v>
       </c>
-      <c r="G98" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/internship.png</v>
+      <c r="G98" t="s">
+        <v>2667</v>
       </c>
       <c r="H98" t="s">
         <v>104</v>
@@ -12221,9 +13541,8 @@
       <c r="F99" t="s">
         <v>20</v>
       </c>
-      <c r="G99" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/job satisfaction.png</v>
+      <c r="G99" t="s">
+        <v>2736</v>
       </c>
       <c r="H99" t="s">
         <v>104</v>
@@ -12260,9 +13579,8 @@
       <c r="F100" t="s">
         <v>20</v>
       </c>
-      <c r="G100" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/networking.png</v>
+      <c r="G100" t="s">
+        <v>2737</v>
       </c>
       <c r="H100" t="s">
         <v>104</v>
@@ -12299,9 +13617,8 @@
       <c r="F101" t="s">
         <v>20</v>
       </c>
-      <c r="G101" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/workplace.png</v>
+      <c r="G101" t="s">
+        <v>2738</v>
       </c>
       <c r="H101" t="s">
         <v>104</v>
@@ -12338,9 +13655,8 @@
       <c r="F102" t="s">
         <v>20</v>
       </c>
-      <c r="G102" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/contract.png</v>
+      <c r="G102" t="s">
+        <v>2739</v>
       </c>
       <c r="H102" t="s">
         <v>104</v>
@@ -12377,9 +13693,8 @@
       <c r="F103" t="s">
         <v>20</v>
       </c>
-      <c r="G103" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/performance.png</v>
+      <c r="G103" t="s">
+        <v>2740</v>
       </c>
       <c r="H103" t="s">
         <v>104</v>
@@ -12416,9 +13731,8 @@
       <c r="F104" t="s">
         <v>20</v>
       </c>
-      <c r="G104" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/resignation.png</v>
+      <c r="G104" t="s">
+        <v>2741</v>
       </c>
       <c r="H104" t="s">
         <v>104</v>
@@ -12455,9 +13769,8 @@
       <c r="F105" t="s">
         <v>20</v>
       </c>
-      <c r="G105" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/negotiation.png</v>
+      <c r="G105" t="s">
+        <v>2742</v>
       </c>
       <c r="H105" t="s">
         <v>104</v>
@@ -12494,9 +13807,8 @@
       <c r="F106" t="s">
         <v>20</v>
       </c>
-      <c r="G106" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/freelancer.png</v>
+      <c r="G106" t="s">
+        <v>2743</v>
       </c>
       <c r="H106" t="s">
         <v>104</v>
@@ -12533,9 +13845,8 @@
       <c r="F107" t="s">
         <v>20</v>
       </c>
-      <c r="G107" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/benefit.png</v>
+      <c r="G107" t="s">
+        <v>2744</v>
       </c>
       <c r="H107" t="s">
         <v>104</v>
@@ -12572,9 +13883,8 @@
       <c r="F108" t="s">
         <v>20</v>
       </c>
-      <c r="G108" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/entrepreneur.png</v>
+      <c r="G108" t="s">
+        <v>2745</v>
       </c>
       <c r="H108" t="s">
         <v>145</v>
@@ -12611,9 +13921,8 @@
       <c r="F109" t="s">
         <v>20</v>
       </c>
-      <c r="G109" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/productivity.png</v>
+      <c r="G109" t="s">
+        <v>2746</v>
       </c>
       <c r="H109" t="s">
         <v>145</v>
@@ -12650,9 +13959,8 @@
       <c r="F110" t="s">
         <v>20</v>
       </c>
-      <c r="G110" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/leadership.png</v>
+      <c r="G110" t="s">
+        <v>2747</v>
       </c>
       <c r="H110" t="s">
         <v>145</v>
@@ -12689,9 +13997,8 @@
       <c r="F111" t="s">
         <v>20</v>
       </c>
-      <c r="G111" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/efficiency.png</v>
+      <c r="G111" t="s">
+        <v>2748</v>
       </c>
       <c r="H111" t="s">
         <v>145</v>
@@ -12728,9 +14035,8 @@
       <c r="F112" t="s">
         <v>20</v>
       </c>
-      <c r="G112" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/supervision.png</v>
+      <c r="G112" t="s">
+        <v>2749</v>
       </c>
       <c r="H112" t="s">
         <v>145</v>
@@ -12767,9 +14073,8 @@
       <c r="F113" t="s">
         <v>20</v>
       </c>
-      <c r="G113" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/strategy.png</v>
+      <c r="G113" t="s">
+        <v>2750</v>
       </c>
       <c r="H113" t="s">
         <v>145</v>
@@ -12806,9 +14111,8 @@
       <c r="F114" t="s">
         <v>20</v>
       </c>
-      <c r="G114" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/recruitment.png</v>
+      <c r="G114" t="s">
+        <v>2751</v>
       </c>
       <c r="H114" t="s">
         <v>145</v>
@@ -12845,9 +14149,8 @@
       <c r="F115" t="s">
         <v>20</v>
       </c>
-      <c r="G115" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/downsizing.png</v>
+      <c r="G115" t="s">
+        <v>2752</v>
       </c>
       <c r="H115" t="s">
         <v>145</v>
@@ -12884,9 +14187,8 @@
       <c r="F116" t="s">
         <v>20</v>
       </c>
-      <c r="G116" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/collaboration.png</v>
+      <c r="G116" t="s">
+        <v>2753</v>
       </c>
       <c r="H116" t="s">
         <v>145</v>
@@ -12923,9 +14225,8 @@
       <c r="F117" t="s">
         <v>20</v>
       </c>
-      <c r="G117" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/workload.png</v>
+      <c r="G117" t="s">
+        <v>2754</v>
       </c>
       <c r="H117" t="s">
         <v>145</v>
@@ -12962,9 +14263,8 @@
       <c r="F118" t="s">
         <v>20</v>
       </c>
-      <c r="G118" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/friend.png</v>
+      <c r="G118" t="s">
+        <v>2755</v>
       </c>
       <c r="H118" t="s">
         <v>21</v>
@@ -13001,9 +14301,8 @@
       <c r="F119" t="s">
         <v>20</v>
       </c>
-      <c r="G119" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/family.png</v>
+      <c r="G119" t="s">
+        <v>2756</v>
       </c>
       <c r="H119" t="s">
         <v>21</v>
@@ -13040,9 +14339,8 @@
       <c r="F120" t="s">
         <v>20</v>
       </c>
-      <c r="G120" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/love.png</v>
+      <c r="G120" t="s">
+        <v>2757</v>
       </c>
       <c r="H120" t="s">
         <v>21</v>
@@ -13079,9 +14377,8 @@
       <c r="F121" t="s">
         <v>20</v>
       </c>
-      <c r="G121" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/marriage.png</v>
+      <c r="G121" t="s">
+        <v>2758</v>
       </c>
       <c r="H121" t="s">
         <v>21</v>
@@ -13118,9 +14415,8 @@
       <c r="F122" t="s">
         <v>20</v>
       </c>
-      <c r="G122" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/couple.png</v>
+      <c r="G122" t="s">
+        <v>2759</v>
       </c>
       <c r="H122" t="s">
         <v>21</v>
@@ -13157,9 +14453,8 @@
       <c r="F123" t="s">
         <v>20</v>
       </c>
-      <c r="G123" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/parent.png</v>
+      <c r="G123" t="s">
+        <v>2760</v>
       </c>
       <c r="H123" t="s">
         <v>21</v>
@@ -13196,9 +14491,8 @@
       <c r="F124" t="s">
         <v>20</v>
       </c>
-      <c r="G124" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/child.png</v>
+      <c r="G124" t="s">
+        <v>2761</v>
       </c>
       <c r="H124" t="s">
         <v>21</v>
@@ -13235,9 +14529,8 @@
       <c r="F125" t="s">
         <v>20</v>
       </c>
-      <c r="G125" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sibling.png</v>
+      <c r="G125" t="s">
+        <v>2762</v>
       </c>
       <c r="H125" t="s">
         <v>21</v>
@@ -13274,9 +14567,8 @@
       <c r="F126" t="s">
         <v>20</v>
       </c>
-      <c r="G126" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/neighbor.png</v>
+      <c r="G126" t="s">
+        <v>2763</v>
       </c>
       <c r="H126" t="s">
         <v>21</v>
@@ -13313,9 +14605,8 @@
       <c r="F127" t="s">
         <v>20</v>
       </c>
-      <c r="G127" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/relationship.png</v>
+      <c r="G127" t="s">
+        <v>2764</v>
       </c>
       <c r="H127" t="s">
         <v>21</v>
@@ -13352,9 +14643,8 @@
       <c r="F128" t="s">
         <v>20</v>
       </c>
-      <c r="G128" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/boyfriend.png</v>
+      <c r="G128" t="s">
+        <v>2765</v>
       </c>
       <c r="H128" t="s">
         <v>63</v>
@@ -13391,9 +14681,8 @@
       <c r="F129" t="s">
         <v>20</v>
       </c>
-      <c r="G129" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/girlfriend.png</v>
+      <c r="G129" t="s">
+        <v>2766</v>
       </c>
       <c r="H129" t="s">
         <v>63</v>
@@ -13430,9 +14719,8 @@
       <c r="F130" t="s">
         <v>20</v>
       </c>
-      <c r="G130" t="str">
-        <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/partner.png</v>
+      <c r="G130" t="s">
+        <v>2767</v>
       </c>
       <c r="H130" t="s">
         <v>63</v>
@@ -13469,9 +14757,8 @@
       <c r="F131" t="s">
         <v>20</v>
       </c>
-      <c r="G131" t="str">
-        <f t="shared" ref="G131:G194" si="2">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B131)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/engagement.png</v>
+      <c r="G131" t="s">
+        <v>2768</v>
       </c>
       <c r="H131" t="s">
         <v>63</v>
@@ -13508,9 +14795,8 @@
       <c r="F132" t="s">
         <v>20</v>
       </c>
-      <c r="G132" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/divorce.png</v>
+      <c r="G132" t="s">
+        <v>2769</v>
       </c>
       <c r="H132" t="s">
         <v>63</v>
@@ -13547,9 +14833,8 @@
       <c r="F133" t="s">
         <v>20</v>
       </c>
-      <c r="G133" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/friendship.png</v>
+      <c r="G133" t="s">
+        <v>2770</v>
       </c>
       <c r="H133" t="s">
         <v>63</v>
@@ -13586,9 +14871,8 @@
       <c r="F134" t="s">
         <v>20</v>
       </c>
-      <c r="G134" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/support.png</v>
+      <c r="G134" t="s">
+        <v>2771</v>
       </c>
       <c r="H134" t="s">
         <v>63</v>
@@ -13625,9 +14909,8 @@
       <c r="F135" t="s">
         <v>20</v>
       </c>
-      <c r="G135" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/trust.png</v>
+      <c r="G135" t="s">
+        <v>2772</v>
       </c>
       <c r="H135" t="s">
         <v>63</v>
@@ -13664,9 +14947,8 @@
       <c r="F136" t="s">
         <v>20</v>
       </c>
-      <c r="G136" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bond.png</v>
+      <c r="G136" t="s">
+        <v>2773</v>
       </c>
       <c r="H136" t="s">
         <v>63</v>
@@ -13703,9 +14985,8 @@
       <c r="F137" t="s">
         <v>20</v>
       </c>
-      <c r="G137" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/jealousy.png</v>
+      <c r="G137" t="s">
+        <v>2774</v>
       </c>
       <c r="H137" t="s">
         <v>63</v>
@@ -13742,9 +15023,8 @@
       <c r="F138" t="s">
         <v>20</v>
       </c>
-      <c r="G138" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/acquaintance.png</v>
+      <c r="G138" t="s">
+        <v>2775</v>
       </c>
       <c r="H138" t="s">
         <v>104</v>
@@ -13781,9 +15061,8 @@
       <c r="F139" t="s">
         <v>20</v>
       </c>
-      <c r="G139" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/compromise.png</v>
+      <c r="G139" t="s">
+        <v>2776</v>
       </c>
       <c r="H139" t="s">
         <v>104</v>
@@ -13820,9 +15099,8 @@
       <c r="F140" t="s">
         <v>20</v>
       </c>
-      <c r="G140" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/loyalty.png</v>
+      <c r="G140" t="s">
+        <v>2777</v>
       </c>
       <c r="H140" t="s">
         <v>104</v>
@@ -13859,9 +15137,8 @@
       <c r="F141" t="s">
         <v>20</v>
       </c>
-      <c r="G141" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conflict.png</v>
+      <c r="G141" t="s">
+        <v>2778</v>
       </c>
       <c r="H141" t="s">
         <v>104</v>
@@ -13898,9 +15175,8 @@
       <c r="F142" t="s">
         <v>20</v>
       </c>
-      <c r="G142" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/commitment.png</v>
+      <c r="G142" t="s">
+        <v>2779</v>
       </c>
       <c r="H142" t="s">
         <v>104</v>
@@ -13937,9 +15213,8 @@
       <c r="F143" t="s">
         <v>20</v>
       </c>
-      <c r="G143" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/affection.png</v>
+      <c r="G143" t="s">
+        <v>2780</v>
       </c>
       <c r="H143" t="s">
         <v>104</v>
@@ -13976,9 +15251,8 @@
       <c r="F144" t="s">
         <v>20</v>
       </c>
-      <c r="G144" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/empathy.png</v>
+      <c r="G144" t="s">
+        <v>2781</v>
       </c>
       <c r="H144" t="s">
         <v>104</v>
@@ -14015,9 +15289,8 @@
       <c r="F145" t="s">
         <v>20</v>
       </c>
-      <c r="G145" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reconciliation.png</v>
+      <c r="G145" t="s">
+        <v>2782</v>
       </c>
       <c r="H145" t="s">
         <v>104</v>
@@ -14054,9 +15327,8 @@
       <c r="F146" t="s">
         <v>20</v>
       </c>
-      <c r="G146" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/dependency.png</v>
+      <c r="G146" t="s">
+        <v>2783</v>
       </c>
       <c r="H146" t="s">
         <v>104</v>
@@ -14093,9 +15365,8 @@
       <c r="F147" t="s">
         <v>20</v>
       </c>
-      <c r="G147" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reliability.png</v>
+      <c r="G147" t="s">
+        <v>2784</v>
       </c>
       <c r="H147" t="s">
         <v>104</v>
@@ -14132,9 +15403,8 @@
       <c r="F148" t="s">
         <v>20</v>
       </c>
-      <c r="G148" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/compatibility.png</v>
+      <c r="G148" t="s">
+        <v>2785</v>
       </c>
       <c r="H148" t="s">
         <v>145</v>
@@ -14171,9 +15441,8 @@
       <c r="F149" t="s">
         <v>20</v>
       </c>
-      <c r="G149" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/intimacy.png</v>
+      <c r="G149" t="s">
+        <v>2786</v>
       </c>
       <c r="H149" t="s">
         <v>145</v>
@@ -14210,9 +15479,8 @@
       <c r="F150" t="s">
         <v>20</v>
       </c>
-      <c r="G150" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/alienation.png</v>
+      <c r="G150" t="s">
+        <v>2787</v>
       </c>
       <c r="H150" t="s">
         <v>145</v>
@@ -14249,9 +15517,8 @@
       <c r="F151" t="s">
         <v>20</v>
       </c>
-      <c r="G151" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/estrangement.png</v>
+      <c r="G151" t="s">
+        <v>2788</v>
       </c>
       <c r="H151" t="s">
         <v>145</v>
@@ -14288,9 +15555,8 @@
       <c r="F152" t="s">
         <v>20</v>
       </c>
-      <c r="G152" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/vulnerability.png</v>
+      <c r="G152" t="s">
+        <v>2789</v>
       </c>
       <c r="H152" t="s">
         <v>145</v>
@@ -14327,9 +15593,8 @@
       <c r="F153" t="s">
         <v>20</v>
       </c>
-      <c r="G153" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/codependency.png</v>
+      <c r="G153" t="s">
+        <v>2790</v>
       </c>
       <c r="H153" t="s">
         <v>145</v>
@@ -14366,9 +15631,8 @@
       <c r="F154" t="s">
         <v>20</v>
       </c>
-      <c r="G154" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/rejection.png</v>
+      <c r="G154" t="s">
+        <v>2791</v>
       </c>
       <c r="H154" t="s">
         <v>145</v>
@@ -14405,9 +15669,8 @@
       <c r="F155" t="s">
         <v>20</v>
       </c>
-      <c r="G155" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/forgiveness.png</v>
+      <c r="G155" t="s">
+        <v>2792</v>
       </c>
       <c r="H155" t="s">
         <v>145</v>
@@ -14444,9 +15707,8 @@
       <c r="F156" t="s">
         <v>20</v>
       </c>
-      <c r="G156" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/attachment.png</v>
+      <c r="G156" t="s">
+        <v>2793</v>
       </c>
       <c r="H156" t="s">
         <v>145</v>
@@ -14483,9 +15745,8 @@
       <c r="F157" t="s">
         <v>20</v>
       </c>
-      <c r="G157" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/detachment.png</v>
+      <c r="G157" t="s">
+        <v>2794</v>
       </c>
       <c r="H157" t="s">
         <v>145</v>
@@ -14522,9 +15783,8 @@
       <c r="F158" t="s">
         <v>20</v>
       </c>
-      <c r="G158" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hobby.png</v>
+      <c r="G158" t="s">
+        <v>2795</v>
       </c>
       <c r="H158" t="s">
         <v>21</v>
@@ -14561,9 +15821,8 @@
       <c r="F159" t="s">
         <v>20</v>
       </c>
-      <c r="G159" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/music.png</v>
+      <c r="G159" t="s">
+        <v>2796</v>
       </c>
       <c r="H159" t="s">
         <v>21</v>
@@ -14600,9 +15859,8 @@
       <c r="F160" t="s">
         <v>20</v>
       </c>
-      <c r="G160" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reading.png</v>
+      <c r="G160" t="s">
+        <v>2797</v>
       </c>
       <c r="H160" t="s">
         <v>21</v>
@@ -14639,9 +15897,8 @@
       <c r="F161" t="s">
         <v>20</v>
       </c>
-      <c r="G161" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/drawing.png</v>
+      <c r="G161" t="s">
+        <v>2798</v>
       </c>
       <c r="H161" t="s">
         <v>21</v>
@@ -14678,9 +15935,8 @@
       <c r="F162" t="s">
         <v>20</v>
       </c>
-      <c r="G162" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cooking.png</v>
+      <c r="G162" t="s">
+        <v>2799</v>
       </c>
       <c r="H162" t="s">
         <v>21</v>
@@ -14717,9 +15973,8 @@
       <c r="F163" t="s">
         <v>20</v>
       </c>
-      <c r="G163" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/dancing.png</v>
+      <c r="G163" t="s">
+        <v>2800</v>
       </c>
       <c r="H163" t="s">
         <v>21</v>
@@ -14756,9 +16011,8 @@
       <c r="F164" t="s">
         <v>20</v>
       </c>
-      <c r="G164" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/painting.png</v>
+      <c r="G164" t="s">
+        <v>2801</v>
       </c>
       <c r="H164" t="s">
         <v>21</v>
@@ -14795,9 +16049,8 @@
       <c r="F165" t="s">
         <v>20</v>
       </c>
-      <c r="G165" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sports.png</v>
+      <c r="G165" t="s">
+        <v>2802</v>
       </c>
       <c r="H165" t="s">
         <v>21</v>
@@ -14834,9 +16087,8 @@
       <c r="F166" t="s">
         <v>20</v>
       </c>
-      <c r="G166" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/gardening.png</v>
+      <c r="G166" t="s">
+        <v>2803</v>
       </c>
       <c r="H166" t="s">
         <v>21</v>
@@ -14873,9 +16125,8 @@
       <c r="F167" t="s">
         <v>20</v>
       </c>
-      <c r="G167" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/traveling.png</v>
+      <c r="G167" t="s">
+        <v>2804</v>
       </c>
       <c r="H167" t="s">
         <v>21</v>
@@ -14912,9 +16163,8 @@
       <c r="F168" t="s">
         <v>20</v>
       </c>
-      <c r="G168" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/photography.png</v>
+      <c r="G168" t="s">
+        <v>2805</v>
       </c>
       <c r="H168" t="s">
         <v>63</v>
@@ -14951,9 +16201,8 @@
       <c r="F169" t="s">
         <v>20</v>
       </c>
-      <c r="G169" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/blogging.png</v>
+      <c r="G169" t="s">
+        <v>2806</v>
       </c>
       <c r="H169" t="s">
         <v>63</v>
@@ -14990,9 +16239,8 @@
       <c r="F170" t="s">
         <v>20</v>
       </c>
-      <c r="G170" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hiking.png</v>
+      <c r="G170" t="s">
+        <v>2807</v>
       </c>
       <c r="H170" t="s">
         <v>63</v>
@@ -15029,9 +16277,8 @@
       <c r="F171" t="s">
         <v>20</v>
       </c>
-      <c r="G171" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/knitting.png</v>
+      <c r="G171" t="s">
+        <v>2808</v>
       </c>
       <c r="H171" t="s">
         <v>63</v>
@@ -15068,9 +16315,8 @@
       <c r="F172" t="s">
         <v>20</v>
       </c>
-      <c r="G172" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/fishing.png</v>
+      <c r="G172" t="s">
+        <v>2809</v>
       </c>
       <c r="H172" t="s">
         <v>63</v>
@@ -15107,9 +16353,8 @@
       <c r="F173" t="s">
         <v>20</v>
       </c>
-      <c r="G173" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/baking.png</v>
+      <c r="G173" t="s">
+        <v>2810</v>
       </c>
       <c r="H173" t="s">
         <v>63</v>
@@ -15146,9 +16391,8 @@
       <c r="F174" t="s">
         <v>20</v>
       </c>
-      <c r="G174" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/yoga.png</v>
+      <c r="G174" t="s">
+        <v>2811</v>
       </c>
       <c r="H174" t="s">
         <v>63</v>
@@ -15185,9 +16429,8 @@
       <c r="F175" t="s">
         <v>20</v>
       </c>
-      <c r="G175" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cycling.png</v>
+      <c r="G175" t="s">
+        <v>2812</v>
       </c>
       <c r="H175" t="s">
         <v>63</v>
@@ -15224,9 +16467,8 @@
       <c r="F176" t="s">
         <v>20</v>
       </c>
-      <c r="G176" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/camping.png</v>
+      <c r="G176" t="s">
+        <v>2813</v>
       </c>
       <c r="H176" t="s">
         <v>63</v>
@@ -15263,9 +16505,8 @@
       <c r="F177" t="s">
         <v>20</v>
       </c>
-      <c r="G177" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/writing.png</v>
+      <c r="G177" t="s">
+        <v>2814</v>
       </c>
       <c r="H177" t="s">
         <v>63</v>
@@ -15302,9 +16543,8 @@
       <c r="F178" t="s">
         <v>20</v>
       </c>
-      <c r="G178" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/woodworking.png</v>
+      <c r="G178" t="s">
+        <v>2815</v>
       </c>
       <c r="H178" t="s">
         <v>104</v>
@@ -15341,9 +16581,8 @@
       <c r="F179" t="s">
         <v>20</v>
       </c>
-      <c r="G179" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pottery.png</v>
+      <c r="G179" t="s">
+        <v>2816</v>
       </c>
       <c r="H179" t="s">
         <v>104</v>
@@ -15380,9 +16619,8 @@
       <c r="F180" t="s">
         <v>20</v>
       </c>
-      <c r="G180" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/birdwatching.png</v>
+      <c r="G180" t="s">
+        <v>2817</v>
       </c>
       <c r="H180" t="s">
         <v>104</v>
@@ -15419,9 +16657,8 @@
       <c r="F181" t="s">
         <v>20</v>
       </c>
-      <c r="G181" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/calligraphy.png</v>
+      <c r="G181" t="s">
+        <v>2818</v>
       </c>
       <c r="H181" t="s">
         <v>104</v>
@@ -15458,9 +16695,8 @@
       <c r="F182" t="s">
         <v>20</v>
       </c>
-      <c r="G182" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sculpting.png</v>
+      <c r="G182" t="s">
+        <v>2819</v>
       </c>
       <c r="H182" t="s">
         <v>104</v>
@@ -15497,9 +16733,8 @@
       <c r="F183" t="s">
         <v>20</v>
       </c>
-      <c r="G183" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/photobook.png</v>
+      <c r="G183" t="s">
+        <v>2820</v>
       </c>
       <c r="H183" t="s">
         <v>104</v>
@@ -15536,9 +16771,8 @@
       <c r="F184" t="s">
         <v>20</v>
       </c>
-      <c r="G184" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/crafting.png</v>
+      <c r="G184" t="s">
+        <v>2821</v>
       </c>
       <c r="H184" t="s">
         <v>104</v>
@@ -15575,9 +16809,8 @@
       <c r="F185" t="s">
         <v>20</v>
       </c>
-      <c r="G185" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/board games.png</v>
+      <c r="G185" t="s">
+        <v>2822</v>
       </c>
       <c r="H185" t="s">
         <v>104</v>
@@ -15614,9 +16847,8 @@
       <c r="F186" t="s">
         <v>20</v>
       </c>
-      <c r="G186" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/scrapbooking.png</v>
+      <c r="G186" t="s">
+        <v>2823</v>
       </c>
       <c r="H186" t="s">
         <v>104</v>
@@ -15653,9 +16885,8 @@
       <c r="F187" t="s">
         <v>20</v>
       </c>
-      <c r="G187" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/volunteering.png</v>
+      <c r="G187" t="s">
+        <v>2824</v>
       </c>
       <c r="H187" t="s">
         <v>104</v>
@@ -15692,9 +16923,8 @@
       <c r="F188" t="s">
         <v>20</v>
       </c>
-      <c r="G188" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/astrophotography.png</v>
+      <c r="G188" t="s">
+        <v>2825</v>
       </c>
       <c r="H188" t="s">
         <v>145</v>
@@ -15731,9 +16961,8 @@
       <c r="F189" t="s">
         <v>20</v>
       </c>
-      <c r="G189" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/origami.png</v>
+      <c r="G189" t="s">
+        <v>2826</v>
       </c>
       <c r="H189" t="s">
         <v>145</v>
@@ -15770,9 +16999,8 @@
       <c r="F190" t="s">
         <v>20</v>
       </c>
-      <c r="G190" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/jewelry making.png</v>
+      <c r="G190" t="s">
+        <v>2827</v>
       </c>
       <c r="H190" t="s">
         <v>145</v>
@@ -15809,9 +17037,8 @@
       <c r="F191" t="s">
         <v>20</v>
       </c>
-      <c r="G191" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/homebrewing.png</v>
+      <c r="G191" t="s">
+        <v>2828</v>
       </c>
       <c r="H191" t="s">
         <v>145</v>
@@ -15848,9 +17075,8 @@
       <c r="F192" t="s">
         <v>20</v>
       </c>
-      <c r="G192" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/foraging.png</v>
+      <c r="G192" t="s">
+        <v>2829</v>
       </c>
       <c r="H192" t="s">
         <v>145</v>
@@ -15887,9 +17113,8 @@
       <c r="F193" t="s">
         <v>20</v>
       </c>
-      <c r="G193" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/beekeeping.png</v>
+      <c r="G193" t="s">
+        <v>2830</v>
       </c>
       <c r="H193" t="s">
         <v>145</v>
@@ -15926,9 +17151,8 @@
       <c r="F194" t="s">
         <v>20</v>
       </c>
-      <c r="G194" t="str">
-        <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/antiquing.png</v>
+      <c r="G194" t="s">
+        <v>2831</v>
       </c>
       <c r="H194" t="s">
         <v>145</v>
@@ -15965,9 +17189,8 @@
       <c r="F195" t="s">
         <v>20</v>
       </c>
-      <c r="G195" t="str">
-        <f t="shared" ref="G195:G258" si="3">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B195)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/geocaching.png</v>
+      <c r="G195" t="s">
+        <v>2832</v>
       </c>
       <c r="H195" t="s">
         <v>145</v>
@@ -16004,9 +17227,8 @@
       <c r="F196" t="s">
         <v>20</v>
       </c>
-      <c r="G196" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/metalworking.png</v>
+      <c r="G196" t="s">
+        <v>2833</v>
       </c>
       <c r="H196" t="s">
         <v>145</v>
@@ -16043,9 +17265,8 @@
       <c r="F197" t="s">
         <v>20</v>
       </c>
-      <c r="G197" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/restoration.png</v>
+      <c r="G197" t="s">
+        <v>2834</v>
       </c>
       <c r="H197" t="s">
         <v>145</v>
@@ -16082,9 +17303,8 @@
       <c r="F198" t="s">
         <v>20</v>
       </c>
-      <c r="G198" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/rain.png</v>
+      <c r="G198" t="s">
+        <v>2835</v>
       </c>
       <c r="H198" t="s">
         <v>21</v>
@@ -16121,9 +17341,8 @@
       <c r="F199" t="s">
         <v>20</v>
       </c>
-      <c r="G199" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sun.png</v>
+      <c r="G199" t="s">
+        <v>2836</v>
       </c>
       <c r="H199" t="s">
         <v>21</v>
@@ -16160,9 +17379,8 @@
       <c r="F200" t="s">
         <v>20</v>
       </c>
-      <c r="G200" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cloud.png</v>
+      <c r="G200" t="s">
+        <v>2837</v>
       </c>
       <c r="H200" t="s">
         <v>21</v>
@@ -16199,9 +17417,8 @@
       <c r="F201" t="s">
         <v>20</v>
       </c>
-      <c r="G201" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/wind.png</v>
+      <c r="G201" t="s">
+        <v>2838</v>
       </c>
       <c r="H201" t="s">
         <v>21</v>
@@ -16238,9 +17455,8 @@
       <c r="F202" t="s">
         <v>20</v>
       </c>
-      <c r="G202" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/storm.png</v>
+      <c r="G202" t="s">
+        <v>2839</v>
       </c>
       <c r="H202" t="s">
         <v>21</v>
@@ -16277,9 +17493,8 @@
       <c r="F203" t="s">
         <v>20</v>
       </c>
-      <c r="G203" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/snow.png</v>
+      <c r="G203" t="s">
+        <v>2840</v>
       </c>
       <c r="H203" t="s">
         <v>21</v>
@@ -16316,8 +17531,8 @@
       <c r="F204" t="s">
         <v>20</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>2642</v>
+      <c r="G204" t="s">
+        <v>2841</v>
       </c>
       <c r="H204" t="s">
         <v>21</v>
@@ -16354,9 +17569,8 @@
       <c r="F205" t="s">
         <v>20</v>
       </c>
-      <c r="G205" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cold.png</v>
+      <c r="G205" t="s">
+        <v>2842</v>
       </c>
       <c r="H205" t="s">
         <v>21</v>
@@ -16393,9 +17607,8 @@
       <c r="F206" t="s">
         <v>20</v>
       </c>
-      <c r="G206" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hot.png</v>
+      <c r="G206" t="s">
+        <v>2843</v>
       </c>
       <c r="H206" t="s">
         <v>21</v>
@@ -16432,9 +17645,8 @@
       <c r="F207" t="s">
         <v>20</v>
       </c>
-      <c r="G207" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/weather.png</v>
+      <c r="G207" t="s">
+        <v>2844</v>
       </c>
       <c r="H207" t="s">
         <v>21</v>
@@ -16471,9 +17683,8 @@
       <c r="F208" t="s">
         <v>20</v>
       </c>
-      <c r="G208" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/temperature.png</v>
+      <c r="G208" t="s">
+        <v>2845</v>
       </c>
       <c r="H208" t="s">
         <v>63</v>
@@ -16510,9 +17721,8 @@
       <c r="F209" t="s">
         <v>20</v>
       </c>
-      <c r="G209" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/humidity.png</v>
+      <c r="G209" t="s">
+        <v>2846</v>
       </c>
       <c r="H209" t="s">
         <v>63</v>
@@ -16549,9 +17759,8 @@
       <c r="F210" t="s">
         <v>20</v>
       </c>
-      <c r="G210" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/forecast.png</v>
+      <c r="G210" t="s">
+        <v>2847</v>
       </c>
       <c r="H210" t="s">
         <v>63</v>
@@ -16588,9 +17797,8 @@
       <c r="F211" t="s">
         <v>20</v>
       </c>
-      <c r="G211" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/breeze.png</v>
+      <c r="G211" t="s">
+        <v>2848</v>
       </c>
       <c r="H211" t="s">
         <v>63</v>
@@ -16627,9 +17835,8 @@
       <c r="F212" t="s">
         <v>20</v>
       </c>
-      <c r="G212" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/heatwave.png</v>
+      <c r="G212" t="s">
+        <v>2849</v>
       </c>
       <c r="H212" t="s">
         <v>63</v>
@@ -16666,9 +17873,8 @@
       <c r="F213" t="s">
         <v>20</v>
       </c>
-      <c r="G213" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/thunder.png</v>
+      <c r="G213" t="s">
+        <v>2850</v>
       </c>
       <c r="H213" t="s">
         <v>63</v>
@@ -16705,9 +17911,8 @@
       <c r="F214" t="s">
         <v>20</v>
       </c>
-      <c r="G214" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/lightning.png</v>
+      <c r="G214" t="s">
+        <v>2851</v>
       </c>
       <c r="H214" t="s">
         <v>63</v>
@@ -16744,9 +17949,8 @@
       <c r="F215" t="s">
         <v>20</v>
       </c>
-      <c r="G215" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hail.png</v>
+      <c r="G215" t="s">
+        <v>2852</v>
       </c>
       <c r="H215" t="s">
         <v>63</v>
@@ -16783,9 +17987,8 @@
       <c r="F216" t="s">
         <v>20</v>
       </c>
-      <c r="G216" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/drizzle.png</v>
+      <c r="G216" t="s">
+        <v>2853</v>
       </c>
       <c r="H216" t="s">
         <v>63</v>
@@ -16822,9 +18025,8 @@
       <c r="F217" t="s">
         <v>20</v>
       </c>
-      <c r="G217" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/mist.png</v>
+      <c r="G217" t="s">
+        <v>2854</v>
       </c>
       <c r="H217" t="s">
         <v>63</v>
@@ -16861,9 +18063,8 @@
       <c r="F218" t="s">
         <v>20</v>
       </c>
-      <c r="G218" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/climate.png</v>
+      <c r="G218" t="s">
+        <v>2855</v>
       </c>
       <c r="H218" t="s">
         <v>104</v>
@@ -16900,9 +18101,8 @@
       <c r="F219" t="s">
         <v>20</v>
       </c>
-      <c r="G219" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cyclone.png</v>
+      <c r="G219" t="s">
+        <v>2856</v>
       </c>
       <c r="H219" t="s">
         <v>104</v>
@@ -16939,9 +18139,8 @@
       <c r="F220" t="s">
         <v>20</v>
       </c>
-      <c r="G220" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/drought.png</v>
+      <c r="G220" t="s">
+        <v>2857</v>
       </c>
       <c r="H220" t="s">
         <v>104</v>
@@ -16978,9 +18177,8 @@
       <c r="F221" t="s">
         <v>20</v>
       </c>
-      <c r="G221" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/frost.png</v>
+      <c r="G221" t="s">
+        <v>2858</v>
       </c>
       <c r="H221" t="s">
         <v>104</v>
@@ -17017,9 +18215,8 @@
       <c r="F222" t="s">
         <v>20</v>
       </c>
-      <c r="G222" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/gale.png</v>
+      <c r="G222" t="s">
+        <v>2859</v>
       </c>
       <c r="H222" t="s">
         <v>104</v>
@@ -17056,9 +18253,8 @@
       <c r="F223" t="s">
         <v>20</v>
       </c>
-      <c r="G223" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/monsoon.png</v>
+      <c r="G223" t="s">
+        <v>2860</v>
       </c>
       <c r="H223" t="s">
         <v>104</v>
@@ -17095,9 +18291,8 @@
       <c r="F224" t="s">
         <v>20</v>
       </c>
-      <c r="G224" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/overcast.png</v>
+      <c r="G224" t="s">
+        <v>2861</v>
       </c>
       <c r="H224" t="s">
         <v>104</v>
@@ -17134,9 +18329,8 @@
       <c r="F225" t="s">
         <v>20</v>
       </c>
-      <c r="G225" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/precipitation.png</v>
+      <c r="G225" t="s">
+        <v>2862</v>
       </c>
       <c r="H225" t="s">
         <v>104</v>
@@ -17173,9 +18367,8 @@
       <c r="F226" t="s">
         <v>20</v>
       </c>
-      <c r="G226" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/atmosphere.png</v>
+      <c r="G226" t="s">
+        <v>2863</v>
       </c>
       <c r="H226" t="s">
         <v>104</v>
@@ -17212,9 +18405,8 @@
       <c r="F227" t="s">
         <v>20</v>
       </c>
-      <c r="G227" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/blizzard.png</v>
+      <c r="G227" t="s">
+        <v>2864</v>
       </c>
       <c r="H227" t="s">
         <v>104</v>
@@ -17251,9 +18443,8 @@
       <c r="F228" t="s">
         <v>20</v>
       </c>
-      <c r="G228" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/meteorology.png</v>
+      <c r="G228" t="s">
+        <v>2865</v>
       </c>
       <c r="H228" t="s">
         <v>145</v>
@@ -17290,9 +18481,8 @@
       <c r="F229" t="s">
         <v>20</v>
       </c>
-      <c r="G229" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/avalanche.png</v>
+      <c r="G229" t="s">
+        <v>2866</v>
       </c>
       <c r="H229" t="s">
         <v>145</v>
@@ -17329,9 +18519,8 @@
       <c r="F230" t="s">
         <v>20</v>
       </c>
-      <c r="G230" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/temperature inversion.png</v>
+      <c r="G230" t="s">
+        <v>2867</v>
       </c>
       <c r="H230" t="s">
         <v>145</v>
@@ -17368,9 +18557,8 @@
       <c r="F231" t="s">
         <v>20</v>
       </c>
-      <c r="G231" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/microclimate.png</v>
+      <c r="G231" t="s">
+        <v>2868</v>
       </c>
       <c r="H231" t="s">
         <v>145</v>
@@ -17407,9 +18595,8 @@
       <c r="F232" t="s">
         <v>20</v>
       </c>
-      <c r="G232" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/isobar.png</v>
+      <c r="G232" t="s">
+        <v>2869</v>
       </c>
       <c r="H232" t="s">
         <v>145</v>
@@ -17446,9 +18633,8 @@
       <c r="F233" t="s">
         <v>20</v>
       </c>
-      <c r="G233" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/anemometer.png</v>
+      <c r="G233" t="s">
+        <v>2870</v>
       </c>
       <c r="H233" t="s">
         <v>145</v>
@@ -17485,9 +18671,8 @@
       <c r="F234" t="s">
         <v>20</v>
       </c>
-      <c r="G234" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/dew point.png</v>
+      <c r="G234" t="s">
+        <v>2871</v>
       </c>
       <c r="H234" t="s">
         <v>145</v>
@@ -17524,9 +18709,8 @@
       <c r="F235" t="s">
         <v>20</v>
       </c>
-      <c r="G235" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/stratosphere.png</v>
+      <c r="G235" t="s">
+        <v>2872</v>
       </c>
       <c r="H235" t="s">
         <v>145</v>
@@ -17563,9 +18747,8 @@
       <c r="F236" t="s">
         <v>20</v>
       </c>
-      <c r="G236" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/tornado.png</v>
+      <c r="G236" t="s">
+        <v>2873</v>
       </c>
       <c r="H236" t="s">
         <v>145</v>
@@ -17602,9 +18785,8 @@
       <c r="F237" t="s">
         <v>20</v>
       </c>
-      <c r="G237" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hurricane.png</v>
+      <c r="G237" t="s">
+        <v>2874</v>
       </c>
       <c r="H237" t="s">
         <v>145</v>
@@ -17641,9 +18823,8 @@
       <c r="F238" t="s">
         <v>20</v>
       </c>
-      <c r="G238" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/computer.png</v>
+      <c r="G238" t="s">
+        <v>2875</v>
       </c>
       <c r="H238" t="s">
         <v>21</v>
@@ -17680,9 +18861,8 @@
       <c r="F239" t="s">
         <v>20</v>
       </c>
-      <c r="G239" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/phone.png</v>
+      <c r="G239" t="s">
+        <v>2876</v>
       </c>
       <c r="H239" t="s">
         <v>21</v>
@@ -17719,9 +18899,8 @@
       <c r="F240" t="s">
         <v>20</v>
       </c>
-      <c r="G240" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/internet.png</v>
+      <c r="G240" t="s">
+        <v>2877</v>
       </c>
       <c r="H240" t="s">
         <v>21</v>
@@ -17758,9 +18937,8 @@
       <c r="F241" t="s">
         <v>20</v>
       </c>
-      <c r="G241" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/email.png</v>
+      <c r="G241" t="s">
+        <v>2878</v>
       </c>
       <c r="H241" t="s">
         <v>21</v>
@@ -17797,9 +18975,8 @@
       <c r="F242" t="s">
         <v>20</v>
       </c>
-      <c r="G242" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/screen.png</v>
+      <c r="G242" t="s">
+        <v>2879</v>
       </c>
       <c r="H242" t="s">
         <v>21</v>
@@ -17836,9 +19013,8 @@
       <c r="F243" t="s">
         <v>20</v>
       </c>
-      <c r="G243" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/keyboard.png</v>
+      <c r="G243" t="s">
+        <v>2880</v>
       </c>
       <c r="H243" t="s">
         <v>21</v>
@@ -17875,9 +19051,8 @@
       <c r="F244" t="s">
         <v>20</v>
       </c>
-      <c r="G244" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/mouse.png</v>
+      <c r="G244" t="s">
+        <v>2881</v>
       </c>
       <c r="H244" t="s">
         <v>21</v>
@@ -17914,9 +19089,8 @@
       <c r="F245" t="s">
         <v>20</v>
       </c>
-      <c r="G245" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/camera.png</v>
+      <c r="G245" t="s">
+        <v>2882</v>
       </c>
       <c r="H245" t="s">
         <v>21</v>
@@ -17953,9 +19127,8 @@
       <c r="F246" t="s">
         <v>20</v>
       </c>
-      <c r="G246" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/printer.png</v>
+      <c r="G246" t="s">
+        <v>2883</v>
       </c>
       <c r="H246" t="s">
         <v>21</v>
@@ -17992,9 +19165,8 @@
       <c r="F247" t="s">
         <v>20</v>
       </c>
-      <c r="G247" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/app.png</v>
+      <c r="G247" t="s">
+        <v>2884</v>
       </c>
       <c r="H247" t="s">
         <v>21</v>
@@ -18031,9 +19203,8 @@
       <c r="F248" t="s">
         <v>20</v>
       </c>
-      <c r="G248" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/software.png</v>
+      <c r="G248" t="s">
+        <v>2885</v>
       </c>
       <c r="H248" t="s">
         <v>63</v>
@@ -18070,9 +19241,8 @@
       <c r="F249" t="s">
         <v>20</v>
       </c>
-      <c r="G249" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hardware.png</v>
+      <c r="G249" t="s">
+        <v>2886</v>
       </c>
       <c r="H249" t="s">
         <v>63</v>
@@ -18109,9 +19279,8 @@
       <c r="F250" t="s">
         <v>20</v>
       </c>
-      <c r="G250" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/gadget.png</v>
+      <c r="G250" t="s">
+        <v>2887</v>
       </c>
       <c r="H250" t="s">
         <v>63</v>
@@ -18148,9 +19317,8 @@
       <c r="F251" t="s">
         <v>20</v>
       </c>
-      <c r="G251" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/download.png</v>
+      <c r="G251" t="s">
+        <v>2888</v>
       </c>
       <c r="H251" t="s">
         <v>63</v>
@@ -18187,9 +19355,8 @@
       <c r="F252" t="s">
         <v>20</v>
       </c>
-      <c r="G252" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/upload.png</v>
+      <c r="G252" t="s">
+        <v>2889</v>
       </c>
       <c r="H252" t="s">
         <v>63</v>
@@ -18226,9 +19393,8 @@
       <c r="F253" t="s">
         <v>20</v>
       </c>
-      <c r="G253" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/device.png</v>
+      <c r="G253" t="s">
+        <v>2890</v>
       </c>
       <c r="H253" t="s">
         <v>63</v>
@@ -18265,9 +19431,8 @@
       <c r="F254" t="s">
         <v>20</v>
       </c>
-      <c r="G254" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cloud.png</v>
+      <c r="G254" t="s">
+        <v>2837</v>
       </c>
       <c r="H254" t="s">
         <v>63</v>
@@ -18304,9 +19469,8 @@
       <c r="F255" t="s">
         <v>20</v>
       </c>
-      <c r="G255" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/wi-fi.png</v>
+      <c r="G255" t="s">
+        <v>2891</v>
       </c>
       <c r="H255" t="s">
         <v>63</v>
@@ -18343,9 +19507,8 @@
       <c r="F256" t="s">
         <v>20</v>
       </c>
-      <c r="G256" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/robot.png</v>
+      <c r="G256" t="s">
+        <v>2892</v>
       </c>
       <c r="H256" t="s">
         <v>63</v>
@@ -18382,9 +19545,8 @@
       <c r="F257" t="s">
         <v>20</v>
       </c>
-      <c r="G257" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/virtual.png</v>
+      <c r="G257" t="s">
+        <v>2893</v>
       </c>
       <c r="H257" t="s">
         <v>63</v>
@@ -18421,9 +19583,8 @@
       <c r="F258" t="s">
         <v>20</v>
       </c>
-      <c r="G258" t="str">
-        <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/algorithm.png</v>
+      <c r="G258" t="s">
+        <v>2894</v>
       </c>
       <c r="H258" t="s">
         <v>104</v>
@@ -18460,9 +19621,8 @@
       <c r="F259" t="s">
         <v>20</v>
       </c>
-      <c r="G259" t="str">
-        <f t="shared" ref="G259:G322" si="4">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B259)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/encryption.png</v>
+      <c r="G259" t="s">
+        <v>2895</v>
       </c>
       <c r="H259" t="s">
         <v>104</v>
@@ -18499,9 +19659,8 @@
       <c r="F260" t="s">
         <v>20</v>
       </c>
-      <c r="G260" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cybersecurity.png</v>
+      <c r="G260" t="s">
+        <v>2896</v>
       </c>
       <c r="H260" t="s">
         <v>104</v>
@@ -18538,9 +19697,8 @@
       <c r="F261" t="s">
         <v>20</v>
       </c>
-      <c r="G261" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/automation.png</v>
+      <c r="G261" t="s">
+        <v>2897</v>
       </c>
       <c r="H261" t="s">
         <v>104</v>
@@ -18577,9 +19735,8 @@
       <c r="F262" t="s">
         <v>20</v>
       </c>
-      <c r="G262" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/innovation.png</v>
+      <c r="G262" t="s">
+        <v>2898</v>
       </c>
       <c r="H262" t="s">
         <v>104</v>
@@ -18616,9 +19773,8 @@
       <c r="F263" t="s">
         <v>20</v>
       </c>
-      <c r="G263" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/artificial intelligence.png</v>
+      <c r="G263" t="s">
+        <v>2899</v>
       </c>
       <c r="H263" t="s">
         <v>104</v>
@@ -18655,9 +19811,8 @@
       <c r="F264" t="s">
         <v>20</v>
       </c>
-      <c r="G264" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/data.png</v>
+      <c r="G264" t="s">
+        <v>2900</v>
       </c>
       <c r="H264" t="s">
         <v>104</v>
@@ -18694,9 +19849,8 @@
       <c r="F265" t="s">
         <v>20</v>
       </c>
-      <c r="G265" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/server.png</v>
+      <c r="G265" t="s">
+        <v>2901</v>
       </c>
       <c r="H265" t="s">
         <v>104</v>
@@ -18733,9 +19887,8 @@
       <c r="F266" t="s">
         <v>20</v>
       </c>
-      <c r="G266" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/interface.png</v>
+      <c r="G266" t="s">
+        <v>2902</v>
       </c>
       <c r="H266" t="s">
         <v>104</v>
@@ -18772,9 +19925,8 @@
       <c r="F267" t="s">
         <v>20</v>
       </c>
-      <c r="G267" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/digital.png</v>
+      <c r="G267" t="s">
+        <v>2903</v>
       </c>
       <c r="H267" t="s">
         <v>104</v>
@@ -18811,9 +19963,8 @@
       <c r="F268" t="s">
         <v>20</v>
       </c>
-      <c r="G268" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/nanotechnology.png</v>
+      <c r="G268" t="s">
+        <v>2904</v>
       </c>
       <c r="H268" t="s">
         <v>145</v>
@@ -18850,9 +20001,8 @@
       <c r="F269" t="s">
         <v>20</v>
       </c>
-      <c r="G269" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/biotechnology.png</v>
+      <c r="G269" t="s">
+        <v>2905</v>
       </c>
       <c r="H269" t="s">
         <v>145</v>
@@ -18889,9 +20039,8 @@
       <c r="F270" t="s">
         <v>20</v>
       </c>
-      <c r="G270" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/quantum computing.png</v>
+      <c r="G270" t="s">
+        <v>2906</v>
       </c>
       <c r="H270" t="s">
         <v>145</v>
@@ -18928,9 +20077,8 @@
       <c r="F271" t="s">
         <v>20</v>
       </c>
-      <c r="G271" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/augmented reality.png</v>
+      <c r="G271" t="s">
+        <v>2907</v>
       </c>
       <c r="H271" t="s">
         <v>145</v>
@@ -18967,9 +20115,8 @@
       <c r="F272" t="s">
         <v>20</v>
       </c>
-      <c r="G272" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/blockchain.png</v>
+      <c r="G272" t="s">
+        <v>2908</v>
       </c>
       <c r="H272" t="s">
         <v>145</v>
@@ -19006,9 +20153,8 @@
       <c r="F273" t="s">
         <v>20</v>
       </c>
-      <c r="G273" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/3d printing.png</v>
+      <c r="G273" t="s">
+        <v>2909</v>
       </c>
       <c r="H273" t="s">
         <v>145</v>
@@ -19045,9 +20191,8 @@
       <c r="F274" t="s">
         <v>20</v>
       </c>
-      <c r="G274" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cyberattack.png</v>
+      <c r="G274" t="s">
+        <v>2910</v>
       </c>
       <c r="H274" t="s">
         <v>145</v>
@@ -19084,9 +20229,8 @@
       <c r="F275" t="s">
         <v>20</v>
       </c>
-      <c r="G275" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/wearable technology.png</v>
+      <c r="G275" t="s">
+        <v>2911</v>
       </c>
       <c r="H275" t="s">
         <v>145</v>
@@ -19123,9 +20267,8 @@
       <c r="F276" t="s">
         <v>20</v>
       </c>
-      <c r="G276" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/big data.png</v>
+      <c r="G276" t="s">
+        <v>2912</v>
       </c>
       <c r="H276" t="s">
         <v>145</v>
@@ -19162,9 +20305,8 @@
       <c r="F277" t="s">
         <v>20</v>
       </c>
-      <c r="G277" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/machine learning.png</v>
+      <c r="G277" t="s">
+        <v>2913</v>
       </c>
       <c r="H277" t="s">
         <v>145</v>
@@ -19201,9 +20343,8 @@
       <c r="F278" t="s">
         <v>20</v>
       </c>
-      <c r="G278" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/doctor.png</v>
+      <c r="G278" t="s">
+        <v>2914</v>
       </c>
       <c r="H278" t="s">
         <v>21</v>
@@ -19240,9 +20381,8 @@
       <c r="F279" t="s">
         <v>20</v>
       </c>
-      <c r="G279" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/nurse.png</v>
+      <c r="G279" t="s">
+        <v>2915</v>
       </c>
       <c r="H279" t="s">
         <v>21</v>
@@ -19279,9 +20419,8 @@
       <c r="F280" t="s">
         <v>20</v>
       </c>
-      <c r="G280" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/medicine.png</v>
+      <c r="G280" t="s">
+        <v>2916</v>
       </c>
       <c r="H280" t="s">
         <v>21</v>
@@ -19318,9 +20457,8 @@
       <c r="F281" t="s">
         <v>20</v>
       </c>
-      <c r="G281" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hospital.png</v>
+      <c r="G281" t="s">
+        <v>2917</v>
       </c>
       <c r="H281" t="s">
         <v>21</v>
@@ -19357,9 +20495,8 @@
       <c r="F282" t="s">
         <v>20</v>
       </c>
-      <c r="G282" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pain.png</v>
+      <c r="G282" t="s">
+        <v>2918</v>
       </c>
       <c r="H282" t="s">
         <v>21</v>
@@ -19396,9 +20533,8 @@
       <c r="F283" t="s">
         <v>20</v>
       </c>
-      <c r="G283" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/health.png</v>
+      <c r="G283" t="s">
+        <v>2919</v>
       </c>
       <c r="H283" t="s">
         <v>21</v>
@@ -19435,9 +20571,8 @@
       <c r="F284" t="s">
         <v>20</v>
       </c>
-      <c r="G284" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sick.png</v>
+      <c r="G284" t="s">
+        <v>2920</v>
       </c>
       <c r="H284" t="s">
         <v>21</v>
@@ -19474,9 +20609,8 @@
       <c r="F285" t="s">
         <v>20</v>
       </c>
-      <c r="G285" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/exercise.png</v>
+      <c r="G285" t="s">
+        <v>2921</v>
       </c>
       <c r="H285" t="s">
         <v>21</v>
@@ -19513,9 +20647,8 @@
       <c r="F286" t="s">
         <v>20</v>
       </c>
-      <c r="G286" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/food.png</v>
+      <c r="G286" t="s">
+        <v>2922</v>
       </c>
       <c r="H286" t="s">
         <v>21</v>
@@ -19552,9 +20685,8 @@
       <c r="F287" t="s">
         <v>20</v>
       </c>
-      <c r="G287" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sleep.png</v>
+      <c r="G287" t="s">
+        <v>2923</v>
       </c>
       <c r="H287" t="s">
         <v>21</v>
@@ -19591,9 +20723,8 @@
       <c r="F288" t="s">
         <v>20</v>
       </c>
-      <c r="G288" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/diet.png</v>
+      <c r="G288" t="s">
+        <v>2924</v>
       </c>
       <c r="H288" t="s">
         <v>63</v>
@@ -19630,9 +20761,8 @@
       <c r="F289" t="s">
         <v>20</v>
       </c>
-      <c r="G289" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/injury.png</v>
+      <c r="G289" t="s">
+        <v>2925</v>
       </c>
       <c r="H289" t="s">
         <v>63</v>
@@ -19669,9 +20799,8 @@
       <c r="F290" t="s">
         <v>20</v>
       </c>
-      <c r="G290" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/stress.png</v>
+      <c r="G290" t="s">
+        <v>2926</v>
       </c>
       <c r="H290" t="s">
         <v>63</v>
@@ -19708,9 +20837,8 @@
       <c r="F291" t="s">
         <v>20</v>
       </c>
-      <c r="G291" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/symptom.png</v>
+      <c r="G291" t="s">
+        <v>2927</v>
       </c>
       <c r="H291" t="s">
         <v>63</v>
@@ -19747,9 +20875,8 @@
       <c r="F292" t="s">
         <v>20</v>
       </c>
-      <c r="G292" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/treatment.png</v>
+      <c r="G292" t="s">
+        <v>2928</v>
       </c>
       <c r="H292" t="s">
         <v>63</v>
@@ -19786,9 +20913,8 @@
       <c r="F293" t="s">
         <v>20</v>
       </c>
-      <c r="G293" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/recovery.png</v>
+      <c r="G293" t="s">
+        <v>2929</v>
       </c>
       <c r="H293" t="s">
         <v>63</v>
@@ -19825,9 +20951,8 @@
       <c r="F294" t="s">
         <v>20</v>
       </c>
-      <c r="G294" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/disease.png</v>
+      <c r="G294" t="s">
+        <v>2930</v>
       </c>
       <c r="H294" t="s">
         <v>63</v>
@@ -19864,9 +20989,8 @@
       <c r="F295" t="s">
         <v>20</v>
       </c>
-      <c r="G295" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/check-up.png</v>
+      <c r="G295" t="s">
+        <v>2931</v>
       </c>
       <c r="H295" t="s">
         <v>63</v>
@@ -19903,9 +21027,8 @@
       <c r="F296" t="s">
         <v>20</v>
       </c>
-      <c r="G296" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/vaccine.png</v>
+      <c r="G296" t="s">
+        <v>2932</v>
       </c>
       <c r="H296" t="s">
         <v>63</v>
@@ -19942,9 +21065,8 @@
       <c r="F297" t="s">
         <v>20</v>
       </c>
-      <c r="G297" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/headache.png</v>
+      <c r="G297" t="s">
+        <v>2933</v>
       </c>
       <c r="H297" t="s">
         <v>63</v>
@@ -19981,9 +21103,8 @@
       <c r="F298" t="s">
         <v>20</v>
       </c>
-      <c r="G298" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/mental health.png</v>
+      <c r="G298" t="s">
+        <v>2934</v>
       </c>
       <c r="H298" t="s">
         <v>104</v>
@@ -20020,9 +21141,8 @@
       <c r="F299" t="s">
         <v>20</v>
       </c>
-      <c r="G299" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/immune system.png</v>
+      <c r="G299" t="s">
+        <v>2935</v>
       </c>
       <c r="H299" t="s">
         <v>104</v>
@@ -20059,9 +21179,8 @@
       <c r="F300" t="s">
         <v>20</v>
       </c>
-      <c r="G300" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/infection.png</v>
+      <c r="G300" t="s">
+        <v>2936</v>
       </c>
       <c r="H300" t="s">
         <v>104</v>
@@ -20098,9 +21217,8 @@
       <c r="F301" t="s">
         <v>20</v>
       </c>
-      <c r="G301" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/surgery.png</v>
+      <c r="G301" t="s">
+        <v>2937</v>
       </c>
       <c r="H301" t="s">
         <v>104</v>
@@ -20137,9 +21255,8 @@
       <c r="F302" t="s">
         <v>20</v>
       </c>
-      <c r="G302" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/therapy.png</v>
+      <c r="G302" t="s">
+        <v>2938</v>
       </c>
       <c r="H302" t="s">
         <v>104</v>
@@ -20176,9 +21293,8 @@
       <c r="F303" t="s">
         <v>20</v>
       </c>
-      <c r="G303" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cholesterol.png</v>
+      <c r="G303" t="s">
+        <v>2939</v>
       </c>
       <c r="H303" t="s">
         <v>104</v>
@@ -20215,9 +21331,8 @@
       <c r="F304" t="s">
         <v>20</v>
       </c>
-      <c r="G304" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/blood pressure.png</v>
+      <c r="G304" t="s">
+        <v>2940</v>
       </c>
       <c r="H304" t="s">
         <v>104</v>
@@ -20254,9 +21369,8 @@
       <c r="F305" t="s">
         <v>20</v>
       </c>
-      <c r="G305" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/allergy.png</v>
+      <c r="G305" t="s">
+        <v>2941</v>
       </c>
       <c r="H305" t="s">
         <v>104</v>
@@ -20293,9 +21407,8 @@
       <c r="F306" t="s">
         <v>20</v>
       </c>
-      <c r="G306" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/antibiotic.png</v>
+      <c r="G306" t="s">
+        <v>2942</v>
       </c>
       <c r="H306" t="s">
         <v>104</v>
@@ -20332,9 +21445,8 @@
       <c r="F307" t="s">
         <v>20</v>
       </c>
-      <c r="G307" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/diagnosis.png</v>
+      <c r="G307" t="s">
+        <v>2943</v>
       </c>
       <c r="H307" t="s">
         <v>104</v>
@@ -20371,9 +21483,8 @@
       <c r="F308" t="s">
         <v>20</v>
       </c>
-      <c r="G308" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cardiovascular.png</v>
+      <c r="G308" t="s">
+        <v>2944</v>
       </c>
       <c r="H308" t="s">
         <v>145</v>
@@ -20410,9 +21521,8 @@
       <c r="F309" t="s">
         <v>20</v>
       </c>
-      <c r="G309" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/respiratory.png</v>
+      <c r="G309" t="s">
+        <v>2945</v>
       </c>
       <c r="H309" t="s">
         <v>145</v>
@@ -20449,9 +21559,8 @@
       <c r="F310" t="s">
         <v>20</v>
       </c>
-      <c r="G310" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/degenerative.png</v>
+      <c r="G310" t="s">
+        <v>2946</v>
       </c>
       <c r="H310" t="s">
         <v>145</v>
@@ -20488,9 +21597,8 @@
       <c r="F311" t="s">
         <v>20</v>
       </c>
-      <c r="G311" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/malnutrition.png</v>
+      <c r="G311" t="s">
+        <v>2947</v>
       </c>
       <c r="H311" t="s">
         <v>145</v>
@@ -20527,9 +21635,8 @@
       <c r="F312" t="s">
         <v>20</v>
       </c>
-      <c r="G312" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/epidemic.png</v>
+      <c r="G312" t="s">
+        <v>2948</v>
       </c>
       <c r="H312" t="s">
         <v>145</v>
@@ -20566,9 +21673,8 @@
       <c r="F313" t="s">
         <v>20</v>
       </c>
-      <c r="G313" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/contagious.png</v>
+      <c r="G313" t="s">
+        <v>2949</v>
       </c>
       <c r="H313" t="s">
         <v>145</v>
@@ -20605,9 +21711,8 @@
       <c r="F314" t="s">
         <v>20</v>
       </c>
-      <c r="G314" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pandemic.png</v>
+      <c r="G314" t="s">
+        <v>2950</v>
       </c>
       <c r="H314" t="s">
         <v>145</v>
@@ -20644,9 +21749,8 @@
       <c r="F315" t="s">
         <v>20</v>
       </c>
-      <c r="G315" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/vaccination.png</v>
+      <c r="G315" t="s">
+        <v>2951</v>
       </c>
       <c r="H315" t="s">
         <v>145</v>
@@ -20683,9 +21787,8 @@
       <c r="F316" t="s">
         <v>20</v>
       </c>
-      <c r="G316" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/quarantine.png</v>
+      <c r="G316" t="s">
+        <v>2952</v>
       </c>
       <c r="H316" t="s">
         <v>145</v>
@@ -20722,9 +21825,8 @@
       <c r="F317" t="s">
         <v>20</v>
       </c>
-      <c r="G317" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/prognosis.png</v>
+      <c r="G317" t="s">
+        <v>2953</v>
       </c>
       <c r="H317" t="s">
         <v>145</v>
@@ -20761,9 +21863,8 @@
       <c r="F318" t="s">
         <v>20</v>
       </c>
-      <c r="G318" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/house.png</v>
+      <c r="G318" t="s">
+        <v>2954</v>
       </c>
       <c r="H318" t="s">
         <v>21</v>
@@ -20800,9 +21901,8 @@
       <c r="F319" t="s">
         <v>20</v>
       </c>
-      <c r="G319" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/room.png</v>
+      <c r="G319" t="s">
+        <v>2955</v>
       </c>
       <c r="H319" t="s">
         <v>21</v>
@@ -20839,9 +21939,8 @@
       <c r="F320" t="s">
         <v>20</v>
       </c>
-      <c r="G320" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/kitchen.png</v>
+      <c r="G320" t="s">
+        <v>2956</v>
       </c>
       <c r="H320" t="s">
         <v>21</v>
@@ -20878,9 +21977,8 @@
       <c r="F321" t="s">
         <v>20</v>
       </c>
-      <c r="G321" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bathroom.png</v>
+      <c r="G321" t="s">
+        <v>2957</v>
       </c>
       <c r="H321" t="s">
         <v>21</v>
@@ -20917,9 +22015,8 @@
       <c r="F322" t="s">
         <v>20</v>
       </c>
-      <c r="G322" t="str">
-        <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bedroom.png</v>
+      <c r="G322" t="s">
+        <v>2958</v>
       </c>
       <c r="H322" t="s">
         <v>21</v>
@@ -20956,9 +22053,8 @@
       <c r="F323" t="s">
         <v>20</v>
       </c>
-      <c r="G323" t="str">
-        <f t="shared" ref="G323:G386" si="5">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B323)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/living room.png</v>
+      <c r="G323" t="s">
+        <v>2959</v>
       </c>
       <c r="H323" t="s">
         <v>21</v>
@@ -20995,9 +22091,8 @@
       <c r="F324" t="s">
         <v>20</v>
       </c>
-      <c r="G324" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/garden.png</v>
+      <c r="G324" t="s">
+        <v>2960</v>
       </c>
       <c r="H324" t="s">
         <v>21</v>
@@ -21034,9 +22129,8 @@
       <c r="F325" t="s">
         <v>20</v>
       </c>
-      <c r="G325" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/window.png</v>
+      <c r="G325" t="s">
+        <v>2961</v>
       </c>
       <c r="H325" t="s">
         <v>21</v>
@@ -21073,9 +22167,8 @@
       <c r="F326" t="s">
         <v>20</v>
       </c>
-      <c r="G326" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/door.png</v>
+      <c r="G326" t="s">
+        <v>2962</v>
       </c>
       <c r="H326" t="s">
         <v>21</v>
@@ -21112,9 +22205,8 @@
       <c r="F327" t="s">
         <v>20</v>
       </c>
-      <c r="G327" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/stairs.png</v>
+      <c r="G327" t="s">
+        <v>2963</v>
       </c>
       <c r="H327" t="s">
         <v>21</v>
@@ -21151,9 +22243,8 @@
       <c r="F328" t="s">
         <v>20</v>
       </c>
-      <c r="G328" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/balcony.png</v>
+      <c r="G328" t="s">
+        <v>2964</v>
       </c>
       <c r="H328" t="s">
         <v>63</v>
@@ -21190,9 +22281,8 @@
       <c r="F329" t="s">
         <v>20</v>
       </c>
-      <c r="G329" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/garage.png</v>
+      <c r="G329" t="s">
+        <v>2965</v>
       </c>
       <c r="H329" t="s">
         <v>63</v>
@@ -21229,9 +22319,8 @@
       <c r="F330" t="s">
         <v>20</v>
       </c>
-      <c r="G330" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/furniture.png</v>
+      <c r="G330" t="s">
+        <v>2966</v>
       </c>
       <c r="H330" t="s">
         <v>63</v>
@@ -21268,9 +22357,8 @@
       <c r="F331" t="s">
         <v>20</v>
       </c>
-      <c r="G331" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/floor.png</v>
+      <c r="G331" t="s">
+        <v>2967</v>
       </c>
       <c r="H331" t="s">
         <v>63</v>
@@ -21307,9 +22395,8 @@
       <c r="F332" t="s">
         <v>20</v>
       </c>
-      <c r="G332" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ceiling.png</v>
+      <c r="G332" t="s">
+        <v>2968</v>
       </c>
       <c r="H332" t="s">
         <v>63</v>
@@ -21346,9 +22433,8 @@
       <c r="F333" t="s">
         <v>20</v>
       </c>
-      <c r="G333" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/wall.png</v>
+      <c r="G333" t="s">
+        <v>2969</v>
       </c>
       <c r="H333" t="s">
         <v>63</v>
@@ -21385,9 +22471,8 @@
       <c r="F334" t="s">
         <v>20</v>
       </c>
-      <c r="G334" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/roof.png</v>
+      <c r="G334" t="s">
+        <v>2970</v>
       </c>
       <c r="H334" t="s">
         <v>63</v>
@@ -21424,9 +22509,8 @@
       <c r="F335" t="s">
         <v>20</v>
       </c>
-      <c r="G335" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hallway.png</v>
+      <c r="G335" t="s">
+        <v>2971</v>
       </c>
       <c r="H335" t="s">
         <v>63</v>
@@ -21463,9 +22547,8 @@
       <c r="F336" t="s">
         <v>20</v>
       </c>
-      <c r="G336" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/attic.png</v>
+      <c r="G336" t="s">
+        <v>2972</v>
       </c>
       <c r="H336" t="s">
         <v>63</v>
@@ -21502,9 +22585,8 @@
       <c r="F337" t="s">
         <v>20</v>
       </c>
-      <c r="G337" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/basement.png</v>
+      <c r="G337" t="s">
+        <v>2973</v>
       </c>
       <c r="H337" t="s">
         <v>63</v>
@@ -21541,9 +22623,8 @@
       <c r="F338" t="s">
         <v>20</v>
       </c>
-      <c r="G338" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/architecture.png</v>
+      <c r="G338" t="s">
+        <v>2974</v>
       </c>
       <c r="H338" t="s">
         <v>104</v>
@@ -21580,9 +22661,8 @@
       <c r="F339" t="s">
         <v>20</v>
       </c>
-      <c r="G339" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/renovation.png</v>
+      <c r="G339" t="s">
+        <v>2975</v>
       </c>
       <c r="H339" t="s">
         <v>104</v>
@@ -21619,9 +22699,8 @@
       <c r="F340" t="s">
         <v>20</v>
       </c>
-      <c r="G340" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/insulation.png</v>
+      <c r="G340" t="s">
+        <v>2976</v>
       </c>
       <c r="H340" t="s">
         <v>104</v>
@@ -21658,9 +22737,8 @@
       <c r="F341" t="s">
         <v>20</v>
       </c>
-      <c r="G341" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/property.png</v>
+      <c r="G341" t="s">
+        <v>2977</v>
       </c>
       <c r="H341" t="s">
         <v>104</v>
@@ -21697,9 +22775,8 @@
       <c r="F342" t="s">
         <v>20</v>
       </c>
-      <c r="G342" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/apartment.png</v>
+      <c r="G342" t="s">
+        <v>2978</v>
       </c>
       <c r="H342" t="s">
         <v>104</v>
@@ -21736,9 +22813,8 @@
       <c r="F343" t="s">
         <v>20</v>
       </c>
-      <c r="G343" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/studio.png</v>
+      <c r="G343" t="s">
+        <v>2979</v>
       </c>
       <c r="H343" t="s">
         <v>104</v>
@@ -21775,9 +22851,8 @@
       <c r="F344" t="s">
         <v>20</v>
       </c>
-      <c r="G344" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/terrace.png</v>
+      <c r="G344" t="s">
+        <v>2980</v>
       </c>
       <c r="H344" t="s">
         <v>104</v>
@@ -21814,9 +22889,8 @@
       <c r="F345" t="s">
         <v>20</v>
       </c>
-      <c r="G345" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/chimney.png</v>
+      <c r="G345" t="s">
+        <v>2981</v>
       </c>
       <c r="H345" t="s">
         <v>104</v>
@@ -21853,9 +22927,8 @@
       <c r="F346" t="s">
         <v>20</v>
       </c>
-      <c r="G346" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/plumbing.png</v>
+      <c r="G346" t="s">
+        <v>2982</v>
       </c>
       <c r="H346" t="s">
         <v>104</v>
@@ -21892,9 +22965,8 @@
       <c r="F347" t="s">
         <v>20</v>
       </c>
-      <c r="G347" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/landscaping.png</v>
+      <c r="G347" t="s">
+        <v>2983</v>
       </c>
       <c r="H347" t="s">
         <v>104</v>
@@ -21931,9 +23003,8 @@
       <c r="F348" t="s">
         <v>20</v>
       </c>
-      <c r="G348" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/aesthetics.png</v>
+      <c r="G348" t="s">
+        <v>2984</v>
       </c>
       <c r="H348" t="s">
         <v>145</v>
@@ -21970,9 +23041,8 @@
       <c r="F349" t="s">
         <v>20</v>
       </c>
-      <c r="G349" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/minimalism.png</v>
+      <c r="G349" t="s">
+        <v>2985</v>
       </c>
       <c r="H349" t="s">
         <v>145</v>
@@ -22009,9 +23079,8 @@
       <c r="F350" t="s">
         <v>20</v>
       </c>
-      <c r="G350" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sustainability.png</v>
+      <c r="G350" t="s">
+        <v>2986</v>
       </c>
       <c r="H350" t="s">
         <v>145</v>
@@ -22048,9 +23117,8 @@
       <c r="F351" t="s">
         <v>20</v>
       </c>
-      <c r="G351" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/penthouse.png</v>
+      <c r="G351" t="s">
+        <v>2987</v>
       </c>
       <c r="H351" t="s">
         <v>145</v>
@@ -22087,9 +23155,8 @@
       <c r="F352" t="s">
         <v>20</v>
       </c>
-      <c r="G352" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/manor.png</v>
+      <c r="G352" t="s">
+        <v>2988</v>
       </c>
       <c r="H352" t="s">
         <v>145</v>
@@ -22126,9 +23193,8 @@
       <c r="F353" t="s">
         <v>20</v>
       </c>
-      <c r="G353" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bungalow.png</v>
+      <c r="G353" t="s">
+        <v>2989</v>
       </c>
       <c r="H353" t="s">
         <v>145</v>
@@ -22165,9 +23231,8 @@
       <c r="F354" t="s">
         <v>20</v>
       </c>
-      <c r="G354" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/villa.png</v>
+      <c r="G354" t="s">
+        <v>2990</v>
       </c>
       <c r="H354" t="s">
         <v>145</v>
@@ -22204,9 +23269,8 @@
       <c r="F355" t="s">
         <v>20</v>
       </c>
-      <c r="G355" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/duplex.png</v>
+      <c r="G355" t="s">
+        <v>2991</v>
       </c>
       <c r="H355" t="s">
         <v>145</v>
@@ -22243,9 +23307,8 @@
       <c r="F356" t="s">
         <v>20</v>
       </c>
-      <c r="G356" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/interior design.png</v>
+      <c r="G356" t="s">
+        <v>2992</v>
       </c>
       <c r="H356" t="s">
         <v>145</v>
@@ -22282,9 +23345,8 @@
       <c r="F357" t="s">
         <v>20</v>
       </c>
-      <c r="G357" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/home automation.png</v>
+      <c r="G357" t="s">
+        <v>2993</v>
       </c>
       <c r="H357" t="s">
         <v>145</v>
@@ -22321,9 +23383,8 @@
       <c r="F358" t="s">
         <v>20</v>
       </c>
-      <c r="G358" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/tree.png</v>
+      <c r="G358" t="s">
+        <v>2994</v>
       </c>
       <c r="H358" t="s">
         <v>21</v>
@@ -22360,9 +23421,8 @@
       <c r="F359" t="s">
         <v>20</v>
       </c>
-      <c r="G359" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/river.png</v>
+      <c r="G359" t="s">
+        <v>2995</v>
       </c>
       <c r="H359" t="s">
         <v>21</v>
@@ -22399,9 +23459,8 @@
       <c r="F360" t="s">
         <v>20</v>
       </c>
-      <c r="G360" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/mountain.png</v>
+      <c r="G360" t="s">
+        <v>2996</v>
       </c>
       <c r="H360" t="s">
         <v>21</v>
@@ -22438,9 +23497,8 @@
       <c r="F361" t="s">
         <v>20</v>
       </c>
-      <c r="G361" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/forest.png</v>
+      <c r="G361" t="s">
+        <v>2997</v>
       </c>
       <c r="H361" t="s">
         <v>21</v>
@@ -22477,9 +23535,8 @@
       <c r="F362" t="s">
         <v>20</v>
       </c>
-      <c r="G362" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/beach.png</v>
+      <c r="G362" t="s">
+        <v>2998</v>
       </c>
       <c r="H362" t="s">
         <v>21</v>
@@ -22516,9 +23573,8 @@
       <c r="F363" t="s">
         <v>20</v>
       </c>
-      <c r="G363" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/lake.png</v>
+      <c r="G363" t="s">
+        <v>2999</v>
       </c>
       <c r="H363" t="s">
         <v>21</v>
@@ -22555,9 +23611,8 @@
       <c r="F364" t="s">
         <v>20</v>
       </c>
-      <c r="G364" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ocean.png</v>
+      <c r="G364" t="s">
+        <v>3000</v>
       </c>
       <c r="H364" t="s">
         <v>21</v>
@@ -22594,9 +23649,8 @@
       <c r="F365" t="s">
         <v>20</v>
       </c>
-      <c r="G365" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/air.png</v>
+      <c r="G365" t="s">
+        <v>3001</v>
       </c>
       <c r="H365" t="s">
         <v>21</v>
@@ -22633,9 +23687,8 @@
       <c r="F366" t="s">
         <v>20</v>
       </c>
-      <c r="G366" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/grass.png</v>
+      <c r="G366" t="s">
+        <v>3002</v>
       </c>
       <c r="H366" t="s">
         <v>21</v>
@@ -22672,9 +23725,8 @@
       <c r="F367" t="s">
         <v>20</v>
       </c>
-      <c r="G367" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/nature.png</v>
+      <c r="G367" t="s">
+        <v>3003</v>
       </c>
       <c r="H367" t="s">
         <v>21</v>
@@ -22711,9 +23763,8 @@
       <c r="F368" t="s">
         <v>20</v>
       </c>
-      <c r="G368" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pollution.png</v>
+      <c r="G368" t="s">
+        <v>3004</v>
       </c>
       <c r="H368" t="s">
         <v>63</v>
@@ -22750,9 +23801,8 @@
       <c r="F369" t="s">
         <v>20</v>
       </c>
-      <c r="G369" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/recycle.png</v>
+      <c r="G369" t="s">
+        <v>3005</v>
       </c>
       <c r="H369" t="s">
         <v>63</v>
@@ -22789,9 +23839,8 @@
       <c r="F370" t="s">
         <v>20</v>
       </c>
-      <c r="G370" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/wildlife.png</v>
+      <c r="G370" t="s">
+        <v>3006</v>
       </c>
       <c r="H370" t="s">
         <v>63</v>
@@ -22828,9 +23877,8 @@
       <c r="F371" t="s">
         <v>20</v>
       </c>
-      <c r="G371" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/climate.png</v>
+      <c r="G371" t="s">
+        <v>2855</v>
       </c>
       <c r="H371" t="s">
         <v>63</v>
@@ -22867,9 +23915,8 @@
       <c r="F372" t="s">
         <v>20</v>
       </c>
-      <c r="G372" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/energy.png</v>
+      <c r="G372" t="s">
+        <v>3007</v>
       </c>
       <c r="H372" t="s">
         <v>63</v>
@@ -22906,9 +23953,8 @@
       <c r="F373" t="s">
         <v>20</v>
       </c>
-      <c r="G373" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/plastic.png</v>
+      <c r="G373" t="s">
+        <v>3008</v>
       </c>
       <c r="H373" t="s">
         <v>63</v>
@@ -22945,9 +23991,8 @@
       <c r="F374" t="s">
         <v>20</v>
       </c>
-      <c r="G374" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/waste.png</v>
+      <c r="G374" t="s">
+        <v>3009</v>
       </c>
       <c r="H374" t="s">
         <v>63</v>
@@ -22984,9 +24029,8 @@
       <c r="F375" t="s">
         <v>20</v>
       </c>
-      <c r="G375" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ecosystem.png</v>
+      <c r="G375" t="s">
+        <v>3010</v>
       </c>
       <c r="H375" t="s">
         <v>63</v>
@@ -23023,9 +24067,8 @@
       <c r="F376" t="s">
         <v>20</v>
       </c>
-      <c r="G376" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/habitat.png</v>
+      <c r="G376" t="s">
+        <v>3011</v>
       </c>
       <c r="H376" t="s">
         <v>63</v>
@@ -23062,9 +24105,8 @@
       <c r="F377" t="s">
         <v>20</v>
       </c>
-      <c r="G377" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/global warming.png</v>
+      <c r="G377" t="s">
+        <v>3012</v>
       </c>
       <c r="H377" t="s">
         <v>63</v>
@@ -23101,9 +24143,8 @@
       <c r="F378" t="s">
         <v>20</v>
       </c>
-      <c r="G378" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conservation.png</v>
+      <c r="G378" t="s">
+        <v>3013</v>
       </c>
       <c r="H378" t="s">
         <v>104</v>
@@ -23140,9 +24181,8 @@
       <c r="F379" t="s">
         <v>20</v>
       </c>
-      <c r="G379" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sustainability.png</v>
+      <c r="G379" t="s">
+        <v>2986</v>
       </c>
       <c r="H379" t="s">
         <v>104</v>
@@ -23179,9 +24219,8 @@
       <c r="F380" t="s">
         <v>20</v>
       </c>
-      <c r="G380" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/deforestation.png</v>
+      <c r="G380" t="s">
+        <v>3014</v>
       </c>
       <c r="H380" t="s">
         <v>104</v>
@@ -23218,9 +24257,8 @@
       <c r="F381" t="s">
         <v>20</v>
       </c>
-      <c r="G381" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/biodiversity.png</v>
+      <c r="G381" t="s">
+        <v>3015</v>
       </c>
       <c r="H381" t="s">
         <v>104</v>
@@ -23257,9 +24295,8 @@
       <c r="F382" t="s">
         <v>20</v>
       </c>
-      <c r="G382" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/carbon footprint.png</v>
+      <c r="G382" t="s">
+        <v>3016</v>
       </c>
       <c r="H382" t="s">
         <v>104</v>
@@ -23296,9 +24333,8 @@
       <c r="F383" t="s">
         <v>20</v>
       </c>
-      <c r="G383" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/renewable.png</v>
+      <c r="G383" t="s">
+        <v>3017</v>
       </c>
       <c r="H383" t="s">
         <v>104</v>
@@ -23335,9 +24371,8 @@
       <c r="F384" t="s">
         <v>20</v>
       </c>
-      <c r="G384" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/extinction.png</v>
+      <c r="G384" t="s">
+        <v>3018</v>
       </c>
       <c r="H384" t="s">
         <v>104</v>
@@ -23374,9 +24409,8 @@
       <c r="F385" t="s">
         <v>20</v>
       </c>
-      <c r="G385" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/fossil fuels.png</v>
+      <c r="G385" t="s">
+        <v>3019</v>
       </c>
       <c r="H385" t="s">
         <v>104</v>
@@ -23413,9 +24447,8 @@
       <c r="F386" t="s">
         <v>20</v>
       </c>
-      <c r="G386" t="str">
-        <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pollutant.png</v>
+      <c r="G386" t="s">
+        <v>3020</v>
       </c>
       <c r="H386" t="s">
         <v>104</v>
@@ -23452,9 +24485,8 @@
       <c r="F387" t="s">
         <v>20</v>
       </c>
-      <c r="G387" t="str">
-        <f t="shared" ref="G387:G450" si="6">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B387)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/natural disaster.png</v>
+      <c r="G387" t="s">
+        <v>3021</v>
       </c>
       <c r="H387" t="s">
         <v>104</v>
@@ -23491,9 +24523,8 @@
       <c r="F388" t="s">
         <v>20</v>
       </c>
-      <c r="G388" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ecology.png</v>
+      <c r="G388" t="s">
+        <v>3022</v>
       </c>
       <c r="H388" t="s">
         <v>145</v>
@@ -23530,9 +24561,8 @@
       <c r="F389" t="s">
         <v>20</v>
       </c>
-      <c r="G389" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/environmental degradation.png</v>
+      <c r="G389" t="s">
+        <v>3023</v>
       </c>
       <c r="H389" t="s">
         <v>145</v>
@@ -23569,9 +24599,8 @@
       <c r="F390" t="s">
         <v>20</v>
       </c>
-      <c r="G390" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/overpopulation.png</v>
+      <c r="G390" t="s">
+        <v>3024</v>
       </c>
       <c r="H390" t="s">
         <v>145</v>
@@ -23608,9 +24637,8 @@
       <c r="F391" t="s">
         <v>20</v>
       </c>
-      <c r="G391" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sustainable development.png</v>
+      <c r="G391" t="s">
+        <v>3025</v>
       </c>
       <c r="H391" t="s">
         <v>145</v>
@@ -23647,9 +24675,8 @@
       <c r="F392" t="s">
         <v>20</v>
       </c>
-      <c r="G392" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/greenhouse effect.png</v>
+      <c r="G392" t="s">
+        <v>3026</v>
       </c>
       <c r="H392" t="s">
         <v>145</v>
@@ -23686,9 +24713,8 @@
       <c r="F393" t="s">
         <v>20</v>
       </c>
-      <c r="G393" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/microplastics.png</v>
+      <c r="G393" t="s">
+        <v>3027</v>
       </c>
       <c r="H393" t="s">
         <v>145</v>
@@ -23725,9 +24751,8 @@
       <c r="F394" t="s">
         <v>20</v>
       </c>
-      <c r="G394" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/urbanization.png</v>
+      <c r="G394" t="s">
+        <v>3028</v>
       </c>
       <c r="H394" t="s">
         <v>145</v>
@@ -23764,9 +24789,8 @@
       <c r="F395" t="s">
         <v>20</v>
       </c>
-      <c r="G395" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/organic farming.png</v>
+      <c r="G395" t="s">
+        <v>3029</v>
       </c>
       <c r="H395" t="s">
         <v>145</v>
@@ -23803,9 +24827,8 @@
       <c r="F396" t="s">
         <v>20</v>
       </c>
-      <c r="G396" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/environmental awareness.png</v>
+      <c r="G396" t="s">
+        <v>3030</v>
       </c>
       <c r="H396" t="s">
         <v>145</v>
@@ -23842,9 +24865,8 @@
       <c r="F397" t="s">
         <v>20</v>
       </c>
-      <c r="G397" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/carbon neutrality.png</v>
+      <c r="G397" t="s">
+        <v>3031</v>
       </c>
       <c r="H397" t="s">
         <v>145</v>
@@ -23881,9 +24903,8 @@
       <c r="F398" t="s">
         <v>20</v>
       </c>
-      <c r="G398" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/car.png</v>
+      <c r="G398" t="s">
+        <v>3032</v>
       </c>
       <c r="H398" t="s">
         <v>21</v>
@@ -23920,9 +24941,8 @@
       <c r="F399" t="s">
         <v>20</v>
       </c>
-      <c r="G399" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bus.png</v>
+      <c r="G399" t="s">
+        <v>3033</v>
       </c>
       <c r="H399" t="s">
         <v>21</v>
@@ -23959,9 +24979,8 @@
       <c r="F400" t="s">
         <v>20</v>
       </c>
-      <c r="G400" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/train.png</v>
+      <c r="G400" t="s">
+        <v>3034</v>
       </c>
       <c r="H400" t="s">
         <v>21</v>
@@ -23998,9 +25017,8 @@
       <c r="F401" t="s">
         <v>20</v>
       </c>
-      <c r="G401" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/plane.png</v>
+      <c r="G401" t="s">
+        <v>3035</v>
       </c>
       <c r="H401" t="s">
         <v>21</v>
@@ -24037,9 +25055,8 @@
       <c r="F402" t="s">
         <v>20</v>
       </c>
-      <c r="G402" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bike.png</v>
+      <c r="G402" t="s">
+        <v>3036</v>
       </c>
       <c r="H402" t="s">
         <v>21</v>
@@ -24076,9 +25093,8 @@
       <c r="F403" t="s">
         <v>20</v>
       </c>
-      <c r="G403" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/boat.png</v>
+      <c r="G403" t="s">
+        <v>3037</v>
       </c>
       <c r="H403" t="s">
         <v>21</v>
@@ -24115,9 +25131,8 @@
       <c r="F404" t="s">
         <v>20</v>
       </c>
-      <c r="G404" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/taxi.png</v>
+      <c r="G404" t="s">
+        <v>3038</v>
       </c>
       <c r="H404" t="s">
         <v>21</v>
@@ -24154,9 +25169,8 @@
       <c r="F405" t="s">
         <v>20</v>
       </c>
-      <c r="G405" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/road.png</v>
+      <c r="G405" t="s">
+        <v>3039</v>
       </c>
       <c r="H405" t="s">
         <v>21</v>
@@ -24193,9 +25207,8 @@
       <c r="F406" t="s">
         <v>20</v>
       </c>
-      <c r="G406" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ticket.png</v>
+      <c r="G406" t="s">
+        <v>3040</v>
       </c>
       <c r="H406" t="s">
         <v>21</v>
@@ -24232,9 +25245,8 @@
       <c r="F407" t="s">
         <v>20</v>
       </c>
-      <c r="G407" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/map.png</v>
+      <c r="G407" t="s">
+        <v>3041</v>
       </c>
       <c r="H407" t="s">
         <v>21</v>
@@ -24271,9 +25283,8 @@
       <c r="F408" t="s">
         <v>20</v>
       </c>
-      <c r="G408" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/journey.png</v>
+      <c r="G408" t="s">
+        <v>3042</v>
       </c>
       <c r="H408" t="s">
         <v>63</v>
@@ -24310,9 +25321,8 @@
       <c r="F409" t="s">
         <v>20</v>
       </c>
-      <c r="G409" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/passenger.png</v>
+      <c r="G409" t="s">
+        <v>3043</v>
       </c>
       <c r="H409" t="s">
         <v>63</v>
@@ -24349,9 +25359,8 @@
       <c r="F410" t="s">
         <v>20</v>
       </c>
-      <c r="G410" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/driver.png</v>
+      <c r="G410" t="s">
+        <v>3044</v>
       </c>
       <c r="H410" t="s">
         <v>63</v>
@@ -24388,9 +25397,8 @@
       <c r="F411" t="s">
         <v>20</v>
       </c>
-      <c r="G411" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/station.png</v>
+      <c r="G411" t="s">
+        <v>3045</v>
       </c>
       <c r="H411" t="s">
         <v>63</v>
@@ -24427,9 +25435,8 @@
       <c r="F412" t="s">
         <v>20</v>
       </c>
-      <c r="G412" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/luggage.png</v>
+      <c r="G412" t="s">
+        <v>3046</v>
       </c>
       <c r="H412" t="s">
         <v>63</v>
@@ -24466,9 +25473,8 @@
       <c r="F413" t="s">
         <v>20</v>
       </c>
-      <c r="G413" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/flight.png</v>
+      <c r="G413" t="s">
+        <v>3047</v>
       </c>
       <c r="H413" t="s">
         <v>63</v>
@@ -24505,9 +25511,8 @@
       <c r="F414" t="s">
         <v>20</v>
       </c>
-      <c r="G414" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/destination.png</v>
+      <c r="G414" t="s">
+        <v>3048</v>
       </c>
       <c r="H414" t="s">
         <v>63</v>
@@ -24544,9 +25549,8 @@
       <c r="F415" t="s">
         <v>20</v>
       </c>
-      <c r="G415" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ferry.png</v>
+      <c r="G415" t="s">
+        <v>3049</v>
       </c>
       <c r="H415" t="s">
         <v>63</v>
@@ -24583,9 +25587,8 @@
       <c r="F416" t="s">
         <v>20</v>
       </c>
-      <c r="G416" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/platform.png</v>
+      <c r="G416" t="s">
+        <v>3050</v>
       </c>
       <c r="H416" t="s">
         <v>63</v>
@@ -24622,9 +25625,8 @@
       <c r="F417" t="s">
         <v>20</v>
       </c>
-      <c r="G417" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/subway.png</v>
+      <c r="G417" t="s">
+        <v>3051</v>
       </c>
       <c r="H417" t="s">
         <v>63</v>
@@ -24661,9 +25663,8 @@
       <c r="F418" t="s">
         <v>20</v>
       </c>
-      <c r="G418" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/transportation.png</v>
+      <c r="G418" t="s">
+        <v>3052</v>
       </c>
       <c r="H418" t="s">
         <v>104</v>
@@ -24700,9 +25701,8 @@
       <c r="F419" t="s">
         <v>20</v>
       </c>
-      <c r="G419" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/commute.png</v>
+      <c r="G419" t="s">
+        <v>3053</v>
       </c>
       <c r="H419" t="s">
         <v>104</v>
@@ -24739,9 +25739,8 @@
       <c r="F420" t="s">
         <v>20</v>
       </c>
-      <c r="G420" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/navigation.png</v>
+      <c r="G420" t="s">
+        <v>3054</v>
       </c>
       <c r="H420" t="s">
         <v>104</v>
@@ -24778,9 +25777,8 @@
       <c r="F421" t="s">
         <v>20</v>
       </c>
-      <c r="G421" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/itinerary.png</v>
+      <c r="G421" t="s">
+        <v>3055</v>
       </c>
       <c r="H421" t="s">
         <v>104</v>
@@ -24817,9 +25815,8 @@
       <c r="F422" t="s">
         <v>20</v>
       </c>
-      <c r="G422" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sightseeing.png</v>
+      <c r="G422" t="s">
+        <v>3056</v>
       </c>
       <c r="H422" t="s">
         <v>104</v>
@@ -24856,9 +25853,8 @@
       <c r="F423" t="s">
         <v>20</v>
       </c>
-      <c r="G423" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/carpooling.png</v>
+      <c r="G423" t="s">
+        <v>3057</v>
       </c>
       <c r="H423" t="s">
         <v>104</v>
@@ -24895,9 +25891,8 @@
       <c r="F424" t="s">
         <v>20</v>
       </c>
-      <c r="G424" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/departure.png</v>
+      <c r="G424" t="s">
+        <v>3058</v>
       </c>
       <c r="H424" t="s">
         <v>104</v>
@@ -24934,9 +25929,8 @@
       <c r="F425" t="s">
         <v>20</v>
       </c>
-      <c r="G425" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/arrival.png</v>
+      <c r="G425" t="s">
+        <v>3059</v>
       </c>
       <c r="H425" t="s">
         <v>104</v>
@@ -24973,9 +25967,8 @@
       <c r="F426" t="s">
         <v>20</v>
       </c>
-      <c r="G426" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/motorcycle.png</v>
+      <c r="G426" t="s">
+        <v>3060</v>
       </c>
       <c r="H426" t="s">
         <v>104</v>
@@ -25012,9 +26005,8 @@
       <c r="F427" t="s">
         <v>20</v>
       </c>
-      <c r="G427" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/highway.png</v>
+      <c r="G427" t="s">
+        <v>3061</v>
       </c>
       <c r="H427" t="s">
         <v>104</v>
@@ -25051,9 +26043,8 @@
       <c r="F428" t="s">
         <v>20</v>
       </c>
-      <c r="G428" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/aviation.png</v>
+      <c r="G428" t="s">
+        <v>3062</v>
       </c>
       <c r="H428" t="s">
         <v>145</v>
@@ -25090,9 +26081,8 @@
       <c r="F429" t="s">
         <v>20</v>
       </c>
-      <c r="G429" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/customs.png</v>
+      <c r="G429" t="s">
+        <v>3063</v>
       </c>
       <c r="H429" t="s">
         <v>145</v>
@@ -25129,9 +26119,8 @@
       <c r="F430" t="s">
         <v>20</v>
       </c>
-      <c r="G430" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/immigration.png</v>
+      <c r="G430" t="s">
+        <v>3064</v>
       </c>
       <c r="H430" t="s">
         <v>145</v>
@@ -25168,9 +26157,8 @@
       <c r="F431" t="s">
         <v>20</v>
       </c>
-      <c r="G431" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/expedition.png</v>
+      <c r="G431" t="s">
+        <v>3065</v>
       </c>
       <c r="H431" t="s">
         <v>145</v>
@@ -25207,9 +26195,8 @@
       <c r="F432" t="s">
         <v>20</v>
       </c>
-      <c r="G432" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/layover.png</v>
+      <c r="G432" t="s">
+        <v>3066</v>
       </c>
       <c r="H432" t="s">
         <v>145</v>
@@ -25246,9 +26233,8 @@
       <c r="F433" t="s">
         <v>20</v>
       </c>
-      <c r="G433" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/backpacking.png</v>
+      <c r="G433" t="s">
+        <v>3067</v>
       </c>
       <c r="H433" t="s">
         <v>145</v>
@@ -25285,9 +26271,8 @@
       <c r="F434" t="s">
         <v>20</v>
       </c>
-      <c r="G434" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cruise.png</v>
+      <c r="G434" t="s">
+        <v>3068</v>
       </c>
       <c r="H434" t="s">
         <v>145</v>
@@ -25324,9 +26309,8 @@
       <c r="F435" t="s">
         <v>20</v>
       </c>
-      <c r="G435" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hitchhiking.png</v>
+      <c r="G435" t="s">
+        <v>3069</v>
       </c>
       <c r="H435" t="s">
         <v>145</v>
@@ -25363,9 +26347,8 @@
       <c r="F436" t="s">
         <v>20</v>
       </c>
-      <c r="G436" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/urban transport.png</v>
+      <c r="G436" t="s">
+        <v>3070</v>
       </c>
       <c r="H436" t="s">
         <v>145</v>
@@ -25402,9 +26385,8 @@
       <c r="F437" t="s">
         <v>20</v>
       </c>
-      <c r="G437" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sustainable travel.png</v>
+      <c r="G437" t="s">
+        <v>3071</v>
       </c>
       <c r="H437" t="s">
         <v>145</v>
@@ -25441,9 +26423,8 @@
       <c r="F438" t="s">
         <v>20</v>
       </c>
-      <c r="G438" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/achieve.png</v>
+      <c r="G438" t="s">
+        <v>3072</v>
       </c>
       <c r="H438" t="s">
         <v>104</v>
@@ -25480,9 +26461,8 @@
       <c r="F439" t="s">
         <v>20</v>
       </c>
-      <c r="G439" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/adapt.png</v>
+      <c r="G439" t="s">
+        <v>3073</v>
       </c>
       <c r="H439" t="s">
         <v>104</v>
@@ -25519,9 +26499,8 @@
       <c r="F440" t="s">
         <v>20</v>
       </c>
-      <c r="G440" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/address.png</v>
+      <c r="G440" t="s">
+        <v>3074</v>
       </c>
       <c r="H440" t="s">
         <v>104</v>
@@ -25558,9 +26537,8 @@
       <c r="F441" t="s">
         <v>20</v>
       </c>
-      <c r="G441" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/analyze.png</v>
+      <c r="G441" t="s">
+        <v>3075</v>
       </c>
       <c r="H441" t="s">
         <v>104</v>
@@ -25597,9 +26575,8 @@
       <c r="F442" t="s">
         <v>20</v>
       </c>
-      <c r="G442" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/apply.png</v>
+      <c r="G442" t="s">
+        <v>3076</v>
       </c>
       <c r="H442" t="s">
         <v>104</v>
@@ -25636,9 +26613,8 @@
       <c r="F443" t="s">
         <v>20</v>
       </c>
-      <c r="G443" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/assume.png</v>
+      <c r="G443" t="s">
+        <v>3077</v>
       </c>
       <c r="H443" t="s">
         <v>104</v>
@@ -25675,9 +26651,8 @@
       <c r="F444" t="s">
         <v>20</v>
       </c>
-      <c r="G444" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/attract.png</v>
+      <c r="G444" t="s">
+        <v>3078</v>
       </c>
       <c r="H444" t="s">
         <v>104</v>
@@ -25714,9 +26689,8 @@
       <c r="F445" t="s">
         <v>20</v>
       </c>
-      <c r="G445" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/avoid.png</v>
+      <c r="G445" t="s">
+        <v>3079</v>
       </c>
       <c r="H445" t="s">
         <v>104</v>
@@ -25753,9 +26727,8 @@
       <c r="F446" t="s">
         <v>20</v>
       </c>
-      <c r="G446" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/compare.png</v>
+      <c r="G446" t="s">
+        <v>3080</v>
       </c>
       <c r="H446" t="s">
         <v>104</v>
@@ -25792,9 +26765,8 @@
       <c r="F447" t="s">
         <v>20</v>
       </c>
-      <c r="G447" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conclude.png</v>
+      <c r="G447" t="s">
+        <v>3081</v>
       </c>
       <c r="H447" t="s">
         <v>104</v>
@@ -25831,9 +26803,8 @@
       <c r="F448" t="s">
         <v>20</v>
       </c>
-      <c r="G448" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/confirm.png</v>
+      <c r="G448" t="s">
+        <v>3082</v>
       </c>
       <c r="H448" t="s">
         <v>104</v>
@@ -25870,9 +26841,8 @@
       <c r="F449" t="s">
         <v>20</v>
       </c>
-      <c r="G449" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/consider.png</v>
+      <c r="G449" t="s">
+        <v>3083</v>
       </c>
       <c r="H449" t="s">
         <v>104</v>
@@ -25909,9 +26879,8 @@
       <c r="F450" t="s">
         <v>20</v>
       </c>
-      <c r="G450" t="str">
-        <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/contribute.png</v>
+      <c r="G450" t="s">
+        <v>3084</v>
       </c>
       <c r="H450" t="s">
         <v>104</v>
@@ -25948,9 +26917,8 @@
       <c r="F451" t="s">
         <v>20</v>
       </c>
-      <c r="G451" t="str">
-        <f t="shared" ref="G451:G514" si="7">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B451)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/convert.png</v>
+      <c r="G451" t="s">
+        <v>3085</v>
       </c>
       <c r="H451" t="s">
         <v>104</v>
@@ -25987,9 +26955,8 @@
       <c r="F452" t="s">
         <v>20</v>
       </c>
-      <c r="G452" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/create.png</v>
+      <c r="G452" t="s">
+        <v>3086</v>
       </c>
       <c r="H452" t="s">
         <v>104</v>
@@ -26026,9 +26993,8 @@
       <c r="F453" t="s">
         <v>20</v>
       </c>
-      <c r="G453" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/define.png</v>
+      <c r="G453" t="s">
+        <v>3087</v>
       </c>
       <c r="H453" t="s">
         <v>104</v>
@@ -26065,9 +27031,8 @@
       <c r="F454" t="s">
         <v>20</v>
       </c>
-      <c r="G454" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/demonstrate.png</v>
+      <c r="G454" t="s">
+        <v>3088</v>
       </c>
       <c r="H454" t="s">
         <v>104</v>
@@ -26104,9 +27069,8 @@
       <c r="F455" t="s">
         <v>20</v>
       </c>
-      <c r="G455" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/depend (on).png</v>
+      <c r="G455" t="s">
+        <v>3089</v>
       </c>
       <c r="H455" t="s">
         <v>104</v>
@@ -26143,9 +27107,8 @@
       <c r="F456" t="s">
         <v>20</v>
       </c>
-      <c r="G456" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/determine.png</v>
+      <c r="G456" t="s">
+        <v>3090</v>
       </c>
       <c r="H456" t="s">
         <v>104</v>
@@ -26182,9 +27145,8 @@
       <c r="F457" t="s">
         <v>20</v>
       </c>
-      <c r="G457" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/develop.png</v>
+      <c r="G457" t="s">
+        <v>3091</v>
       </c>
       <c r="H457" t="s">
         <v>104</v>
@@ -26221,9 +27183,8 @@
       <c r="F458" t="s">
         <v>20</v>
       </c>
-      <c r="G458" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/emphasize.png</v>
+      <c r="G458" t="s">
+        <v>3092</v>
       </c>
       <c r="H458" t="s">
         <v>104</v>
@@ -26260,9 +27221,8 @@
       <c r="F459" t="s">
         <v>20</v>
       </c>
-      <c r="G459" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/enable.png</v>
+      <c r="G459" t="s">
+        <v>3093</v>
       </c>
       <c r="H459" t="s">
         <v>104</v>
@@ -26299,9 +27259,8 @@
       <c r="F460" t="s">
         <v>20</v>
       </c>
-      <c r="G460" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/enhance.png</v>
+      <c r="G460" t="s">
+        <v>3094</v>
       </c>
       <c r="H460" t="s">
         <v>104</v>
@@ -26338,9 +27297,8 @@
       <c r="F461" t="s">
         <v>20</v>
       </c>
-      <c r="G461" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ensure.png</v>
+      <c r="G461" t="s">
+        <v>3095</v>
       </c>
       <c r="H461" t="s">
         <v>104</v>
@@ -26377,9 +27335,8 @@
       <c r="F462" t="s">
         <v>20</v>
       </c>
-      <c r="G462" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/estimate.png</v>
+      <c r="G462" t="s">
+        <v>3096</v>
       </c>
       <c r="H462" t="s">
         <v>104</v>
@@ -26416,9 +27373,8 @@
       <c r="F463" t="s">
         <v>20</v>
       </c>
-      <c r="G463" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/examine.png</v>
+      <c r="G463" t="s">
+        <v>3097</v>
       </c>
       <c r="H463" t="s">
         <v>104</v>
@@ -26455,9 +27411,8 @@
       <c r="F464" t="s">
         <v>20</v>
       </c>
-      <c r="G464" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/expand.png</v>
+      <c r="G464" t="s">
+        <v>3098</v>
       </c>
       <c r="H464" t="s">
         <v>104</v>
@@ -26494,9 +27449,8 @@
       <c r="F465" t="s">
         <v>20</v>
       </c>
-      <c r="G465" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/experience (v).png</v>
+      <c r="G465" t="s">
+        <v>3099</v>
       </c>
       <c r="H465" t="s">
         <v>104</v>
@@ -26533,9 +27487,8 @@
       <c r="F466" t="s">
         <v>20</v>
       </c>
-      <c r="G466" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/expose.png</v>
+      <c r="G466" t="s">
+        <v>3100</v>
       </c>
       <c r="H466" t="s">
         <v>104</v>
@@ -26572,9 +27525,8 @@
       <c r="F467" t="s">
         <v>20</v>
       </c>
-      <c r="G467" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/identify.png</v>
+      <c r="G467" t="s">
+        <v>3101</v>
       </c>
       <c r="H467" t="s">
         <v>104</v>
@@ -26611,9 +27563,8 @@
       <c r="F468" t="s">
         <v>20</v>
       </c>
-      <c r="G468" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/illustrate.png</v>
+      <c r="G468" t="s">
+        <v>3102</v>
       </c>
       <c r="H468" t="s">
         <v>104</v>
@@ -26650,9 +27601,8 @@
       <c r="F469" t="s">
         <v>20</v>
       </c>
-      <c r="G469" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/imply.png</v>
+      <c r="G469" t="s">
+        <v>3103</v>
       </c>
       <c r="H469" t="s">
         <v>104</v>
@@ -26689,9 +27639,8 @@
       <c r="F470" t="s">
         <v>20</v>
       </c>
-      <c r="G470" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/include.png</v>
+      <c r="G470" t="s">
+        <v>3104</v>
       </c>
       <c r="H470" t="s">
         <v>104</v>
@@ -26728,9 +27677,8 @@
       <c r="F471" t="s">
         <v>20</v>
       </c>
-      <c r="G471" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/indicate.png</v>
+      <c r="G471" t="s">
+        <v>3105</v>
       </c>
       <c r="H471" t="s">
         <v>104</v>
@@ -26767,9 +27715,8 @@
       <c r="F472" t="s">
         <v>20</v>
       </c>
-      <c r="G472" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/influence.png</v>
+      <c r="G472" t="s">
+        <v>3106</v>
       </c>
       <c r="H472" t="s">
         <v>104</v>
@@ -26806,9 +27753,8 @@
       <c r="F473" t="s">
         <v>20</v>
       </c>
-      <c r="G473" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/intend.png</v>
+      <c r="G473" t="s">
+        <v>3107</v>
       </c>
       <c r="H473" t="s">
         <v>104</v>
@@ -26845,9 +27791,8 @@
       <c r="F474" t="s">
         <v>20</v>
       </c>
-      <c r="G474" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/involve.png</v>
+      <c r="G474" t="s">
+        <v>3108</v>
       </c>
       <c r="H474" t="s">
         <v>104</v>
@@ -26884,9 +27829,8 @@
       <c r="F475" t="s">
         <v>20</v>
       </c>
-      <c r="G475" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/maintain.png</v>
+      <c r="G475" t="s">
+        <v>3109</v>
       </c>
       <c r="H475" t="s">
         <v>104</v>
@@ -26923,9 +27867,8 @@
       <c r="F476" t="s">
         <v>20</v>
       </c>
-      <c r="G476" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/obtain.png</v>
+      <c r="G476" t="s">
+        <v>3110</v>
       </c>
       <c r="H476" t="s">
         <v>104</v>
@@ -26962,9 +27905,8 @@
       <c r="F477" t="s">
         <v>20</v>
       </c>
-      <c r="G477" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/occur.png</v>
+      <c r="G477" t="s">
+        <v>3111</v>
       </c>
       <c r="H477" t="s">
         <v>104</v>
@@ -27001,9 +27943,8 @@
       <c r="F478" t="s">
         <v>20</v>
       </c>
-      <c r="G478" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/participate.png</v>
+      <c r="G478" t="s">
+        <v>3112</v>
       </c>
       <c r="H478" t="s">
         <v>104</v>
@@ -27040,9 +27981,8 @@
       <c r="F479" t="s">
         <v>20</v>
       </c>
-      <c r="G479" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/prevent.png</v>
+      <c r="G479" t="s">
+        <v>3113</v>
       </c>
       <c r="H479" t="s">
         <v>104</v>
@@ -27079,9 +28019,8 @@
       <c r="F480" t="s">
         <v>20</v>
       </c>
-      <c r="G480" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/promote.png</v>
+      <c r="G480" t="s">
+        <v>3114</v>
       </c>
       <c r="H480" t="s">
         <v>104</v>
@@ -27118,9 +28057,8 @@
       <c r="F481" t="s">
         <v>20</v>
       </c>
-      <c r="G481" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/require.png</v>
+      <c r="G481" t="s">
+        <v>3115</v>
       </c>
       <c r="H481" t="s">
         <v>104</v>
@@ -27157,9 +28095,8 @@
       <c r="F482" t="s">
         <v>20</v>
       </c>
-      <c r="G482" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/respond.png</v>
+      <c r="G482" t="s">
+        <v>3116</v>
       </c>
       <c r="H482" t="s">
         <v>104</v>
@@ -27196,9 +28133,8 @@
       <c r="F483" t="s">
         <v>20</v>
       </c>
-      <c r="G483" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reveal.png</v>
+      <c r="G483" t="s">
+        <v>3117</v>
       </c>
       <c r="H483" t="s">
         <v>104</v>
@@ -27235,9 +28171,8 @@
       <c r="F484" t="s">
         <v>20</v>
       </c>
-      <c r="G484" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/solve.png</v>
+      <c r="G484" t="s">
+        <v>3118</v>
       </c>
       <c r="H484" t="s">
         <v>104</v>
@@ -27274,10 +28209,6 @@
       <c r="F485" t="s">
         <v>20</v>
       </c>
-      <c r="G485" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/suggest.png</v>
-      </c>
       <c r="H485" t="s">
         <v>104</v>
       </c>
@@ -27313,10 +28244,6 @@
       <c r="F486" t="s">
         <v>20</v>
       </c>
-      <c r="G486" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/support.png</v>
-      </c>
       <c r="H486" t="s">
         <v>104</v>
       </c>
@@ -27352,10 +28279,6 @@
       <c r="F487" t="s">
         <v>20</v>
       </c>
-      <c r="G487" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/vary.png</v>
-      </c>
       <c r="H487" t="s">
         <v>104</v>
       </c>
@@ -27391,10 +28314,6 @@
       <c r="F488" t="s">
         <v>20</v>
       </c>
-      <c r="G488" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/account for.png</v>
-      </c>
       <c r="H488" t="s">
         <v>104</v>
       </c>
@@ -27430,10 +28349,6 @@
       <c r="F489" t="s">
         <v>20</v>
       </c>
-      <c r="G489" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/add up to.png</v>
-      </c>
       <c r="H489" t="s">
         <v>104</v>
       </c>
@@ -27469,10 +28384,6 @@
       <c r="F490" t="s">
         <v>20</v>
       </c>
-      <c r="G490" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bring about.png</v>
-      </c>
       <c r="H490" t="s">
         <v>104</v>
       </c>
@@ -27508,10 +28419,6 @@
       <c r="F491" t="s">
         <v>20</v>
       </c>
-      <c r="G491" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/build up.png</v>
-      </c>
       <c r="H491" t="s">
         <v>104</v>
       </c>
@@ -27547,10 +28454,6 @@
       <c r="F492" t="s">
         <v>20</v>
       </c>
-      <c r="G492" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/carry out.png</v>
-      </c>
       <c r="H492" t="s">
         <v>104</v>
       </c>
@@ -27586,10 +28489,6 @@
       <c r="F493" t="s">
         <v>20</v>
       </c>
-      <c r="G493" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/come across.png</v>
-      </c>
       <c r="H493" t="s">
         <v>104</v>
       </c>
@@ -27625,10 +28524,6 @@
       <c r="F494" t="s">
         <v>20</v>
       </c>
-      <c r="G494" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/come up with.png</v>
-      </c>
       <c r="H494" t="s">
         <v>104</v>
       </c>
@@ -27664,10 +28559,6 @@
       <c r="F495" t="s">
         <v>20</v>
       </c>
-      <c r="G495" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/consist of.png</v>
-      </c>
       <c r="H495" t="s">
         <v>104</v>
       </c>
@@ -27703,10 +28594,6 @@
       <c r="F496" t="s">
         <v>20</v>
       </c>
-      <c r="G496" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cut down (on).png</v>
-      </c>
       <c r="H496" t="s">
         <v>104</v>
       </c>
@@ -27742,10 +28629,6 @@
       <c r="F497" t="s">
         <v>20</v>
       </c>
-      <c r="G497" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/depend on.png</v>
-      </c>
       <c r="H497" t="s">
         <v>104</v>
       </c>
@@ -27781,10 +28664,6 @@
       <c r="F498" t="s">
         <v>20</v>
       </c>
-      <c r="G498" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/dwell on.png</v>
-      </c>
       <c r="H498" t="s">
         <v>104</v>
       </c>
@@ -27820,10 +28699,6 @@
       <c r="F499" t="s">
         <v>20</v>
       </c>
-      <c r="G499" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/fall apart.png</v>
-      </c>
       <c r="H499" t="s">
         <v>104</v>
       </c>
@@ -27859,10 +28734,6 @@
       <c r="F500" t="s">
         <v>20</v>
       </c>
-      <c r="G500" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/find out.png</v>
-      </c>
       <c r="H500" t="s">
         <v>104</v>
       </c>
@@ -27898,10 +28769,6 @@
       <c r="F501" t="s">
         <v>20</v>
       </c>
-      <c r="G501" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/figure out.png</v>
-      </c>
       <c r="H501" t="s">
         <v>104</v>
       </c>
@@ -27937,10 +28804,6 @@
       <c r="F502" t="s">
         <v>20</v>
       </c>
-      <c r="G502" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/fill in.png</v>
-      </c>
       <c r="H502" t="s">
         <v>104</v>
       </c>
@@ -27976,10 +28839,6 @@
       <c r="F503" t="s">
         <v>20</v>
       </c>
-      <c r="G503" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/get rid of.png</v>
-      </c>
       <c r="H503" t="s">
         <v>104</v>
       </c>
@@ -28015,10 +28874,6 @@
       <c r="F504" t="s">
         <v>20</v>
       </c>
-      <c r="G504" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/give up.png</v>
-      </c>
       <c r="H504" t="s">
         <v>104</v>
       </c>
@@ -28054,10 +28909,6 @@
       <c r="F505" t="s">
         <v>20</v>
       </c>
-      <c r="G505" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/go on.png</v>
-      </c>
       <c r="H505" t="s">
         <v>104</v>
       </c>
@@ -28093,10 +28944,6 @@
       <c r="F506" t="s">
         <v>20</v>
       </c>
-      <c r="G506" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/look after.png</v>
-      </c>
       <c r="H506" t="s">
         <v>104</v>
       </c>
@@ -28132,10 +28979,6 @@
       <c r="F507" t="s">
         <v>20</v>
       </c>
-      <c r="G507" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/look for.png</v>
-      </c>
       <c r="H507" t="s">
         <v>104</v>
       </c>
@@ -28171,10 +29014,6 @@
       <c r="F508" t="s">
         <v>20</v>
       </c>
-      <c r="G508" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/look into.png</v>
-      </c>
       <c r="H508" t="s">
         <v>104</v>
       </c>
@@ -28210,10 +29049,6 @@
       <c r="F509" t="s">
         <v>20</v>
       </c>
-      <c r="G509" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/look up to.png</v>
-      </c>
       <c r="H509" t="s">
         <v>104</v>
       </c>
@@ -28249,10 +29084,6 @@
       <c r="F510" t="s">
         <v>20</v>
       </c>
-      <c r="G510" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/make up (for).png</v>
-      </c>
       <c r="H510" t="s">
         <v>104</v>
       </c>
@@ -28288,10 +29119,6 @@
       <c r="F511" t="s">
         <v>20</v>
       </c>
-      <c r="G511" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/point out.png</v>
-      </c>
       <c r="H511" t="s">
         <v>104</v>
       </c>
@@ -28327,10 +29154,6 @@
       <c r="F512" t="s">
         <v>20</v>
       </c>
-      <c r="G512" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/put off.png</v>
-      </c>
       <c r="H512" t="s">
         <v>104</v>
       </c>
@@ -28366,10 +29189,6 @@
       <c r="F513" t="s">
         <v>20</v>
       </c>
-      <c r="G513" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/refer to.png</v>
-      </c>
       <c r="H513" t="s">
         <v>104</v>
       </c>
@@ -28405,10 +29224,6 @@
       <c r="F514" t="s">
         <v>20</v>
       </c>
-      <c r="G514" t="str">
-        <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/rely on.png</v>
-      </c>
       <c r="H514" t="s">
         <v>104</v>
       </c>
@@ -28444,10 +29259,6 @@
       <c r="F515" t="s">
         <v>20</v>
       </c>
-      <c r="G515" t="str">
-        <f t="shared" ref="G515:G577" si="8">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/"&amp;LOWER(B515)&amp;".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/result in.png</v>
-      </c>
       <c r="H515" t="s">
         <v>104</v>
       </c>
@@ -28483,10 +29294,6 @@
       <c r="F516" t="s">
         <v>20</v>
       </c>
-      <c r="G516" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/run out of.png</v>
-      </c>
       <c r="H516" t="s">
         <v>104</v>
       </c>
@@ -28522,10 +29329,6 @@
       <c r="F517" t="s">
         <v>20</v>
       </c>
-      <c r="G517" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/set up.png</v>
-      </c>
       <c r="H517" t="s">
         <v>104</v>
       </c>
@@ -28561,10 +29364,6 @@
       <c r="F518" t="s">
         <v>20</v>
       </c>
-      <c r="G518" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sum up.png</v>
-      </c>
       <c r="H518" t="s">
         <v>104</v>
       </c>
@@ -28600,10 +29399,6 @@
       <c r="F519" t="s">
         <v>20</v>
       </c>
-      <c r="G519" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/take advantage of.png</v>
-      </c>
       <c r="H519" t="s">
         <v>104</v>
       </c>
@@ -28639,10 +29434,6 @@
       <c r="F520" t="s">
         <v>20</v>
       </c>
-      <c r="G520" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/take part (in).png</v>
-      </c>
       <c r="H520" t="s">
         <v>104</v>
       </c>
@@ -28678,10 +29469,6 @@
       <c r="F521" t="s">
         <v>20</v>
       </c>
-      <c r="G521" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/take place.png</v>
-      </c>
       <c r="H521" t="s">
         <v>104</v>
       </c>
@@ -28717,10 +29504,6 @@
       <c r="F522" t="s">
         <v>20</v>
       </c>
-      <c r="G522" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/turn out.png</v>
-      </c>
       <c r="H522" t="s">
         <v>104</v>
       </c>
@@ -28756,10 +29539,6 @@
       <c r="F523" t="s">
         <v>20</v>
       </c>
-      <c r="G523" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/work out.png</v>
-      </c>
       <c r="H523" t="s">
         <v>104</v>
       </c>
@@ -28795,10 +29574,6 @@
       <c r="F524" t="s">
         <v>20</v>
       </c>
-      <c r="G524" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/acknowledge.png</v>
-      </c>
       <c r="H524" t="s">
         <v>104</v>
       </c>
@@ -28834,10 +29609,6 @@
       <c r="F525" t="s">
         <v>20</v>
       </c>
-      <c r="G525" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/alter.png</v>
-      </c>
       <c r="H525" t="s">
         <v>104</v>
       </c>
@@ -28873,10 +29644,6 @@
       <c r="F526" t="s">
         <v>20</v>
       </c>
-      <c r="G526" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/assign.png</v>
-      </c>
       <c r="H526" t="s">
         <v>104</v>
       </c>
@@ -28912,10 +29679,6 @@
       <c r="F527" t="s">
         <v>20</v>
       </c>
-      <c r="G527" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/attain.png</v>
-      </c>
       <c r="H527" t="s">
         <v>104</v>
       </c>
@@ -28951,10 +29714,6 @@
       <c r="F528" t="s">
         <v>20</v>
       </c>
-      <c r="G528" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/clarify.png</v>
-      </c>
       <c r="H528" t="s">
         <v>104</v>
       </c>
@@ -28990,10 +29749,6 @@
       <c r="F529" t="s">
         <v>20</v>
       </c>
-      <c r="G529" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/classify.png</v>
-      </c>
       <c r="H529" t="s">
         <v>104</v>
       </c>
@@ -29029,10 +29784,6 @@
       <c r="F530" t="s">
         <v>20</v>
       </c>
-      <c r="G530" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/collaborate.png</v>
-      </c>
       <c r="H530" t="s">
         <v>104</v>
       </c>
@@ -29068,10 +29819,6 @@
       <c r="F531" t="s">
         <v>20</v>
       </c>
-      <c r="G531" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/combine.png</v>
-      </c>
       <c r="H531" t="s">
         <v>104</v>
       </c>
@@ -29107,10 +29854,6 @@
       <c r="F532" t="s">
         <v>20</v>
       </c>
-      <c r="G532" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/concentrate.png</v>
-      </c>
       <c r="H532" t="s">
         <v>104</v>
       </c>
@@ -29146,10 +29889,6 @@
       <c r="F533" t="s">
         <v>20</v>
       </c>
-      <c r="G533" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/convince.png</v>
-      </c>
       <c r="H533" t="s">
         <v>104</v>
       </c>
@@ -29185,10 +29924,6 @@
       <c r="F534" t="s">
         <v>20</v>
       </c>
-      <c r="G534" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/decline.png</v>
-      </c>
       <c r="H534" t="s">
         <v>104</v>
       </c>
@@ -29224,10 +29959,6 @@
       <c r="F535" t="s">
         <v>20</v>
       </c>
-      <c r="G535" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/deliver.png</v>
-      </c>
       <c r="H535" t="s">
         <v>104</v>
       </c>
@@ -29263,10 +29994,6 @@
       <c r="F536" t="s">
         <v>20</v>
       </c>
-      <c r="G536" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/derive.png</v>
-      </c>
       <c r="H536" t="s">
         <v>104</v>
       </c>
@@ -29302,10 +30029,6 @@
       <c r="F537" t="s">
         <v>20</v>
       </c>
-      <c r="G537" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/describe.png</v>
-      </c>
       <c r="H537" t="s">
         <v>104</v>
       </c>
@@ -29341,10 +30064,6 @@
       <c r="F538" t="s">
         <v>20</v>
       </c>
-      <c r="G538" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/detect.png</v>
-      </c>
       <c r="H538" t="s">
         <v>104</v>
       </c>
@@ -29380,10 +30099,6 @@
       <c r="F539" t="s">
         <v>20</v>
       </c>
-      <c r="G539" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/diminish.png</v>
-      </c>
       <c r="H539" t="s">
         <v>104</v>
       </c>
@@ -29419,10 +30134,6 @@
       <c r="F540" t="s">
         <v>20</v>
       </c>
-      <c r="G540" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/disclose.png</v>
-      </c>
       <c r="H540" t="s">
         <v>104</v>
       </c>
@@ -29458,10 +30169,6 @@
       <c r="F541" t="s">
         <v>20</v>
       </c>
-      <c r="G541" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/discuss.png</v>
-      </c>
       <c r="H541" t="s">
         <v>104</v>
       </c>
@@ -29497,10 +30204,6 @@
       <c r="F542" t="s">
         <v>20</v>
       </c>
-      <c r="G542" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/distribute.png</v>
-      </c>
       <c r="H542" t="s">
         <v>104</v>
       </c>
@@ -29536,10 +30239,6 @@
       <c r="F543" t="s">
         <v>20</v>
       </c>
-      <c r="G543" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/employ.png</v>
-      </c>
       <c r="H543" t="s">
         <v>104</v>
       </c>
@@ -29575,10 +30274,6 @@
       <c r="F544" t="s">
         <v>20</v>
       </c>
-      <c r="G544" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/encounter.png</v>
-      </c>
       <c r="H544" t="s">
         <v>104</v>
       </c>
@@ -29614,10 +30309,6 @@
       <c r="F545" t="s">
         <v>20</v>
       </c>
-      <c r="G545" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/encourage.png</v>
-      </c>
       <c r="H545" t="s">
         <v>104</v>
       </c>
@@ -29653,10 +30344,6 @@
       <c r="F546" t="s">
         <v>20</v>
       </c>
-      <c r="G546" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/engage.png</v>
-      </c>
       <c r="H546" t="s">
         <v>104</v>
       </c>
@@ -29692,10 +30379,6 @@
       <c r="F547" t="s">
         <v>20</v>
       </c>
-      <c r="G547" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/evaluate.png</v>
-      </c>
       <c r="H547" t="s">
         <v>104</v>
       </c>
@@ -29731,10 +30414,6 @@
       <c r="F548" t="s">
         <v>20</v>
       </c>
-      <c r="G548" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/exceed.png</v>
-      </c>
       <c r="H548" t="s">
         <v>104</v>
       </c>
@@ -29770,10 +30449,6 @@
       <c r="F549" t="s">
         <v>20</v>
       </c>
-      <c r="G549" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/explore.png</v>
-      </c>
       <c r="H549" t="s">
         <v>104</v>
       </c>
@@ -29809,10 +30484,6 @@
       <c r="F550" t="s">
         <v>20</v>
       </c>
-      <c r="G550" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/express.png</v>
-      </c>
       <c r="H550" t="s">
         <v>104</v>
       </c>
@@ -29848,10 +30519,6 @@
       <c r="F551" t="s">
         <v>20</v>
       </c>
-      <c r="G551" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/extend.png</v>
-      </c>
       <c r="H551" t="s">
         <v>104</v>
       </c>
@@ -29887,10 +30554,6 @@
       <c r="F552" t="s">
         <v>20</v>
       </c>
-      <c r="G552" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/facilitate.png</v>
-      </c>
       <c r="H552" t="s">
         <v>104</v>
       </c>
@@ -29926,10 +30589,6 @@
       <c r="F553" t="s">
         <v>20</v>
       </c>
-      <c r="G553" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/forecast.png</v>
-      </c>
       <c r="H553" t="s">
         <v>104</v>
       </c>
@@ -29965,10 +30624,6 @@
       <c r="F554" t="s">
         <v>20</v>
       </c>
-      <c r="G554" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/generate.png</v>
-      </c>
       <c r="H554" t="s">
         <v>104</v>
       </c>
@@ -30004,10 +30659,6 @@
       <c r="F555" t="s">
         <v>20</v>
       </c>
-      <c r="G555" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/interpret.png</v>
-      </c>
       <c r="H555" t="s">
         <v>104</v>
       </c>
@@ -30043,10 +30694,6 @@
       <c r="F556" t="s">
         <v>20</v>
       </c>
-      <c r="G556" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/investigate.png</v>
-      </c>
       <c r="H556" t="s">
         <v>104</v>
       </c>
@@ -30082,10 +30729,6 @@
       <c r="F557" t="s">
         <v>20</v>
       </c>
-      <c r="G557" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/justify.png</v>
-      </c>
       <c r="H557" t="s">
         <v>104</v>
       </c>
@@ -30121,10 +30764,6 @@
       <c r="F558" t="s">
         <v>20</v>
       </c>
-      <c r="G558" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/locate.png</v>
-      </c>
       <c r="H558" t="s">
         <v>104</v>
       </c>
@@ -30160,10 +30799,6 @@
       <c r="F559" t="s">
         <v>20</v>
       </c>
-      <c r="G559" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/manage.png</v>
-      </c>
       <c r="H559" t="s">
         <v>104</v>
       </c>
@@ -30199,10 +30834,6 @@
       <c r="F560" t="s">
         <v>20</v>
       </c>
-      <c r="G560" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/monitor.png</v>
-      </c>
       <c r="H560" t="s">
         <v>104</v>
       </c>
@@ -30238,10 +30869,6 @@
       <c r="F561" t="s">
         <v>20</v>
       </c>
-      <c r="G561" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/observe.png</v>
-      </c>
       <c r="H561" t="s">
         <v>104</v>
       </c>
@@ -30277,10 +30904,6 @@
       <c r="F562" t="s">
         <v>20</v>
       </c>
-      <c r="G562" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/overcome.png</v>
-      </c>
       <c r="H562" t="s">
         <v>104</v>
       </c>
@@ -30316,10 +30939,6 @@
       <c r="F563" t="s">
         <v>20</v>
       </c>
-      <c r="G563" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/perceive.png</v>
-      </c>
       <c r="H563" t="s">
         <v>104</v>
       </c>
@@ -30355,10 +30974,6 @@
       <c r="F564" t="s">
         <v>20</v>
       </c>
-      <c r="G564" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/perform.png</v>
-      </c>
       <c r="H564" t="s">
         <v>104</v>
       </c>
@@ -30394,10 +31009,6 @@
       <c r="F565" t="s">
         <v>20</v>
       </c>
-      <c r="G565" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pursue.png</v>
-      </c>
       <c r="H565" t="s">
         <v>104</v>
       </c>
@@ -30433,10 +31044,6 @@
       <c r="F566" t="s">
         <v>20</v>
       </c>
-      <c r="G566" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/react.png</v>
-      </c>
       <c r="H566" t="s">
         <v>104</v>
       </c>
@@ -30472,10 +31079,6 @@
       <c r="F567" t="s">
         <v>20</v>
       </c>
-      <c r="G567" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reduce.png</v>
-      </c>
       <c r="H567" t="s">
         <v>104</v>
       </c>
@@ -30511,10 +31114,6 @@
       <c r="F568" t="s">
         <v>20</v>
       </c>
-      <c r="G568" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/retain.png</v>
-      </c>
       <c r="H568" t="s">
         <v>104</v>
       </c>
@@ -30550,10 +31149,6 @@
       <c r="F569" t="s">
         <v>20</v>
       </c>
-      <c r="G569" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/revise.png</v>
-      </c>
       <c r="H569" t="s">
         <v>104</v>
       </c>
@@ -30589,10 +31184,6 @@
       <c r="F570" t="s">
         <v>20</v>
       </c>
-      <c r="G570" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/secure.png</v>
-      </c>
       <c r="H570" t="s">
         <v>104</v>
       </c>
@@ -30628,10 +31219,6 @@
       <c r="F571" t="s">
         <v>20</v>
       </c>
-      <c r="G571" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/select.png</v>
-      </c>
       <c r="H571" t="s">
         <v>104</v>
       </c>
@@ -30667,10 +31254,6 @@
       <c r="F572" t="s">
         <v>20</v>
       </c>
-      <c r="G572" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/specify.png</v>
-      </c>
       <c r="H572" t="s">
         <v>104</v>
       </c>
@@ -30706,10 +31289,6 @@
       <c r="F573" t="s">
         <v>20</v>
       </c>
-      <c r="G573" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sustain.png</v>
-      </c>
       <c r="H573" t="s">
         <v>104</v>
       </c>
@@ -30745,10 +31324,6 @@
       <c r="F574" t="s">
         <v>20</v>
       </c>
-      <c r="G574" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/tackle.png</v>
-      </c>
       <c r="H574" t="s">
         <v>104</v>
       </c>
@@ -30784,10 +31359,6 @@
       <c r="F575" t="s">
         <v>20</v>
       </c>
-      <c r="G575" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/transform.png</v>
-      </c>
       <c r="H575" t="s">
         <v>104</v>
       </c>
@@ -30823,10 +31394,6 @@
       <c r="F576" t="s">
         <v>20</v>
       </c>
-      <c r="G576" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/utilize.png</v>
-      </c>
       <c r="H576" t="s">
         <v>104</v>
       </c>
@@ -30862,10 +31429,6 @@
       <c r="F577" t="s">
         <v>20</v>
       </c>
-      <c r="G577" t="str">
-        <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/validate.png</v>
-      </c>
       <c r="H577" t="s">
         <v>104</v>
       </c>
@@ -30883,9 +31446,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G204" r:id="rId1" xr:uid="{62B97EC4-F721-4A30-BFFF-B23B16970745}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="A3:F577 A1:F1 H1:O1 A2:F2 H2:O2 H3:O577" numberStoredAsText="1"/>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\OneDrive\Desktop\Commons\vocabylary-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321A6D8F-3AE3-4481-9C0F-A2340DA3AF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87968E1C-29DE-4C6E-A71E-07E647A1CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5776" uniqueCount="3214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6010" uniqueCount="3407">
   <si>
     <t>topic</t>
   </si>
@@ -9662,6 +9662,585 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR4yxysEe6b8TGEdtJmw64O5e1Ud5HZAcWgpg&amp;s</t>
+  </si>
+  <si>
+    <t>vacancy</t>
+  </si>
+  <si>
+    <t>vị trí còn trống</t>
+  </si>
+  <si>
+    <t>an available job position</t>
+  </si>
+  <si>
+    <t>The company has several vacancies for software engineers.</t>
+  </si>
+  <si>
+    <t>Công ty có một số vị trí trống cho kỹ sư phần mềm.</t>
+  </si>
+  <si>
+    <t>job opening</t>
+  </si>
+  <si>
+    <t>cơ hội việc làm</t>
+  </si>
+  <si>
+    <t>a newly available job</t>
+  </si>
+  <si>
+    <t>There is a job opening in the marketing department.</t>
+  </si>
+  <si>
+    <t>Có một cơ hội việc làm trong phòng marketing.</t>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>ứng viên</t>
+  </si>
+  <si>
+    <t>a person applying for a job</t>
+  </si>
+  <si>
+    <t>Each applicant must submit a cover letter.</t>
+  </si>
+  <si>
+    <t>Mỗi ứng viên phải nộp thư xin việc.</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>a person being considered for a job</t>
+  </si>
+  <si>
+    <t>Five candidates were shortlisted for the interview.</t>
+  </si>
+  <si>
+    <t>Năm ứng viên được chọn vào vòng phỏng vấn.</t>
+  </si>
+  <si>
+    <t>job description</t>
+  </si>
+  <si>
+    <t>mô tả công việc</t>
+  </si>
+  <si>
+    <t>details of duties and responsibilities</t>
+  </si>
+  <si>
+    <t>Read the job description carefully before applying.</t>
+  </si>
+  <si>
+    <t>Đọc kỹ mô tả công việc trước khi nộp đơn.</t>
+  </si>
+  <si>
+    <t>qualifications</t>
+  </si>
+  <si>
+    <t>trình độ, năng lực</t>
+  </si>
+  <si>
+    <t>skills or education required</t>
+  </si>
+  <si>
+    <t>The position requires specific qualifications in finance.</t>
+  </si>
+  <si>
+    <t>Vị trí này yêu cầu trình độ chuyên môn về tài chính.</t>
+  </si>
+  <si>
+    <t>cover letter</t>
+  </si>
+  <si>
+    <t>thư xin việc</t>
+  </si>
+  <si>
+    <t>a letter sent with a job application</t>
+  </si>
+  <si>
+    <t>She wrote a cover letter to accompany her resume.</t>
+  </si>
+  <si>
+    <t>Cô ấy viết thư xin việc kèm theo sơ yếu lý lịch.</t>
+  </si>
+  <si>
+    <t>người giới thiệu</t>
+  </si>
+  <si>
+    <t>a person who can recommend you</t>
+  </si>
+  <si>
+    <t>Provide at least two professional references.</t>
+  </si>
+  <si>
+    <t>Cung cấp ít nhất hai người giới thiệu chuyên môn.</t>
+  </si>
+  <si>
+    <t>probation</t>
+  </si>
+  <si>
+    <t>thử việc</t>
+  </si>
+  <si>
+    <t>a trial period for new employees</t>
+  </si>
+  <si>
+    <t>He is still on probation for the first three months.</t>
+  </si>
+  <si>
+    <t>Anh ấy vẫn đang trong thời gian thử việc ba tháng đầu.</t>
+  </si>
+  <si>
+    <t>headhunter</t>
+  </si>
+  <si>
+    <t>người săn nhân sự</t>
+  </si>
+  <si>
+    <t>a recruiter who seeks talented people</t>
+  </si>
+  <si>
+    <t>A headhunter contacted her about a job opportunity.</t>
+  </si>
+  <si>
+    <t>Một người săn nhân sự đã liên hệ cô về cơ hội việc làm.</t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>tiền công</t>
+  </si>
+  <si>
+    <t>money earned for work, usually hourly</t>
+  </si>
+  <si>
+    <t>The factory workers receive a weekly wage.</t>
+  </si>
+  <si>
+    <t>Công nhân nhà máy nhận tiền công hàng tuần.</t>
+  </si>
+  <si>
+    <t>overtime</t>
+  </si>
+  <si>
+    <t>làm thêm giờ</t>
+  </si>
+  <si>
+    <t>extra hours worked beyond regular time</t>
+  </si>
+  <si>
+    <t>Employees are paid extra for overtime.</t>
+  </si>
+  <si>
+    <t>Nhân viên được trả thêm tiền khi làm thêm giờ.</t>
+  </si>
+  <si>
+    <t>paid leave</t>
+  </si>
+  <si>
+    <t>nghỉ phép có lương</t>
+  </si>
+  <si>
+    <t>time off with pay</t>
+  </si>
+  <si>
+    <t>She took paid leave to travel abroad.</t>
+  </si>
+  <si>
+    <t>Cô ấy nghỉ phép có lương để đi du lịch nước ngoài.</t>
+  </si>
+  <si>
+    <t>unpaid leave</t>
+  </si>
+  <si>
+    <t>nghỉ phép không lương</t>
+  </si>
+  <si>
+    <t>time off without pay</t>
+  </si>
+  <si>
+    <t>He had to take unpaid leave to care for his mother.</t>
+  </si>
+  <si>
+    <t>Anh ấy phải nghỉ phép không lương để chăm sóc mẹ.</t>
+  </si>
+  <si>
+    <t>sick leave</t>
+  </si>
+  <si>
+    <t>nghỉ ốm</t>
+  </si>
+  <si>
+    <t>time off work due to illness</t>
+  </si>
+  <si>
+    <t>He is on sick leave for a week.</t>
+  </si>
+  <si>
+    <t>Anh ấy nghỉ ốm một tuần.</t>
+  </si>
+  <si>
+    <t>maternity leave</t>
+  </si>
+  <si>
+    <t>nghỉ thai sản</t>
+  </si>
+  <si>
+    <t>time off for childbirth</t>
+  </si>
+  <si>
+    <t>She is currently on maternity leave.</t>
+  </si>
+  <si>
+    <t>Cô ấy hiện đang nghỉ thai sản.</t>
+  </si>
+  <si>
+    <t>pension</t>
+  </si>
+  <si>
+    <t>lương hưu</t>
+  </si>
+  <si>
+    <t>a regular payment after retirement</t>
+  </si>
+  <si>
+    <t>He receives a pension from the government.</t>
+  </si>
+  <si>
+    <t>Ông ấy nhận lương hưu từ chính phủ.</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>bảo hiểm</t>
+  </si>
+  <si>
+    <t>protection against risk, usually health or life</t>
+  </si>
+  <si>
+    <t>The company offers health insurance to employees.</t>
+  </si>
+  <si>
+    <t>Công ty cung cấp bảo hiểm y tế cho nhân viên.</t>
+  </si>
+  <si>
+    <t>allowance</t>
+  </si>
+  <si>
+    <t>trợ cấp</t>
+  </si>
+  <si>
+    <t>money given for a specific purpose</t>
+  </si>
+  <si>
+    <t>She gets a travel allowance for business trips.</t>
+  </si>
+  <si>
+    <t>Cô ấy nhận trợ cấp đi lại cho các chuyến công tác.</t>
+  </si>
+  <si>
+    <t>hierarchy</t>
+  </si>
+  <si>
+    <t>hệ thống cấp bậc</t>
+  </si>
+  <si>
+    <t>a system of ranks in an organization</t>
+  </si>
+  <si>
+    <t>The company has a strict corporate hierarchy.</t>
+  </si>
+  <si>
+    <t>Công ty có hệ thống cấp bậc nghiêm ngặt.</t>
+  </si>
+  <si>
+    <t>workplace harassment</t>
+  </si>
+  <si>
+    <t>quấy rối nơi làm việc</t>
+  </si>
+  <si>
+    <t>unwanted conduct at work</t>
+  </si>
+  <si>
+    <t>Workplace harassment is taken seriously here.</t>
+  </si>
+  <si>
+    <t>Quấy rối nơi làm việc được xử lý nghiêm túc tại đây.</t>
+  </si>
+  <si>
+    <t>diversity</t>
+  </si>
+  <si>
+    <t>đa dạng</t>
+  </si>
+  <si>
+    <t>variety of people and backgrounds</t>
+  </si>
+  <si>
+    <t>The company values cultural diversity.</t>
+  </si>
+  <si>
+    <t>Công ty coi trọng sự đa dạng văn hoá.</t>
+  </si>
+  <si>
+    <t>work-life balance</t>
+  </si>
+  <si>
+    <t>cân bằng công việc và cuộc sống</t>
+  </si>
+  <si>
+    <t>the balance between work and personal life</t>
+  </si>
+  <si>
+    <t>Remote work helps employees maintain a better work-life balance.</t>
+  </si>
+  <si>
+    <t>Làm việc từ xa giúp nhân viên cân bằng công việc và cuộc sống tốt hơn.</t>
+  </si>
+  <si>
+    <t>corporate culture</t>
+  </si>
+  <si>
+    <t>văn hoá doanh nghiệp</t>
+  </si>
+  <si>
+    <t>shared values and behaviors in a company</t>
+  </si>
+  <si>
+    <t>Corporate culture affects employee satisfaction.</t>
+  </si>
+  <si>
+    <t>Văn hoá doanh nghiệp ảnh hưởng đến sự hài lòng của nhân viên.</t>
+  </si>
+  <si>
+    <t>remote work</t>
+  </si>
+  <si>
+    <t>làm việc từ xa</t>
+  </si>
+  <si>
+    <t>working from outside the office</t>
+  </si>
+  <si>
+    <t>Many companies now allow remote work.</t>
+  </si>
+  <si>
+    <t>Nhiều công ty hiện cho phép làm việc từ xa.</t>
+  </si>
+  <si>
+    <t>shift work</t>
+  </si>
+  <si>
+    <t>làm việc theo ca</t>
+  </si>
+  <si>
+    <t>work scheduled at different times of day</t>
+  </si>
+  <si>
+    <t>Shift work can be exhausting.</t>
+  </si>
+  <si>
+    <t>Làm việc theo ca có thể rất mệt mỏi.</t>
+  </si>
+  <si>
+    <t>flexible hours</t>
+  </si>
+  <si>
+    <t>giờ làm linh hoạt</t>
+  </si>
+  <si>
+    <t>working hours that can change</t>
+  </si>
+  <si>
+    <t>Flexible hours allow parents to manage childcare.</t>
+  </si>
+  <si>
+    <t>Giờ làm linh hoạt giúp cha mẹ chăm sóc con cái.</t>
+  </si>
+  <si>
+    <t>appraisal</t>
+  </si>
+  <si>
+    <t>đánh giá năng lực</t>
+  </si>
+  <si>
+    <t>evaluation of an employee’s performance</t>
+  </si>
+  <si>
+    <t>She received a positive appraisal from her manager.</t>
+  </si>
+  <si>
+    <t>Cô ấy nhận được đánh giá tích cực từ quản lý.</t>
+  </si>
+  <si>
+    <t>KPI</t>
+  </si>
+  <si>
+    <t>chỉ số đánh giá hiệu suất</t>
+  </si>
+  <si>
+    <t>Key Performance Indicator</t>
+  </si>
+  <si>
+    <t>Meeting KPIs is essential for a promotion.</t>
+  </si>
+  <si>
+    <t>Đạt chỉ số KPI là điều cần thiết để được thăng chức.</t>
+  </si>
+  <si>
+    <t>delegation</t>
+  </si>
+  <si>
+    <t>ủy quyền</t>
+  </si>
+  <si>
+    <t>assigning tasks to others</t>
+  </si>
+  <si>
+    <t>Good managers are skilled at delegation.</t>
+  </si>
+  <si>
+    <t>Nhà quản lý giỏi biết cách ủy quyền công việc.</t>
+  </si>
+  <si>
+    <t>brainstorming</t>
+  </si>
+  <si>
+    <t>động não</t>
+  </si>
+  <si>
+    <t>a meeting to generate ideas</t>
+  </si>
+  <si>
+    <t>The team had a brainstorming session for the new project.</t>
+  </si>
+  <si>
+    <t>Nhóm đã có một buổi động não cho dự án mới.</t>
+  </si>
+  <si>
+    <t>time management</t>
+  </si>
+  <si>
+    <t>quản lý thời gian</t>
+  </si>
+  <si>
+    <t>the ability to use time effectively</t>
+  </si>
+  <si>
+    <t>Time management skills are crucial for productivity.</t>
+  </si>
+  <si>
+    <t>Kỹ năng quản lý thời gian rất quan trọng để nâng cao năng suất.</t>
+  </si>
+  <si>
+    <t>multitasking</t>
+  </si>
+  <si>
+    <t>làm nhiều việc cùng lúc</t>
+  </si>
+  <si>
+    <t>handling multiple tasks at once</t>
+  </si>
+  <si>
+    <t>Multitasking can reduce efficiency.</t>
+  </si>
+  <si>
+    <t>Làm nhiều việc cùng lúc có thể giảm hiệu quả.</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>thất nghiệp</t>
+  </si>
+  <si>
+    <t>the state of not having a job</t>
+  </si>
+  <si>
+    <t>Unemployment rates are rising.</t>
+  </si>
+  <si>
+    <t>Tỷ lệ thất nghiệp đang tăng.</t>
+  </si>
+  <si>
+    <t>underemployment</t>
+  </si>
+  <si>
+    <t>việc làm dưới trình độ</t>
+  </si>
+  <si>
+    <t>working in a job that doesn’t use your skills</t>
+  </si>
+  <si>
+    <t>Many graduates face underemployment.</t>
+  </si>
+  <si>
+    <t>Nhiều sinh viên tốt nghiệp đối mặt với tình trạng làm việc dưới trình độ.</t>
+  </si>
+  <si>
+    <t>job security</t>
+  </si>
+  <si>
+    <t>sự ổn định công việc</t>
+  </si>
+  <si>
+    <t>likelihood of keeping a job</t>
+  </si>
+  <si>
+    <t>Permanent contracts provide better job security.</t>
+  </si>
+  <si>
+    <t>Hợp đồng dài hạn mang lại sự ổn định công việc tốt hơn.</t>
+  </si>
+  <si>
+    <t>turnover rate</t>
+  </si>
+  <si>
+    <t>tỷ lệ nghỉ việc</t>
+  </si>
+  <si>
+    <t>the rate at which employees leave a company</t>
+  </si>
+  <si>
+    <t>High turnover rate affects company performance.</t>
+  </si>
+  <si>
+    <t>Tỷ lệ nghỉ việc cao ảnh hưởng đến hiệu suất công ty.</t>
+  </si>
+  <si>
+    <t>gig economy</t>
+  </si>
+  <si>
+    <t>nền kinh tế tự do</t>
+  </si>
+  <si>
+    <t>a labor market with short-term contracts</t>
+  </si>
+  <si>
+    <t>The gig economy offers flexible work but less stability.</t>
+  </si>
+  <si>
+    <t>Nền kinh tế tự do mang lại công việc linh hoạt nhưng ít ổn định.</t>
+  </si>
+  <si>
+    <t>outsourcing</t>
+  </si>
+  <si>
+    <t>thuê ngoài</t>
+  </si>
+  <si>
+    <t>getting work done by outside companies</t>
+  </si>
+  <si>
+    <t>The company is outsourcing its IT services.</t>
+  </si>
+  <si>
+    <t>Công ty đang thuê ngoài dịch vụ CNTT.</t>
   </si>
 </sst>
 </file>
@@ -10038,13 +10617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P577"/>
+  <dimension ref="A1:P616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G566" workbookViewId="0">
-      <selection activeCell="O583" sqref="O583"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="A578" sqref="A578:A616"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
@@ -10062,7 +10641,7 @@
     <col min="16" max="16" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10112,7 +10691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -10153,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -10194,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -10235,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -10276,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -10317,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -10358,7 +10937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -10399,7 +10978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -10440,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -10481,7 +11060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -10522,7 +11101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -10563,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -10604,7 +11183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -10645,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -10686,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -10727,7 +11306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10768,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -10809,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -10850,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -10891,7 +11470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -10932,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -10973,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -11014,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -11055,7 +11634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -11096,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -11137,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -11178,7 +11757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -11219,7 +11798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -11260,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -11301,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -11342,7 +11921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -11383,7 +11962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -11424,7 +12003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -11465,7 +12044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -11506,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -11547,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -11588,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -11629,7 +12208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -11670,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -11711,7 +12290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -11752,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -11793,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -11834,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -11875,7 +12454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -11916,7 +12495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -11957,7 +12536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -11998,7 +12577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -12039,7 +12618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -12080,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -12121,7 +12700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -12162,7 +12741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -12203,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -12244,7 +12823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -12285,7 +12864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -12326,7 +12905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -12367,7 +12946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -12408,7 +12987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -12449,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -12490,7 +13069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -12531,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -12572,7 +13151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -12613,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -12654,7 +13233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -12695,7 +13274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -12736,7 +13315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -12777,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -12818,7 +13397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -12859,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -12900,7 +13479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -12941,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -12982,7 +13561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -13023,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -13064,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -13105,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -13146,7 +13725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -13187,7 +13766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -13228,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>410</v>
       </c>
@@ -13269,7 +13848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>410</v>
       </c>
@@ -13310,7 +13889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -13351,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>410</v>
       </c>
@@ -13392,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>410</v>
       </c>
@@ -13433,7 +14012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>410</v>
       </c>
@@ -13474,7 +14053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>410</v>
       </c>
@@ -13515,7 +14094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>410</v>
       </c>
@@ -13556,7 +14135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>410</v>
       </c>
@@ -13597,7 +14176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>410</v>
       </c>
@@ -13638,7 +14217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -13679,7 +14258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>410</v>
       </c>
@@ -13720,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>410</v>
       </c>
@@ -13761,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -13802,7 +14381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>410</v>
       </c>
@@ -13843,7 +14422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>410</v>
       </c>
@@ -13884,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>410</v>
       </c>
@@ -13925,7 +14504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>410</v>
       </c>
@@ -13966,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>410</v>
       </c>
@@ -14007,7 +14586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>410</v>
       </c>
@@ -14048,7 +14627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>410</v>
       </c>
@@ -14089,7 +14668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>410</v>
       </c>
@@ -14130,7 +14709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -14171,7 +14750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>410</v>
       </c>
@@ -14212,7 +14791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>410</v>
       </c>
@@ -14253,7 +14832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -14294,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>410</v>
       </c>
@@ -14335,7 +14914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>410</v>
       </c>
@@ -14376,7 +14955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>410</v>
       </c>
@@ -14417,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>410</v>
       </c>
@@ -14458,7 +15037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>410</v>
       </c>
@@ -14499,7 +15078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>410</v>
       </c>
@@ -14540,7 +15119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>410</v>
       </c>
@@ -14581,7 +15160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -14622,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>410</v>
       </c>
@@ -14663,7 +15242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>410</v>
       </c>
@@ -14704,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -14745,7 +15324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>410</v>
       </c>
@@ -14786,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>410</v>
       </c>
@@ -14827,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>410</v>
       </c>
@@ -14868,7 +15447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>640</v>
       </c>
@@ -14909,7 +15488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>640</v>
       </c>
@@ -14950,7 +15529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>640</v>
       </c>
@@ -14991,7 +15570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>640</v>
       </c>
@@ -15032,7 +15611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>640</v>
       </c>
@@ -15073,7 +15652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>640</v>
       </c>
@@ -15114,7 +15693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>640</v>
       </c>
@@ -15155,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>640</v>
       </c>
@@ -15196,7 +15775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>640</v>
       </c>
@@ -15237,7 +15816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>640</v>
       </c>
@@ -15278,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>640</v>
       </c>
@@ -15319,7 +15898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>640</v>
       </c>
@@ -15360,7 +15939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>640</v>
       </c>
@@ -15401,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>640</v>
       </c>
@@ -15442,7 +16021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>640</v>
       </c>
@@ -15483,7 +16062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>640</v>
       </c>
@@ -15524,7 +16103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>640</v>
       </c>
@@ -15565,7 +16144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>640</v>
       </c>
@@ -15606,7 +16185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>640</v>
       </c>
@@ -15647,7 +16226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>640</v>
       </c>
@@ -15688,7 +16267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>640</v>
       </c>
@@ -15729,7 +16308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>640</v>
       </c>
@@ -15770,7 +16349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>640</v>
       </c>
@@ -15811,7 +16390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>640</v>
       </c>
@@ -15852,7 +16431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>640</v>
       </c>
@@ -15893,7 +16472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>640</v>
       </c>
@@ -15934,7 +16513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>640</v>
       </c>
@@ -15975,7 +16554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>640</v>
       </c>
@@ -16016,7 +16595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>640</v>
       </c>
@@ -16057,7 +16636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>640</v>
       </c>
@@ -16098,7 +16677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>640</v>
       </c>
@@ -16139,7 +16718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>640</v>
       </c>
@@ -16180,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>640</v>
       </c>
@@ -16221,7 +16800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>640</v>
       </c>
@@ -16262,7 +16841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>640</v>
       </c>
@@ -16303,7 +16882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>640</v>
       </c>
@@ -16344,7 +16923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>640</v>
       </c>
@@ -16385,7 +16964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>640</v>
       </c>
@@ -16426,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>640</v>
       </c>
@@ -16467,7 +17046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>640</v>
       </c>
@@ -16508,7 +17087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>881</v>
       </c>
@@ -16549,7 +17128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>881</v>
       </c>
@@ -16590,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>881</v>
       </c>
@@ -16631,7 +17210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>881</v>
       </c>
@@ -16672,7 +17251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>881</v>
       </c>
@@ -16713,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>881</v>
       </c>
@@ -16754,7 +17333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>881</v>
       </c>
@@ -16795,7 +17374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>881</v>
       </c>
@@ -16836,7 +17415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>881</v>
       </c>
@@ -16877,7 +17456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>881</v>
       </c>
@@ -16918,7 +17497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>881</v>
       </c>
@@ -16959,7 +17538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>881</v>
       </c>
@@ -17000,7 +17579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>881</v>
       </c>
@@ -17041,7 +17620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>881</v>
       </c>
@@ -17082,7 +17661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>881</v>
       </c>
@@ -17123,7 +17702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>881</v>
       </c>
@@ -17164,7 +17743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>881</v>
       </c>
@@ -17205,7 +17784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>881</v>
       </c>
@@ -17246,7 +17825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>881</v>
       </c>
@@ -17287,7 +17866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>881</v>
       </c>
@@ -17328,7 +17907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>881</v>
       </c>
@@ -17369,7 +17948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>881</v>
       </c>
@@ -17410,7 +17989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>881</v>
       </c>
@@ -17451,7 +18030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>881</v>
       </c>
@@ -17492,7 +18071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>881</v>
       </c>
@@ -17533,7 +18112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>881</v>
       </c>
@@ -17574,7 +18153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>881</v>
       </c>
@@ -17615,7 +18194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>881</v>
       </c>
@@ -17656,7 +18235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>881</v>
       </c>
@@ -17697,7 +18276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>881</v>
       </c>
@@ -17738,7 +18317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>881</v>
       </c>
@@ -17779,7 +18358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>881</v>
       </c>
@@ -17820,7 +18399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>881</v>
       </c>
@@ -17861,7 +18440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>881</v>
       </c>
@@ -17902,7 +18481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>881</v>
       </c>
@@ -17943,7 +18522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>881</v>
       </c>
@@ -17984,7 +18563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>881</v>
       </c>
@@ -18025,7 +18604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>881</v>
       </c>
@@ -18066,7 +18645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>881</v>
       </c>
@@ -18107,7 +18686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>881</v>
       </c>
@@ -18148,7 +18727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1121</v>
       </c>
@@ -18189,7 +18768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1121</v>
       </c>
@@ -18230,7 +18809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1121</v>
       </c>
@@ -18271,7 +18850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1121</v>
       </c>
@@ -18312,7 +18891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1121</v>
       </c>
@@ -18353,7 +18932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1121</v>
       </c>
@@ -18394,7 +18973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1121</v>
       </c>
@@ -18435,7 +19014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1121</v>
       </c>
@@ -18476,7 +19055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1121</v>
       </c>
@@ -18517,7 +19096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1121</v>
       </c>
@@ -18558,7 +19137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1121</v>
       </c>
@@ -18599,7 +19178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1121</v>
       </c>
@@ -18640,7 +19219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1121</v>
       </c>
@@ -18681,7 +19260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1121</v>
       </c>
@@ -18722,7 +19301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1121</v>
       </c>
@@ -18763,7 +19342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1121</v>
       </c>
@@ -18804,7 +19383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1121</v>
       </c>
@@ -18845,7 +19424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1121</v>
       </c>
@@ -18886,7 +19465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1121</v>
       </c>
@@ -18927,7 +19506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1121</v>
       </c>
@@ -18968,7 +19547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1121</v>
       </c>
@@ -19009,7 +19588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1121</v>
       </c>
@@ -19050,7 +19629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1121</v>
       </c>
@@ -19091,7 +19670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1121</v>
       </c>
@@ -19132,7 +19711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1121</v>
       </c>
@@ -19173,7 +19752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1121</v>
       </c>
@@ -19214,7 +19793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1121</v>
       </c>
@@ -19255,7 +19834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1121</v>
       </c>
@@ -19296,7 +19875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1121</v>
       </c>
@@ -19337,7 +19916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1121</v>
       </c>
@@ -19378,7 +19957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1121</v>
       </c>
@@ -19419,7 +19998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1121</v>
       </c>
@@ -19460,7 +20039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1121</v>
       </c>
@@ -19501,7 +20080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1121</v>
       </c>
@@ -19542,7 +20121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1121</v>
       </c>
@@ -19583,7 +20162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1121</v>
       </c>
@@ -19624,7 +20203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1121</v>
       </c>
@@ -19665,7 +20244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1121</v>
       </c>
@@ -19706,7 +20285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1121</v>
       </c>
@@ -19747,7 +20326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1121</v>
       </c>
@@ -19788,7 +20367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1361</v>
       </c>
@@ -19829,7 +20408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1361</v>
       </c>
@@ -19870,7 +20449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1361</v>
       </c>
@@ -19911,7 +20490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1361</v>
       </c>
@@ -19952,7 +20531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1361</v>
       </c>
@@ -19993,7 +20572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1361</v>
       </c>
@@ -20034,7 +20613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1361</v>
       </c>
@@ -20075,7 +20654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1361</v>
       </c>
@@ -20116,7 +20695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1361</v>
       </c>
@@ -20157,7 +20736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1361</v>
       </c>
@@ -20198,7 +20777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1361</v>
       </c>
@@ -20239,7 +20818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1361</v>
       </c>
@@ -20280,7 +20859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1361</v>
       </c>
@@ -20321,7 +20900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1361</v>
       </c>
@@ -20362,7 +20941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1361</v>
       </c>
@@ -20403,7 +20982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1361</v>
       </c>
@@ -20444,7 +21023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1361</v>
       </c>
@@ -20485,7 +21064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1361</v>
       </c>
@@ -20526,7 +21105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1361</v>
       </c>
@@ -20567,7 +21146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1361</v>
       </c>
@@ -20608,7 +21187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1361</v>
       </c>
@@ -20649,7 +21228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1361</v>
       </c>
@@ -20690,7 +21269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1361</v>
       </c>
@@ -20731,7 +21310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1361</v>
       </c>
@@ -20772,7 +21351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1361</v>
       </c>
@@ -20813,7 +21392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1361</v>
       </c>
@@ -20854,7 +21433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1361</v>
       </c>
@@ -20895,7 +21474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1361</v>
       </c>
@@ -20936,7 +21515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1361</v>
       </c>
@@ -20977,7 +21556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1361</v>
       </c>
@@ -21018,7 +21597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1361</v>
       </c>
@@ -21059,7 +21638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1361</v>
       </c>
@@ -21100,7 +21679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1361</v>
       </c>
@@ -21141,7 +21720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1361</v>
       </c>
@@ -21182,7 +21761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1361</v>
       </c>
@@ -21223,7 +21802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1361</v>
       </c>
@@ -21264,7 +21843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1361</v>
       </c>
@@ -21305,7 +21884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1361</v>
       </c>
@@ -21346,7 +21925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1361</v>
       </c>
@@ -21387,7 +21966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1361</v>
       </c>
@@ -21428,7 +22007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1598</v>
       </c>
@@ -21469,7 +22048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1598</v>
       </c>
@@ -21510,7 +22089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1598</v>
       </c>
@@ -21551,7 +22130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1598</v>
       </c>
@@ -21592,7 +22171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1598</v>
       </c>
@@ -21633,7 +22212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1598</v>
       </c>
@@ -21674,7 +22253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1598</v>
       </c>
@@ -21715,7 +22294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1598</v>
       </c>
@@ -21756,7 +22335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1598</v>
       </c>
@@ -21797,7 +22376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1598</v>
       </c>
@@ -21838,7 +22417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1598</v>
       </c>
@@ -21879,7 +22458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1598</v>
       </c>
@@ -21920,7 +22499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1598</v>
       </c>
@@ -21961,7 +22540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1598</v>
       </c>
@@ -22002,7 +22581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1598</v>
       </c>
@@ -22043,7 +22622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1598</v>
       </c>
@@ -22084,7 +22663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1598</v>
       </c>
@@ -22125,7 +22704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1598</v>
       </c>
@@ -22166,7 +22745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1598</v>
       </c>
@@ -22207,7 +22786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1598</v>
       </c>
@@ -22248,7 +22827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1598</v>
       </c>
@@ -22289,7 +22868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1598</v>
       </c>
@@ -22330,7 +22909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1598</v>
       </c>
@@ -22371,7 +22950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1598</v>
       </c>
@@ -22412,7 +22991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1598</v>
       </c>
@@ -22453,7 +23032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1598</v>
       </c>
@@ -22494,7 +23073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1598</v>
       </c>
@@ -22535,7 +23114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1598</v>
       </c>
@@ -22576,7 +23155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1598</v>
       </c>
@@ -22617,7 +23196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1598</v>
       </c>
@@ -22658,7 +23237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1598</v>
       </c>
@@ -22699,7 +23278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1598</v>
       </c>
@@ -22740,7 +23319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1598</v>
       </c>
@@ -22781,7 +23360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1598</v>
       </c>
@@ -22822,7 +23401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1598</v>
       </c>
@@ -22863,7 +23442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1598</v>
       </c>
@@ -22904,7 +23483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1598</v>
       </c>
@@ -22945,7 +23524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1598</v>
       </c>
@@ -22986,7 +23565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1598</v>
       </c>
@@ -23027,7 +23606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1598</v>
       </c>
@@ -23068,7 +23647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1837</v>
       </c>
@@ -23109,7 +23688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1837</v>
       </c>
@@ -23150,7 +23729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1837</v>
       </c>
@@ -23191,7 +23770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1837</v>
       </c>
@@ -23232,7 +23811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1837</v>
       </c>
@@ -23273,7 +23852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1837</v>
       </c>
@@ -23314,7 +23893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1837</v>
       </c>
@@ -23355,7 +23934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1837</v>
       </c>
@@ -23396,7 +23975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1837</v>
       </c>
@@ -23437,7 +24016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1837</v>
       </c>
@@ -23478,7 +24057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1837</v>
       </c>
@@ -23519,7 +24098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1837</v>
       </c>
@@ -23560,7 +24139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1837</v>
       </c>
@@ -23601,7 +24180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1837</v>
       </c>
@@ -23642,7 +24221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1837</v>
       </c>
@@ -23683,7 +24262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1837</v>
       </c>
@@ -23724,7 +24303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1837</v>
       </c>
@@ -23765,7 +24344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1837</v>
       </c>
@@ -23806,7 +24385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1837</v>
       </c>
@@ -23847,7 +24426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1837</v>
       </c>
@@ -23888,7 +24467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1837</v>
       </c>
@@ -23929,7 +24508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1837</v>
       </c>
@@ -23970,7 +24549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1837</v>
       </c>
@@ -24011,7 +24590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1837</v>
       </c>
@@ -24052,7 +24631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1837</v>
       </c>
@@ -24093,7 +24672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1837</v>
       </c>
@@ -24134,7 +24713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1837</v>
       </c>
@@ -24175,7 +24754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1837</v>
       </c>
@@ -24216,7 +24795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1837</v>
       </c>
@@ -24257,7 +24836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1837</v>
       </c>
@@ -24298,7 +24877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1837</v>
       </c>
@@ -24339,7 +24918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1837</v>
       </c>
@@ -24380,7 +24959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1837</v>
       </c>
@@ -24421,7 +25000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1837</v>
       </c>
@@ -24462,7 +25041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1837</v>
       </c>
@@ -24503,7 +25082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1837</v>
       </c>
@@ -24544,7 +25123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1837</v>
       </c>
@@ -24585,7 +25164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1837</v>
       </c>
@@ -24626,7 +25205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1837</v>
       </c>
@@ -24667,7 +25246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1837</v>
       </c>
@@ -24708,7 +25287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>2077</v>
       </c>
@@ -24749,7 +25328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>2077</v>
       </c>
@@ -24790,7 +25369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>2077</v>
       </c>
@@ -24831,7 +25410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>2077</v>
       </c>
@@ -24872,7 +25451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>2077</v>
       </c>
@@ -24913,7 +25492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>2077</v>
       </c>
@@ -24954,7 +25533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>2077</v>
       </c>
@@ -24995,7 +25574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>2077</v>
       </c>
@@ -25036,7 +25615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>2077</v>
       </c>
@@ -25077,7 +25656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>2077</v>
       </c>
@@ -25118,7 +25697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>2077</v>
       </c>
@@ -25159,7 +25738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>2077</v>
       </c>
@@ -25200,7 +25779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>2077</v>
       </c>
@@ -25241,7 +25820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>2077</v>
       </c>
@@ -25282,7 +25861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>2077</v>
       </c>
@@ -25323,7 +25902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>2077</v>
       </c>
@@ -25364,7 +25943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>2077</v>
       </c>
@@ -25405,7 +25984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>2077</v>
       </c>
@@ -25446,7 +26025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>2077</v>
       </c>
@@ -25487,7 +26066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>2077</v>
       </c>
@@ -25528,7 +26107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>2077</v>
       </c>
@@ -25569,7 +26148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>2077</v>
       </c>
@@ -25610,7 +26189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>2077</v>
       </c>
@@ -25651,7 +26230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>2077</v>
       </c>
@@ -25692,7 +26271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>2077</v>
       </c>
@@ -25733,7 +26312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>2077</v>
       </c>
@@ -25774,7 +26353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>2077</v>
       </c>
@@ -25815,7 +26394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>2077</v>
       </c>
@@ -25856,7 +26435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>2077</v>
       </c>
@@ -25897,7 +26476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>2077</v>
       </c>
@@ -25938,7 +26517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>2077</v>
       </c>
@@ -25979,7 +26558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>2077</v>
       </c>
@@ -26020,7 +26599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>2077</v>
       </c>
@@ -26061,7 +26640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>2077</v>
       </c>
@@ -26102,7 +26681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>2077</v>
       </c>
@@ -26143,7 +26722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>2077</v>
       </c>
@@ -26184,7 +26763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>2077</v>
       </c>
@@ -26225,7 +26804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>2077</v>
       </c>
@@ -26266,7 +26845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>2077</v>
       </c>
@@ -26307,7 +26886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>2077</v>
       </c>
@@ -26348,7 +26927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>2310</v>
       </c>
@@ -26389,7 +26968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>2310</v>
       </c>
@@ -26430,7 +27009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>2310</v>
       </c>
@@ -26471,7 +27050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>2310</v>
       </c>
@@ -26512,7 +27091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>2310</v>
       </c>
@@ -26553,7 +27132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>2310</v>
       </c>
@@ -26594,7 +27173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>2310</v>
       </c>
@@ -26635,7 +27214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>2310</v>
       </c>
@@ -26676,7 +27255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>2310</v>
       </c>
@@ -26717,7 +27296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>2310</v>
       </c>
@@ -26758,7 +27337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>2310</v>
       </c>
@@ -26799,7 +27378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>2310</v>
       </c>
@@ -26840,7 +27419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>2310</v>
       </c>
@@ -26881,7 +27460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>2310</v>
       </c>
@@ -26922,7 +27501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>2310</v>
       </c>
@@ -26963,7 +27542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>2310</v>
       </c>
@@ -27004,7 +27583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>2310</v>
       </c>
@@ -27045,7 +27624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>2310</v>
       </c>
@@ -27086,7 +27665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>2310</v>
       </c>
@@ -27127,7 +27706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>2310</v>
       </c>
@@ -27168,7 +27747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>2310</v>
       </c>
@@ -27209,7 +27788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>2310</v>
       </c>
@@ -27250,7 +27829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>2310</v>
       </c>
@@ -27291,7 +27870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>2310</v>
       </c>
@@ -27332,7 +27911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>2310</v>
       </c>
@@ -27373,7 +27952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>2310</v>
       </c>
@@ -27414,7 +27993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>2310</v>
       </c>
@@ -27455,7 +28034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>2310</v>
       </c>
@@ -27496,7 +28075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>2310</v>
       </c>
@@ -27537,7 +28116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>2310</v>
       </c>
@@ -27578,7 +28157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>2310</v>
       </c>
@@ -27619,7 +28198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>2310</v>
       </c>
@@ -27660,7 +28239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>2310</v>
       </c>
@@ -27701,7 +28280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>2310</v>
       </c>
@@ -27742,7 +28321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>2310</v>
       </c>
@@ -27783,7 +28362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>2310</v>
       </c>
@@ -27824,7 +28403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>2310</v>
       </c>
@@ -27865,7 +28444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>2310</v>
       </c>
@@ -27906,7 +28485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>2310</v>
       </c>
@@ -27947,7 +28526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>2310</v>
       </c>
@@ -27988,7 +28567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>2551</v>
       </c>
@@ -28029,7 +28608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>2551</v>
       </c>
@@ -28070,7 +28649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>2551</v>
       </c>
@@ -28111,7 +28690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>2551</v>
       </c>
@@ -28152,7 +28731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>2551</v>
       </c>
@@ -28193,7 +28772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>2551</v>
       </c>
@@ -28234,7 +28813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>2551</v>
       </c>
@@ -28275,7 +28854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>2551</v>
       </c>
@@ -28316,7 +28895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>2551</v>
       </c>
@@ -28357,7 +28936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>2551</v>
       </c>
@@ -28398,7 +28977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>2551</v>
       </c>
@@ -28439,7 +29018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>2551</v>
       </c>
@@ -28480,7 +29059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>2551</v>
       </c>
@@ -28521,7 +29100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>2551</v>
       </c>
@@ -28562,7 +29141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>2551</v>
       </c>
@@ -28603,7 +29182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>2551</v>
       </c>
@@ -28644,7 +29223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>2551</v>
       </c>
@@ -28685,7 +29264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2551</v>
       </c>
@@ -28726,7 +29305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>2551</v>
       </c>
@@ -28767,7 +29346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>2551</v>
       </c>
@@ -28808,7 +29387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>2551</v>
       </c>
@@ -28849,7 +29428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>2551</v>
       </c>
@@ -28890,7 +29469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>2551</v>
       </c>
@@ -28931,7 +29510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>2551</v>
       </c>
@@ -28972,7 +29551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>2551</v>
       </c>
@@ -29013,7 +29592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>2551</v>
       </c>
@@ -29054,7 +29633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>2551</v>
       </c>
@@ -29095,7 +29674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>2551</v>
       </c>
@@ -29136,7 +29715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>2551</v>
       </c>
@@ -29177,7 +29756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>2551</v>
       </c>
@@ -29218,7 +29797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>2551</v>
       </c>
@@ -29259,7 +29838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>2551</v>
       </c>
@@ -29300,7 +29879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>2551</v>
       </c>
@@ -29341,7 +29920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>2551</v>
       </c>
@@ -29382,7 +29961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>2551</v>
       </c>
@@ -29423,7 +30002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>2551</v>
       </c>
@@ -29464,7 +30043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>2551</v>
       </c>
@@ -29505,7 +30084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>2551</v>
       </c>
@@ -29546,7 +30125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>2551</v>
       </c>
@@ -29587,7 +30166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>2551</v>
       </c>
@@ -29628,7 +30207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>2551</v>
       </c>
@@ -29669,7 +30248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>2551</v>
       </c>
@@ -29710,7 +30289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>2551</v>
       </c>
@@ -29751,7 +30330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>2551</v>
       </c>
@@ -29792,7 +30371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>2551</v>
       </c>
@@ -29833,7 +30412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>2551</v>
       </c>
@@ -29874,7 +30453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>2551</v>
       </c>
@@ -29915,7 +30494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>2551</v>
       </c>
@@ -29956,7 +30535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>2551</v>
       </c>
@@ -29997,7 +30576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>2551</v>
       </c>
@@ -30038,7 +30617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>2793</v>
       </c>
@@ -30079,7 +30658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>2793</v>
       </c>
@@ -30120,7 +30699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>2793</v>
       </c>
@@ -30161,7 +30740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>2793</v>
       </c>
@@ -30202,7 +30781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>2793</v>
       </c>
@@ -30243,7 +30822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>2793</v>
       </c>
@@ -30284,7 +30863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>2793</v>
       </c>
@@ -30325,7 +30904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>2793</v>
       </c>
@@ -30366,7 +30945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>2793</v>
       </c>
@@ -30407,7 +30986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>2793</v>
       </c>
@@ -30448,7 +31027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>2793</v>
       </c>
@@ -30489,7 +31068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>2793</v>
       </c>
@@ -30530,7 +31109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>2793</v>
       </c>
@@ -30571,7 +31150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>2793</v>
       </c>
@@ -30612,7 +31191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>2793</v>
       </c>
@@ -30653,7 +31232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>2793</v>
       </c>
@@ -30694,7 +31273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>2793</v>
       </c>
@@ -30735,7 +31314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>2793</v>
       </c>
@@ -30776,7 +31355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>2793</v>
       </c>
@@ -30817,7 +31396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2793</v>
       </c>
@@ -30858,7 +31437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>2793</v>
       </c>
@@ -30899,7 +31478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>2793</v>
       </c>
@@ -30940,7 +31519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2793</v>
       </c>
@@ -30981,7 +31560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>2793</v>
       </c>
@@ -31022,7 +31601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>2793</v>
       </c>
@@ -31063,7 +31642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>2793</v>
       </c>
@@ -31104,7 +31683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2793</v>
       </c>
@@ -31145,7 +31724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2793</v>
       </c>
@@ -31186,7 +31765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2793</v>
       </c>
@@ -31227,7 +31806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>2793</v>
       </c>
@@ -31268,7 +31847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>2793</v>
       </c>
@@ -31309,7 +31888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>2793</v>
       </c>
@@ -31350,7 +31929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>2793</v>
       </c>
@@ -31391,7 +31970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>2793</v>
       </c>
@@ -31432,7 +32011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2793</v>
       </c>
@@ -31473,7 +32052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>2793</v>
       </c>
@@ -31514,7 +32093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>2962</v>
       </c>
@@ -31555,7 +32134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>2962</v>
       </c>
@@ -31596,7 +32175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>2962</v>
       </c>
@@ -31637,7 +32216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>2962</v>
       </c>
@@ -31678,7 +32257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>2962</v>
       </c>
@@ -31719,7 +32298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>2962</v>
       </c>
@@ -31760,7 +32339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2962</v>
       </c>
@@ -31801,7 +32380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>2962</v>
       </c>
@@ -31842,7 +32421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>2962</v>
       </c>
@@ -31883,7 +32462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2962</v>
       </c>
@@ -31924,7 +32503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2962</v>
       </c>
@@ -31965,7 +32544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2962</v>
       </c>
@@ -32006,7 +32585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2962</v>
       </c>
@@ -32047,7 +32626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>2962</v>
       </c>
@@ -32088,7 +32667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>2962</v>
       </c>
@@ -32129,7 +32708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>2962</v>
       </c>
@@ -32170,7 +32749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>2962</v>
       </c>
@@ -32211,7 +32790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>2962</v>
       </c>
@@ -32252,7 +32831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>2962</v>
       </c>
@@ -32293,7 +32872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2962</v>
       </c>
@@ -32334,7 +32913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>2962</v>
       </c>
@@ -32375,7 +32954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>2962</v>
       </c>
@@ -32416,7 +32995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>2962</v>
       </c>
@@ -32457,7 +33036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>2962</v>
       </c>
@@ -32498,7 +33077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>2962</v>
       </c>
@@ -32539,7 +33118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>2962</v>
       </c>
@@ -32580,7 +33159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>2962</v>
       </c>
@@ -32621,7 +33200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>2962</v>
       </c>
@@ -32662,7 +33241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>2962</v>
       </c>
@@ -32703,7 +33282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>2962</v>
       </c>
@@ -32744,7 +33323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>2962</v>
       </c>
@@ -32785,7 +33364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>2962</v>
       </c>
@@ -32826,7 +33405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>2962</v>
       </c>
@@ -32867,7 +33446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>2962</v>
       </c>
@@ -32908,7 +33487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>2962</v>
       </c>
@@ -32949,7 +33528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>2962</v>
       </c>
@@ -32990,7 +33569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>2962</v>
       </c>
@@ -33031,7 +33610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>2962</v>
       </c>
@@ -33072,7 +33651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>2962</v>
       </c>
@@ -33113,7 +33692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2962</v>
       </c>
@@ -33154,7 +33733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>2962</v>
       </c>
@@ -33195,7 +33774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>2962</v>
       </c>
@@ -33236,7 +33815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>2962</v>
       </c>
@@ -33277,7 +33856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>2962</v>
       </c>
@@ -33318,7 +33897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>2962</v>
       </c>
@@ -33359,7 +33938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>2962</v>
       </c>
@@ -33400,7 +33979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>2962</v>
       </c>
@@ -33441,7 +34020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>2962</v>
       </c>
@@ -33482,7 +34061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>2962</v>
       </c>
@@ -33523,7 +34102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>2962</v>
       </c>
@@ -33564,7 +34143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>2962</v>
       </c>
@@ -33605,7 +34184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>2962</v>
       </c>
@@ -33646,7 +34225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>2962</v>
       </c>
@@ -33687,7 +34266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>2962</v>
       </c>
@@ -33726,6 +34305,786 @@
       </c>
       <c r="P577" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>410</v>
+      </c>
+      <c r="B578" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C578" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D578" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E578" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F578" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>410</v>
+      </c>
+      <c r="B579" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C579" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D579" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E579" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F579" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>410</v>
+      </c>
+      <c r="B580" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C580" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D580" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E580" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F580" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>410</v>
+      </c>
+      <c r="B581" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C581" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D581" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E581" t="s">
+        <v>3231</v>
+      </c>
+      <c r="F581" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>410</v>
+      </c>
+      <c r="B582" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C582" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D582" t="s">
+        <v>3235</v>
+      </c>
+      <c r="E582" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F582" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>410</v>
+      </c>
+      <c r="B583" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C583" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D583" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E583" t="s">
+        <v>3241</v>
+      </c>
+      <c r="F583" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>410</v>
+      </c>
+      <c r="B584" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C584" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D584" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E584" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F584" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>410</v>
+      </c>
+      <c r="B585" t="s">
+        <v>168</v>
+      </c>
+      <c r="C585" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D585" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E585" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F585" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>410</v>
+      </c>
+      <c r="B586" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C586" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D586" t="s">
+        <v>3254</v>
+      </c>
+      <c r="E586" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F586" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>410</v>
+      </c>
+      <c r="B587" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C587" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D587" t="s">
+        <v>3259</v>
+      </c>
+      <c r="E587" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F587" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>410</v>
+      </c>
+      <c r="B588" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C588" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D588" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E588" t="s">
+        <v>3265</v>
+      </c>
+      <c r="F588" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>410</v>
+      </c>
+      <c r="B589" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C589" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D589" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E589" t="s">
+        <v>3270</v>
+      </c>
+      <c r="F589" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>410</v>
+      </c>
+      <c r="B590" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C590" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D590" t="s">
+        <v>3274</v>
+      </c>
+      <c r="E590" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F590" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>410</v>
+      </c>
+      <c r="B591" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C591" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D591" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E591" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F591" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>410</v>
+      </c>
+      <c r="B592" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C592" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D592" t="s">
+        <v>3284</v>
+      </c>
+      <c r="E592" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F592" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>410</v>
+      </c>
+      <c r="B593" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C593" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D593" t="s">
+        <v>3289</v>
+      </c>
+      <c r="E593" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F593" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>410</v>
+      </c>
+      <c r="B594" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C594" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D594" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E594" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F594" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>410</v>
+      </c>
+      <c r="B595" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C595" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D595" t="s">
+        <v>3299</v>
+      </c>
+      <c r="E595" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F595" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>410</v>
+      </c>
+      <c r="B596" t="s">
+        <v>3302</v>
+      </c>
+      <c r="C596" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D596" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E596" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F596" t="s">
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>410</v>
+      </c>
+      <c r="B597" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C597" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D597" t="s">
+        <v>3309</v>
+      </c>
+      <c r="E597" t="s">
+        <v>3310</v>
+      </c>
+      <c r="F597" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>410</v>
+      </c>
+      <c r="B598" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C598" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D598" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E598" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F598" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>410</v>
+      </c>
+      <c r="B599" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C599" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D599" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E599" t="s">
+        <v>3320</v>
+      </c>
+      <c r="F599" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>410</v>
+      </c>
+      <c r="B600" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C600" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D600" t="s">
+        <v>3324</v>
+      </c>
+      <c r="E600" t="s">
+        <v>3325</v>
+      </c>
+      <c r="F600" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>410</v>
+      </c>
+      <c r="B601" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C601" t="s">
+        <v>3328</v>
+      </c>
+      <c r="D601" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E601" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F601" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>410</v>
+      </c>
+      <c r="B602" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C602" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D602" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E602" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F602" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>410</v>
+      </c>
+      <c r="B603" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C603" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D603" t="s">
+        <v>3339</v>
+      </c>
+      <c r="E603" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F603" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>410</v>
+      </c>
+      <c r="B604" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C604" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D604" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E604" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F604" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>410</v>
+      </c>
+      <c r="B605" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C605" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D605" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E605" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F605" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>410</v>
+      </c>
+      <c r="B606" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C606" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D606" t="s">
+        <v>3354</v>
+      </c>
+      <c r="E606" t="s">
+        <v>3355</v>
+      </c>
+      <c r="F606" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>410</v>
+      </c>
+      <c r="B607" t="s">
+        <v>3357</v>
+      </c>
+      <c r="C607" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D607" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E607" t="s">
+        <v>3360</v>
+      </c>
+      <c r="F607" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>410</v>
+      </c>
+      <c r="B608" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C608" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D608" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E608" t="s">
+        <v>3365</v>
+      </c>
+      <c r="F608" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>410</v>
+      </c>
+      <c r="B609" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C609" t="s">
+        <v>3368</v>
+      </c>
+      <c r="D609" t="s">
+        <v>3369</v>
+      </c>
+      <c r="E609" t="s">
+        <v>3370</v>
+      </c>
+      <c r="F609" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>410</v>
+      </c>
+      <c r="B610" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C610" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D610" t="s">
+        <v>3374</v>
+      </c>
+      <c r="E610" t="s">
+        <v>3375</v>
+      </c>
+      <c r="F610" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>410</v>
+      </c>
+      <c r="B611" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C611" t="s">
+        <v>3378</v>
+      </c>
+      <c r="D611" t="s">
+        <v>3379</v>
+      </c>
+      <c r="E611" t="s">
+        <v>3380</v>
+      </c>
+      <c r="F611" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>410</v>
+      </c>
+      <c r="B612" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C612" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D612" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E612" t="s">
+        <v>3385</v>
+      </c>
+      <c r="F612" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>410</v>
+      </c>
+      <c r="B613" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C613" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D613" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E613" t="s">
+        <v>3390</v>
+      </c>
+      <c r="F613" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>410</v>
+      </c>
+      <c r="B614" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C614" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D614" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E614" t="s">
+        <v>3395</v>
+      </c>
+      <c r="F614" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>410</v>
+      </c>
+      <c r="B615" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C615" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D615" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E615" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F615" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>410</v>
+      </c>
+      <c r="B616" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C616" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D616" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E616" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F616" t="s">
+        <v>3406</v>
       </c>
     </row>
   </sheetData>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\OneDrive\Desktop\Commons\vocabylary-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87968E1C-29DE-4C6E-A71E-07E647A1CDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56DA8A2-F348-464B-80EF-5DE85B46A68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6010" uniqueCount="3407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6370" uniqueCount="3632">
   <si>
     <t>topic</t>
   </si>
@@ -10241,6 +10241,681 @@
   </si>
   <si>
     <t>Công ty đang thuê ngoài dịch vụ CNTT.</t>
+  </si>
+  <si>
+    <t>a tall plant with a trunk and branches</t>
+  </si>
+  <si>
+    <t>The old tree provided shade in the park.</t>
+  </si>
+  <si>
+    <t>Cây cổ thụ tạo bóng mát trong công viên.</t>
+  </si>
+  <si>
+    <t>a large natural flow of water</t>
+  </si>
+  <si>
+    <t>The river flows into the sea.</t>
+  </si>
+  <si>
+    <t>Dòng sông chảy ra biển.</t>
+  </si>
+  <si>
+    <t>a very high hill</t>
+  </si>
+  <si>
+    <t>We climbed the mountain last summer.</t>
+  </si>
+  <si>
+    <t>Chúng tôi leo núi vào mùa hè năm ngoái.</t>
+  </si>
+  <si>
+    <t>a large area covered with trees</t>
+  </si>
+  <si>
+    <t>Many animals live in the forest.</t>
+  </si>
+  <si>
+    <t>Nhiều loài động vật sống trong rừng.</t>
+  </si>
+  <si>
+    <t>a sandy shore by the ocean</t>
+  </si>
+  <si>
+    <t>We relaxed on the beach all afternoon.</t>
+  </si>
+  <si>
+    <t>Chúng tôi thư giãn trên bãi biển suốt buổi chiều.</t>
+  </si>
+  <si>
+    <t>a large body of water surrounded by land</t>
+  </si>
+  <si>
+    <t>The lake is popular for fishing.</t>
+  </si>
+  <si>
+    <t>Hồ này nổi tiếng với hoạt động câu cá.</t>
+  </si>
+  <si>
+    <t>a large body of salt water</t>
+  </si>
+  <si>
+    <t>The Pacific Ocean is the largest ocean.</t>
+  </si>
+  <si>
+    <t>Thái Bình Dương là đại dương lớn nhất.</t>
+  </si>
+  <si>
+    <t>the invisible gas we breathe</t>
+  </si>
+  <si>
+    <t>Không khí sạch rất cần thiết cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>plants with narrow green leaves</t>
+  </si>
+  <si>
+    <t>The children played on the grass.</t>
+  </si>
+  <si>
+    <t>Bọn trẻ chơi trên bãi cỏ.</t>
+  </si>
+  <si>
+    <t>the physical world and living things</t>
+  </si>
+  <si>
+    <t>We should protect nature.</t>
+  </si>
+  <si>
+    <t>Chúng ta nên bảo vệ thiên nhiên.</t>
+  </si>
+  <si>
+    <t>harmful substances in the environment</t>
+  </si>
+  <si>
+    <t>Air pollution is a big problem in cities.</t>
+  </si>
+  <si>
+    <t>Ô nhiễm không khí là vấn đề lớn ở các thành phố.</t>
+  </si>
+  <si>
+    <t>to process materials to be reused</t>
+  </si>
+  <si>
+    <t>We recycle paper and plastic bottles.</t>
+  </si>
+  <si>
+    <t>Chúng tôi tái chế giấy và chai nhựa.</t>
+  </si>
+  <si>
+    <t>animals living in nature</t>
+  </si>
+  <si>
+    <t>Wildlife conservation is important.</t>
+  </si>
+  <si>
+    <t>Bảo tồn động vật hoang dã rất quan trọng.</t>
+  </si>
+  <si>
+    <t>the general weather of a place</t>
+  </si>
+  <si>
+    <t>The climate here is warm and dry.</t>
+  </si>
+  <si>
+    <t>Khí hậu ở đây ấm áp và khô ráo.</t>
+  </si>
+  <si>
+    <t>power from physical or chemical resources</t>
+  </si>
+  <si>
+    <t>Năng lượng mặt trời là nguồn tái tạo.</t>
+  </si>
+  <si>
+    <t>a synthetic material</t>
+  </si>
+  <si>
+    <t>Plastic waste pollutes the ocean.</t>
+  </si>
+  <si>
+    <t>Rác nhựa gây ô nhiễm đại dương.</t>
+  </si>
+  <si>
+    <t>chất thải</t>
+  </si>
+  <si>
+    <t>unwanted materials</t>
+  </si>
+  <si>
+    <t>Factories produce a lot of waste.</t>
+  </si>
+  <si>
+    <t>Các nhà máy tạo ra nhiều chất thải.</t>
+  </si>
+  <si>
+    <t>a community of organisms and environment</t>
+  </si>
+  <si>
+    <t>Coral reefs are fragile ecosystems.</t>
+  </si>
+  <si>
+    <t>Rạn san hô là hệ sinh thái mong manh.</t>
+  </si>
+  <si>
+    <t>natural home of animals or plants</t>
+  </si>
+  <si>
+    <t>Deforestation destroys animal habitats.</t>
+  </si>
+  <si>
+    <t>Phá rừng phá hủy môi trường sống của động vật.</t>
+  </si>
+  <si>
+    <t>sự nóng lên toàn cầu</t>
+  </si>
+  <si>
+    <t>increase in Earth's temperature</t>
+  </si>
+  <si>
+    <t>Global warming affects weather patterns.</t>
+  </si>
+  <si>
+    <t>Sự nóng lên toàn cầu ảnh hưởng tới khí hậu.</t>
+  </si>
+  <si>
+    <t>protection of nature</t>
+  </si>
+  <si>
+    <t>Water conservation saves resources.</t>
+  </si>
+  <si>
+    <t>Bảo tồn nước giúp tiết kiệm tài nguyên.</t>
+  </si>
+  <si>
+    <t>tính bền vững</t>
+  </si>
+  <si>
+    <t>ability to maintain over time</t>
+  </si>
+  <si>
+    <t>Sustainability is key for the future.</t>
+  </si>
+  <si>
+    <t>Tính bền vững là chìa khóa cho tương lai.</t>
+  </si>
+  <si>
+    <t>nạn phá rừng</t>
+  </si>
+  <si>
+    <t>cutting down of forests</t>
+  </si>
+  <si>
+    <t>Deforestation causes soil erosion.</t>
+  </si>
+  <si>
+    <t>Nạn phá rừng gây xói mòn đất.</t>
+  </si>
+  <si>
+    <t>variety of living things</t>
+  </si>
+  <si>
+    <t>The Amazon rainforest has high biodiversity.</t>
+  </si>
+  <si>
+    <t>Rừng Amazon có đa dạng sinh học cao.</t>
+  </si>
+  <si>
+    <t>amount of CO2 emissions by a person or activity</t>
+  </si>
+  <si>
+    <t>Flying increases your carbon footprint.</t>
+  </si>
+  <si>
+    <t>Việc đi máy bay làm tăng dấu chân carbon.</t>
+  </si>
+  <si>
+    <t>tái tạo</t>
+  </si>
+  <si>
+    <t>can be replaced naturally</t>
+  </si>
+  <si>
+    <t>Wind power is a renewable source.</t>
+  </si>
+  <si>
+    <t>Năng lượng gió là nguồn tái tạo.</t>
+  </si>
+  <si>
+    <t>sự tuyệt chủng</t>
+  </si>
+  <si>
+    <t>disappearance of a species</t>
+  </si>
+  <si>
+    <t>Dinosaurs faced extinction millions of years ago.</t>
+  </si>
+  <si>
+    <t>Khủng long đã tuyệt chủng hàng triệu năm trước.</t>
+  </si>
+  <si>
+    <t>coal, oil, and gas</t>
+  </si>
+  <si>
+    <t>Fossil fuels cause pollution.</t>
+  </si>
+  <si>
+    <t>Nhiên liệu hóa thạch gây ô nhiễm.</t>
+  </si>
+  <si>
+    <t>a substance that contaminates</t>
+  </si>
+  <si>
+    <t>Factories emit pollutants into the air.</t>
+  </si>
+  <si>
+    <t>Các nhà máy thải chất gây ô nhiễm vào không khí.</t>
+  </si>
+  <si>
+    <t>catastrophic natural event</t>
+  </si>
+  <si>
+    <t>Floods are common natural disasters.</t>
+  </si>
+  <si>
+    <t>Lũ lụt là thảm họa thiên nhiên phổ biến.</t>
+  </si>
+  <si>
+    <t>study of organisms and environment</t>
+  </si>
+  <si>
+    <t>He studies marine ecology.</t>
+  </si>
+  <si>
+    <t>Anh ấy nghiên cứu sinh thái biển.</t>
+  </si>
+  <si>
+    <t>damage to the environment</t>
+  </si>
+  <si>
+    <t>Overfishing leads to environmental degradation.</t>
+  </si>
+  <si>
+    <t>Đánh bắt quá mức dẫn đến suy thoái môi trường.</t>
+  </si>
+  <si>
+    <t>bùng nổ dân số</t>
+  </si>
+  <si>
+    <t>too many people in an area</t>
+  </si>
+  <si>
+    <t>Overpopulation increases resource demand.</t>
+  </si>
+  <si>
+    <t>Bùng nổ dân số làm tăng nhu cầu tài nguyên.</t>
+  </si>
+  <si>
+    <t>development without harming future generations</t>
+  </si>
+  <si>
+    <t>We need sustainable development policies.</t>
+  </si>
+  <si>
+    <t>Chúng ta cần chính sách phát triển bền vững.</t>
+  </si>
+  <si>
+    <t>trapping of heat in the atmosphere</t>
+  </si>
+  <si>
+    <t>The greenhouse effect warms the Earth.</t>
+  </si>
+  <si>
+    <t>Hiệu ứng nhà kính làm Trái Đất nóng lên.</t>
+  </si>
+  <si>
+    <t>tiny plastic particles</t>
+  </si>
+  <si>
+    <t>Microplastics are found in drinking water.</t>
+  </si>
+  <si>
+    <t>Vi nhựa được tìm thấy trong nước uống.</t>
+  </si>
+  <si>
+    <t>growth of cities</t>
+  </si>
+  <si>
+    <t>Urbanization changes the environment.</t>
+  </si>
+  <si>
+    <t>Đô thị hóa thay đổi môi trường.</t>
+  </si>
+  <si>
+    <t>farming without synthetic chemicals</t>
+  </si>
+  <si>
+    <t>Organic farming is healthier for consumers.</t>
+  </si>
+  <si>
+    <t>Nông nghiệp hữu cơ tốt cho sức khỏe người tiêu dùng.</t>
+  </si>
+  <si>
+    <t>understanding environmental issues</t>
+  </si>
+  <si>
+    <t>Schools promote environmental awareness.</t>
+  </si>
+  <si>
+    <t>Các trường học nâng cao nhận thức môi trường.</t>
+  </si>
+  <si>
+    <t>balancing emitted and absorbed carbon</t>
+  </si>
+  <si>
+    <t>The company aims for carbon neutrality by 2030.</t>
+  </si>
+  <si>
+    <t>Công ty đặt mục tiêu trung hòa carbon vào năm 2030.</t>
+  </si>
+  <si>
+    <t>ozone layer</t>
+  </si>
+  <si>
+    <t>tầng ôzôn</t>
+  </si>
+  <si>
+    <t>layer protecting Earth from UV rays</t>
+  </si>
+  <si>
+    <t>The ozone layer is recovering slowly.</t>
+  </si>
+  <si>
+    <t>Tầng ôzôn đang phục hồi chậm.</t>
+  </si>
+  <si>
+    <t>green energy</t>
+  </si>
+  <si>
+    <t>năng lượng xanh</t>
+  </si>
+  <si>
+    <t>energy from clean sources</t>
+  </si>
+  <si>
+    <t>Governments invest in green energy.</t>
+  </si>
+  <si>
+    <t>Chính phủ đầu tư vào năng lượng xanh.</t>
+  </si>
+  <si>
+    <t>solar power</t>
+  </si>
+  <si>
+    <t>năng lượng mặt trời</t>
+  </si>
+  <si>
+    <t>energy from sunlight</t>
+  </si>
+  <si>
+    <t>Solar power is becoming cheaper.</t>
+  </si>
+  <si>
+    <t>Năng lượng mặt trời ngày càng rẻ.</t>
+  </si>
+  <si>
+    <t>wind power</t>
+  </si>
+  <si>
+    <t>năng lượng gió</t>
+  </si>
+  <si>
+    <t>energy from wind</t>
+  </si>
+  <si>
+    <t>Wind power farms are expanding.</t>
+  </si>
+  <si>
+    <t>Các trang trại điện gió đang mở rộng.</t>
+  </si>
+  <si>
+    <t>hydropower</t>
+  </si>
+  <si>
+    <t>thủy điện</t>
+  </si>
+  <si>
+    <t>energy from moving water</t>
+  </si>
+  <si>
+    <t>Hydropower is common in mountainous areas.</t>
+  </si>
+  <si>
+    <t>Thủy điện phổ biến ở vùng núi.</t>
+  </si>
+  <si>
+    <t>geothermal energy</t>
+  </si>
+  <si>
+    <t>năng lượng địa nhiệt</t>
+  </si>
+  <si>
+    <t>energy from Earth's heat</t>
+  </si>
+  <si>
+    <t>Geothermal energy is clean and renewable.</t>
+  </si>
+  <si>
+    <t>Năng lượng địa nhiệt sạch và tái tạo.</t>
+  </si>
+  <si>
+    <t>environmental protection</t>
+  </si>
+  <si>
+    <t>bảo vệ môi trường</t>
+  </si>
+  <si>
+    <t>actions to preserve nature</t>
+  </si>
+  <si>
+    <t>Environmental protection is everyone's duty.</t>
+  </si>
+  <si>
+    <t>Bảo vệ môi trường là trách nhiệm của mọi người.</t>
+  </si>
+  <si>
+    <t>environmentally friendly</t>
+  </si>
+  <si>
+    <t>thân thiện với môi trường</t>
+  </si>
+  <si>
+    <t>not harmful to the environment</t>
+  </si>
+  <si>
+    <t>We use environmentally friendly products.</t>
+  </si>
+  <si>
+    <t>Chúng tôi sử dụng sản phẩm thân thiện môi trường.</t>
+  </si>
+  <si>
+    <t>non-renewable resources</t>
+  </si>
+  <si>
+    <t>tài nguyên không tái tạo</t>
+  </si>
+  <si>
+    <t>resources that cannot be replaced</t>
+  </si>
+  <si>
+    <t>Coal is a non-renewable resource.</t>
+  </si>
+  <si>
+    <t>Than đá là tài nguyên không tái tạo.</t>
+  </si>
+  <si>
+    <t>environmental impact</t>
+  </si>
+  <si>
+    <t>tác động môi trường</t>
+  </si>
+  <si>
+    <t>effect on the environment</t>
+  </si>
+  <si>
+    <t>Construction has a big environmental impact.</t>
+  </si>
+  <si>
+    <t>Xây dựng có tác động lớn tới môi trường.</t>
+  </si>
+  <si>
+    <t>carbon emissions</t>
+  </si>
+  <si>
+    <t>khí thải carbon</t>
+  </si>
+  <si>
+    <t>release of CO2 into the atmosphere</t>
+  </si>
+  <si>
+    <t>Cars produce carbon emissions.</t>
+  </si>
+  <si>
+    <t>Ô tô thải khí carbon.</t>
+  </si>
+  <si>
+    <t>water scarcity</t>
+  </si>
+  <si>
+    <t>sự khan hiếm nước</t>
+  </si>
+  <si>
+    <t>lack of available water</t>
+  </si>
+  <si>
+    <t>Water scarcity is a global issue.</t>
+  </si>
+  <si>
+    <t>Khan hiếm nước là vấn đề toàn cầu.</t>
+  </si>
+  <si>
+    <t>desertification</t>
+  </si>
+  <si>
+    <t>sa mạc hóa</t>
+  </si>
+  <si>
+    <t>turning land into desert</t>
+  </si>
+  <si>
+    <t>Desertification threatens food production.</t>
+  </si>
+  <si>
+    <t>Sa mạc hóa đe dọa sản xuất lương thực.</t>
+  </si>
+  <si>
+    <t>soil erosion</t>
+  </si>
+  <si>
+    <t>xói mòn đất</t>
+  </si>
+  <si>
+    <t>wearing away of soil</t>
+  </si>
+  <si>
+    <t>Soil erosion reduces farm productivity.</t>
+  </si>
+  <si>
+    <t>Xói mòn đất làm giảm năng suất nông nghiệp.</t>
+  </si>
+  <si>
+    <t>air quality</t>
+  </si>
+  <si>
+    <t>chất lượng không khí</t>
+  </si>
+  <si>
+    <t>how clean the air is</t>
+  </si>
+  <si>
+    <t>The city's air quality is improving.</t>
+  </si>
+  <si>
+    <t>Chất lượng không khí của thành phố đang cải thiện.</t>
+  </si>
+  <si>
+    <t>toxic waste</t>
+  </si>
+  <si>
+    <t>chất thải độc hại</t>
+  </si>
+  <si>
+    <t>poisonous waste materials</t>
+  </si>
+  <si>
+    <t>Factories must treat toxic waste.</t>
+  </si>
+  <si>
+    <t>Các nhà máy phải xử lý chất thải độc hại.</t>
+  </si>
+  <si>
+    <t>landfill</t>
+  </si>
+  <si>
+    <t>bãi rác</t>
+  </si>
+  <si>
+    <t>place to bury waste</t>
+  </si>
+  <si>
+    <t>The landfill is almost full.</t>
+  </si>
+  <si>
+    <t>Bãi rác gần như đầy.</t>
+  </si>
+  <si>
+    <t>overfishing</t>
+  </si>
+  <si>
+    <t>đánh bắt quá mức</t>
+  </si>
+  <si>
+    <t>catching too many fish</t>
+  </si>
+  <si>
+    <t>Overfishing harms marine life.</t>
+  </si>
+  <si>
+    <t>Đánh bắt quá mức gây hại cho sinh vật biển.</t>
+  </si>
+  <si>
+    <t>eco-tourism</t>
+  </si>
+  <si>
+    <t>du lịch sinh thái</t>
+  </si>
+  <si>
+    <t>tourism focused on nature</t>
+  </si>
+  <si>
+    <t>Eco-tourism supports local communities.</t>
+  </si>
+  <si>
+    <t>Du lịch sinh thái hỗ trợ cộng đồng địa phương.</t>
+  </si>
+  <si>
+    <t>environmental policy</t>
+  </si>
+  <si>
+    <t>chính sách môi trường</t>
+  </si>
+  <si>
+    <t>rules to protect the environment</t>
+  </si>
+  <si>
+    <t>The government announced a new environmental policy.</t>
+  </si>
+  <si>
+    <t>Chính phủ công bố chính sách môi trường mới.</t>
   </si>
 </sst>
 </file>
@@ -10617,10 +11292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P616"/>
+  <dimension ref="A1:P676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
-      <selection activeCell="A578" sqref="A578:A616"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="A617" sqref="A617:A676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10630,7 +11305,7 @@
     <col min="3" max="3" width="27.77734375" customWidth="1"/>
     <col min="4" max="4" width="214.77734375" customWidth="1"/>
     <col min="5" max="5" width="93.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="57.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="92.77734375" customWidth="1"/>
     <col min="8" max="8" width="5.77734375" customWidth="1"/>
     <col min="9" max="10" width="11.77734375" customWidth="1"/>
@@ -35087,6 +35762,1206 @@
         <v>3406</v>
       </c>
     </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B617" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C617" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D617" t="s">
+        <v>3407</v>
+      </c>
+      <c r="E617" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F617" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B618" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C618" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D618" t="s">
+        <v>3410</v>
+      </c>
+      <c r="E618" t="s">
+        <v>3411</v>
+      </c>
+      <c r="F618" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B619" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C619" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D619" t="s">
+        <v>3413</v>
+      </c>
+      <c r="E619" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F619" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B620" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C620" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D620" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E620" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F620" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B621" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C621" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D621" t="s">
+        <v>3419</v>
+      </c>
+      <c r="E621" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F621" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B622" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C622" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D622" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E622" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F622" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B623" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C623" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D623" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E623" t="s">
+        <v>3426</v>
+      </c>
+      <c r="F623" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B624" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C624" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D624" t="s">
+        <v>3428</v>
+      </c>
+      <c r="E624" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F624" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B625" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C625" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D625" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E625" t="s">
+        <v>3431</v>
+      </c>
+      <c r="F625" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B626" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C626" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D626" t="s">
+        <v>3433</v>
+      </c>
+      <c r="E626" t="s">
+        <v>3434</v>
+      </c>
+      <c r="F626" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B627" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C627" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D627" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E627" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F627" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B628" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C628" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D628" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E628" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F628" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B629" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C629" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D629" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E629" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F629" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D630" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E630" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F630" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B631" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C631" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D631" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E631" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F631" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B632" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C632" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D632" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E632" t="s">
+        <v>3451</v>
+      </c>
+      <c r="F632" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B633" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C633" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D633" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E633" t="s">
+        <v>3455</v>
+      </c>
+      <c r="F633" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B634" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C634" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D634" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E634" t="s">
+        <v>3458</v>
+      </c>
+      <c r="F634" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B635" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C635" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D635" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E635" t="s">
+        <v>3461</v>
+      </c>
+      <c r="F635" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B636" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C636" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D636" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E636" t="s">
+        <v>3465</v>
+      </c>
+      <c r="F636" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B637" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C637" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D637" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E637" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F637" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B638" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C638" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D638" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E638" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F638" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B639" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C639" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D639" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E639" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F639" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B640" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C640" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D640" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E640" t="s">
+        <v>3479</v>
+      </c>
+      <c r="F640" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B641" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C641" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D641" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E641" t="s">
+        <v>3482</v>
+      </c>
+      <c r="F641" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B642" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C642" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D642" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E642" t="s">
+        <v>3486</v>
+      </c>
+      <c r="F642" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B643" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C643" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D643" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E643" t="s">
+        <v>3490</v>
+      </c>
+      <c r="F643" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B644" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C644" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D644" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E644" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F644" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B645" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C645" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D645" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E645" t="s">
+        <v>3496</v>
+      </c>
+      <c r="F645" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B646" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C646" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D646" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E646" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F646" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B647" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C647" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D647" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E647" t="s">
+        <v>3502</v>
+      </c>
+      <c r="F647" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B648" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C648" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D648" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E648" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F648" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B649" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C649" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D649" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E649" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F649" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B650" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C650" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D650" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E650" t="s">
+        <v>3512</v>
+      </c>
+      <c r="F650" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B651" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C651" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D651" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E651" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F651" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B652" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C652" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D652" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E652" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F652" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B653" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C653" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D653" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E653" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F653" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B654" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C654" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D654" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E654" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F654" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B655" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C655" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D655" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E655" t="s">
+        <v>3527</v>
+      </c>
+      <c r="F655" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B656" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C656" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D656" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E656" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F656" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B657" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C657" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D657" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E657" t="s">
+        <v>3535</v>
+      </c>
+      <c r="F657" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B658" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C658" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D658" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E658" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F658" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B659" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C659" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D659" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E659" t="s">
+        <v>3545</v>
+      </c>
+      <c r="F659" t="s">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B660" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C660" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D660" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E660" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F660" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B661" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C661" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D661" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E661" t="s">
+        <v>3555</v>
+      </c>
+      <c r="F661" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B662" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C662" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D662" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E662" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F662" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B663" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C663" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D663" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E663" t="s">
+        <v>3565</v>
+      </c>
+      <c r="F663" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B664" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C664" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D664" t="s">
+        <v>3569</v>
+      </c>
+      <c r="E664" t="s">
+        <v>3570</v>
+      </c>
+      <c r="F664" t="s">
+        <v>3571</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B665" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C665" t="s">
+        <v>3573</v>
+      </c>
+      <c r="D665" t="s">
+        <v>3574</v>
+      </c>
+      <c r="E665" t="s">
+        <v>3575</v>
+      </c>
+      <c r="F665" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B666" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C666" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D666" t="s">
+        <v>3579</v>
+      </c>
+      <c r="E666" t="s">
+        <v>3580</v>
+      </c>
+      <c r="F666" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B667" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C667" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D667" t="s">
+        <v>3584</v>
+      </c>
+      <c r="E667" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F667" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B668" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C668" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D668" t="s">
+        <v>3589</v>
+      </c>
+      <c r="E668" t="s">
+        <v>3590</v>
+      </c>
+      <c r="F668" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B669" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C669" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D669" t="s">
+        <v>3594</v>
+      </c>
+      <c r="E669" t="s">
+        <v>3595</v>
+      </c>
+      <c r="F669" t="s">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B670" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C670" t="s">
+        <v>3598</v>
+      </c>
+      <c r="D670" t="s">
+        <v>3599</v>
+      </c>
+      <c r="E670" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F670" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B671" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C671" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D671" t="s">
+        <v>3604</v>
+      </c>
+      <c r="E671" t="s">
+        <v>3605</v>
+      </c>
+      <c r="F671" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B672" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C672" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D672" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E672" t="s">
+        <v>3610</v>
+      </c>
+      <c r="F672" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B673" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C673" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D673" t="s">
+        <v>3614</v>
+      </c>
+      <c r="E673" t="s">
+        <v>3615</v>
+      </c>
+      <c r="F673" t="s">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B674" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C674" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D674" t="s">
+        <v>3619</v>
+      </c>
+      <c r="E674" t="s">
+        <v>3620</v>
+      </c>
+      <c r="F674" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B675" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C675" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D675" t="s">
+        <v>3624</v>
+      </c>
+      <c r="E675" t="s">
+        <v>3625</v>
+      </c>
+      <c r="F675" t="s">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B676" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C676" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D676" t="s">
+        <v>3629</v>
+      </c>
+      <c r="E676" t="s">
+        <v>3630</v>
+      </c>
+      <c r="F676" t="s">
+        <v>3631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\OneDrive\Desktop\Commons\vocabylary-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1226BFDD-9A31-4F63-8188-B334A7410739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58DB300-DF9E-439D-A575-EF39E27D9ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6766" uniqueCount="3773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6766" uniqueCount="3772">
   <si>
     <t>topic</t>
   </si>
@@ -10472,9 +10472,6 @@
   </si>
   <si>
     <t>2025-08-09T02:59:08.877Z</t>
-  </si>
-  <si>
-    <t>Verbs (Additional)</t>
   </si>
   <si>
     <t>acknowledge</t>
@@ -11395,14 +11392,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8942965A-9D53-4225-B225-049D4C7E3B99}" name="Table1" displayName="Table1" ref="A1:P676" totalsRowShown="0">
-  <autoFilter ref="A1:P676" xr:uid="{8942965A-9D53-4225-B225-049D4C7E3B99}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="unknown"/>
-        <filter val="vague"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P676" xr:uid="{8942965A-9D53-4225-B225-049D4C7E3B99}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{D92AA24E-8539-4138-9837-73E26A3CD195}" name="topic"/>
     <tableColumn id="2" xr3:uid="{59653134-36EA-4682-9410-A5F8B1570066}" name="word"/>
@@ -11749,11 +11739,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="C670" sqref="C670"/>
+    <sheetView tabSelected="1" topLeftCell="A624" workbookViewId="0">
+      <selection activeCell="A635" sqref="A635"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
@@ -11772,7 +11762,7 @@
     <col min="16" max="16" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11822,7 +11812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -11863,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -11904,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -11945,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -11986,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -12027,7 +12017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -12068,7 +12058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -12109,7 +12099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12150,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -12191,7 +12181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -12232,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -12273,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -12314,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -12355,7 +12345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -12396,7 +12386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -12437,7 +12427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -12478,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -12519,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -12560,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -12601,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -12642,7 +12632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -12683,7 +12673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -12724,7 +12714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -12765,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -12806,7 +12796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -12847,7 +12837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -12888,7 +12878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -12929,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -12970,7 +12960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -13011,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -13052,7 +13042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -13093,7 +13083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -13134,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -13175,7 +13165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -13216,7 +13206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -13257,7 +13247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -13298,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -13339,7 +13329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -13380,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -13421,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -13462,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -13503,7 +13493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -13544,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -13585,7 +13575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -13626,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -13667,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -13708,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -13749,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -13790,7 +13780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -13831,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -13872,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -13913,7 +13903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -13954,7 +13944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -13995,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -14036,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -14077,7 +14067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -14118,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -14159,7 +14149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -14200,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -14241,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -14282,7 +14272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -14323,7 +14313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -14364,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -14405,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -14446,7 +14436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -14487,7 +14477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -14528,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -14569,7 +14559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -14610,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -14651,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -14692,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -14733,7 +14723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -14774,7 +14764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -14815,7 +14805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -14856,7 +14846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -14897,7 +14887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -14938,7 +14928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>410</v>
       </c>
@@ -14979,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>410</v>
       </c>
@@ -15020,7 +15010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -15061,7 +15051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>410</v>
       </c>
@@ -15102,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>410</v>
       </c>
@@ -15143,7 +15133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>410</v>
       </c>
@@ -15184,7 +15174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>410</v>
       </c>
@@ -15225,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>410</v>
       </c>
@@ -15266,7 +15256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>410</v>
       </c>
@@ -15307,7 +15297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>410</v>
       </c>
@@ -15348,7 +15338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -15389,7 +15379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>410</v>
       </c>
@@ -15430,7 +15420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>410</v>
       </c>
@@ -15471,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -15512,7 +15502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>410</v>
       </c>
@@ -15553,7 +15543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>410</v>
       </c>
@@ -15594,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>410</v>
       </c>
@@ -15635,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>410</v>
       </c>
@@ -15676,7 +15666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>410</v>
       </c>
@@ -15717,7 +15707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>410</v>
       </c>
@@ -15758,7 +15748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>410</v>
       </c>
@@ -15799,7 +15789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>410</v>
       </c>
@@ -15840,7 +15830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -15881,7 +15871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>410</v>
       </c>
@@ -15922,7 +15912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>410</v>
       </c>
@@ -15963,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -16004,7 +15994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>410</v>
       </c>
@@ -16045,7 +16035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>410</v>
       </c>
@@ -16086,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>410</v>
       </c>
@@ -16127,7 +16117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>410</v>
       </c>
@@ -16168,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>410</v>
       </c>
@@ -16209,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>410</v>
       </c>
@@ -16250,7 +16240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>410</v>
       </c>
@@ -16291,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -16332,7 +16322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>410</v>
       </c>
@@ -16373,7 +16363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>410</v>
       </c>
@@ -16414,7 +16404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -16455,7 +16445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>410</v>
       </c>
@@ -16496,7 +16486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>410</v>
       </c>
@@ -16537,7 +16527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>410</v>
       </c>
@@ -16578,7 +16568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>410</v>
       </c>
@@ -16616,7 +16606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>410</v>
       </c>
@@ -16654,7 +16644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>410</v>
       </c>
@@ -16692,7 +16682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>410</v>
       </c>
@@ -16730,7 +16720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -16768,7 +16758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>410</v>
       </c>
@@ -16806,7 +16796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>410</v>
       </c>
@@ -16844,7 +16834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -16882,7 +16872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>410</v>
       </c>
@@ -16920,7 +16910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>410</v>
       </c>
@@ -16958,7 +16948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>410</v>
       </c>
@@ -16996,7 +16986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>410</v>
       </c>
@@ -17034,7 +17024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>410</v>
       </c>
@@ -17072,7 +17062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>410</v>
       </c>
@@ -17110,7 +17100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>410</v>
       </c>
@@ -17148,7 +17138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>410</v>
       </c>
@@ -17186,7 +17176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>410</v>
       </c>
@@ -17224,7 +17214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -17262,7 +17252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>410</v>
       </c>
@@ -17300,7 +17290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>410</v>
       </c>
@@ -17338,7 +17328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -17376,7 +17366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>410</v>
       </c>
@@ -17414,7 +17404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>410</v>
       </c>
@@ -17452,7 +17442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>410</v>
       </c>
@@ -17490,7 +17480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>410</v>
       </c>
@@ -17528,7 +17518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>410</v>
       </c>
@@ -17566,7 +17556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>410</v>
       </c>
@@ -17604,7 +17594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>410</v>
       </c>
@@ -17642,7 +17632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -17680,7 +17670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>410</v>
       </c>
@@ -17718,7 +17708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>410</v>
       </c>
@@ -17756,7 +17746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>410</v>
       </c>
@@ -17794,7 +17784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>410</v>
       </c>
@@ -17832,7 +17822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>410</v>
       </c>
@@ -17870,7 +17860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>410</v>
       </c>
@@ -17908,7 +17898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>410</v>
       </c>
@@ -17946,7 +17936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>410</v>
       </c>
@@ -17984,7 +17974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>410</v>
       </c>
@@ -18022,7 +18012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>410</v>
       </c>
@@ -18060,7 +18050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>873</v>
       </c>
@@ -18101,7 +18091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>873</v>
       </c>
@@ -18142,7 +18132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>873</v>
       </c>
@@ -18183,7 +18173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>873</v>
       </c>
@@ -18224,7 +18214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>873</v>
       </c>
@@ -18265,7 +18255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>873</v>
       </c>
@@ -18306,7 +18296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>873</v>
       </c>
@@ -18347,7 +18337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>873</v>
       </c>
@@ -18388,7 +18378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>873</v>
       </c>
@@ -18429,7 +18419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>873</v>
       </c>
@@ -18470,7 +18460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>873</v>
       </c>
@@ -18511,7 +18501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>873</v>
       </c>
@@ -18552,7 +18542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>873</v>
       </c>
@@ -18593,7 +18583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>873</v>
       </c>
@@ -18634,7 +18624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>873</v>
       </c>
@@ -18675,7 +18665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>873</v>
       </c>
@@ -18716,7 +18706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>873</v>
       </c>
@@ -18757,7 +18747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>873</v>
       </c>
@@ -18798,7 +18788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>873</v>
       </c>
@@ -18839,7 +18829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>873</v>
       </c>
@@ -18880,7 +18870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>873</v>
       </c>
@@ -18921,7 +18911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>873</v>
       </c>
@@ -18962,7 +18952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>873</v>
       </c>
@@ -19003,7 +18993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>873</v>
       </c>
@@ -19044,7 +19034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>873</v>
       </c>
@@ -19085,7 +19075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>873</v>
       </c>
@@ -19126,7 +19116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>873</v>
       </c>
@@ -19167,7 +19157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>873</v>
       </c>
@@ -19208,7 +19198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>873</v>
       </c>
@@ -19249,7 +19239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>873</v>
       </c>
@@ -19290,7 +19280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>873</v>
       </c>
@@ -19331,7 +19321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>873</v>
       </c>
@@ -19372,7 +19362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>873</v>
       </c>
@@ -19413,7 +19403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>873</v>
       </c>
@@ -19454,7 +19444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>873</v>
       </c>
@@ -19495,7 +19485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>873</v>
       </c>
@@ -19536,7 +19526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>873</v>
       </c>
@@ -19577,7 +19567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>873</v>
       </c>
@@ -19618,7 +19608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>873</v>
       </c>
@@ -19659,7 +19649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>873</v>
       </c>
@@ -19700,7 +19690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1113</v>
       </c>
@@ -19741,7 +19731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1113</v>
       </c>
@@ -19782,7 +19772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1113</v>
       </c>
@@ -19823,7 +19813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1113</v>
       </c>
@@ -19864,7 +19854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1113</v>
       </c>
@@ -19905,7 +19895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1113</v>
       </c>
@@ -19946,7 +19936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1113</v>
       </c>
@@ -19987,7 +19977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1113</v>
       </c>
@@ -20028,7 +20018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1113</v>
       </c>
@@ -20069,7 +20059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1113</v>
       </c>
@@ -20110,7 +20100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1113</v>
       </c>
@@ -20151,7 +20141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1113</v>
       </c>
@@ -20192,7 +20182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1113</v>
       </c>
@@ -20233,7 +20223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1113</v>
       </c>
@@ -20274,7 +20264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1113</v>
       </c>
@@ -20315,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1113</v>
       </c>
@@ -20356,7 +20346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1113</v>
       </c>
@@ -20397,7 +20387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1113</v>
       </c>
@@ -20438,7 +20428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1113</v>
       </c>
@@ -20479,7 +20469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1113</v>
       </c>
@@ -20520,7 +20510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1113</v>
       </c>
@@ -20561,7 +20551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1113</v>
       </c>
@@ -20602,7 +20592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1113</v>
       </c>
@@ -20643,7 +20633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1113</v>
       </c>
@@ -20684,7 +20674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1113</v>
       </c>
@@ -20725,7 +20715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1113</v>
       </c>
@@ -20766,7 +20756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1113</v>
       </c>
@@ -20807,7 +20797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1113</v>
       </c>
@@ -20848,7 +20838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1113</v>
       </c>
@@ -20889,7 +20879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1113</v>
       </c>
@@ -20930,7 +20920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1113</v>
       </c>
@@ -20971,7 +20961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1113</v>
       </c>
@@ -21012,7 +21002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1113</v>
       </c>
@@ -21053,7 +21043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1113</v>
       </c>
@@ -21094,7 +21084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1113</v>
       </c>
@@ -21135,7 +21125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1113</v>
       </c>
@@ -21176,7 +21166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1113</v>
       </c>
@@ -21217,7 +21207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1113</v>
       </c>
@@ -21258,7 +21248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1113</v>
       </c>
@@ -21299,7 +21289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1113</v>
       </c>
@@ -21340,7 +21330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1353</v>
       </c>
@@ -21381,7 +21371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1353</v>
       </c>
@@ -21422,7 +21412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1353</v>
       </c>
@@ -21463,7 +21453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1353</v>
       </c>
@@ -21504,7 +21494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1353</v>
       </c>
@@ -21545,7 +21535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1353</v>
       </c>
@@ -21586,7 +21576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1353</v>
       </c>
@@ -21627,7 +21617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1353</v>
       </c>
@@ -21668,7 +21658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1353</v>
       </c>
@@ -21709,7 +21699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1353</v>
       </c>
@@ -21750,7 +21740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1353</v>
       </c>
@@ -21791,7 +21781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1353</v>
       </c>
@@ -21832,7 +21822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1353</v>
       </c>
@@ -21873,7 +21863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1353</v>
       </c>
@@ -21914,7 +21904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1353</v>
       </c>
@@ -21955,7 +21945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1353</v>
       </c>
@@ -21996,7 +21986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>1353</v>
       </c>
@@ -22037,7 +22027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>1353</v>
       </c>
@@ -22078,7 +22068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1353</v>
       </c>
@@ -22119,7 +22109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1353</v>
       </c>
@@ -22160,7 +22150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1353</v>
       </c>
@@ -22201,7 +22191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1353</v>
       </c>
@@ -22242,7 +22232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1353</v>
       </c>
@@ -22283,7 +22273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1353</v>
       </c>
@@ -22324,7 +22314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1353</v>
       </c>
@@ -22365,7 +22355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1353</v>
       </c>
@@ -22406,7 +22396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1353</v>
       </c>
@@ -22447,7 +22437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1353</v>
       </c>
@@ -22488,7 +22478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1353</v>
       </c>
@@ -22529,7 +22519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1353</v>
       </c>
@@ -22570,7 +22560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1353</v>
       </c>
@@ -22611,7 +22601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1353</v>
       </c>
@@ -22652,7 +22642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1353</v>
       </c>
@@ -22693,7 +22683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1353</v>
       </c>
@@ -22734,7 +22724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1353</v>
       </c>
@@ -22775,7 +22765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1353</v>
       </c>
@@ -22816,7 +22806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1353</v>
       </c>
@@ -22857,7 +22847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1353</v>
       </c>
@@ -22898,7 +22888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1353</v>
       </c>
@@ -22939,7 +22929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1353</v>
       </c>
@@ -22980,7 +22970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1593</v>
       </c>
@@ -23021,7 +23011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1593</v>
       </c>
@@ -23062,7 +23052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1593</v>
       </c>
@@ -23103,7 +23093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1593</v>
       </c>
@@ -23144,7 +23134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1593</v>
       </c>
@@ -23185,7 +23175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1593</v>
       </c>
@@ -23226,7 +23216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1593</v>
       </c>
@@ -23267,7 +23257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1593</v>
       </c>
@@ -23308,7 +23298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1593</v>
       </c>
@@ -23349,7 +23339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1593</v>
       </c>
@@ -23390,7 +23380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1593</v>
       </c>
@@ -23431,7 +23421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1593</v>
       </c>
@@ -23472,7 +23462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1593</v>
       </c>
@@ -23513,7 +23503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1593</v>
       </c>
@@ -23554,7 +23544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1593</v>
       </c>
@@ -23595,7 +23585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1593</v>
       </c>
@@ -23636,7 +23626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1593</v>
       </c>
@@ -23677,7 +23667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1593</v>
       </c>
@@ -23718,7 +23708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1593</v>
       </c>
@@ -23759,7 +23749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1593</v>
       </c>
@@ -23800,7 +23790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1593</v>
       </c>
@@ -23841,7 +23831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1593</v>
       </c>
@@ -23882,7 +23872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1593</v>
       </c>
@@ -23923,7 +23913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1593</v>
       </c>
@@ -23964,7 +23954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1593</v>
       </c>
@@ -24005,7 +23995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1593</v>
       </c>
@@ -24046,7 +24036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1593</v>
       </c>
@@ -24087,7 +24077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1593</v>
       </c>
@@ -24128,7 +24118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1593</v>
       </c>
@@ -24169,7 +24159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1593</v>
       </c>
@@ -24210,7 +24200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1593</v>
       </c>
@@ -24251,7 +24241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1593</v>
       </c>
@@ -24292,7 +24282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1593</v>
       </c>
@@ -24333,7 +24323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1593</v>
       </c>
@@ -24374,7 +24364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1593</v>
       </c>
@@ -24415,7 +24405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1593</v>
       </c>
@@ -24456,7 +24446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1593</v>
       </c>
@@ -24497,7 +24487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1593</v>
       </c>
@@ -24538,7 +24528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1593</v>
       </c>
@@ -24579,7 +24569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1593</v>
       </c>
@@ -24620,7 +24610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1830</v>
       </c>
@@ -24661,7 +24651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1830</v>
       </c>
@@ -24702,7 +24692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1830</v>
       </c>
@@ -24743,7 +24733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1830</v>
       </c>
@@ -24784,7 +24774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1830</v>
       </c>
@@ -24825,7 +24815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1830</v>
       </c>
@@ -24866,7 +24856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1830</v>
       </c>
@@ -24907,7 +24897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1830</v>
       </c>
@@ -24948,7 +24938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1830</v>
       </c>
@@ -24989,7 +24979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1830</v>
       </c>
@@ -25030,7 +25020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1830</v>
       </c>
@@ -25071,7 +25061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1830</v>
       </c>
@@ -25112,7 +25102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1830</v>
       </c>
@@ -25153,7 +25143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1830</v>
       </c>
@@ -25194,7 +25184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1830</v>
       </c>
@@ -25235,7 +25225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1830</v>
       </c>
@@ -25276,7 +25266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1830</v>
       </c>
@@ -25317,7 +25307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1830</v>
       </c>
@@ -25358,7 +25348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1830</v>
       </c>
@@ -25399,7 +25389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1830</v>
       </c>
@@ -25440,7 +25430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1830</v>
       </c>
@@ -25481,7 +25471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1830</v>
       </c>
@@ -25522,7 +25512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1830</v>
       </c>
@@ -25563,7 +25553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1830</v>
       </c>
@@ -25604,7 +25594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1830</v>
       </c>
@@ -25645,7 +25635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1830</v>
       </c>
@@ -25686,7 +25676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1830</v>
       </c>
@@ -25727,7 +25717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1830</v>
       </c>
@@ -25768,7 +25758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1830</v>
       </c>
@@ -25809,7 +25799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1830</v>
       </c>
@@ -25850,7 +25840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1830</v>
       </c>
@@ -25891,7 +25881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1830</v>
       </c>
@@ -25932,7 +25922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1830</v>
       </c>
@@ -25973,7 +25963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1830</v>
       </c>
@@ -26014,7 +26004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1830</v>
       </c>
@@ -26055,7 +26045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1830</v>
       </c>
@@ -26096,7 +26086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1830</v>
       </c>
@@ -26137,7 +26127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1830</v>
       </c>
@@ -26178,7 +26168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1830</v>
       </c>
@@ -26219,7 +26209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1830</v>
       </c>
@@ -26260,7 +26250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>2069</v>
       </c>
@@ -26301,7 +26291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>2069</v>
       </c>
@@ -26342,7 +26332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>2069</v>
       </c>
@@ -26383,7 +26373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>2069</v>
       </c>
@@ -26424,7 +26414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>2069</v>
       </c>
@@ -26465,7 +26455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>2069</v>
       </c>
@@ -26506,7 +26496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>2069</v>
       </c>
@@ -26547,7 +26537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>2069</v>
       </c>
@@ -26588,7 +26578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>2069</v>
       </c>
@@ -26629,7 +26619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>2069</v>
       </c>
@@ -26670,7 +26660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>2069</v>
       </c>
@@ -26711,7 +26701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>2069</v>
       </c>
@@ -26752,7 +26742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>2069</v>
       </c>
@@ -26793,7 +26783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>2069</v>
       </c>
@@ -26834,7 +26824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>2069</v>
       </c>
@@ -26875,7 +26865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>2069</v>
       </c>
@@ -26916,7 +26906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>2069</v>
       </c>
@@ -26957,7 +26947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>2069</v>
       </c>
@@ -26998,7 +26988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>2069</v>
       </c>
@@ -27039,7 +27029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>2069</v>
       </c>
@@ -27080,7 +27070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>2069</v>
       </c>
@@ -27121,7 +27111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>2069</v>
       </c>
@@ -27162,7 +27152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>2069</v>
       </c>
@@ -27203,7 +27193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>2069</v>
       </c>
@@ -27244,7 +27234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>2069</v>
       </c>
@@ -27285,7 +27275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>2069</v>
       </c>
@@ -27326,7 +27316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>2069</v>
       </c>
@@ -27367,7 +27357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>2069</v>
       </c>
@@ -27408,7 +27398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>2069</v>
       </c>
@@ -27449,7 +27439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>2069</v>
       </c>
@@ -27490,7 +27480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>2069</v>
       </c>
@@ -27531,7 +27521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>2069</v>
       </c>
@@ -27572,7 +27562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>2069</v>
       </c>
@@ -27613,7 +27603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>2069</v>
       </c>
@@ -27654,7 +27644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>2069</v>
       </c>
@@ -27695,7 +27685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>2069</v>
       </c>
@@ -27736,7 +27726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>2069</v>
       </c>
@@ -27777,7 +27767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>2069</v>
       </c>
@@ -27818,7 +27808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>2069</v>
       </c>
@@ -27859,7 +27849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>2069</v>
       </c>
@@ -27900,7 +27890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>2309</v>
       </c>
@@ -27941,7 +27931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>2309</v>
       </c>
@@ -27982,7 +27972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>2309</v>
       </c>
@@ -28023,7 +28013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>2309</v>
       </c>
@@ -28064,7 +28054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>2309</v>
       </c>
@@ -28105,7 +28095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>2309</v>
       </c>
@@ -28146,7 +28136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>2309</v>
       </c>
@@ -28187,7 +28177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>2309</v>
       </c>
@@ -28228,7 +28218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>2309</v>
       </c>
@@ -28269,7 +28259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>2309</v>
       </c>
@@ -28310,7 +28300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>2309</v>
       </c>
@@ -28351,7 +28341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>2309</v>
       </c>
@@ -28392,7 +28382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>2309</v>
       </c>
@@ -28433,7 +28423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>2309</v>
       </c>
@@ -28474,7 +28464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>2309</v>
       </c>
@@ -28515,7 +28505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>2309</v>
       </c>
@@ -28556,7 +28546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>2309</v>
       </c>
@@ -28597,7 +28587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>2309</v>
       </c>
@@ -28638,7 +28628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>2309</v>
       </c>
@@ -28679,7 +28669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>2309</v>
       </c>
@@ -28720,7 +28710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>2309</v>
       </c>
@@ -28761,7 +28751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>2309</v>
       </c>
@@ -28802,7 +28792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>2309</v>
       </c>
@@ -28843,7 +28833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>2309</v>
       </c>
@@ -28884,7 +28874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>2309</v>
       </c>
@@ -28925,7 +28915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>2309</v>
       </c>
@@ -28966,7 +28956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>2309</v>
       </c>
@@ -29007,7 +28997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>2309</v>
       </c>
@@ -29048,7 +29038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>2309</v>
       </c>
@@ -29089,7 +29079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>2309</v>
       </c>
@@ -29130,7 +29120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>2309</v>
       </c>
@@ -29171,7 +29161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>2309</v>
       </c>
@@ -29212,7 +29202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>2309</v>
       </c>
@@ -29253,7 +29243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>2309</v>
       </c>
@@ -29294,7 +29284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>2309</v>
       </c>
@@ -29335,7 +29325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>2309</v>
       </c>
@@ -29376,7 +29366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>2309</v>
       </c>
@@ -29417,7 +29407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>2309</v>
       </c>
@@ -29458,7 +29448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>2309</v>
       </c>
@@ -29499,7 +29489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>2309</v>
       </c>
@@ -29540,7 +29530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>2309</v>
       </c>
@@ -29578,7 +29568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>2309</v>
       </c>
@@ -29616,7 +29606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>2309</v>
       </c>
@@ -29654,7 +29644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>2309</v>
       </c>
@@ -29692,7 +29682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>2309</v>
       </c>
@@ -29730,7 +29720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>2309</v>
       </c>
@@ -29768,7 +29758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>2309</v>
       </c>
@@ -29806,7 +29796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>2309</v>
       </c>
@@ -29844,7 +29834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>2309</v>
       </c>
@@ -29882,7 +29872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>2309</v>
       </c>
@@ -29920,7 +29910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>2309</v>
       </c>
@@ -29958,7 +29948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>2309</v>
       </c>
@@ -29996,7 +29986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>2309</v>
       </c>
@@ -30034,7 +30024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="450" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>2309</v>
       </c>
@@ -30072,7 +30062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>2309</v>
       </c>
@@ -30110,7 +30100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>2309</v>
       </c>
@@ -30148,7 +30138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>2309</v>
       </c>
@@ -30186,7 +30176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="454" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>2309</v>
       </c>
@@ -30224,7 +30214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="455" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2309</v>
       </c>
@@ -30262,7 +30252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="456" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>2309</v>
       </c>
@@ -30300,7 +30290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="457" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>2309</v>
       </c>
@@ -30338,7 +30328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>2309</v>
       </c>
@@ -30376,7 +30366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="459" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>2309</v>
       </c>
@@ -30414,7 +30404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>2309</v>
       </c>
@@ -30452,7 +30442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>2309</v>
       </c>
@@ -30490,7 +30480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>2309</v>
       </c>
@@ -30528,7 +30518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="463" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>2309</v>
       </c>
@@ -30566,7 +30556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="464" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>2309</v>
       </c>
@@ -30604,7 +30594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>2309</v>
       </c>
@@ -30642,7 +30632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>2309</v>
       </c>
@@ -30680,7 +30670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="467" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>2309</v>
       </c>
@@ -30718,7 +30708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="468" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>2309</v>
       </c>
@@ -30756,7 +30746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>2309</v>
       </c>
@@ -30794,7 +30784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>2309</v>
       </c>
@@ -30832,7 +30822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>2309</v>
       </c>
@@ -30870,7 +30860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>2309</v>
       </c>
@@ -30908,7 +30898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>2309</v>
       </c>
@@ -30946,7 +30936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>2309</v>
       </c>
@@ -30984,7 +30974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="475" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>2309</v>
       </c>
@@ -31022,7 +31012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>2309</v>
       </c>
@@ -31060,7 +31050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>2309</v>
       </c>
@@ -31098,7 +31088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>2309</v>
       </c>
@@ -31136,7 +31126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>2309</v>
       </c>
@@ -31174,7 +31164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>2309</v>
       </c>
@@ -31212,7 +31202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>2309</v>
       </c>
@@ -31250,7 +31240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>2309</v>
       </c>
@@ -31288,7 +31278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="483" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>2309</v>
       </c>
@@ -31326,7 +31316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>2309</v>
       </c>
@@ -31364,7 +31354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>2309</v>
       </c>
@@ -31402,7 +31392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>2309</v>
       </c>
@@ -31440,7 +31430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>2309</v>
       </c>
@@ -31478,7 +31468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>2309</v>
       </c>
@@ -31516,7 +31506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>2309</v>
       </c>
@@ -31554,7 +31544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>2309</v>
       </c>
@@ -31592,7 +31582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="491" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>2309</v>
       </c>
@@ -31630,7 +31620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>2309</v>
       </c>
@@ -31668,7 +31658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>2309</v>
       </c>
@@ -31706,7 +31696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>2309</v>
       </c>
@@ -31744,7 +31734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="495" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>2309</v>
       </c>
@@ -31782,7 +31772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>2309</v>
       </c>
@@ -31820,7 +31810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>2798</v>
       </c>
@@ -31861,7 +31851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>2798</v>
       </c>
@@ -31902,7 +31892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>2798</v>
       </c>
@@ -31943,7 +31933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>2798</v>
       </c>
@@ -31984,7 +31974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>2798</v>
       </c>
@@ -32025,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>2798</v>
       </c>
@@ -32066,7 +32056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>2798</v>
       </c>
@@ -32107,7 +32097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>2798</v>
       </c>
@@ -32148,7 +32138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>2798</v>
       </c>
@@ -32189,7 +32179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>2798</v>
       </c>
@@ -32230,7 +32220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>2798</v>
       </c>
@@ -32271,7 +32261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>2798</v>
       </c>
@@ -32312,7 +32302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>2798</v>
       </c>
@@ -32353,7 +32343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>2798</v>
       </c>
@@ -32394,7 +32384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>2798</v>
       </c>
@@ -32435,7 +32425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>2798</v>
       </c>
@@ -32476,7 +32466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>2798</v>
       </c>
@@ -32517,7 +32507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2798</v>
       </c>
@@ -32558,7 +32548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2798</v>
       </c>
@@ -32599,7 +32589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2798</v>
       </c>
@@ -32640,7 +32630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>2798</v>
       </c>
@@ -32681,7 +32671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>2798</v>
       </c>
@@ -32722,7 +32712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>2798</v>
       </c>
@@ -32763,7 +32753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>2798</v>
       </c>
@@ -32804,7 +32794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>2798</v>
       </c>
@@ -32845,7 +32835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>2798</v>
       </c>
@@ -32886,7 +32876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>2798</v>
       </c>
@@ -32927,7 +32917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>2798</v>
       </c>
@@ -32968,7 +32958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>2798</v>
       </c>
@@ -33009,7 +32999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>2798</v>
       </c>
@@ -33050,7 +33040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>2798</v>
       </c>
@@ -33091,7 +33081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>2798</v>
       </c>
@@ -33132,7 +33122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>2798</v>
       </c>
@@ -33173,7 +33163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>2798</v>
       </c>
@@ -33214,7 +33204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>2798</v>
       </c>
@@ -33255,7 +33245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>2798</v>
       </c>
@@ -33296,7 +33286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>2798</v>
       </c>
@@ -33337,7 +33327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>2798</v>
       </c>
@@ -33378,7 +33368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>2798</v>
       </c>
@@ -33419,7 +33409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>2798</v>
       </c>
@@ -33460,7 +33450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>3039</v>
       </c>
@@ -33501,7 +33491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>3039</v>
       </c>
@@ -33542,7 +33532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>3039</v>
       </c>
@@ -33583,7 +33573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>3039</v>
       </c>
@@ -33624,7 +33614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>3039</v>
       </c>
@@ -33665,7 +33655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>3039</v>
       </c>
@@ -33706,7 +33696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>3039</v>
       </c>
@@ -33747,7 +33737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>3039</v>
       </c>
@@ -33788,7 +33778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>3039</v>
       </c>
@@ -33829,7 +33819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>3039</v>
       </c>
@@ -33870,7 +33860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>3039</v>
       </c>
@@ -33911,7 +33901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>3039</v>
       </c>
@@ -33952,7 +33942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>3039</v>
       </c>
@@ -33993,7 +33983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>3039</v>
       </c>
@@ -34034,7 +34024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>3039</v>
       </c>
@@ -34075,7 +34065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>3039</v>
       </c>
@@ -34116,7 +34106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>3039</v>
       </c>
@@ -34157,7 +34147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>3039</v>
       </c>
@@ -34198,7 +34188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>3039</v>
       </c>
@@ -34239,7 +34229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>3039</v>
       </c>
@@ -34280,7 +34270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>3039</v>
       </c>
@@ -34321,7 +34311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>3039</v>
       </c>
@@ -34362,7 +34352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>3039</v>
       </c>
@@ -34403,7 +34393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>3039</v>
       </c>
@@ -34444,7 +34434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>3039</v>
       </c>
@@ -34485,7 +34475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>3039</v>
       </c>
@@ -34526,7 +34516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>3039</v>
       </c>
@@ -34567,7 +34557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>3039</v>
       </c>
@@ -34608,7 +34598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>3039</v>
       </c>
@@ -34649,7 +34639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>3039</v>
       </c>
@@ -34690,7 +34680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>3039</v>
       </c>
@@ -34731,7 +34721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>3039</v>
       </c>
@@ -34772,7 +34762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>3039</v>
       </c>
@@ -34813,7 +34803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>3039</v>
       </c>
@@ -34854,7 +34844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>3039</v>
       </c>
@@ -34895,7 +34885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>3039</v>
       </c>
@@ -34936,7 +34926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>3039</v>
       </c>
@@ -34977,7 +34967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>3039</v>
       </c>
@@ -35018,7 +35008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>3039</v>
       </c>
@@ -35059,7 +35049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>3039</v>
       </c>
@@ -35100,7 +35090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>3039</v>
       </c>
@@ -35141,7 +35131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>3039</v>
       </c>
@@ -35182,7 +35172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>3039</v>
       </c>
@@ -35223,7 +35213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>3039</v>
       </c>
@@ -35264,7 +35254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>3039</v>
       </c>
@@ -35305,7 +35295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>3039</v>
       </c>
@@ -35346,7 +35336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>3039</v>
       </c>
@@ -35387,7 +35377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>3039</v>
       </c>
@@ -35428,7 +35418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>3039</v>
       </c>
@@ -35469,7 +35459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>3039</v>
       </c>
@@ -35510,7 +35500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>3291</v>
       </c>
@@ -35551,7 +35541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>3291</v>
       </c>
@@ -35592,7 +35582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>3291</v>
       </c>
@@ -35633,7 +35623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>3291</v>
       </c>
@@ -35674,7 +35664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>3291</v>
       </c>
@@ -35715,7 +35705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>3291</v>
       </c>
@@ -35756,7 +35746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>3291</v>
       </c>
@@ -35797,7 +35787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>3291</v>
       </c>
@@ -35838,7 +35828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>3291</v>
       </c>
@@ -35879,7 +35869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>3291</v>
       </c>
@@ -35920,7 +35910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>3291</v>
       </c>
@@ -35961,7 +35951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>3291</v>
       </c>
@@ -36002,7 +35992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>3291</v>
       </c>
@@ -36043,7 +36033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>3291</v>
       </c>
@@ -36084,7 +36074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>3291</v>
       </c>
@@ -36125,7 +36115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>3291</v>
       </c>
@@ -36166,7 +36156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>3291</v>
       </c>
@@ -36207,7 +36197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>3291</v>
       </c>
@@ -36248,7 +36238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>3291</v>
       </c>
@@ -36289,7 +36279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>3291</v>
       </c>
@@ -36330,7 +36320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>3291</v>
       </c>
@@ -36371,7 +36361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>3291</v>
       </c>
@@ -36412,7 +36402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>3291</v>
       </c>
@@ -36453,7 +36443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>3291</v>
       </c>
@@ -36494,7 +36484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>3291</v>
       </c>
@@ -36535,7 +36525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>3291</v>
       </c>
@@ -36576,7 +36566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>3291</v>
       </c>
@@ -36617,7 +36607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>3291</v>
       </c>
@@ -36658,7 +36648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>3291</v>
       </c>
@@ -36699,7 +36689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>3291</v>
       </c>
@@ -36740,7 +36730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>3291</v>
       </c>
@@ -36781,7 +36771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>3291</v>
       </c>
@@ -36822,7 +36812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>3291</v>
       </c>
@@ -36863,7 +36853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>3291</v>
       </c>
@@ -36904,7 +36894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>3291</v>
       </c>
@@ -36945,7 +36935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>3291</v>
       </c>
@@ -36986,27 +36976,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>3039</v>
       </c>
       <c r="B623" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C623" t="s">
         <v>3485</v>
       </c>
-      <c r="C623" t="s">
+      <c r="D623" t="s">
         <v>3486</v>
       </c>
-      <c r="D623" t="s">
+      <c r="E623" t="s">
         <v>3487</v>
       </c>
-      <c r="E623" t="s">
+      <c r="F623" t="s">
+        <v>21</v>
+      </c>
+      <c r="G623" t="s">
         <v>3488</v>
-      </c>
-      <c r="F623" t="s">
-        <v>21</v>
-      </c>
-      <c r="G623" t="s">
-        <v>3489</v>
       </c>
       <c r="H623" t="s">
         <v>127</v>
@@ -37021,33 +37011,33 @@
         <v>1</v>
       </c>
       <c r="L623" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="P623" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>3039</v>
       </c>
       <c r="B624" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="C624" t="s">
         <v>3286</v>
       </c>
       <c r="D624" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E624" t="s">
         <v>3492</v>
       </c>
-      <c r="E624" t="s">
+      <c r="F624" t="s">
+        <v>21</v>
+      </c>
+      <c r="G624" t="s">
         <v>3493</v>
-      </c>
-      <c r="F624" t="s">
-        <v>21</v>
-      </c>
-      <c r="G624" t="s">
-        <v>3494</v>
       </c>
       <c r="H624" t="s">
         <v>127</v>
@@ -37062,33 +37052,33 @@
         <v>2</v>
       </c>
       <c r="L624" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="P624" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>3039</v>
       </c>
       <c r="B625" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C625" t="s">
         <v>3496</v>
       </c>
-      <c r="C625" t="s">
+      <c r="D625" t="s">
         <v>3497</v>
       </c>
-      <c r="D625" t="s">
+      <c r="E625" t="s">
         <v>3498</v>
       </c>
-      <c r="E625" t="s">
+      <c r="F625" t="s">
+        <v>21</v>
+      </c>
+      <c r="G625" t="s">
         <v>3499</v>
-      </c>
-      <c r="F625" t="s">
-        <v>21</v>
-      </c>
-      <c r="G625" t="s">
-        <v>3500</v>
       </c>
       <c r="H625" t="s">
         <v>127</v>
@@ -37103,33 +37093,33 @@
         <v>1</v>
       </c>
       <c r="L625" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="P625" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>3039</v>
       </c>
       <c r="B626" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="C626" t="s">
         <v>3041</v>
       </c>
       <c r="D626" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E626" t="s">
         <v>3503</v>
       </c>
-      <c r="E626" t="s">
+      <c r="F626" t="s">
+        <v>21</v>
+      </c>
+      <c r="G626" t="s">
         <v>3504</v>
-      </c>
-      <c r="F626" t="s">
-        <v>21</v>
-      </c>
-      <c r="G626" t="s">
-        <v>3505</v>
       </c>
       <c r="H626" t="s">
         <v>127</v>
@@ -37144,33 +37134,33 @@
         <v>2</v>
       </c>
       <c r="L626" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="P626" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>3039</v>
       </c>
       <c r="B627" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C627" t="s">
         <v>3507</v>
       </c>
-      <c r="C627" t="s">
+      <c r="D627" t="s">
         <v>3508</v>
       </c>
-      <c r="D627" t="s">
+      <c r="E627" t="s">
         <v>3509</v>
       </c>
-      <c r="E627" t="s">
+      <c r="F627" t="s">
+        <v>21</v>
+      </c>
+      <c r="G627" t="s">
         <v>3510</v>
-      </c>
-      <c r="F627" t="s">
-        <v>21</v>
-      </c>
-      <c r="G627" t="s">
-        <v>3511</v>
       </c>
       <c r="H627" t="s">
         <v>127</v>
@@ -37185,33 +37175,33 @@
         <v>2</v>
       </c>
       <c r="L627" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="P627" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>3039</v>
       </c>
       <c r="B628" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C628" t="s">
         <v>3513</v>
       </c>
-      <c r="C628" t="s">
+      <c r="D628" t="s">
         <v>3514</v>
       </c>
-      <c r="D628" t="s">
+      <c r="E628" t="s">
         <v>3515</v>
       </c>
-      <c r="E628" t="s">
+      <c r="F628" t="s">
+        <v>21</v>
+      </c>
+      <c r="G628" t="s">
         <v>3516</v>
-      </c>
-      <c r="F628" t="s">
-        <v>21</v>
-      </c>
-      <c r="G628" t="s">
-        <v>3517</v>
       </c>
       <c r="H628" t="s">
         <v>127</v>
@@ -37232,27 +37222,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>3039</v>
       </c>
       <c r="B629" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="C629" t="s">
         <v>629</v>
       </c>
       <c r="D629" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E629" t="s">
         <v>3519</v>
       </c>
-      <c r="E629" t="s">
+      <c r="F629" t="s">
+        <v>21</v>
+      </c>
+      <c r="G629" t="s">
         <v>3520</v>
-      </c>
-      <c r="F629" t="s">
-        <v>21</v>
-      </c>
-      <c r="G629" t="s">
-        <v>3521</v>
       </c>
       <c r="H629" t="s">
         <v>127</v>
@@ -37273,27 +37263,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>3484</v>
+        <v>3039</v>
       </c>
       <c r="B630" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C630" t="s">
         <v>3522</v>
       </c>
-      <c r="C630" t="s">
+      <c r="D630" t="s">
         <v>3523</v>
       </c>
-      <c r="D630" t="s">
+      <c r="E630" t="s">
         <v>3524</v>
       </c>
-      <c r="E630" t="s">
+      <c r="F630" t="s">
+        <v>21</v>
+      </c>
+      <c r="G630" t="s">
         <v>3525</v>
-      </c>
-      <c r="F630" t="s">
-        <v>21</v>
-      </c>
-      <c r="G630" t="s">
-        <v>3526</v>
       </c>
       <c r="H630" t="s">
         <v>127</v>
@@ -37314,27 +37304,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>3484</v>
+        <v>3039</v>
       </c>
       <c r="B631" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C631" t="s">
         <v>3527</v>
       </c>
-      <c r="C631" t="s">
+      <c r="D631" t="s">
         <v>3528</v>
       </c>
-      <c r="D631" t="s">
+      <c r="E631" t="s">
         <v>3529</v>
       </c>
-      <c r="E631" t="s">
+      <c r="F631" t="s">
+        <v>21</v>
+      </c>
+      <c r="G631" t="s">
         <v>3530</v>
-      </c>
-      <c r="F631" t="s">
-        <v>21</v>
-      </c>
-      <c r="G631" t="s">
-        <v>3531</v>
       </c>
       <c r="H631" t="s">
         <v>127</v>
@@ -37355,27 +37345,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>3039</v>
       </c>
       <c r="B632" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C632" t="s">
         <v>3532</v>
       </c>
-      <c r="C632" t="s">
+      <c r="D632" t="s">
         <v>3533</v>
       </c>
-      <c r="D632" t="s">
+      <c r="E632" t="s">
         <v>3534</v>
       </c>
-      <c r="E632" t="s">
+      <c r="F632" t="s">
+        <v>21</v>
+      </c>
+      <c r="G632" t="s">
         <v>3535</v>
-      </c>
-      <c r="F632" t="s">
-        <v>21</v>
-      </c>
-      <c r="G632" t="s">
-        <v>3536</v>
       </c>
       <c r="H632" t="s">
         <v>127</v>
@@ -37390,33 +37380,33 @@
         <v>1</v>
       </c>
       <c r="L632" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="P632" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>3039</v>
       </c>
       <c r="B633" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C633" t="s">
         <v>3538</v>
       </c>
-      <c r="C633" t="s">
+      <c r="D633" t="s">
         <v>3539</v>
       </c>
-      <c r="D633" t="s">
+      <c r="E633" t="s">
         <v>3540</v>
       </c>
-      <c r="E633" t="s">
+      <c r="F633" t="s">
+        <v>21</v>
+      </c>
+      <c r="G633" t="s">
         <v>3541</v>
-      </c>
-      <c r="F633" t="s">
-        <v>21</v>
-      </c>
-      <c r="G633" t="s">
-        <v>3542</v>
       </c>
       <c r="H633" t="s">
         <v>127</v>
@@ -37431,33 +37421,33 @@
         <v>1</v>
       </c>
       <c r="L633" t="s">
+        <v>3542</v>
+      </c>
+      <c r="P633" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B634" t="s">
         <v>3543</v>
       </c>
-      <c r="P633" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="634" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A634" t="s">
-        <v>3484</v>
-      </c>
-      <c r="B634" t="s">
+      <c r="C634" t="s">
         <v>3544</v>
       </c>
-      <c r="C634" t="s">
+      <c r="D634" t="s">
         <v>3545</v>
       </c>
-      <c r="D634" t="s">
+      <c r="E634" t="s">
         <v>3546</v>
       </c>
-      <c r="E634" t="s">
+      <c r="F634" t="s">
+        <v>21</v>
+      </c>
+      <c r="G634" t="s">
         <v>3547</v>
-      </c>
-      <c r="F634" t="s">
-        <v>21</v>
-      </c>
-      <c r="G634" t="s">
-        <v>3548</v>
       </c>
       <c r="H634" t="s">
         <v>127</v>
@@ -37478,27 +37468,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>3039</v>
       </c>
       <c r="B635" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C635" t="s">
         <v>3549</v>
       </c>
-      <c r="C635" t="s">
+      <c r="D635" t="s">
         <v>3550</v>
       </c>
-      <c r="D635" t="s">
+      <c r="E635" t="s">
         <v>3551</v>
       </c>
-      <c r="E635" t="s">
+      <c r="F635" t="s">
+        <v>21</v>
+      </c>
+      <c r="G635" t="s">
         <v>3552</v>
-      </c>
-      <c r="F635" t="s">
-        <v>21</v>
-      </c>
-      <c r="G635" t="s">
-        <v>3553</v>
       </c>
       <c r="H635" t="s">
         <v>127</v>
@@ -37513,33 +37503,33 @@
         <v>1</v>
       </c>
       <c r="L635" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="P635" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>3039</v>
       </c>
       <c r="B636" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C636" t="s">
         <v>3555</v>
       </c>
-      <c r="C636" t="s">
+      <c r="D636" t="s">
         <v>3556</v>
       </c>
-      <c r="D636" t="s">
+      <c r="E636" t="s">
         <v>3557</v>
       </c>
-      <c r="E636" t="s">
+      <c r="F636" t="s">
+        <v>21</v>
+      </c>
+      <c r="G636" t="s">
         <v>3558</v>
-      </c>
-      <c r="F636" t="s">
-        <v>21</v>
-      </c>
-      <c r="G636" t="s">
-        <v>3559</v>
       </c>
       <c r="H636" t="s">
         <v>127</v>
@@ -37560,27 +37550,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>3039</v>
       </c>
       <c r="B637" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C637" t="s">
         <v>3560</v>
       </c>
-      <c r="C637" t="s">
+      <c r="D637" t="s">
         <v>3561</v>
       </c>
-      <c r="D637" t="s">
+      <c r="E637" t="s">
         <v>3562</v>
       </c>
-      <c r="E637" t="s">
+      <c r="F637" t="s">
+        <v>21</v>
+      </c>
+      <c r="G637" t="s">
         <v>3563</v>
-      </c>
-      <c r="F637" t="s">
-        <v>21</v>
-      </c>
-      <c r="G637" t="s">
-        <v>3564</v>
       </c>
       <c r="H637" t="s">
         <v>127</v>
@@ -37601,27 +37591,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>3039</v>
       </c>
       <c r="B638" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C638" t="s">
         <v>3565</v>
       </c>
-      <c r="C638" t="s">
+      <c r="D638" t="s">
         <v>3566</v>
       </c>
-      <c r="D638" t="s">
+      <c r="E638" t="s">
         <v>3567</v>
       </c>
-      <c r="E638" t="s">
+      <c r="F638" t="s">
+        <v>21</v>
+      </c>
+      <c r="G638" t="s">
         <v>3568</v>
-      </c>
-      <c r="F638" t="s">
-        <v>21</v>
-      </c>
-      <c r="G638" t="s">
-        <v>3569</v>
       </c>
       <c r="H638" t="s">
         <v>127</v>
@@ -37636,33 +37626,33 @@
         <v>1</v>
       </c>
       <c r="L638" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="P638" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>3039</v>
       </c>
       <c r="B639" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="C639" t="s">
         <v>3268</v>
       </c>
       <c r="D639" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E639" t="s">
         <v>3572</v>
       </c>
-      <c r="E639" t="s">
+      <c r="F639" t="s">
+        <v>21</v>
+      </c>
+      <c r="G639" t="s">
         <v>3573</v>
-      </c>
-      <c r="F639" t="s">
-        <v>21</v>
-      </c>
-      <c r="G639" t="s">
-        <v>3574</v>
       </c>
       <c r="H639" t="s">
         <v>127</v>
@@ -37677,33 +37667,33 @@
         <v>1</v>
       </c>
       <c r="L639" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="P639" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>3039</v>
       </c>
       <c r="B640" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C640" t="s">
         <v>3576</v>
       </c>
-      <c r="C640" t="s">
+      <c r="D640" t="s">
         <v>3577</v>
       </c>
-      <c r="D640" t="s">
+      <c r="E640" t="s">
         <v>3578</v>
       </c>
-      <c r="E640" t="s">
+      <c r="F640" t="s">
+        <v>21</v>
+      </c>
+      <c r="G640" t="s">
         <v>3579</v>
-      </c>
-      <c r="F640" t="s">
-        <v>21</v>
-      </c>
-      <c r="G640" t="s">
-        <v>3580</v>
       </c>
       <c r="H640" t="s">
         <v>127</v>
@@ -37724,27 +37714,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>3039</v>
       </c>
       <c r="B641" t="s">
+        <v>3580</v>
+      </c>
+      <c r="C641" t="s">
         <v>3581</v>
       </c>
-      <c r="C641" t="s">
+      <c r="D641" t="s">
         <v>3582</v>
       </c>
-      <c r="D641" t="s">
+      <c r="E641" t="s">
         <v>3583</v>
       </c>
-      <c r="E641" t="s">
+      <c r="F641" t="s">
+        <v>21</v>
+      </c>
+      <c r="G641" t="s">
         <v>3584</v>
-      </c>
-      <c r="F641" t="s">
-        <v>21</v>
-      </c>
-      <c r="G641" t="s">
-        <v>3585</v>
       </c>
       <c r="H641" t="s">
         <v>127</v>
@@ -37765,27 +37755,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>3039</v>
       </c>
       <c r="B642" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C642" t="s">
         <v>3586</v>
       </c>
-      <c r="C642" t="s">
+      <c r="D642" t="s">
         <v>3587</v>
       </c>
-      <c r="D642" t="s">
+      <c r="E642" t="s">
         <v>3588</v>
       </c>
-      <c r="E642" t="s">
+      <c r="F642" t="s">
+        <v>21</v>
+      </c>
+      <c r="G642" t="s">
         <v>3589</v>
-      </c>
-      <c r="F642" t="s">
-        <v>21</v>
-      </c>
-      <c r="G642" t="s">
-        <v>3590</v>
       </c>
       <c r="H642" t="s">
         <v>127</v>
@@ -37800,33 +37790,33 @@
         <v>1</v>
       </c>
       <c r="L642" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="P642" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>3039</v>
       </c>
       <c r="B643" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C643" t="s">
         <v>3592</v>
       </c>
-      <c r="C643" t="s">
+      <c r="D643" t="s">
         <v>3593</v>
       </c>
-      <c r="D643" t="s">
+      <c r="E643" t="s">
         <v>3594</v>
       </c>
-      <c r="E643" t="s">
+      <c r="F643" t="s">
+        <v>21</v>
+      </c>
+      <c r="G643" t="s">
         <v>3595</v>
-      </c>
-      <c r="F643" t="s">
-        <v>21</v>
-      </c>
-      <c r="G643" t="s">
-        <v>3596</v>
       </c>
       <c r="H643" t="s">
         <v>127</v>
@@ -37841,33 +37831,33 @@
         <v>2</v>
       </c>
       <c r="L643" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="P643" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>3039</v>
       </c>
       <c r="B644" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C644" t="s">
         <v>3598</v>
       </c>
-      <c r="C644" t="s">
+      <c r="D644" t="s">
         <v>3599</v>
       </c>
-      <c r="D644" t="s">
+      <c r="E644" t="s">
         <v>3600</v>
       </c>
-      <c r="E644" t="s">
+      <c r="F644" t="s">
+        <v>21</v>
+      </c>
+      <c r="G644" t="s">
         <v>3601</v>
-      </c>
-      <c r="F644" t="s">
-        <v>21</v>
-      </c>
-      <c r="G644" t="s">
-        <v>3602</v>
       </c>
       <c r="H644" t="s">
         <v>127</v>
@@ -37882,33 +37872,33 @@
         <v>1</v>
       </c>
       <c r="L644" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="P644" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>3039</v>
       </c>
       <c r="B645" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C645" t="s">
         <v>3243</v>
       </c>
       <c r="D645" t="s">
+        <v>3604</v>
+      </c>
+      <c r="E645" t="s">
         <v>3605</v>
       </c>
-      <c r="E645" t="s">
+      <c r="F645" t="s">
+        <v>21</v>
+      </c>
+      <c r="G645" t="s">
         <v>3606</v>
-      </c>
-      <c r="F645" t="s">
-        <v>21</v>
-      </c>
-      <c r="G645" t="s">
-        <v>3607</v>
       </c>
       <c r="H645" t="s">
         <v>127</v>
@@ -37923,33 +37913,33 @@
         <v>1</v>
       </c>
       <c r="L645" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="P645" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>3039</v>
       </c>
       <c r="B646" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="C646" t="s">
         <v>225</v>
       </c>
       <c r="D646" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E646" t="s">
         <v>3610</v>
       </c>
-      <c r="E646" t="s">
+      <c r="F646" t="s">
+        <v>21</v>
+      </c>
+      <c r="G646" t="s">
         <v>3611</v>
-      </c>
-      <c r="F646" t="s">
-        <v>21</v>
-      </c>
-      <c r="G646" t="s">
-        <v>3612</v>
       </c>
       <c r="H646" t="s">
         <v>127</v>
@@ -37964,33 +37954,33 @@
         <v>1</v>
       </c>
       <c r="L646" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="P646" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>3039</v>
       </c>
       <c r="B647" t="s">
+        <v>3613</v>
+      </c>
+      <c r="C647" t="s">
         <v>3614</v>
       </c>
-      <c r="C647" t="s">
+      <c r="D647" t="s">
         <v>3615</v>
       </c>
-      <c r="D647" t="s">
+      <c r="E647" t="s">
         <v>3616</v>
       </c>
-      <c r="E647" t="s">
+      <c r="F647" t="s">
+        <v>21</v>
+      </c>
+      <c r="G647" t="s">
         <v>3617</v>
-      </c>
-      <c r="F647" t="s">
-        <v>21</v>
-      </c>
-      <c r="G647" t="s">
-        <v>3618</v>
       </c>
       <c r="H647" t="s">
         <v>127</v>
@@ -38005,33 +37995,33 @@
         <v>1</v>
       </c>
       <c r="L647" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="P647" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>3039</v>
       </c>
       <c r="B648" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C648" t="s">
         <v>3620</v>
       </c>
-      <c r="C648" t="s">
+      <c r="D648" t="s">
         <v>3621</v>
       </c>
-      <c r="D648" t="s">
+      <c r="E648" t="s">
         <v>3622</v>
       </c>
-      <c r="E648" t="s">
+      <c r="F648" t="s">
+        <v>21</v>
+      </c>
+      <c r="G648" t="s">
         <v>3623</v>
-      </c>
-      <c r="F648" t="s">
-        <v>21</v>
-      </c>
-      <c r="G648" t="s">
-        <v>3624</v>
       </c>
       <c r="H648" t="s">
         <v>127</v>
@@ -38046,33 +38036,33 @@
         <v>1</v>
       </c>
       <c r="L648" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="P648" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>3039</v>
       </c>
       <c r="B649" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C649" t="s">
         <v>3626</v>
       </c>
-      <c r="C649" t="s">
+      <c r="D649" t="s">
         <v>3627</v>
       </c>
-      <c r="D649" t="s">
+      <c r="E649" t="s">
         <v>3628</v>
       </c>
-      <c r="E649" t="s">
+      <c r="F649" t="s">
+        <v>21</v>
+      </c>
+      <c r="G649" t="s">
         <v>3629</v>
-      </c>
-      <c r="F649" t="s">
-        <v>21</v>
-      </c>
-      <c r="G649" t="s">
-        <v>3630</v>
       </c>
       <c r="H649" t="s">
         <v>127</v>
@@ -38087,33 +38077,33 @@
         <v>1</v>
       </c>
       <c r="L649" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="P649" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>3039</v>
       </c>
       <c r="B650" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C650" t="s">
         <v>3169</v>
       </c>
       <c r="D650" t="s">
+        <v>3632</v>
+      </c>
+      <c r="E650" t="s">
         <v>3633</v>
       </c>
-      <c r="E650" t="s">
+      <c r="F650" t="s">
+        <v>21</v>
+      </c>
+      <c r="G650" t="s">
         <v>3634</v>
-      </c>
-      <c r="F650" t="s">
-        <v>21</v>
-      </c>
-      <c r="G650" t="s">
-        <v>3635</v>
       </c>
       <c r="H650" t="s">
         <v>127</v>
@@ -38128,33 +38118,33 @@
         <v>1</v>
       </c>
       <c r="L650" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="P650" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>3039</v>
       </c>
       <c r="B651" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C651" t="s">
         <v>3637</v>
       </c>
-      <c r="C651" t="s">
+      <c r="D651" t="s">
         <v>3638</v>
       </c>
-      <c r="D651" t="s">
+      <c r="E651" t="s">
         <v>3639</v>
       </c>
-      <c r="E651" t="s">
+      <c r="F651" t="s">
+        <v>21</v>
+      </c>
+      <c r="G651" t="s">
         <v>3640</v>
-      </c>
-      <c r="F651" t="s">
-        <v>21</v>
-      </c>
-      <c r="G651" t="s">
-        <v>3641</v>
       </c>
       <c r="H651" t="s">
         <v>127</v>
@@ -38169,13 +38159,13 @@
         <v>2</v>
       </c>
       <c r="L651" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="P651" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>3039</v>
       </c>
@@ -38186,10 +38176,10 @@
         <v>1426</v>
       </c>
       <c r="D652" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E652" t="s">
         <v>3643</v>
-      </c>
-      <c r="E652" t="s">
-        <v>3644</v>
       </c>
       <c r="F652" t="s">
         <v>21</v>
@@ -38210,33 +38200,33 @@
         <v>1</v>
       </c>
       <c r="L652" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="P652" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>3039</v>
       </c>
       <c r="B653" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="C653" t="s">
         <v>3109</v>
       </c>
       <c r="D653" t="s">
+        <v>3646</v>
+      </c>
+      <c r="E653" t="s">
         <v>3647</v>
       </c>
-      <c r="E653" t="s">
+      <c r="F653" t="s">
+        <v>21</v>
+      </c>
+      <c r="G653" t="s">
         <v>3648</v>
-      </c>
-      <c r="F653" t="s">
-        <v>21</v>
-      </c>
-      <c r="G653" t="s">
-        <v>3649</v>
       </c>
       <c r="H653" t="s">
         <v>127</v>
@@ -38251,33 +38241,33 @@
         <v>1</v>
       </c>
       <c r="L653" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="P653" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>3039</v>
       </c>
       <c r="B654" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="C654" t="s">
         <v>3293</v>
       </c>
       <c r="D654" t="s">
+        <v>3651</v>
+      </c>
+      <c r="E654" t="s">
         <v>3652</v>
       </c>
-      <c r="E654" t="s">
+      <c r="F654" t="s">
+        <v>21</v>
+      </c>
+      <c r="G654" t="s">
         <v>3653</v>
-      </c>
-      <c r="F654" t="s">
-        <v>21</v>
-      </c>
-      <c r="G654" t="s">
-        <v>3654</v>
       </c>
       <c r="H654" t="s">
         <v>127</v>
@@ -38292,13 +38282,13 @@
         <v>1</v>
       </c>
       <c r="L654" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="P654" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>3039</v>
       </c>
@@ -38309,16 +38299,16 @@
         <v>3399</v>
       </c>
       <c r="D655" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E655" t="s">
         <v>3656</v>
       </c>
-      <c r="E655" t="s">
+      <c r="F655" t="s">
+        <v>21</v>
+      </c>
+      <c r="G655" t="s">
         <v>3657</v>
-      </c>
-      <c r="F655" t="s">
-        <v>21</v>
-      </c>
-      <c r="G655" t="s">
-        <v>3658</v>
       </c>
       <c r="H655" t="s">
         <v>127</v>
@@ -38333,33 +38323,33 @@
         <v>1</v>
       </c>
       <c r="L655" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="P655" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>3039</v>
       </c>
       <c r="B656" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C656" t="s">
         <v>3660</v>
       </c>
-      <c r="C656" t="s">
+      <c r="D656" t="s">
         <v>3661</v>
       </c>
-      <c r="D656" t="s">
+      <c r="E656" t="s">
         <v>3662</v>
       </c>
-      <c r="E656" t="s">
+      <c r="F656" t="s">
+        <v>21</v>
+      </c>
+      <c r="G656" t="s">
         <v>3663</v>
-      </c>
-      <c r="F656" t="s">
-        <v>21</v>
-      </c>
-      <c r="G656" t="s">
-        <v>3664</v>
       </c>
       <c r="H656" t="s">
         <v>127</v>
@@ -38374,33 +38364,33 @@
         <v>1</v>
       </c>
       <c r="L656" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="P656" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>3039</v>
       </c>
       <c r="B657" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C657" t="s">
         <v>2932</v>
       </c>
       <c r="D657" t="s">
+        <v>3666</v>
+      </c>
+      <c r="E657" t="s">
         <v>3667</v>
       </c>
-      <c r="E657" t="s">
+      <c r="F657" t="s">
+        <v>21</v>
+      </c>
+      <c r="G657" t="s">
         <v>3668</v>
-      </c>
-      <c r="F657" t="s">
-        <v>21</v>
-      </c>
-      <c r="G657" t="s">
-        <v>3669</v>
       </c>
       <c r="H657" t="s">
         <v>127</v>
@@ -38415,33 +38405,33 @@
         <v>1</v>
       </c>
       <c r="L657" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="P657" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>3039</v>
       </c>
       <c r="B658" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="C658" t="s">
         <v>424</v>
       </c>
       <c r="D658" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E658" t="s">
         <v>3672</v>
       </c>
-      <c r="E658" t="s">
+      <c r="F658" t="s">
+        <v>21</v>
+      </c>
+      <c r="G658" t="s">
         <v>3673</v>
-      </c>
-      <c r="F658" t="s">
-        <v>21</v>
-      </c>
-      <c r="G658" t="s">
-        <v>3674</v>
       </c>
       <c r="H658" t="s">
         <v>127</v>
@@ -38462,27 +38452,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>3039</v>
       </c>
       <c r="B659" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="C659" t="s">
         <v>605</v>
       </c>
       <c r="D659" t="s">
+        <v>3675</v>
+      </c>
+      <c r="E659" t="s">
         <v>3676</v>
       </c>
-      <c r="E659" t="s">
+      <c r="F659" t="s">
+        <v>21</v>
+      </c>
+      <c r="G659" t="s">
         <v>3677</v>
-      </c>
-      <c r="F659" t="s">
-        <v>21</v>
-      </c>
-      <c r="G659" t="s">
-        <v>3678</v>
       </c>
       <c r="H659" t="s">
         <v>127</v>
@@ -38497,33 +38487,33 @@
         <v>2</v>
       </c>
       <c r="L659" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="P659" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>3039</v>
       </c>
       <c r="B660" t="s">
+        <v>3679</v>
+      </c>
+      <c r="C660" t="s">
         <v>3680</v>
       </c>
-      <c r="C660" t="s">
+      <c r="D660" t="s">
         <v>3681</v>
       </c>
-      <c r="D660" t="s">
+      <c r="E660" t="s">
         <v>3682</v>
       </c>
-      <c r="E660" t="s">
+      <c r="F660" t="s">
+        <v>21</v>
+      </c>
+      <c r="G660" t="s">
         <v>3683</v>
-      </c>
-      <c r="F660" t="s">
-        <v>21</v>
-      </c>
-      <c r="G660" t="s">
-        <v>3684</v>
       </c>
       <c r="H660" t="s">
         <v>127</v>
@@ -38538,33 +38528,33 @@
         <v>2</v>
       </c>
       <c r="L660" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="P660" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>3039</v>
       </c>
       <c r="B661" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C661" t="s">
         <v>3686</v>
       </c>
-      <c r="C661" t="s">
+      <c r="D661" t="s">
         <v>3687</v>
       </c>
-      <c r="D661" t="s">
+      <c r="E661" t="s">
         <v>3688</v>
       </c>
-      <c r="E661" t="s">
+      <c r="F661" t="s">
+        <v>21</v>
+      </c>
+      <c r="G661" t="s">
         <v>3689</v>
-      </c>
-      <c r="F661" t="s">
-        <v>21</v>
-      </c>
-      <c r="G661" t="s">
-        <v>3690</v>
       </c>
       <c r="H661" t="s">
         <v>127</v>
@@ -38579,33 +38569,33 @@
         <v>1</v>
       </c>
       <c r="L661" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="P661" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>3039</v>
       </c>
       <c r="B662" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C662" t="s">
         <v>3692</v>
       </c>
-      <c r="C662" t="s">
+      <c r="D662" t="s">
         <v>3693</v>
       </c>
-      <c r="D662" t="s">
+      <c r="E662" t="s">
         <v>3694</v>
       </c>
-      <c r="E662" t="s">
+      <c r="F662" t="s">
+        <v>21</v>
+      </c>
+      <c r="G662" t="s">
         <v>3695</v>
-      </c>
-      <c r="F662" t="s">
-        <v>21</v>
-      </c>
-      <c r="G662" t="s">
-        <v>3696</v>
       </c>
       <c r="H662" t="s">
         <v>127</v>
@@ -38620,13 +38610,13 @@
         <v>1</v>
       </c>
       <c r="L662" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="P662" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>3039</v>
       </c>
@@ -38634,19 +38624,19 @@
         <v>3316</v>
       </c>
       <c r="C663" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D663" t="s">
         <v>3698</v>
       </c>
-      <c r="D663" t="s">
+      <c r="E663" t="s">
         <v>3699</v>
       </c>
-      <c r="E663" t="s">
+      <c r="F663" t="s">
+        <v>21</v>
+      </c>
+      <c r="G663" t="s">
         <v>3700</v>
-      </c>
-      <c r="F663" t="s">
-        <v>21</v>
-      </c>
-      <c r="G663" t="s">
-        <v>3701</v>
       </c>
       <c r="H663" t="s">
         <v>127</v>
@@ -38661,33 +38651,33 @@
         <v>1</v>
       </c>
       <c r="L663" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="P663" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>3039</v>
       </c>
       <c r="B664" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C664" t="s">
         <v>3703</v>
       </c>
-      <c r="C664" t="s">
+      <c r="D664" t="s">
         <v>3704</v>
       </c>
-      <c r="D664" t="s">
+      <c r="E664" t="s">
         <v>3705</v>
       </c>
-      <c r="E664" t="s">
+      <c r="F664" t="s">
+        <v>21</v>
+      </c>
+      <c r="G664" t="s">
         <v>3706</v>
-      </c>
-      <c r="F664" t="s">
-        <v>21</v>
-      </c>
-      <c r="G664" t="s">
-        <v>3707</v>
       </c>
       <c r="H664" t="s">
         <v>127</v>
@@ -38702,33 +38692,33 @@
         <v>1</v>
       </c>
       <c r="L664" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="P664" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>3039</v>
       </c>
       <c r="B665" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C665" t="s">
         <v>3709</v>
       </c>
-      <c r="C665" t="s">
+      <c r="D665" t="s">
         <v>3710</v>
       </c>
-      <c r="D665" t="s">
+      <c r="E665" t="s">
         <v>3711</v>
       </c>
-      <c r="E665" t="s">
+      <c r="F665" t="s">
+        <v>21</v>
+      </c>
+      <c r="G665" t="s">
         <v>3712</v>
-      </c>
-      <c r="F665" t="s">
-        <v>21</v>
-      </c>
-      <c r="G665" t="s">
-        <v>3713</v>
       </c>
       <c r="H665" t="s">
         <v>127</v>
@@ -38743,13 +38733,13 @@
         <v>1</v>
       </c>
       <c r="L665" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="P665" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>3039</v>
       </c>
@@ -38757,19 +38747,19 @@
         <v>3338</v>
       </c>
       <c r="C666" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="D666" t="s">
+        <v>3714</v>
+      </c>
+      <c r="E666" t="s">
         <v>3715</v>
       </c>
-      <c r="E666" t="s">
+      <c r="F666" t="s">
+        <v>21</v>
+      </c>
+      <c r="G666" t="s">
         <v>3716</v>
-      </c>
-      <c r="F666" t="s">
-        <v>21</v>
-      </c>
-      <c r="G666" t="s">
-        <v>3717</v>
       </c>
       <c r="H666" t="s">
         <v>127</v>
@@ -38790,27 +38780,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>3039</v>
       </c>
       <c r="B667" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C667" t="s">
         <v>3718</v>
       </c>
-      <c r="C667" t="s">
+      <c r="D667" t="s">
         <v>3719</v>
       </c>
-      <c r="D667" t="s">
+      <c r="E667" t="s">
         <v>3720</v>
       </c>
-      <c r="E667" t="s">
+      <c r="F667" t="s">
+        <v>21</v>
+      </c>
+      <c r="G667" t="s">
         <v>3721</v>
-      </c>
-      <c r="F667" t="s">
-        <v>21</v>
-      </c>
-      <c r="G667" t="s">
-        <v>3722</v>
       </c>
       <c r="H667" t="s">
         <v>127</v>
@@ -38825,13 +38815,13 @@
         <v>1</v>
       </c>
       <c r="L667" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="P667" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>3039</v>
       </c>
@@ -38839,13 +38829,13 @@
         <v>300</v>
       </c>
       <c r="C668" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D668" t="s">
         <v>3724</v>
       </c>
-      <c r="D668" t="s">
+      <c r="E668" t="s">
         <v>3725</v>
-      </c>
-      <c r="E668" t="s">
-        <v>3726</v>
       </c>
       <c r="F668" t="s">
         <v>21</v>
@@ -38866,33 +38856,33 @@
         <v>1</v>
       </c>
       <c r="L668" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="P668" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>3039</v>
       </c>
       <c r="B669" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C669" t="s">
         <v>3728</v>
       </c>
-      <c r="C669" t="s">
+      <c r="D669" t="s">
         <v>3729</v>
       </c>
-      <c r="D669" t="s">
+      <c r="E669" t="s">
         <v>3730</v>
       </c>
-      <c r="E669" t="s">
+      <c r="F669" t="s">
+        <v>21</v>
+      </c>
+      <c r="G669" t="s">
         <v>3731</v>
-      </c>
-      <c r="F669" t="s">
-        <v>21</v>
-      </c>
-      <c r="G669" t="s">
-        <v>3732</v>
       </c>
       <c r="H669" t="s">
         <v>127</v>
@@ -38907,33 +38897,33 @@
         <v>1</v>
       </c>
       <c r="L669" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="P669" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>3039</v>
       </c>
       <c r="B670" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C670" t="s">
         <v>3734</v>
       </c>
-      <c r="C670" t="s">
+      <c r="D670" t="s">
         <v>3735</v>
       </c>
-      <c r="D670" t="s">
+      <c r="E670" t="s">
         <v>3736</v>
       </c>
-      <c r="E670" t="s">
+      <c r="F670" t="s">
+        <v>21</v>
+      </c>
+      <c r="G670" t="s">
         <v>3737</v>
-      </c>
-      <c r="F670" t="s">
-        <v>21</v>
-      </c>
-      <c r="G670" t="s">
-        <v>3738</v>
       </c>
       <c r="H670" t="s">
         <v>127</v>
@@ -38954,27 +38944,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>3039</v>
       </c>
       <c r="B671" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C671" t="s">
         <v>3739</v>
       </c>
-      <c r="C671" t="s">
+      <c r="D671" t="s">
         <v>3740</v>
       </c>
-      <c r="D671" t="s">
+      <c r="E671" t="s">
         <v>3741</v>
       </c>
-      <c r="E671" t="s">
+      <c r="F671" t="s">
+        <v>21</v>
+      </c>
+      <c r="G671" t="s">
         <v>3742</v>
-      </c>
-      <c r="F671" t="s">
-        <v>21</v>
-      </c>
-      <c r="G671" t="s">
-        <v>3743</v>
       </c>
       <c r="H671" t="s">
         <v>127</v>
@@ -38989,33 +38979,33 @@
         <v>1</v>
       </c>
       <c r="L671" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="P671" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>3039</v>
       </c>
       <c r="B672" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C672" t="s">
         <v>3228</v>
       </c>
       <c r="D672" t="s">
+        <v>3745</v>
+      </c>
+      <c r="E672" t="s">
         <v>3746</v>
       </c>
-      <c r="E672" t="s">
+      <c r="F672" t="s">
+        <v>21</v>
+      </c>
+      <c r="G672" t="s">
         <v>3747</v>
-      </c>
-      <c r="F672" t="s">
-        <v>21</v>
-      </c>
-      <c r="G672" t="s">
-        <v>3748</v>
       </c>
       <c r="H672" t="s">
         <v>127</v>
@@ -39030,33 +39020,33 @@
         <v>1</v>
       </c>
       <c r="L672" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="P672" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>3039</v>
       </c>
       <c r="B673" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="C673" t="s">
         <v>3051</v>
       </c>
       <c r="D673" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E673" t="s">
         <v>3751</v>
       </c>
-      <c r="E673" t="s">
+      <c r="F673" t="s">
+        <v>21</v>
+      </c>
+      <c r="G673" t="s">
         <v>3752</v>
-      </c>
-      <c r="F673" t="s">
-        <v>21</v>
-      </c>
-      <c r="G673" t="s">
-        <v>3753</v>
       </c>
       <c r="H673" t="s">
         <v>127</v>
@@ -39071,33 +39061,33 @@
         <v>1</v>
       </c>
       <c r="L673" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="P673" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>3039</v>
       </c>
       <c r="B674" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C674" t="s">
         <v>3755</v>
       </c>
-      <c r="C674" t="s">
+      <c r="D674" t="s">
         <v>3756</v>
       </c>
-      <c r="D674" t="s">
+      <c r="E674" t="s">
         <v>3757</v>
       </c>
-      <c r="E674" t="s">
+      <c r="F674" t="s">
+        <v>21</v>
+      </c>
+      <c r="G674" t="s">
         <v>3758</v>
-      </c>
-      <c r="F674" t="s">
-        <v>21</v>
-      </c>
-      <c r="G674" t="s">
-        <v>3759</v>
       </c>
       <c r="H674" t="s">
         <v>127</v>
@@ -39112,33 +39102,33 @@
         <v>1</v>
       </c>
       <c r="L674" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="P674" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>3039</v>
       </c>
       <c r="B675" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C675" t="s">
         <v>3761</v>
       </c>
-      <c r="C675" t="s">
+      <c r="D675" t="s">
         <v>3762</v>
       </c>
-      <c r="D675" t="s">
+      <c r="E675" t="s">
         <v>3763</v>
       </c>
-      <c r="E675" t="s">
+      <c r="F675" t="s">
+        <v>21</v>
+      </c>
+      <c r="G675" t="s">
         <v>3764</v>
-      </c>
-      <c r="F675" t="s">
-        <v>21</v>
-      </c>
-      <c r="G675" t="s">
-        <v>3765</v>
       </c>
       <c r="H675" t="s">
         <v>127</v>
@@ -39153,33 +39143,33 @@
         <v>1</v>
       </c>
       <c r="L675" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="P675" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>3039</v>
       </c>
       <c r="B676" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C676" t="s">
         <v>3767</v>
       </c>
-      <c r="C676" t="s">
+      <c r="D676" t="s">
         <v>3768</v>
       </c>
-      <c r="D676" t="s">
+      <c r="E676" t="s">
         <v>3769</v>
       </c>
-      <c r="E676" t="s">
+      <c r="F676" t="s">
+        <v>21</v>
+      </c>
+      <c r="G676" t="s">
         <v>3770</v>
-      </c>
-      <c r="F676" t="s">
-        <v>21</v>
-      </c>
-      <c r="G676" t="s">
-        <v>3771</v>
       </c>
       <c r="H676" t="s">
         <v>127</v>
@@ -39194,7 +39184,7 @@
         <v>1</v>
       </c>
       <c r="L676" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="P676" t="b">
         <v>1</v>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\OneDrive\Desktop\Commons\vocabylary-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22714734-2602-4ECA-AB9B-A2E730AF5596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ADA22A-33BA-4E2C-B98F-838CCDD62133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11738,8 +11738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G269" workbookViewId="0">
-      <selection activeCell="G656" sqref="G656"/>
+    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118:G676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16587,8 +16587,8 @@
         <v>643</v>
       </c>
       <c r="G118" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B2, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/classroom.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B118, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/vacancy.png</v>
       </c>
       <c r="H118" t="s">
         <v>21</v>
@@ -16778,8 +16778,8 @@
         <v>673</v>
       </c>
       <c r="G123" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B7, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/book.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B123, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/qualifications.png</v>
       </c>
       <c r="H123" t="s">
         <v>21</v>
@@ -16893,8 +16893,8 @@
         <v>690</v>
       </c>
       <c r="G126" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B10, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/school.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B126, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/probation.png</v>
       </c>
       <c r="H126" t="s">
         <v>21</v>
@@ -16970,8 +16970,8 @@
         <v>703</v>
       </c>
       <c r="G128" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B12, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/assignment.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B128, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/wage.png</v>
       </c>
       <c r="H128" t="s">
         <v>21</v>
@@ -17047,8 +17047,8 @@
         <v>715</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" ref="G130:G131" si="0">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B14, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/tutor.png</v>
+        <f t="shared" ref="G130:G131" si="0">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B130, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/paid%20leave.png</v>
       </c>
       <c r="H130" t="s">
         <v>21</v>
@@ -17087,7 +17087,7 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/curriculum.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/unpaid%20leave.png</v>
       </c>
       <c r="H131" t="s">
         <v>21</v>
@@ -17163,8 +17163,8 @@
         <v>733</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" ref="G133:G134" si="1">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B17, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/project.png</v>
+        <f t="shared" ref="G133:G134" si="1">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B133, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/maternity%20leave.png</v>
       </c>
       <c r="H133" t="s">
         <v>21</v>
@@ -17203,7 +17203,7 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/notebook.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pension.png</v>
       </c>
       <c r="H134" t="s">
         <v>21</v>
@@ -17279,8 +17279,8 @@
         <v>751</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" ref="G136:G139" si="2">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B20, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/questionnaire.png</v>
+        <f t="shared" ref="G136:G139" si="2">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B136, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/allowance.png</v>
       </c>
       <c r="H136" t="s">
         <v>21</v>
@@ -17319,7 +17319,7 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/revision.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hierarchy.png</v>
       </c>
       <c r="H137" t="s">
         <v>21</v>
@@ -17358,7 +17358,7 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/scholarship.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/workplace%20harassment.png</v>
       </c>
       <c r="H138" t="s">
         <v>21</v>
@@ -17397,7 +17397,7 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/university.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/diversity.png</v>
       </c>
       <c r="H139" t="s">
         <v>21</v>
@@ -17473,8 +17473,8 @@
         <v>783</v>
       </c>
       <c r="G141" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B25, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/research.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B141, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/corporate%20culture.png</v>
       </c>
       <c r="H141" t="s">
         <v>21</v>
@@ -17626,8 +17626,8 @@
         <v>810</v>
       </c>
       <c r="G145" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B29, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/statistics.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B145, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/appraisal.png</v>
       </c>
       <c r="H145" t="s">
         <v>21</v>
@@ -17703,8 +17703,8 @@
         <v>823</v>
       </c>
       <c r="G147" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B31, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reference.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B147, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/delegation.png</v>
       </c>
       <c r="H147" t="s">
         <v>21</v>
@@ -17894,8 +17894,8 @@
         <v>857</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" ref="G152:G155" si="3">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B36, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/syllabus.png</v>
+        <f t="shared" ref="G152:G155" si="3">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B152, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/underemployment.png</v>
       </c>
       <c r="H152" t="s">
         <v>21</v>
@@ -17934,7 +17934,7 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/multilingual.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/job%20security.png</v>
       </c>
       <c r="H153" t="s">
         <v>21</v>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conceptualize.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/turnover%20rate.png</v>
       </c>
       <c r="H154" t="s">
         <v>21</v>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="3"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/methodology.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/gig%20economy.png</v>
       </c>
       <c r="H155" t="s">
         <v>21</v>
@@ -18621,8 +18621,8 @@
         <v>21</v>
       </c>
       <c r="G170" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B54, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/present.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B170, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/engagement.png</v>
       </c>
       <c r="H170" t="s">
         <v>76</v>
@@ -18909,8 +18909,8 @@
         <v>21</v>
       </c>
       <c r="G177" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B61, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/educational.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B177, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/acquaintance.png</v>
       </c>
       <c r="H177" t="s">
         <v>127</v>
@@ -19115,8 +19115,8 @@
         <v>21</v>
       </c>
       <c r="G182" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B66, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/practical.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B182, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/affection.png</v>
       </c>
       <c r="H182" t="s">
         <v>127</v>
@@ -19198,8 +19198,8 @@
         <v>21</v>
       </c>
       <c r="G184" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B68, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/higher%20education.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B184, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reconciliation.png</v>
       </c>
       <c r="H184" t="s">
         <v>127</v>
@@ -19281,8 +19281,8 @@
         <v>21</v>
       </c>
       <c r="G186" t="str">
-        <f t="shared" ref="G186:G190" si="4">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B70, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/learning%20difficulties.png</v>
+        <f t="shared" ref="G186:G190" si="4">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B186, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/reliability.png</v>
       </c>
       <c r="H186" t="s">
         <v>127</v>
@@ -19324,7 +19324,7 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/virtual%20learning.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/compatibility.png</v>
       </c>
       <c r="H187" t="s">
         <v>178</v>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/learning%20platform.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/intimacy.png</v>
       </c>
       <c r="H188" t="s">
         <v>178</v>
@@ -19408,7 +19408,7 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/learning%20materials.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/alienation.png</v>
       </c>
       <c r="H189" t="s">
         <v>178</v>
@@ -19450,7 +19450,7 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="4"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/vocational%20school.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/estrangement.png</v>
       </c>
       <c r="H190" t="s">
         <v>178</v>
@@ -19655,8 +19655,8 @@
         <v>21</v>
       </c>
       <c r="G195" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B79, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/office.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B195, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/attachment.png</v>
       </c>
       <c r="H195" t="s">
         <v>178</v>
@@ -21911,8 +21911,8 @@
         <v>21</v>
       </c>
       <c r="G250" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B134, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pension.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B250, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/breeze.png</v>
       </c>
       <c r="H250" t="s">
         <v>76</v>
@@ -22117,8 +22117,8 @@
         <v>21</v>
       </c>
       <c r="G255" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B139, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/diversity.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B255, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/drizzle.png</v>
       </c>
       <c r="H255" t="s">
         <v>76</v>
@@ -22282,8 +22282,8 @@
         <v>21</v>
       </c>
       <c r="G259" t="str">
-        <f t="shared" ref="G259:G261" si="5">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B143, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/shift%20work.png</v>
+        <f t="shared" ref="G259:G261" si="5">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B259, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/drought.png</v>
       </c>
       <c r="H259" t="s">
         <v>127</v>
@@ -22325,7 +22325,7 @@
       </c>
       <c r="G260" t="str">
         <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/flexible%20hours.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/frost.png</v>
       </c>
       <c r="H260" t="s">
         <v>127</v>
@@ -22367,7 +22367,7 @@
       </c>
       <c r="G261" t="str">
         <f t="shared" si="5"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/appraisal.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/gale.png</v>
       </c>
       <c r="H261" t="s">
         <v>127</v>
@@ -22490,8 +22490,8 @@
         <v>21</v>
       </c>
       <c r="G264" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B148, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/brainstorming.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B264, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/precipitation.png</v>
       </c>
       <c r="H264" t="s">
         <v>127</v>
@@ -22573,8 +22573,8 @@
         <v>21</v>
       </c>
       <c r="G266" t="str">
-        <f t="shared" ref="G266:G274" si="6">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B150, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/multitasking.png</v>
+        <f t="shared" ref="G266:G274" si="6">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B266, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/blizzard.png</v>
       </c>
       <c r="H266" t="s">
         <v>127</v>
@@ -22616,7 +22616,7 @@
       </c>
       <c r="G267" t="str">
         <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/unemployment.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/meteorology.png</v>
       </c>
       <c r="H267" t="s">
         <v>178</v>
@@ -22658,7 +22658,7 @@
       </c>
       <c r="G268" t="str">
         <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/underemployment.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/avalanche.png</v>
       </c>
       <c r="H268" t="s">
         <v>178</v>
@@ -22700,7 +22700,7 @@
       </c>
       <c r="G269" t="str">
         <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/job%20security.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/temperature%20inversion.png</v>
       </c>
       <c r="H269" t="s">
         <v>178</v>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="G270" t="str">
         <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/turnover%20rate.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/microclimate.png</v>
       </c>
       <c r="H270" t="s">
         <v>178</v>
@@ -22784,7 +22784,7 @@
       </c>
       <c r="G271" t="str">
         <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/gig%20economy.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/isobar.png</v>
       </c>
       <c r="H271" t="s">
         <v>178</v>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="G272" t="str">
         <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/outsourcing.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/anemometer.png</v>
       </c>
       <c r="H272" t="s">
         <v>178</v>
@@ -22868,7 +22868,7 @@
       </c>
       <c r="G273" t="str">
         <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/friend.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/dew%20point.png</v>
       </c>
       <c r="H273" t="s">
         <v>178</v>
@@ -22910,7 +22910,7 @@
       </c>
       <c r="G274" t="str">
         <f t="shared" si="6"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/family.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/stratosphere.png</v>
       </c>
       <c r="H274" t="s">
         <v>178</v>
@@ -22992,8 +22992,8 @@
         <v>21</v>
       </c>
       <c r="G276" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B160, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/marriage.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B276, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hurricane.png</v>
       </c>
       <c r="H276" t="s">
         <v>178</v>
@@ -32817,8 +32817,8 @@
         <v>21</v>
       </c>
       <c r="G520" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B404, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/air.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B520, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/itinerary.png</v>
       </c>
       <c r="H520" t="s">
         <v>127</v>
@@ -32941,8 +32941,8 @@
         <v>21</v>
       </c>
       <c r="G523" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B407, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pollution.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B523, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/departure.png</v>
       </c>
       <c r="H523" t="s">
         <v>127</v>
@@ -33311,8 +33311,8 @@
         <v>21</v>
       </c>
       <c r="G532" t="str">
-        <f t="shared" ref="G532:G533" si="7">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B416, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/global%20warming.png</v>
+        <f t="shared" ref="G532:G533" si="7">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B532, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/backpacking.png</v>
       </c>
       <c r="H532" t="s">
         <v>178</v>
@@ -33354,7 +33354,7 @@
       </c>
       <c r="G533" t="str">
         <f t="shared" si="7"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conservation.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cruise.png</v>
       </c>
       <c r="H533" t="s">
         <v>178</v>
@@ -33887,8 +33887,8 @@
         <v>21</v>
       </c>
       <c r="G546" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B430, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sustainable%20development.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B546, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conclude.png</v>
       </c>
       <c r="H546" t="s">
         <v>127</v>
@@ -34257,8 +34257,8 @@
         <v>21</v>
       </c>
       <c r="G555" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B439, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/mountain.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B555, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/determine.png</v>
       </c>
       <c r="H555" t="s">
         <v>127</v>
@@ -34340,8 +34340,8 @@
         <v>21</v>
       </c>
       <c r="G557" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B441, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/beach.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B557, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/emphasize.png</v>
       </c>
       <c r="H557" t="s">
         <v>127</v>
@@ -34956,8 +34956,8 @@
         <v>21</v>
       </c>
       <c r="G572" t="str">
-        <f t="shared" ref="G572:G573" si="8">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B456, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/global%20warming.png</v>
+        <f t="shared" ref="G572:G573" si="8">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B572, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/intend.png</v>
       </c>
       <c r="H572" t="s">
         <v>127</v>
@@ -34999,7 +34999,7 @@
       </c>
       <c r="G573" t="str">
         <f t="shared" si="8"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conservation.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/involve.png</v>
       </c>
       <c r="H573" t="s">
         <v>127</v>
@@ -35532,8 +35532,8 @@
         <v>21</v>
       </c>
       <c r="G586" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B470, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sustainable%20development.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B586, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/vary.png</v>
       </c>
       <c r="H586" t="s">
         <v>127</v>
@@ -35615,8 +35615,8 @@
         <v>21</v>
       </c>
       <c r="G588" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B472, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/microplastics.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B588, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/alter.png</v>
       </c>
       <c r="H588" t="s">
         <v>127</v>
@@ -35698,8 +35698,8 @@
         <v>21</v>
       </c>
       <c r="G590" t="str">
-        <f t="shared" ref="G590:G591" si="9">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B474, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/organic%20farming.png</v>
+        <f t="shared" ref="G590:G591" si="9">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B590, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/attain.png</v>
       </c>
       <c r="H590" t="s">
         <v>127</v>
@@ -35741,7 +35741,7 @@
       </c>
       <c r="G591" t="str">
         <f t="shared" si="9"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/environmental%20awareness.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/clarify.png</v>
       </c>
       <c r="H591" t="s">
         <v>127</v>
@@ -35987,8 +35987,8 @@
         <v>21</v>
       </c>
       <c r="G597" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B481, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/hydropower.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B597, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/decline.png</v>
       </c>
       <c r="H597" t="s">
         <v>127</v>
@@ -36070,8 +36070,8 @@
         <v>21</v>
       </c>
       <c r="G599" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B483, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/environmental%20protection.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B599, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/derive.png</v>
       </c>
       <c r="H599" t="s">
         <v>127</v>
@@ -36194,8 +36194,8 @@
         <v>21</v>
       </c>
       <c r="G602" t="str">
-        <f t="shared" ref="G602:G603" si="10">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B486, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/environmental%20impact.png</v>
+        <f t="shared" ref="G602:G603" si="10">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B602, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/diminish.png</v>
       </c>
       <c r="H602" t="s">
         <v>127</v>
@@ -36237,7 +36237,7 @@
       </c>
       <c r="G603" t="str">
         <f t="shared" si="10"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/carbon%20emissions.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/disclose.png</v>
       </c>
       <c r="H603" t="s">
         <v>127</v>
@@ -36360,8 +36360,8 @@
         <v>21</v>
       </c>
       <c r="G606" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B490, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/soil%20erosion.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B606, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/employ.png</v>
       </c>
       <c r="H606" t="s">
         <v>127</v>
@@ -36566,8 +36566,8 @@
         <v>21</v>
       </c>
       <c r="G611" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B495, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/eco-tourism.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B611, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/exceed.png</v>
       </c>
       <c r="H611" t="s">
         <v>127</v>
@@ -36731,8 +36731,8 @@
         <v>21</v>
       </c>
       <c r="G615" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B499, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/train.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B615, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/facilitate.png</v>
       </c>
       <c r="H615" t="s">
         <v>127</v>
@@ -36855,8 +36855,8 @@
         <v>21</v>
       </c>
       <c r="G618" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B502, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/boat.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B618, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/interpret.png</v>
       </c>
       <c r="H618" t="s">
         <v>127</v>
@@ -36938,8 +36938,8 @@
         <v>21</v>
       </c>
       <c r="G620" t="str">
-        <f t="shared" ref="G620:G621" si="11">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B504, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/road.png</v>
+        <f t="shared" ref="G620:G621" si="11">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B620, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/justify.png</v>
       </c>
       <c r="H620" t="s">
         <v>127</v>
@@ -36981,7 +36981,7 @@
       </c>
       <c r="G621" t="str">
         <f t="shared" si="11"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ticket.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/locate.png</v>
       </c>
       <c r="H621" t="s">
         <v>127</v>
@@ -37063,8 +37063,8 @@
         <v>21</v>
       </c>
       <c r="G623" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B507, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/journey.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B623, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/monitor.png</v>
       </c>
       <c r="H623" t="s">
         <v>127</v>
@@ -37146,8 +37146,8 @@
         <v>21</v>
       </c>
       <c r="G625" t="str">
-        <f t="shared" ref="G625:G626" si="12">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B509, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/driver.png</v>
+        <f t="shared" ref="G625:G626" si="12">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B625, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/overcome.png</v>
       </c>
       <c r="H625" t="s">
         <v>127</v>
@@ -37189,7 +37189,7 @@
       </c>
       <c r="G626" t="str">
         <f t="shared" si="12"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/station.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/perceive.png</v>
       </c>
       <c r="H626" t="s">
         <v>127</v>
@@ -37271,8 +37271,8 @@
         <v>21</v>
       </c>
       <c r="G628" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B512, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/flight.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B628, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/pursue.png</v>
       </c>
       <c r="H628" t="s">
         <v>127</v>
@@ -37395,8 +37395,8 @@
         <v>21</v>
       </c>
       <c r="G631" t="str">
-        <f t="shared" ref="G631:G633" si="13">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B515, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/platform.png</v>
+        <f t="shared" ref="G631:G633" si="13">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B631, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/retain.png</v>
       </c>
       <c r="H631" t="s">
         <v>127</v>
@@ -37438,7 +37438,7 @@
       </c>
       <c r="G632" t="str">
         <f t="shared" si="13"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/subway.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/revise.png</v>
       </c>
       <c r="H632" t="s">
         <v>127</v>
@@ -37480,7 +37480,7 @@
       </c>
       <c r="G633" t="str">
         <f t="shared" si="13"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/transportation.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/secure.png</v>
       </c>
       <c r="H633" t="s">
         <v>127</v>
@@ -37562,8 +37562,8 @@
         <v>21</v>
       </c>
       <c r="G635" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B519, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/navigation.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B635, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/specify.png</v>
       </c>
       <c r="H635" t="s">
         <v>127</v>
@@ -37686,8 +37686,8 @@
         <v>21</v>
       </c>
       <c r="G638" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B522, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/carpooling.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B638, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/transform.png</v>
       </c>
       <c r="H638" t="s">
         <v>127</v>
@@ -37810,8 +37810,8 @@
         <v>21</v>
       </c>
       <c r="G641" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B525, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/motorcycle.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B641, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/account%20for.png</v>
       </c>
       <c r="H641" t="s">
         <v>127</v>
@@ -37893,8 +37893,8 @@
         <v>21</v>
       </c>
       <c r="G643" t="str">
-        <f t="shared" ref="G643:G649" si="14">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B527, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/aviation.png</v>
+        <f t="shared" ref="G643:G649" si="14">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B643, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/bring%20about.png</v>
       </c>
       <c r="H643" t="s">
         <v>127</v>
@@ -37936,7 +37936,7 @@
       </c>
       <c r="G644" t="str">
         <f t="shared" si="14"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/customs.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/build%20up.png</v>
       </c>
       <c r="H644" t="s">
         <v>127</v>
@@ -37978,7 +37978,7 @@
       </c>
       <c r="G645" t="str">
         <f t="shared" si="14"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/immigration.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/carry%20out.png</v>
       </c>
       <c r="H645" t="s">
         <v>127</v>
@@ -38020,7 +38020,7 @@
       </c>
       <c r="G646" t="str">
         <f t="shared" si="14"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/expedition.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/come%20across.png</v>
       </c>
       <c r="H646" t="s">
         <v>127</v>
@@ -38062,7 +38062,7 @@
       </c>
       <c r="G647" t="str">
         <f t="shared" si="14"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/layover.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/come%20up%20with.png</v>
       </c>
       <c r="H647" t="s">
         <v>127</v>
@@ -38104,7 +38104,7 @@
       </c>
       <c r="G648" t="str">
         <f t="shared" si="14"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/backpacking.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/consist%20of.png</v>
       </c>
       <c r="H648" t="s">
         <v>127</v>
@@ -38146,7 +38146,7 @@
       </c>
       <c r="G649" t="str">
         <f t="shared" si="14"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cruise.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/cut%20down%20(on).png</v>
       </c>
       <c r="H649" t="s">
         <v>127</v>
@@ -38228,8 +38228,8 @@
         <v>21</v>
       </c>
       <c r="G651" t="str">
-        <f t="shared" ref="G651:G654" si="15">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B535, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/urban%20transport.png</v>
+        <f t="shared" ref="G651:G654" si="15">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B651, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/dwell%20on.png</v>
       </c>
       <c r="H651" t="s">
         <v>127</v>
@@ -38271,7 +38271,7 @@
       </c>
       <c r="G652" t="str">
         <f t="shared" si="15"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sustainable%20travel.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/fall%20apart.png</v>
       </c>
       <c r="H652" t="s">
         <v>127</v>
@@ -38313,7 +38313,7 @@
       </c>
       <c r="G653" t="str">
         <f t="shared" si="15"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/achieve.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/find%20out.png</v>
       </c>
       <c r="H653" t="s">
         <v>127</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="G654" t="str">
         <f t="shared" si="15"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/adapt.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/figure%20out.png</v>
       </c>
       <c r="H654" t="s">
         <v>127</v>
@@ -38437,8 +38437,8 @@
         <v>21</v>
       </c>
       <c r="G656" t="str">
-        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B540, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/analyze.png</v>
+        <f>"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B656, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/get%20rid%20of.png</v>
       </c>
       <c r="H656" t="s">
         <v>127</v>
@@ -38561,8 +38561,8 @@
         <v>21</v>
       </c>
       <c r="G659" t="str">
-        <f t="shared" ref="G659:G663" si="16">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B543, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/attract.png</v>
+        <f t="shared" ref="G659:G663" si="16">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B659, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/look%20after.png</v>
       </c>
       <c r="H659" t="s">
         <v>127</v>
@@ -38604,7 +38604,7 @@
       </c>
       <c r="G660" t="str">
         <f t="shared" si="16"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/avoid.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/look%20for.png</v>
       </c>
       <c r="H660" t="s">
         <v>127</v>
@@ -38646,7 +38646,7 @@
       </c>
       <c r="G661" t="str">
         <f t="shared" si="16"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/compare.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/look%20into.png</v>
       </c>
       <c r="H661" t="s">
         <v>127</v>
@@ -38688,7 +38688,7 @@
       </c>
       <c r="G662" t="str">
         <f t="shared" si="16"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/conclude.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/look%20up%20to.png</v>
       </c>
       <c r="H662" t="s">
         <v>127</v>
@@ -38730,7 +38730,7 @@
       </c>
       <c r="G663" t="str">
         <f t="shared" si="16"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/confirm.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/make%20up%20(for).png</v>
       </c>
       <c r="H663" t="s">
         <v>127</v>
@@ -38812,8 +38812,8 @@
         <v>21</v>
       </c>
       <c r="G665" t="str">
-        <f t="shared" ref="G665:G666" si="17">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B549, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/contribute.png</v>
+        <f t="shared" ref="G665:G666" si="17">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B665, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/put%20off.png</v>
       </c>
       <c r="H665" t="s">
         <v>127</v>
@@ -38855,7 +38855,7 @@
       </c>
       <c r="G666" t="str">
         <f t="shared" si="17"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/convert.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/refer%20to.png</v>
       </c>
       <c r="H666" t="s">
         <v>127</v>
@@ -39060,8 +39060,8 @@
         <v>21</v>
       </c>
       <c r="G671" t="str">
-        <f t="shared" ref="G671:G672" si="18">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B555, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/determine.png</v>
+        <f t="shared" ref="G671:G672" si="18">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B671, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/sum%20up.png</v>
       </c>
       <c r="H671" t="s">
         <v>127</v>
@@ -39103,7 +39103,7 @@
       </c>
       <c r="G672" t="str">
         <f t="shared" si="18"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/develop.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/take%20advantage%20of.png</v>
       </c>
       <c r="H672" t="s">
         <v>127</v>
@@ -39185,8 +39185,8 @@
         <v>21</v>
       </c>
       <c r="G674" t="str">
-        <f t="shared" ref="G674:G676" si="19">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B558, " ", "%20") &amp; ".png"</f>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/enable.png</v>
+        <f t="shared" ref="G674:G676" si="19">"https://raw.githubusercontent.com/minhne432/vocabulary-images/main/" &amp; SUBSTITUTE(B674, " ", "%20") &amp; ".png"</f>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/take%20place.png</v>
       </c>
       <c r="H674" t="s">
         <v>127</v>
@@ -39228,7 +39228,7 @@
       </c>
       <c r="G675" t="str">
         <f t="shared" si="19"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/enhance.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/turn%20out.png</v>
       </c>
       <c r="H675" t="s">
         <v>127</v>
@@ -39270,7 +39270,7 @@
       </c>
       <c r="G676" t="str">
         <f t="shared" si="19"/>
-        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/ensure.png</v>
+        <v>https://raw.githubusercontent.com/minhne432/vocabulary-images/main/work%20out.png</v>
       </c>
       <c r="H676" t="s">
         <v>127</v>

--- a/vstep_vocabulary.xlsx
+++ b/vstep_vocabulary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh\OneDrive\Desktop\Commons\vocabylary-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A24B974-964D-4649-8C0A-F5ED1EBE93D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD5E8D0-DA71-4C81-9692-E9730C13E78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6766" uniqueCount="4443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7402" uniqueCount="4868">
   <si>
     <t>topic</t>
   </si>
@@ -13349,15 +13349,1297 @@
   </si>
   <si>
     <t>2025-08-09T04:15:48.438Z</t>
+  </si>
+  <si>
+    <t>acute</t>
+  </si>
+  <si>
+    <t>cấp tính</t>
+  </si>
+  <si>
+    <t>Acute is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Acute là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>chronic</t>
+  </si>
+  <si>
+    <t>mãn tính</t>
+  </si>
+  <si>
+    <t>Chronic is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Chronic là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>mortality</t>
+  </si>
+  <si>
+    <t>tử vong</t>
+  </si>
+  <si>
+    <t>Mortality is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Mortality là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>morbidity</t>
+  </si>
+  <si>
+    <t>tỷ lệ mắc bệnh</t>
+  </si>
+  <si>
+    <t>Morbidity is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Morbidity là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>prevalence</t>
+  </si>
+  <si>
+    <t>tỷ lệ hiện mắc</t>
+  </si>
+  <si>
+    <t>Prevalence is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Prevalence là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>incidence</t>
+  </si>
+  <si>
+    <t>tỷ lệ mắc mới</t>
+  </si>
+  <si>
+    <t>Incidence is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Incidence là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>risk factor</t>
+  </si>
+  <si>
+    <t>yếu tố nguy cơ</t>
+  </si>
+  <si>
+    <t>Risk factor can increase the chance of disease.</t>
+  </si>
+  <si>
+    <t>Risk factor có thể làm tăng nguy cơ mắc bệnh.</t>
+  </si>
+  <si>
+    <t>exposure</t>
+  </si>
+  <si>
+    <t>phơi nhiễm</t>
+  </si>
+  <si>
+    <t>Exposure can increase the chance of disease.</t>
+  </si>
+  <si>
+    <t>Exposure có thể làm tăng nguy cơ mắc bệnh.</t>
+  </si>
+  <si>
+    <t>life expectancy</t>
+  </si>
+  <si>
+    <t>tuổi thọ trung bình</t>
+  </si>
+  <si>
+    <t>Life expectancy is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Life expectancy là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>quality of life</t>
+  </si>
+  <si>
+    <t>chất lượng cuộc sống</t>
+  </si>
+  <si>
+    <t>Quality of life is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Quality of life là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>hygiene</t>
+  </si>
+  <si>
+    <t>vệ sinh</t>
+  </si>
+  <si>
+    <t>Hygiene helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Hygiene giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>sanitation</t>
+  </si>
+  <si>
+    <t>vệ sinh môi trường</t>
+  </si>
+  <si>
+    <t>Sanitation helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Sanitation giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>handwashing</t>
+  </si>
+  <si>
+    <t>rửa tay</t>
+  </si>
+  <si>
+    <t>Handwashing helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Handwashing giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>bùng phát</t>
+  </si>
+  <si>
+    <t>Outbreak helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Outbreak giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>lây truyền</t>
+  </si>
+  <si>
+    <t>Transmission helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Transmission giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>contact tracing</t>
+  </si>
+  <si>
+    <t>truy vết tiếp xúc</t>
+  </si>
+  <si>
+    <t>Contact tracing helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Contact tracing giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>containment</t>
+  </si>
+  <si>
+    <t>khoanh vùng kiểm soát</t>
+  </si>
+  <si>
+    <t>Containment helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Containment giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>mitigation</t>
+  </si>
+  <si>
+    <t>giảm thiểu tác hại</t>
+  </si>
+  <si>
+    <t>Mitigation helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Mitigation giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>lockdown</t>
+  </si>
+  <si>
+    <t>phong tỏa</t>
+  </si>
+  <si>
+    <t>Lockdown helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Lockdown giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>cách ly y tế</t>
+  </si>
+  <si>
+    <t>Isolation helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Isolation giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>herd immunity</t>
+  </si>
+  <si>
+    <t>miễn dịch cộng đồng</t>
+  </si>
+  <si>
+    <t>Herd immunity helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Herd immunity giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>booster shot</t>
+  </si>
+  <si>
+    <t>mũi tăng cường</t>
+  </si>
+  <si>
+    <t>Booster shot helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Booster shot giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>screening</t>
+  </si>
+  <si>
+    <t>tầm soát</t>
+  </si>
+  <si>
+    <t>Screening helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Screening giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>early detection</t>
+  </si>
+  <si>
+    <t>phát hiện sớm</t>
+  </si>
+  <si>
+    <t>Early detection helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Early detection giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>health promotion</t>
+  </si>
+  <si>
+    <t>tăng cường sức khỏe</t>
+  </si>
+  <si>
+    <t>Health promotion helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Health promotion giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>obesity</t>
+  </si>
+  <si>
+    <t>béo phì</t>
+  </si>
+  <si>
+    <t>Obesity is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Obesity là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>overweight</t>
+  </si>
+  <si>
+    <t>thừa cân</t>
+  </si>
+  <si>
+    <t>Overweight is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Overweight là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>tiểu đường</t>
+  </si>
+  <si>
+    <t>Diabetes is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Diabetes là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>hypertension</t>
+  </si>
+  <si>
+    <t>tăng huyết áp</t>
+  </si>
+  <si>
+    <t>Hypertension is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Hypertension là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>đột quỵ</t>
+  </si>
+  <si>
+    <t>Stroke is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Stroke là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>heart attack</t>
+  </si>
+  <si>
+    <t>nhồi máu cơ tim</t>
+  </si>
+  <si>
+    <t>Heart attack is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Heart attack là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>ung thư</t>
+  </si>
+  <si>
+    <t>Cancer is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Cancer là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>tumor</t>
+  </si>
+  <si>
+    <t>khối u</t>
+  </si>
+  <si>
+    <t>Tumor is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Tumor là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>hen suyễn</t>
+  </si>
+  <si>
+    <t>Asthma is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Asthma là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>viêm phổi</t>
+  </si>
+  <si>
+    <t>Pneumonia is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Pneumonia là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>bronchitis</t>
+  </si>
+  <si>
+    <t>viêm phế quản</t>
+  </si>
+  <si>
+    <t>Bronchitis is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Bronchitis là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>tuberculosis</t>
+  </si>
+  <si>
+    <t>bệnh lao</t>
+  </si>
+  <si>
+    <t>Tuberculosis is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Tuberculosis là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>anemia</t>
+  </si>
+  <si>
+    <t>thiếu máu</t>
+  </si>
+  <si>
+    <t>Anemia is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Anemia là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>dehydration</t>
+  </si>
+  <si>
+    <t>mất nước</t>
+  </si>
+  <si>
+    <t>Dehydration is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Dehydration là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>viêm</t>
+  </si>
+  <si>
+    <t>Inflammation is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Inflammation là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>arthritis</t>
+  </si>
+  <si>
+    <t>viêm khớp</t>
+  </si>
+  <si>
+    <t>Arthritis is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Arthritis là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>osteoporosis</t>
+  </si>
+  <si>
+    <t>loãng xương</t>
+  </si>
+  <si>
+    <t>Osteoporosis is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Osteoporosis là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>dementia</t>
+  </si>
+  <si>
+    <t>sa sút trí tuệ</t>
+  </si>
+  <si>
+    <t>Dementia is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Dementia là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>Alzheimer’s disease</t>
+  </si>
+  <si>
+    <t>bệnh Alzheimer</t>
+  </si>
+  <si>
+    <t>Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>Alzheimer's disease is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Alzheimer's disease là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>autoimmune disease</t>
+  </si>
+  <si>
+    <t>bệnh tự miễn</t>
+  </si>
+  <si>
+    <t>Autoimmune disease is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Autoimmune disease là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>metabolic syndrome</t>
+  </si>
+  <si>
+    <t>hội chứng chuyển hóa</t>
+  </si>
+  <si>
+    <t>Metabolic syndrome is an important concept in healthcare.</t>
+  </si>
+  <si>
+    <t>Metabolic syndrome là một khái niệm quan trọng trong chăm sóc sức khỏe.</t>
+  </si>
+  <si>
+    <t>prescription</t>
+  </si>
+  <si>
+    <t>đơn thuốc</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the prescription to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh prescription để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>over-the-counter (OTC)</t>
+  </si>
+  <si>
+    <t>thuốc không kê đơn</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the over-the-counter (OTC) to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh over-the-counter (OTC) để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>dosage</t>
+  </si>
+  <si>
+    <t>liều lượng</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the dosage to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh dosage để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>side effect</t>
+  </si>
+  <si>
+    <t>tác dụng phụ</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the side effect to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh side effect để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>adverse reaction</t>
+  </si>
+  <si>
+    <t>phản ứng bất lợi</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the adverse reaction to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh adverse reaction để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>drug interaction</t>
+  </si>
+  <si>
+    <t>tương tác thuốc</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the drug interaction to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh drug interaction để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>adherence/compliance</t>
+  </si>
+  <si>
+    <t>tuân thủ điều trị</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the adherence/compliance to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh adherence/compliance để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>relapse/recurrence</t>
+  </si>
+  <si>
+    <t>tái phát</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the relapse/recurrence to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh relapse/recurrence để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>rehabilitation</t>
+  </si>
+  <si>
+    <t>phục hồi chức năng</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the rehabilitation to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh rehabilitation để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>physiotherapy</t>
+  </si>
+  <si>
+    <t>vật lý trị liệu</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the physiotherapy to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh physiotherapy để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>counseling</t>
+  </si>
+  <si>
+    <t>tư vấn</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the counseling to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh counseling để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>psychotherapy</t>
+  </si>
+  <si>
+    <t>liệu pháp tâm lý</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the psychotherapy to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh psychotherapy để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>clinical trial</t>
+  </si>
+  <si>
+    <t>thử nghiệm lâm sàng</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the clinical trial to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh clinical trial để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>giả dược</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the placebo to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh placebo để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>evidence-based</t>
+  </si>
+  <si>
+    <t>dựa trên bằng chứng</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the evidence-based to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh evidence-based để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>guideline</t>
+  </si>
+  <si>
+    <t>hướng dẫn chuyên môn</t>
+  </si>
+  <si>
+    <t>The doctor adjusted the guideline to avoid complications.</t>
+  </si>
+  <si>
+    <t>Bác sĩ đã điều chỉnh guideline để tránh biến chứng.</t>
+  </si>
+  <si>
+    <t>primary care</t>
+  </si>
+  <si>
+    <t>chăm sóc ban đầu</t>
+  </si>
+  <si>
+    <t>Access to primary care improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận primary care giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>specialist</t>
+  </si>
+  <si>
+    <t>bác sĩ chuyên khoa</t>
+  </si>
+  <si>
+    <t>Access to specialist improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận specialist giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>referral</t>
+  </si>
+  <si>
+    <t>chuyển tuyến</t>
+  </si>
+  <si>
+    <t>Access to referral improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận referral giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>outpatient</t>
+  </si>
+  <si>
+    <t>bệnh nhân ngoại trú</t>
+  </si>
+  <si>
+    <t>Access to outpatient improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận outpatient giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>inpatient</t>
+  </si>
+  <si>
+    <t>bệnh nhân nội trú</t>
+  </si>
+  <si>
+    <t>Access to inpatient improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận inpatient giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>intensive care unit (ICU)</t>
+  </si>
+  <si>
+    <t>khoa hồi sức tích cực</t>
+  </si>
+  <si>
+    <t>Access to intensive care unit (ICU) improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận intensive care unit (ICU) giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>ventilator</t>
+  </si>
+  <si>
+    <t>máy thở</t>
+  </si>
+  <si>
+    <t>Access to ventilator improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận ventilator giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>waiting list</t>
+  </si>
+  <si>
+    <t>danh sách chờ</t>
+  </si>
+  <si>
+    <t>Access to waiting list improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận waiting list giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>access to healthcare</t>
+  </si>
+  <si>
+    <t>tiếp cận dịch vụ y tế</t>
+  </si>
+  <si>
+    <t>Access to access to healthcare improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận access to healthcare giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>health insurance</t>
+  </si>
+  <si>
+    <t>bảo hiểm y tế</t>
+  </si>
+  <si>
+    <t>Access to health insurance improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận health insurance giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>phạm vi chi trả</t>
+  </si>
+  <si>
+    <t>Access to coverage improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận coverage giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>phí bảo hiểm</t>
+  </si>
+  <si>
+    <t>Access to premium improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận premium giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>co-payment (copay)</t>
+  </si>
+  <si>
+    <t>đồng chi trả</t>
+  </si>
+  <si>
+    <t>Access to co-payment (copay) improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận co-payment (copay) giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>universal healthcare</t>
+  </si>
+  <si>
+    <t>chăm sóc y tế toàn dân</t>
+  </si>
+  <si>
+    <t>Access to universal healthcare improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận universal healthcare giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>telemedicine</t>
+  </si>
+  <si>
+    <t>khám bệnh từ xa</t>
+  </si>
+  <si>
+    <t>Access to telemedicine improves patient outcomes.</t>
+  </si>
+  <si>
+    <t>Tiếp cận telemedicine giúp cải thiện kết quả điều trị.</t>
+  </si>
+  <si>
+    <t>sedentary lifestyle</t>
+  </si>
+  <si>
+    <t>lối sống ít vận động</t>
+  </si>
+  <si>
+    <t>Changing your sedentary lifestyle can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi sedentary lifestyle có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>balanced diet</t>
+  </si>
+  <si>
+    <t>chế độ ăn cân bằng</t>
+  </si>
+  <si>
+    <t>Changing your balanced diet can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi balanced diet có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>calorie</t>
+  </si>
+  <si>
+    <t>calo</t>
+  </si>
+  <si>
+    <t>Changing your calorie can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi calorie có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>processed food</t>
+  </si>
+  <si>
+    <t>thực phẩm chế biến sẵn</t>
+  </si>
+  <si>
+    <t>Changing your processed food can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi processed food có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>sugar intake</t>
+  </si>
+  <si>
+    <t>lượng đường nạp vào</t>
+  </si>
+  <si>
+    <t>Changing your sugar intake can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi sugar intake có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>hydration</t>
+  </si>
+  <si>
+    <t>bổ sung nước</t>
+  </si>
+  <si>
+    <t>Changing your hydration can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi hydration có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>BMI (body mass index)</t>
+  </si>
+  <si>
+    <t>chỉ số khối cơ thể</t>
+  </si>
+  <si>
+    <t>Changing your BMI (body mass index) can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi BMI (body mass index) có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>smoking cessation</t>
+  </si>
+  <si>
+    <t>cai thuốc lá</t>
+  </si>
+  <si>
+    <t>Changing your smoking cessation can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi smoking cessation có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>substance abuse</t>
+  </si>
+  <si>
+    <t>lạm dụng chất kích thích</t>
+  </si>
+  <si>
+    <t>Changing your substance abuse can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi substance abuse có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>addiction</t>
+  </si>
+  <si>
+    <t>nghiện</t>
+  </si>
+  <si>
+    <t>Changing your addiction can benefit your health.</t>
+  </si>
+  <si>
+    <t>Thay đổi addiction có thể có lợi cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>antibody</t>
+  </si>
+  <si>
+    <t>kháng thể</t>
+  </si>
+  <si>
+    <t>The body produces antibody to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra antibody để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>antigen</t>
+  </si>
+  <si>
+    <t>kháng nguyên</t>
+  </si>
+  <si>
+    <t>The body produces antigen to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra antigen để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>pathogen</t>
+  </si>
+  <si>
+    <t>mầm bệnh</t>
+  </si>
+  <si>
+    <t>The body produces pathogen to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra pathogen để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>vi khuẩn</t>
+  </si>
+  <si>
+    <t>The body produces bacteria to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra bacteria để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>vi rút</t>
+  </si>
+  <si>
+    <t>The body produces virus to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra virus để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>fungus</t>
+  </si>
+  <si>
+    <t>nấm</t>
+  </si>
+  <si>
+    <t>The body produces fungus to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra fungus để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>parasite</t>
+  </si>
+  <si>
+    <t>ký sinh trùng</t>
+  </si>
+  <si>
+    <t>The body produces parasite to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra parasite để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>antibiotic resistance</t>
+  </si>
+  <si>
+    <t>kháng kháng sinh</t>
+  </si>
+  <si>
+    <t>The body produces antibiotic resistance to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra antibiotic resistance để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>superbug</t>
+  </si>
+  <si>
+    <t>siêu vi khuẩn kháng thuốc</t>
+  </si>
+  <si>
+    <t>The body produces superbug to fight infections.</t>
+  </si>
+  <si>
+    <t>Cơ thể tạo ra superbug để chống lại nhiễm trùng.</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>trầm cảm</t>
+  </si>
+  <si>
+    <t>Seeking help for depression can improve well-being.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hỗ trợ cho depression có thể cải thiện sức khỏe tinh thần.</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>lo âu</t>
+  </si>
+  <si>
+    <t>Seeking help for anxiety can improve well-being.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hỗ trợ cho anxiety có thể cải thiện sức khỏe tinh thần.</t>
+  </si>
+  <si>
+    <t>insomnia</t>
+  </si>
+  <si>
+    <t>mất ngủ</t>
+  </si>
+  <si>
+    <t>Seeking help for insomnia can improve well-being.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hỗ trợ cho insomnia có thể cải thiện sức khỏe tinh thần.</t>
+  </si>
+  <si>
+    <t>burnout</t>
+  </si>
+  <si>
+    <t>kiệt sức</t>
+  </si>
+  <si>
+    <t>Seeking help for burnout can improve well-being.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hỗ trợ cho burnout có thể cải thiện sức khỏe tinh thần.</t>
+  </si>
+  <si>
+    <t>mindfulness</t>
+  </si>
+  <si>
+    <t>chánh niệm</t>
+  </si>
+  <si>
+    <t>Seeking help for mindfulness can improve well-being.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hỗ trợ cho mindfulness có thể cải thiện sức khỏe tinh thần.</t>
+  </si>
+  <si>
+    <t>stigma</t>
+  </si>
+  <si>
+    <t>kỳ thị</t>
+  </si>
+  <si>
+    <t>Seeking help for stigma can improve well-being.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hỗ trợ cho stigma có thể cải thiện sức khỏe tinh thần.</t>
+  </si>
+  <si>
+    <t>well-being</t>
+  </si>
+  <si>
+    <t>hạnh phúc/sức khỏe tinh thần</t>
+  </si>
+  <si>
+    <t>Seeking help for well-being can improve well-being.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hỗ trợ cho well-being có thể cải thiện sức khỏe tinh thần.</t>
+  </si>
+  <si>
+    <t>prenatal care</t>
+  </si>
+  <si>
+    <t>chăm sóc trước sinh</t>
+  </si>
+  <si>
+    <t>Prenatal care helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Prenatal care giúp ngăn ngừa sự lây lan của bệnh.</t>
+  </si>
+  <si>
+    <t>postpartum depression</t>
+  </si>
+  <si>
+    <t>trầm cảm sau sinh</t>
+  </si>
+  <si>
+    <t>Seeking help for postpartum depression can improve well-being.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm hỗ trợ cho postpartum depression có thể cải thiện sức khỏe tinh thần.</t>
+  </si>
+  <si>
+    <t>vaccination schedule</t>
+  </si>
+  <si>
+    <t>lịch tiêm chủng</t>
+  </si>
+  <si>
+    <t>Vaccination schedule helps prevent the spread of disease.</t>
+  </si>
+  <si>
+    <t>Vaccination schedule giúp ngăn ngừa sự lây lan của bệnh.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -13381,14 +14663,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{83FF5911-7545-424C-8748-0D6F6CBEC469}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -13404,8 +14689,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43C52924-061D-4F3C-8489-2B99E20E1BEB}" name="Table1" displayName="Table1" ref="A1:P676" totalsRowShown="0">
-  <autoFilter ref="A1:P676" xr:uid="{43C52924-061D-4F3C-8489-2B99E20E1BEB}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43C52924-061D-4F3C-8489-2B99E20E1BEB}" name="Table1" displayName="Table1" ref="A1:P782" totalsRowShown="0">
+  <autoFilter ref="A1:P782" xr:uid="{43C52924-061D-4F3C-8489-2B99E20E1BEB}">
     <filterColumn colId="9">
       <filters>
         <filter val="known"/>
@@ -13756,10 +15041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P676"/>
+  <dimension ref="A1:P782"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A778" workbookViewId="0">
+      <selection activeCell="A730" sqref="A730:F782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43225,6 +44510,2126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="677" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>4443</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>4445</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="678" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="679" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>4452</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>4453</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="680" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="681" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>4459</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>4461</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>4463</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>4465</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>4467</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>4469</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>4471</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>4473</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="685" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>4476</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>4477</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>4479</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>4481</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="687" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>4483</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>4485</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="688" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>4489</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A689" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>4491</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>4493</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A690" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>4495</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>4497</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A691" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A692" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>4504</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>4508</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>4507</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>4509</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A694" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A695" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>4517</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A696" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>4520</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>4519</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>4521</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A697" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>4524</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>4525</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>4528</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>4527</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>4532</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>4533</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>4535</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A701" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>4540</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A702" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>4544</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>4543</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>4545</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A703" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>4548</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>4547</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A704" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>4552</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>4551</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>4556</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>4555</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>4557</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A706" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>4559</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>4561</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A707" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>4564</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>4563</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>4565</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A708" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>4568</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>4569</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A709" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>4572</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>4571</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>4573</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>4576</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>4575</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>4577</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>4579</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>4581</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>4585</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>4588</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>4587</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>4589</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>4592</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>4591</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>4596</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>4603</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>4605</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>4607</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>4609</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>4611</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>4613</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>4615</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>4616</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>4617</v>
+      </c>
+      <c r="E720" s="1" t="s">
+        <v>4618</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>4621</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>4620</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>4622</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A722" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="C722" s="1" t="s">
+        <v>4625</v>
+      </c>
+      <c r="D722" s="1" t="s">
+        <v>4624</v>
+      </c>
+      <c r="E722" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A723" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="C723" s="1" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D723" s="1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="E723" s="1" t="s">
+        <v>4630</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>4631</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A724" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C724" s="1" t="s">
+        <v>4633</v>
+      </c>
+      <c r="D724" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="E724" s="1" t="s">
+        <v>4634</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A725" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="C725" s="1" t="s">
+        <v>4637</v>
+      </c>
+      <c r="D725" s="1" t="s">
+        <v>4636</v>
+      </c>
+      <c r="E725" s="1" t="s">
+        <v>4638</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A726" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>4645</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A728" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>4648</v>
+      </c>
+      <c r="C728" s="1" t="s">
+        <v>4649</v>
+      </c>
+      <c r="D728" s="1" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E728" s="1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A729" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="D729" s="1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E729" s="1" t="s">
+        <v>4654</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B730" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C730" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D730" t="s">
+        <v>4656</v>
+      </c>
+      <c r="E730" t="s">
+        <v>4658</v>
+      </c>
+      <c r="F730" t="s">
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B731" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C731" t="s">
+        <v>4661</v>
+      </c>
+      <c r="D731" t="s">
+        <v>4660</v>
+      </c>
+      <c r="E731" t="s">
+        <v>4662</v>
+      </c>
+      <c r="F731" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B732" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C732" t="s">
+        <v>4665</v>
+      </c>
+      <c r="D732" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E732" t="s">
+        <v>4666</v>
+      </c>
+      <c r="F732" t="s">
+        <v>4667</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B733" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C733" t="s">
+        <v>4669</v>
+      </c>
+      <c r="D733" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E733" t="s">
+        <v>4670</v>
+      </c>
+      <c r="F733" t="s">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B734" t="s">
+        <v>4672</v>
+      </c>
+      <c r="C734" t="s">
+        <v>4673</v>
+      </c>
+      <c r="D734" t="s">
+        <v>4672</v>
+      </c>
+      <c r="E734" t="s">
+        <v>4674</v>
+      </c>
+      <c r="F734" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B735" t="s">
+        <v>4676</v>
+      </c>
+      <c r="C735" t="s">
+        <v>4677</v>
+      </c>
+      <c r="D735" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E735" t="s">
+        <v>4678</v>
+      </c>
+      <c r="F735" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B736" t="s">
+        <v>4680</v>
+      </c>
+      <c r="C736" t="s">
+        <v>4681</v>
+      </c>
+      <c r="D736" t="s">
+        <v>4680</v>
+      </c>
+      <c r="E736" t="s">
+        <v>4682</v>
+      </c>
+      <c r="F736" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B737" t="s">
+        <v>4684</v>
+      </c>
+      <c r="C737" t="s">
+        <v>4685</v>
+      </c>
+      <c r="D737" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E737" t="s">
+        <v>4686</v>
+      </c>
+      <c r="F737" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B738" t="s">
+        <v>4688</v>
+      </c>
+      <c r="C738" t="s">
+        <v>4689</v>
+      </c>
+      <c r="D738" t="s">
+        <v>4688</v>
+      </c>
+      <c r="E738" t="s">
+        <v>4690</v>
+      </c>
+      <c r="F738" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B739" t="s">
+        <v>4692</v>
+      </c>
+      <c r="C739" t="s">
+        <v>4693</v>
+      </c>
+      <c r="D739" t="s">
+        <v>4692</v>
+      </c>
+      <c r="E739" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F739" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B740" t="s">
+        <v>4696</v>
+      </c>
+      <c r="C740" t="s">
+        <v>4697</v>
+      </c>
+      <c r="D740" t="s">
+        <v>4696</v>
+      </c>
+      <c r="E740" t="s">
+        <v>4698</v>
+      </c>
+      <c r="F740" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B741" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C741" t="s">
+        <v>4701</v>
+      </c>
+      <c r="D741" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E741" t="s">
+        <v>4702</v>
+      </c>
+      <c r="F741" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B742" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C742" t="s">
+        <v>4705</v>
+      </c>
+      <c r="D742" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E742" t="s">
+        <v>4706</v>
+      </c>
+      <c r="F742" t="s">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B743" t="s">
+        <v>4708</v>
+      </c>
+      <c r="C743" t="s">
+        <v>4709</v>
+      </c>
+      <c r="D743" t="s">
+        <v>4708</v>
+      </c>
+      <c r="E743" t="s">
+        <v>4710</v>
+      </c>
+      <c r="F743" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B744" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C744" t="s">
+        <v>4713</v>
+      </c>
+      <c r="D744" t="s">
+        <v>4712</v>
+      </c>
+      <c r="E744" t="s">
+        <v>4714</v>
+      </c>
+      <c r="F744" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B745" t="s">
+        <v>4716</v>
+      </c>
+      <c r="C745" t="s">
+        <v>4717</v>
+      </c>
+      <c r="D745" t="s">
+        <v>4716</v>
+      </c>
+      <c r="E745" t="s">
+        <v>4718</v>
+      </c>
+      <c r="F745" t="s">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B746" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C746" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D746" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E746" t="s">
+        <v>4722</v>
+      </c>
+      <c r="F746" t="s">
+        <v>4723</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B747" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C747" t="s">
+        <v>4725</v>
+      </c>
+      <c r="D747" t="s">
+        <v>4724</v>
+      </c>
+      <c r="E747" t="s">
+        <v>4726</v>
+      </c>
+      <c r="F747" t="s">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B748" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C748" t="s">
+        <v>4729</v>
+      </c>
+      <c r="D748" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E748" t="s">
+        <v>4730</v>
+      </c>
+      <c r="F748" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B749" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C749" t="s">
+        <v>4733</v>
+      </c>
+      <c r="D749" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E749" t="s">
+        <v>4734</v>
+      </c>
+      <c r="F749" t="s">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B750" t="s">
+        <v>4736</v>
+      </c>
+      <c r="C750" t="s">
+        <v>4737</v>
+      </c>
+      <c r="D750" t="s">
+        <v>4736</v>
+      </c>
+      <c r="E750" t="s">
+        <v>4738</v>
+      </c>
+      <c r="F750" t="s">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B751" t="s">
+        <v>4740</v>
+      </c>
+      <c r="C751" t="s">
+        <v>4741</v>
+      </c>
+      <c r="D751" t="s">
+        <v>4740</v>
+      </c>
+      <c r="E751" t="s">
+        <v>4742</v>
+      </c>
+      <c r="F751" t="s">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B752" t="s">
+        <v>4744</v>
+      </c>
+      <c r="C752" t="s">
+        <v>4745</v>
+      </c>
+      <c r="D752" t="s">
+        <v>4744</v>
+      </c>
+      <c r="E752" t="s">
+        <v>4746</v>
+      </c>
+      <c r="F752" t="s">
+        <v>4747</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B753" t="s">
+        <v>4748</v>
+      </c>
+      <c r="C753" t="s">
+        <v>4749</v>
+      </c>
+      <c r="D753" t="s">
+        <v>4748</v>
+      </c>
+      <c r="E753" t="s">
+        <v>4750</v>
+      </c>
+      <c r="F753" t="s">
+        <v>4751</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B754" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C754" t="s">
+        <v>4753</v>
+      </c>
+      <c r="D754" t="s">
+        <v>4752</v>
+      </c>
+      <c r="E754" t="s">
+        <v>4754</v>
+      </c>
+      <c r="F754" t="s">
+        <v>4755</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B755" t="s">
+        <v>4756</v>
+      </c>
+      <c r="C755" t="s">
+        <v>4757</v>
+      </c>
+      <c r="D755" t="s">
+        <v>4756</v>
+      </c>
+      <c r="E755" t="s">
+        <v>4758</v>
+      </c>
+      <c r="F755" t="s">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B756" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C756" t="s">
+        <v>4761</v>
+      </c>
+      <c r="D756" t="s">
+        <v>4760</v>
+      </c>
+      <c r="E756" t="s">
+        <v>4762</v>
+      </c>
+      <c r="F756" t="s">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B757" t="s">
+        <v>4764</v>
+      </c>
+      <c r="C757" t="s">
+        <v>4765</v>
+      </c>
+      <c r="D757" t="s">
+        <v>4764</v>
+      </c>
+      <c r="E757" t="s">
+        <v>4766</v>
+      </c>
+      <c r="F757" t="s">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B758" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C758" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D758" t="s">
+        <v>4768</v>
+      </c>
+      <c r="E758" t="s">
+        <v>4770</v>
+      </c>
+      <c r="F758" t="s">
+        <v>4771</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B759" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C759" t="s">
+        <v>4773</v>
+      </c>
+      <c r="D759" t="s">
+        <v>4772</v>
+      </c>
+      <c r="E759" t="s">
+        <v>4774</v>
+      </c>
+      <c r="F759" t="s">
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B760" t="s">
+        <v>4776</v>
+      </c>
+      <c r="C760" t="s">
+        <v>4777</v>
+      </c>
+      <c r="D760" t="s">
+        <v>4776</v>
+      </c>
+      <c r="E760" t="s">
+        <v>4778</v>
+      </c>
+      <c r="F760" t="s">
+        <v>4779</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B761" t="s">
+        <v>4780</v>
+      </c>
+      <c r="C761" t="s">
+        <v>4781</v>
+      </c>
+      <c r="D761" t="s">
+        <v>4780</v>
+      </c>
+      <c r="E761" t="s">
+        <v>4782</v>
+      </c>
+      <c r="F761" t="s">
+        <v>4783</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B762" t="s">
+        <v>4784</v>
+      </c>
+      <c r="C762" t="s">
+        <v>4785</v>
+      </c>
+      <c r="D762" t="s">
+        <v>4784</v>
+      </c>
+      <c r="E762" t="s">
+        <v>4786</v>
+      </c>
+      <c r="F762" t="s">
+        <v>4787</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B763" t="s">
+        <v>4788</v>
+      </c>
+      <c r="C763" t="s">
+        <v>4789</v>
+      </c>
+      <c r="D763" t="s">
+        <v>4788</v>
+      </c>
+      <c r="E763" t="s">
+        <v>4790</v>
+      </c>
+      <c r="F763" t="s">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B764" t="s">
+        <v>4792</v>
+      </c>
+      <c r="C764" t="s">
+        <v>4793</v>
+      </c>
+      <c r="D764" t="s">
+        <v>4792</v>
+      </c>
+      <c r="E764" t="s">
+        <v>4794</v>
+      </c>
+      <c r="F764" t="s">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B765" t="s">
+        <v>4796</v>
+      </c>
+      <c r="C765" t="s">
+        <v>4797</v>
+      </c>
+      <c r="D765" t="s">
+        <v>4796</v>
+      </c>
+      <c r="E765" t="s">
+        <v>4798</v>
+      </c>
+      <c r="F765" t="s">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B766" t="s">
+        <v>4800</v>
+      </c>
+      <c r="C766" t="s">
+        <v>4801</v>
+      </c>
+      <c r="D766" t="s">
+        <v>4800</v>
+      </c>
+      <c r="E766" t="s">
+        <v>4802</v>
+      </c>
+      <c r="F766" t="s">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B767" t="s">
+        <v>4804</v>
+      </c>
+      <c r="C767" t="s">
+        <v>4805</v>
+      </c>
+      <c r="D767" t="s">
+        <v>4804</v>
+      </c>
+      <c r="E767" t="s">
+        <v>4806</v>
+      </c>
+      <c r="F767" t="s">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B768" t="s">
+        <v>4808</v>
+      </c>
+      <c r="C768" t="s">
+        <v>4809</v>
+      </c>
+      <c r="D768" t="s">
+        <v>4808</v>
+      </c>
+      <c r="E768" t="s">
+        <v>4810</v>
+      </c>
+      <c r="F768" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B769" t="s">
+        <v>4812</v>
+      </c>
+      <c r="C769" t="s">
+        <v>4813</v>
+      </c>
+      <c r="D769" t="s">
+        <v>4812</v>
+      </c>
+      <c r="E769" t="s">
+        <v>4814</v>
+      </c>
+      <c r="F769" t="s">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B770" t="s">
+        <v>4816</v>
+      </c>
+      <c r="C770" t="s">
+        <v>4817</v>
+      </c>
+      <c r="D770" t="s">
+        <v>4816</v>
+      </c>
+      <c r="E770" t="s">
+        <v>4818</v>
+      </c>
+      <c r="F770" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B771" t="s">
+        <v>4820</v>
+      </c>
+      <c r="C771" t="s">
+        <v>4821</v>
+      </c>
+      <c r="D771" t="s">
+        <v>4820</v>
+      </c>
+      <c r="E771" t="s">
+        <v>4822</v>
+      </c>
+      <c r="F771" t="s">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B772" t="s">
+        <v>4824</v>
+      </c>
+      <c r="C772" t="s">
+        <v>4825</v>
+      </c>
+      <c r="D772" t="s">
+        <v>4824</v>
+      </c>
+      <c r="E772" t="s">
+        <v>4826</v>
+      </c>
+      <c r="F772" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B773" t="s">
+        <v>4828</v>
+      </c>
+      <c r="C773" t="s">
+        <v>4829</v>
+      </c>
+      <c r="D773" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E773" t="s">
+        <v>4830</v>
+      </c>
+      <c r="F773" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B774" t="s">
+        <v>4832</v>
+      </c>
+      <c r="C774" t="s">
+        <v>4833</v>
+      </c>
+      <c r="D774" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E774" t="s">
+        <v>4834</v>
+      </c>
+      <c r="F774" t="s">
+        <v>4835</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B775" t="s">
+        <v>4836</v>
+      </c>
+      <c r="C775" t="s">
+        <v>4837</v>
+      </c>
+      <c r="D775" t="s">
+        <v>4836</v>
+      </c>
+      <c r="E775" t="s">
+        <v>4838</v>
+      </c>
+      <c r="F775" t="s">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B776" t="s">
+        <v>4840</v>
+      </c>
+      <c r="C776" t="s">
+        <v>4841</v>
+      </c>
+      <c r="D776" t="s">
+        <v>4840</v>
+      </c>
+      <c r="E776" t="s">
+        <v>4842</v>
+      </c>
+      <c r="F776" t="s">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B777" t="s">
+        <v>4844</v>
+      </c>
+      <c r="C777" t="s">
+        <v>4845</v>
+      </c>
+      <c r="D777" t="s">
+        <v>4844</v>
+      </c>
+      <c r="E777" t="s">
+        <v>4846</v>
+      </c>
+      <c r="F777" t="s">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B778" t="s">
+        <v>4848</v>
+      </c>
+      <c r="C778" t="s">
+        <v>4849</v>
+      </c>
+      <c r="D778" t="s">
+        <v>4848</v>
+      </c>
+      <c r="E778" t="s">
+        <v>4850</v>
+      </c>
+      <c r="F778" t="s">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B779" t="s">
+        <v>4852</v>
+      </c>
+      <c r="C779" t="s">
+        <v>4853</v>
+      </c>
+      <c r="D779" t="s">
+        <v>4852</v>
+      </c>
+      <c r="E779" t="s">
+        <v>4854</v>
+      </c>
+      <c r="F779" t="s">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B780" t="s">
+        <v>4856</v>
+      </c>
+      <c r="C780" t="s">
+        <v>4857</v>
+      </c>
+      <c r="D780" t="s">
+        <v>4856</v>
+      </c>
+      <c r="E780" t="s">
+        <v>4858</v>
+      </c>
+      <c r="F780" t="s">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B781" t="s">
+        <v>4860</v>
+      </c>
+      <c r="C781" t="s">
+        <v>4861</v>
+      </c>
+      <c r="D781" t="s">
+        <v>4860</v>
+      </c>
+      <c r="E781" t="s">
+        <v>4862</v>
+      </c>
+      <c r="F781" t="s">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B782" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C782" t="s">
+        <v>4865</v>
+      </c>
+      <c r="D782" t="s">
+        <v>4864</v>
+      </c>
+      <c r="E782" t="s">
+        <v>4866</v>
+      </c>
+      <c r="F782" t="s">
+        <v>4867</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
